--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\TraderesCode\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB34F699-4473-4241-9AA5-396663D04128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA813F88-DA01-428E-98D1-888B88B244E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
+    <sheet name="backup" sheetId="1" r:id="rId2"/>
+    <sheet name="powerplants" sheetId="3" r:id="rId3"/>
+    <sheet name="dummy" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId5"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="26">
   <si>
     <t>Technology</t>
   </si>
@@ -84,12 +90,30 @@
   <si>
     <t>DischargingEfficiency</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Capacity</t>
+  </si>
+  <si>
+    <t>Average of Efficiency</t>
+  </si>
+  <si>
+    <t>Average of Age</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +126,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,11 +169,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -159,6 +196,2879 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ingrid Sanchez Jimenez" refreshedDate="44760.742488310185" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="271" xr:uid="{20EFE1D4-84EA-4D50-B43F-EAAC5E455D08}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B1:I272" sheet="backup"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Technology" numFmtId="0">
+      <sharedItems count="11">
+        <s v="Biomass_CHP_wood_pellets_DH"/>
+        <s v="Coal PSC"/>
+        <s v="CCGT"/>
+        <s v="OCGT"/>
+        <s v="Hydropower_reservoir_medium"/>
+        <s v="Nuclear"/>
+        <s v="WTG_onshore"/>
+        <s v="WTG_offshore"/>
+        <s v="PV_utility_systems"/>
+        <s v="Lignite PSC"/>
+        <s v="Fuel oil PGT"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Age" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="121"/>
+    </cacheField>
+    <cacheField name="Capacity" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="50" maxValue="9295.3445625134536"/>
+    </cacheField>
+    <cacheField name="Efficiency" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.20080000000000001" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Location" numFmtId="0">
+      <sharedItems count="1">
+        <s v="DE"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Owner" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="DischargingEfficiency" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="Id" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="271">
+  <r>
+    <x v="0"/>
+    <n v="6"/>
+    <n v="1125.5999999999999"/>
+    <n v="0.36877168843283581"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="7"/>
+    <n v="731"/>
+    <n v="0.37068749999999989"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="8"/>
+    <n v="89.8"/>
+    <n v="0.35855651447661469"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="10"/>
+    <n v="89.05"/>
+    <n v="0.33362324536777088"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="127.8"/>
+    <n v="0.36082942097026599"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="13"/>
+    <n v="217.8"/>
+    <n v="0.33882547061524337"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="14"/>
+    <n v="91.5"/>
+    <n v="0.35445696721311482"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="15"/>
+    <n v="66.78"/>
+    <n v="0.34132824198861927"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="16"/>
+    <n v="166.92"/>
+    <n v="0.34912515651210169"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="17"/>
+    <n v="206.65"/>
+    <n v="0.35464952818775719"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="18"/>
+    <n v="256"/>
+    <n v="0.37644531250000002"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="19"/>
+    <n v="169.39340000000001"/>
+    <n v="0.38000000000000012"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="20"/>
+    <n v="81.2"/>
+    <n v="0.37150246305418722"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="22"/>
+    <n v="90.800000000000011"/>
+    <n v="0.34786550110132147"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="23"/>
+    <n v="95.8"/>
+    <n v="0.33511482254697278"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="24"/>
+    <n v="93.1"/>
+    <n v="0.33000000000000013"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="25"/>
+    <n v="117.9"/>
+    <n v="0.3366157760814249"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="31"/>
+    <n v="171"/>
+    <n v="0.34483333333333333"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="38"/>
+    <n v="123.5"/>
+    <n v="0.33"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="40"/>
+    <n v="252.61"/>
+    <n v="0.34981141878785482"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="49"/>
+    <n v="280.2"/>
+    <n v="0.35103408279800152"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="7"/>
+    <n v="4734"/>
+    <n v="0.44474651457541198"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="8"/>
+    <n v="1597.7"/>
+    <n v="0.46"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="9"/>
+    <n v="1909"/>
+    <n v="0.45750000000000002"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="10"/>
+    <n v="433"/>
+    <n v="0.45500000000000002"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="11"/>
+    <n v="716"/>
+    <n v="0.45250000000000001"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="250"/>
+    <n v="0.45"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="1572"/>
+    <n v="0.44750000000000001"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="350"/>
+    <n v="0.4425"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="16"/>
+    <n v="336"/>
+    <n v="0.44"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="822"/>
+    <n v="0.4375"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="19"/>
+    <n v="690"/>
+    <n v="0.4325"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="123"/>
+    <n v="0.42499999999999999"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="28"/>
+    <n v="1127.4000000000001"/>
+    <n v="0.409327656554905"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="29"/>
+    <n v="889"/>
+    <n v="0.40749999999999992"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="30"/>
+    <n v="561.70000000000005"/>
+    <n v="0.41046377069610113"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="31"/>
+    <n v="332.7"/>
+    <n v="0.40250000000000002"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="32"/>
+    <n v="169.9"/>
+    <n v="0.4"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="33"/>
+    <n v="762.5"/>
+    <n v="0.40152491803278689"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="34"/>
+    <n v="713.5"/>
+    <n v="0.39500000000000007"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="35"/>
+    <n v="1157"/>
+    <n v="0.39250000000000002"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="37"/>
+    <n v="380"/>
+    <n v="0.39488157894736842"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="38"/>
+    <n v="88.3"/>
+    <n v="0.42570101925254811"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="39"/>
+    <n v="794.4"/>
+    <n v="0.38947432024169182"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="40"/>
+    <n v="666.4"/>
+    <n v="0.37999999999999989"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="41"/>
+    <n v="717"/>
+    <n v="0.3775"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="43"/>
+    <n v="303"/>
+    <n v="0.3725"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="46"/>
+    <n v="1412.6"/>
+    <n v="0.36499999999999999"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="51"/>
+    <n v="190.35"/>
+    <n v="0.36881176779616498"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="53"/>
+    <n v="345"/>
+    <n v="0.34749999999999998"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="54"/>
+    <n v="385"/>
+    <n v="0.34422077922077909"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="60"/>
+    <n v="129"/>
+    <n v="0.32748062015503882"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="82"/>
+    <n v="188.32"/>
+    <n v="0.26621654630416308"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="140.5"/>
+    <n v="0.63"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="6"/>
+    <n v="1117.5"/>
+    <n v="0.61199999999999999"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="7"/>
+    <n v="296.3"/>
+    <n v="0.60690313871076618"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="9"/>
+    <n v="2110.5"/>
+    <n v="0.56764319653162765"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="10"/>
+    <n v="3470"/>
+    <n v="0.54916417900000014"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="11"/>
+    <n v="639"/>
+    <n v="0.58950000000000002"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="12"/>
+    <n v="4269.5"/>
+    <n v="0.56672746637381433"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="13"/>
+    <n v="196"/>
+    <n v="0.58050000000000002"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="14"/>
+    <n v="1569"/>
+    <n v="0.57020182070172087"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="15"/>
+    <n v="1517"/>
+    <n v="0.56708289630850361"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="17"/>
+    <n v="1207.759"/>
+    <n v="0.5625"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="18"/>
+    <n v="1375.4"/>
+    <n v="0.55227605314017736"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="19"/>
+    <n v="245.46"/>
+    <n v="0.55181554762486762"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="21"/>
+    <n v="135.80000000000001"/>
+    <n v="0.54449999999999998"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="22"/>
+    <n v="1239.2"/>
+    <n v="0.54"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="23"/>
+    <n v="778.6"/>
+    <n v="0.54585430979964034"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="24"/>
+    <n v="799.6"/>
+    <n v="0.53938241877313664"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="25"/>
+    <n v="1597"/>
+    <n v="0.54159999151909832"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="26"/>
+    <n v="1784"/>
+    <n v="0.53798788562219735"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="27"/>
+    <n v="834"/>
+    <n v="0.53701485372422053"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="28"/>
+    <n v="519"/>
+    <n v="0.52205846487475915"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="29"/>
+    <n v="84.51"/>
+    <n v="0.5367635278665247"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="32"/>
+    <n v="225"/>
+    <n v="0.54916417900000003"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="35"/>
+    <n v="169"/>
+    <n v="0.54916417900000003"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="37"/>
+    <n v="103"/>
+    <n v="0.54916417900000003"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="39"/>
+    <n v="50"/>
+    <n v="0.54916417900000003"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="41"/>
+    <n v="125"/>
+    <n v="0.45450000000000002"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="42"/>
+    <n v="316.7"/>
+    <n v="0.45000000000000012"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="44"/>
+    <n v="695"/>
+    <n v="0.54916417900000003"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="46"/>
+    <n v="1107"/>
+    <n v="0.46713866976332441"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="47"/>
+    <n v="332"/>
+    <n v="0.54916417900000003"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="48"/>
+    <n v="475"/>
+    <n v="0.42299999999999999"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="49"/>
+    <n v="1698"/>
+    <n v="0.41839399293286222"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="121"/>
+    <n v="137"/>
+    <n v="0.44137901724817508"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="535.20000000000005"/>
+    <n v="0.40589999999999993"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="167.45099999999999"/>
+    <n v="0.40479999999999988"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="5"/>
+    <n v="220.2"/>
+    <n v="0.4037"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="6"/>
+    <n v="574.30999999999995"/>
+    <n v="0.40260000000000012"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="141.6"/>
+    <n v="0.40260338983050842"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="9"/>
+    <n v="454.24"/>
+    <n v="0.40355321415991552"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="10"/>
+    <n v="275.77999999999997"/>
+    <n v="0.40463723257669171"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="15"/>
+    <n v="158"/>
+    <n v="0.39478481012658229"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="16"/>
+    <n v="746.01499999999999"/>
+    <n v="0.39546587401057631"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="17"/>
+    <n v="163.9"/>
+    <n v="0.39117876754118369"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="18"/>
+    <n v="126.7"/>
+    <n v="0.38964230465666932"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="19"/>
+    <n v="110.55"/>
+    <n v="0.38829999999999998"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="20"/>
+    <n v="124.5"/>
+    <n v="0.38719999999999988"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="21"/>
+    <n v="115.8"/>
+    <n v="0.38573238341968907"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="23"/>
+    <n v="72.599999999999994"/>
+    <n v="0.39393856749311301"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="24"/>
+    <n v="53.099999999999987"/>
+    <n v="0.38279999999999997"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="25"/>
+    <n v="183.72"/>
+    <n v="0.37728373289788808"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="26"/>
+    <n v="352.5"/>
+    <n v="0.37810042553191492"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="27"/>
+    <n v="65.599999999999994"/>
+    <n v="0.37852820121951231"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="28"/>
+    <n v="261.10000000000002"/>
+    <n v="0.37812654155495989"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="29"/>
+    <n v="163"/>
+    <n v="0.37650122699386512"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="30"/>
+    <n v="97.079000000000008"/>
+    <n v="0.36577992974793722"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="33"/>
+    <n v="120.4"/>
+    <n v="0.36632416943521601"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="34"/>
+    <n v="60.491"/>
+    <n v="0.37180000000000007"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="35"/>
+    <n v="521"/>
+    <n v="0.36593798608445299"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="38"/>
+    <n v="156.5"/>
+    <n v="0.34654057507987218"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="43"/>
+    <n v="100.78"/>
+    <n v="0.36255598333002581"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="45"/>
+    <n v="619.4"/>
+    <n v="0.35966377139166938"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="47"/>
+    <n v="639.70000000000005"/>
+    <n v="0.35664127669219953"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="48"/>
+    <n v="77.7"/>
+    <n v="0.31862908622908631"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="49"/>
+    <n v="183"/>
+    <n v="0.32711420765027333"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="51"/>
+    <n v="173.28649999999999"/>
+    <n v="0.33726830520554107"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="61"/>
+    <n v="149"/>
+    <n v="0.33307986577181209"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="68"/>
+    <n v="94.6"/>
+    <n v="0.33404418604651159"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="74"/>
+    <n v="135.5"/>
+    <n v="0.32421992619926199"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="105.3"/>
+    <n v="0.79963675213675234"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="13"/>
+    <n v="691.6"/>
+    <n v="0.75450766338924236"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="18"/>
+    <n v="1052"/>
+    <n v="0.75"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="19"/>
+    <n v="138"/>
+    <n v="0.75"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="30"/>
+    <n v="117.4"/>
+    <n v="0.79999999999999993"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="33"/>
+    <n v="189.8"/>
+    <n v="0.75516728134878819"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="38"/>
+    <n v="91.800000000000011"/>
+    <n v="0.79999999999999982"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="39"/>
+    <n v="60.3"/>
+    <n v="0.76019900497512449"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="40"/>
+    <n v="70"/>
+    <n v="0.80000000000000016"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="43"/>
+    <n v="1057.4000000000001"/>
+    <n v="0.75057688670323441"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="44"/>
+    <n v="179.4"/>
+    <n v="0.8"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="47"/>
+    <n v="926.7"/>
+    <n v="0.75090104672493796"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="48"/>
+    <n v="164"/>
+    <n v="0.75"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="52"/>
+    <n v="121.1"/>
+    <n v="0.79999999999999993"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="55"/>
+    <n v="108.9"/>
+    <n v="0.76340679522497701"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="56"/>
+    <n v="441.7"/>
+    <n v="0.75924835861444406"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="57"/>
+    <n v="465.7"/>
+    <n v="0.772321236847756"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="58"/>
+    <n v="340"/>
+    <n v="0.75441176470588234"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="60"/>
+    <n v="62.8"/>
+    <n v="0.8"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="62"/>
+    <n v="95.7"/>
+    <n v="0.77701149425287364"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="63"/>
+    <n v="70.3"/>
+    <n v="0.75746799431009948"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="64"/>
+    <n v="390.7"/>
+    <n v="0.75484386997696451"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="67"/>
+    <n v="339.2"/>
+    <n v="0.78540683962264157"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="68"/>
+    <n v="57.4"/>
+    <n v="0.95853658536585373"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="69"/>
+    <n v="111.5"/>
+    <n v="0.8"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="71"/>
+    <n v="244.1"/>
+    <n v="0.76927488734125371"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="74"/>
+    <n v="100"/>
+    <n v="0.75"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="78"/>
+    <n v="84"/>
+    <n v="0.8"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="79"/>
+    <n v="220"/>
+    <n v="0.75"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="80"/>
+    <n v="91.5"/>
+    <n v="0.8"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="84"/>
+    <n v="88.1"/>
+    <n v="0.8"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="90"/>
+    <n v="104.8"/>
+    <n v="0.76192748091603046"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="95"/>
+    <n v="130"/>
+    <n v="0.78346153846153854"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="98"/>
+    <n v="164"/>
+    <n v="0.79999999999999993"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="100"/>
+    <n v="183.55"/>
+    <n v="0.82179242713157175"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="33"/>
+    <n v="1795"/>
+    <n v="0.33"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="34"/>
+    <n v="2746"/>
+    <n v="0.33"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="36"/>
+    <n v="1410"/>
+    <n v="0.33"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="37"/>
+    <n v="1360"/>
+    <n v="0.33"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="38"/>
+    <n v="1288"/>
+    <n v="0.33"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="400"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="554.6"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2"/>
+    <n v="577"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="3"/>
+    <n v="888.59160000000077"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="4"/>
+    <n v="4593.9048999999804"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="5"/>
+    <n v="5251.3512000000264"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="6"/>
+    <n v="3907.871117000042"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="7"/>
+    <n v="3468.728360000041"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="8"/>
+    <n v="3969.1042430000321"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="9"/>
+    <n v="2785.4316200000098"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="10"/>
+    <n v="2104.2190869999849"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="11"/>
+    <n v="1734.3472139999919"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="12"/>
+    <n v="1087.143895999995"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="13"/>
+    <n v="2049.836699999993"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="14"/>
+    <n v="751.41200000000049"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="15"/>
+    <n v="1340.2021999999949"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="16"/>
+    <n v="1659.914999999992"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="17"/>
+    <n v="1287.459599999997"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="18"/>
+    <n v="1434.670999999991"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="19"/>
+    <n v="1773.431999999988"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20"/>
+    <n v="1975.2310899999791"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="21"/>
+    <n v="1648.599299999983"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="22"/>
+    <n v="853.38700000000108"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="23"/>
+    <n v="564.2280000000012"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="24"/>
+    <n v="251.93539999999979"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="25"/>
+    <n v="170.86999999999969"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="26"/>
+    <n v="157.89503999999971"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="27"/>
+    <n v="172.67299999999949"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="28"/>
+    <n v="133.46791999999999"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1"/>
+    <n v="1130.5"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2"/>
+    <n v="952"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="3"/>
+    <n v="1455"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="4"/>
+    <n v="735"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="5"/>
+    <n v="1622"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="6"/>
+    <n v="726"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="7"/>
+    <n v="2502"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="8"/>
+    <n v="401"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="9"/>
+    <n v="400"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="12"/>
+    <n v="108.3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="14"/>
+    <n v="240"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0"/>
+    <n v="251.8"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="1"/>
+    <n v="195.4"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2"/>
+    <n v="414.72300000000001"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="3"/>
+    <n v="3311.8251235000898"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="4"/>
+    <n v="6222.2708520004007"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="5"/>
+    <n v="1688.3228170017601"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="6"/>
+    <n v="1467.6041030027829"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="7"/>
+    <n v="1387.194197003628"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="8"/>
+    <n v="1732.597611001665"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="9"/>
+    <n v="3084.7393325018802"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="10"/>
+    <n v="6784.0983869737693"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="11"/>
+    <n v="9295.3445625134536"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="12"/>
+    <n v="7475.4852885013324"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="13"/>
+    <n v="4341.2807897911334"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="14"/>
+    <n v="1924.091949500588"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="15"/>
+    <n v="1221.0464004994919"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="16"/>
+    <n v="829.72907300021166"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="17"/>
+    <n v="907.44900499994742"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="18"/>
+    <n v="633.04350900002578"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="19"/>
+    <n v="122.12090299971361"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="20"/>
+    <n v="93.425178999952891"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="21"/>
+    <n v="171.92399300525551"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="10"/>
+    <n v="2780.3"/>
+    <n v="0.42883504657770738"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="12"/>
+    <n v="94.8"/>
+    <n v="0.42399999999999999"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="13"/>
+    <n v="648"/>
+    <n v="0.42159999999999997"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="14"/>
+    <n v="628"/>
+    <n v="0.41920000000000002"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="20"/>
+    <n v="967.22"/>
+    <n v="0.40491523334918628"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="22"/>
+    <n v="1732"/>
+    <n v="0.4"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="23"/>
+    <n v="949"/>
+    <n v="0.39760000000000001"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="24"/>
+    <n v="750"/>
+    <n v="0.3952"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="25"/>
+    <n v="750"/>
+    <n v="0.39279999999999993"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="26"/>
+    <n v="2780"/>
+    <n v="0.39038273381294969"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="28"/>
+    <n v="496"/>
+    <n v="0.3856"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="29"/>
+    <n v="488.3"/>
+    <n v="0.38319999999999999"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="32"/>
+    <n v="652.79999999999995"/>
+    <n v="0.37600000000000011"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="33"/>
+    <n v="498.5"/>
+    <n v="0.37359999999999999"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="34"/>
+    <n v="232.8"/>
+    <n v="0.37119999999999997"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="35"/>
+    <n v="465"/>
+    <n v="0.36880000000000002"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="37"/>
+    <n v="361.3"/>
+    <n v="0.36387644616662052"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="43"/>
+    <n v="59.5"/>
+    <n v="0.34960000000000002"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="46"/>
+    <n v="604"/>
+    <n v="0.34239999999999998"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="47"/>
+    <n v="1263"/>
+    <n v="0.34000000000000008"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="48"/>
+    <n v="663"/>
+    <n v="0.33760000000000001"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="49"/>
+    <n v="292"/>
+    <n v="0.3352"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="50"/>
+    <n v="588"/>
+    <n v="0.33279999999999998"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="51"/>
+    <n v="299"/>
+    <n v="0.33040000000000003"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="52"/>
+    <n v="295"/>
+    <n v="0.32800000000000001"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="54"/>
+    <n v="297"/>
+    <n v="0.32319999999999999"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="55"/>
+    <n v="321"/>
+    <n v="0.32079999999999997"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="57"/>
+    <n v="643.5"/>
+    <n v="0.31589743589743591"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="86"/>
+    <n v="82"/>
+    <n v="0.24771707317073169"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="105"/>
+    <n v="98"/>
+    <n v="0.20080000000000001"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="11"/>
+    <n v="83.8"/>
+    <n v="0.39710000000000001"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="14"/>
+    <n v="60"/>
+    <n v="0.38"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="18"/>
+    <n v="97.1"/>
+    <n v="0.38"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="24"/>
+    <n v="212"/>
+    <n v="0.38279999999999997"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="25"/>
+    <n v="97.3"/>
+    <n v="0.38008386433710178"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="27"/>
+    <n v="87.8"/>
+    <n v="0.37950000000000012"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="28"/>
+    <n v="190.4"/>
+    <n v="0.36544154411764712"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="40"/>
+    <n v="93.6"/>
+    <n v="0.3332"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="41"/>
+    <n v="136"/>
+    <n v="0.3306"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="45"/>
+    <n v="205.9"/>
+    <n v="0.32451830985915492"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="46"/>
+    <n v="50"/>
+    <n v="0.31759999999999999"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="47"/>
+    <n v="434.5"/>
+    <n v="0.3671346375143843"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="48"/>
+    <n v="870.9"/>
+    <n v="0.35639999999999999"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="49"/>
+    <n v="529"/>
+    <n v="0.35048336483931952"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="50"/>
+    <n v="303.2"/>
+    <n v="0.3251815303430079"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="51"/>
+    <n v="111.4"/>
+    <n v="0.30459999999999998"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="60"/>
+    <n v="90"/>
+    <n v="0.34320000000000001"/>
+    <x v="0"/>
+    <s v="Producer1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F2A88F4-60AA-4E67-A537-DC2C51174147}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum of Capacity" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Average of Efficiency" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of Age" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -445,14 +3355,220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE56270-BB9F-4A65-A808-F3AE5E04B4CD}">
+  <dimension ref="A3:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="A4:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4644.4034000000001</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.35162268780797246</v>
+      </c>
+      <c r="D4" s="4">
+        <v>20.333333333333332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
+        <v>31358.328999999998</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.53826095601515933</v>
+      </c>
+      <c r="D5" s="4">
+        <v>28.205882352941178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
+        <v>24845.77</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.40383904661803</v>
+      </c>
+      <c r="D6" s="4">
+        <v>31.09375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3652.9</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.35399077947121271</v>
+      </c>
+      <c r="D7" s="4">
+        <v>36.705882352941174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8858.7499999999982</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.7811457116585705</v>
+      </c>
+      <c r="D8" s="4">
+        <v>56.971428571428568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4">
+        <v>20779.019999999997</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.36004079896582097</v>
+      </c>
+      <c r="D9" s="4">
+        <v>38.666666666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4">
+        <v>8599</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="D10" s="4">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4">
+        <v>8194.3024999999998</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.37414216973934089</v>
+      </c>
+      <c r="D11" s="4">
+        <v>28.828571428571429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4">
+        <v>53555.516075797081</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4">
+        <v>10271.799999999999</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>6.4545454545454541</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4">
+        <v>47547.508487000036</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="4">
+        <v>222307.29946279712</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.58860495021834658</v>
+      </c>
+      <c r="D15" s="4">
+        <v>29.719557195571955</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
@@ -8342,4 +11458,346 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DF7B89-3137-4483-A2A9-559F907A912A}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="30.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6">
+        <v>4644.4034000000001</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.35162268780797246</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6">
+        <v>31358.328999999998</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.53826095601515933</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6">
+        <v>24845.77</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.40383904661803</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3652.9</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.35399077947121271</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>8858.7499999999982</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.7811457116585705</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6">
+        <v>20779.019999999997</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.36004079896582097</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6">
+        <v>8599</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6">
+        <v>8194.3024999999998</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.37414216973934089</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>53555.516075797081</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6">
+        <v>10271.799999999999</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="6">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6">
+        <v>47547.508487000036</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D2471E-A65C-45D2-8906-9D7F22409E2C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -8,25 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\TraderesCode\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA813F88-DA01-428E-98D1-888B88B244E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36589534-77A8-432B-9C2B-691C23ADBC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
     <sheet name="backup" sheetId="1" r:id="rId2"/>
     <sheet name="powerplants" sheetId="3" r:id="rId3"/>
-    <sheet name="dummy" sheetId="2" r:id="rId4"/>
+    <sheet name="germany2019" sheetId="5" r:id="rId4"/>
+    <sheet name="dummy" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="37">
   <si>
     <t>Technology</t>
   </si>
@@ -105,6 +118,39 @@
   <si>
     <t>Average of Age</t>
   </si>
+  <si>
+    <t>other res</t>
+  </si>
+  <si>
+    <t>opex</t>
+  </si>
+  <si>
+    <t>biogas</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t># oil, other fossil fuels, mixed fossil fuels</t>
+  </si>
+  <si>
+    <t>natural gas</t>
+  </si>
+  <si>
+    <t>gasTurbine</t>
+  </si>
+  <si>
+    <t>#gasCC</t>
+  </si>
+  <si>
+    <t>HARD_COAL</t>
+  </si>
 </sst>
 </file>
 
@@ -113,7 +159,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +179,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF6897BB"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF629755"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -142,7 +208,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -165,11 +231,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -181,6 +256,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2967,7 +3057,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F2A88F4-60AA-4E67-A537-DC2C51174147}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F2A88F4-60AA-4E67-A537-DC2C51174147}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -3362,7 +3452,7 @@
       <selection activeCell="D14" sqref="A4:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
@@ -3370,7 +3460,7 @@
     <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -3384,7 +3474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -3398,7 +3488,7 @@
         <v>20.333333333333332</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -3412,7 +3502,7 @@
         <v>28.205882352941178</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -3426,7 +3516,7 @@
         <v>31.09375</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -3440,7 +3530,7 @@
         <v>36.705882352941174</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -3454,7 +3544,7 @@
         <v>56.971428571428568</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -3468,7 +3558,7 @@
         <v>38.666666666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -3482,7 +3572,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -3496,7 +3586,7 @@
         <v>28.828571428571429</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -3510,7 +3600,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -3524,7 +3614,7 @@
         <v>6.4545454545454541</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -3538,7 +3628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -3565,12 +3655,12 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3596,7 +3686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3625,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3654,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3683,7 +3773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3712,7 +3802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3741,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3770,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3799,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3828,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3857,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3886,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3915,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3944,7 +4034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3973,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4002,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4031,7 +4121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4060,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4089,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4118,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4147,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4176,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4205,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4234,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4263,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4292,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4321,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4350,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4379,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4408,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4437,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4466,7 +4556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4495,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4524,7 +4614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4553,7 +4643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4582,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4611,7 +4701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4640,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4669,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4698,7 +4788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4727,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4756,7 +4846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4785,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4814,7 +4904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4843,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4872,7 +4962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4901,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4930,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4959,7 +5049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4988,7 +5078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -5017,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -5046,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5075,7 +5165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5104,7 +5194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5133,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5162,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5191,7 +5281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5220,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5249,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5278,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5307,7 +5397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5336,7 +5426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5365,7 +5455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5394,7 +5484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5423,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5452,7 +5542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5481,7 +5571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5510,7 +5600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5539,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5568,7 +5658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5597,7 +5687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5626,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5655,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5684,7 +5774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5713,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5742,7 +5832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5771,7 +5861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5800,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5829,7 +5919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5858,7 +5948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5887,7 +5977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5916,7 +6006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5945,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5974,7 +6064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6003,7 +6093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6032,7 +6122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6061,7 +6151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6090,7 +6180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6119,7 +6209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6148,7 +6238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6177,7 +6267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6206,7 +6296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6235,7 +6325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6264,7 +6354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6293,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6322,7 +6412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6351,7 +6441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6380,7 +6470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6409,7 +6499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6438,7 +6528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6467,7 +6557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6496,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6525,7 +6615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6554,7 +6644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6583,7 +6673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6612,7 +6702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6641,7 +6731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6670,7 +6760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6699,7 +6789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6728,7 +6818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6757,7 +6847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6786,7 +6876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -6815,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -6844,7 +6934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -6873,7 +6963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -6902,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -6931,7 +7021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -6960,7 +7050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -6989,7 +7079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -7018,7 +7108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -7047,7 +7137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -7076,7 +7166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -7105,7 +7195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -7134,7 +7224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -7163,7 +7253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -7192,7 +7282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -7221,7 +7311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -7250,7 +7340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -7279,7 +7369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -7308,7 +7398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -7337,7 +7427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -7366,7 +7456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -7395,7 +7485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -7424,7 +7514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -7453,7 +7543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -7482,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -7511,7 +7601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7540,7 +7630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -7569,7 +7659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -7598,7 +7688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -7627,7 +7717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -7656,7 +7746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -7685,7 +7775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -7714,7 +7804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -7743,7 +7833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -7772,7 +7862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -7801,7 +7891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -7830,7 +7920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -7859,7 +7949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -7888,7 +7978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -7917,7 +8007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -7946,7 +8036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -7975,7 +8065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -8004,7 +8094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -8033,7 +8123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -8062,7 +8152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -8091,7 +8181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -8120,7 +8210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -8149,7 +8239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -8178,7 +8268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -8207,7 +8297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -8236,7 +8326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -8265,7 +8355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -8294,7 +8384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -8323,7 +8413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -8352,7 +8442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -8381,7 +8471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -8410,7 +8500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -8439,7 +8529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -8468,7 +8558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -8497,7 +8587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -8526,7 +8616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -8555,7 +8645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -8584,7 +8674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -8613,7 +8703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -8642,7 +8732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -8671,7 +8761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -8700,7 +8790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -8729,7 +8819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -8758,7 +8848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -8787,7 +8877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -8816,7 +8906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -8845,7 +8935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -8874,7 +8964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -8903,7 +8993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -8932,7 +9022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -8961,7 +9051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -8990,7 +9080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -9019,7 +9109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -9048,7 +9138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -9077,7 +9167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -9106,7 +9196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -9135,7 +9225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -9164,7 +9254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -9193,7 +9283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -9222,7 +9312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -9251,7 +9341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -9280,7 +9370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -9309,7 +9399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -9338,7 +9428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -9367,7 +9457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -9396,7 +9486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -9425,7 +9515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -9454,7 +9544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -9483,7 +9573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -9512,7 +9602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -9541,7 +9631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -9570,7 +9660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -9599,7 +9689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -9628,7 +9718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -9657,7 +9747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -9686,7 +9776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -9715,7 +9805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -9744,7 +9834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -9773,7 +9863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -9802,7 +9892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -9831,7 +9921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -9860,7 +9950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -9889,7 +9979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -9918,7 +10008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -9947,7 +10037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -9976,7 +10066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -10005,7 +10095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -10034,7 +10124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -10063,7 +10153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -10092,7 +10182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -10121,7 +10211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -10150,7 +10240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -10179,7 +10269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -10208,7 +10298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -10237,7 +10327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -10266,7 +10356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -10295,7 +10385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -10324,7 +10414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -10353,7 +10443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -10382,7 +10472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -10411,7 +10501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -10440,7 +10530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -10469,7 +10559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -10498,7 +10588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -10527,7 +10617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -10556,7 +10646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -10585,7 +10675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -10614,7 +10704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -10643,7 +10733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -10672,7 +10762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -10701,7 +10791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -10730,7 +10820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -10759,7 +10849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -10788,7 +10878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -10817,7 +10907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -10846,7 +10936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -10875,7 +10965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -10904,7 +10994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -10933,7 +11023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -10962,7 +11052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -10991,7 +11081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -11020,7 +11110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -11049,7 +11139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -11078,7 +11168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -11107,7 +11197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -11136,7 +11226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -11165,7 +11255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -11194,7 +11284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -11223,7 +11313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -11252,7 +11342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -11281,7 +11371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -11310,7 +11400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -11339,7 +11429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -11368,7 +11458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -11397,7 +11487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -11426,7 +11516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -11464,16 +11554,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DF7B89-3137-4483-A2A9-559F907A912A}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="A1:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="30.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11496,7 +11586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -11522,7 +11612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -11548,7 +11638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -11574,7 +11664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -11600,7 +11690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -11626,7 +11716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -11652,7 +11742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -11678,7 +11768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -11704,7 +11794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -11730,7 +11820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -11756,7 +11846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -11789,6 +11879,452 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871B8469-CA4D-495B-9C72-1DE61BB7D586}">
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="30.08984375" customWidth="1"/>
+    <col min="8" max="8" width="16.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6">
+        <v>7908</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6">
+        <v>22051</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3747</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6">
+        <v>8000</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6">
+        <v>18049</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>9516</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7">
+        <v>7820.6</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7">
+        <v>16062.2</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6">
+        <f>197+806+1229 +4257 +8015</f>
+        <v>14504</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6">
+        <v>30932</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="6">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>471</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>2328</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6">
+        <v>8</v>
+      </c>
+      <c r="D14" s="6">
+        <f>12666 +14503 +13974 +5670 + 3804</f>
+        <v>50617</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="6">
+        <v>8</v>
+      </c>
+      <c r="D15" s="7">
+        <f>2108 + 79 +672</f>
+        <v>2859</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4644</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="6">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>5317</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D2471E-A65C-45D2-8906-9D7F22409E2C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11796,7 +12332,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\TraderesCode\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36589534-77A8-432B-9C2B-691C23ADBC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE95D08-1F81-4320-82FA-D29563BF3B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="38">
   <si>
     <t>Technology</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>HARD_COAL</t>
+  </si>
+  <si>
+    <t>ProducerDE</t>
   </si>
 </sst>
 </file>
@@ -3449,7 +3452,7 @@
   <dimension ref="A3:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="A4:D14"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3651,13 +3654,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I272"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="G273" sqref="G273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3706,7 +3710,7 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3735,7 +3739,7 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3764,7 +3768,7 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3793,7 +3797,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3822,7 +3826,7 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3851,7 +3855,7 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3880,7 +3884,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3909,7 +3913,7 @@
         <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3938,7 +3942,7 @@
         <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -3967,7 +3971,7 @@
         <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -3996,7 +4000,7 @@
         <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -4025,7 +4029,7 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -4054,7 +4058,7 @@
         <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -4083,7 +4087,7 @@
         <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -4112,7 +4116,7 @@
         <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -4141,7 +4145,7 @@
         <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -4170,7 +4174,7 @@
         <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -4199,7 +4203,7 @@
         <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -4228,7 +4232,7 @@
         <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -4257,7 +4261,7 @@
         <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -4286,7 +4290,7 @@
         <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -4315,7 +4319,7 @@
         <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -4344,7 +4348,7 @@
         <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -4373,7 +4377,7 @@
         <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -4402,7 +4406,7 @@
         <v>7</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -4431,7 +4435,7 @@
         <v>7</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -4460,7 +4464,7 @@
         <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -4489,7 +4493,7 @@
         <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -4518,7 +4522,7 @@
         <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -4547,7 +4551,7 @@
         <v>7</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -4576,7 +4580,7 @@
         <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -4605,7 +4609,7 @@
         <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -4634,7 +4638,7 @@
         <v>7</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -4663,7 +4667,7 @@
         <v>7</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -4692,7 +4696,7 @@
         <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -4721,7 +4725,7 @@
         <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -4750,7 +4754,7 @@
         <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -4779,7 +4783,7 @@
         <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4808,7 +4812,7 @@
         <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4837,7 +4841,7 @@
         <v>7</v>
       </c>
       <c r="G41" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4866,7 +4870,7 @@
         <v>7</v>
       </c>
       <c r="G42" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4895,7 +4899,7 @@
         <v>7</v>
       </c>
       <c r="G43" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4924,7 +4928,7 @@
         <v>7</v>
       </c>
       <c r="G44" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4953,7 +4957,7 @@
         <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4982,7 +4986,7 @@
         <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -5011,7 +5015,7 @@
         <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -5040,7 +5044,7 @@
         <v>7</v>
       </c>
       <c r="G48" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -5069,7 +5073,7 @@
         <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -5098,7 +5102,7 @@
         <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -5127,7 +5131,7 @@
         <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5156,7 +5160,7 @@
         <v>7</v>
       </c>
       <c r="G52" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5185,7 +5189,7 @@
         <v>7</v>
       </c>
       <c r="G53" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5214,7 +5218,7 @@
         <v>7</v>
       </c>
       <c r="G54" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5243,7 +5247,7 @@
         <v>7</v>
       </c>
       <c r="G55" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5272,7 +5276,7 @@
         <v>7</v>
       </c>
       <c r="G56" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5301,7 +5305,7 @@
         <v>7</v>
       </c>
       <c r="G57" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5330,7 +5334,7 @@
         <v>7</v>
       </c>
       <c r="G58" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5359,7 +5363,7 @@
         <v>7</v>
       </c>
       <c r="G59" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5388,7 +5392,7 @@
         <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5417,7 +5421,7 @@
         <v>7</v>
       </c>
       <c r="G61" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5446,7 +5450,7 @@
         <v>7</v>
       </c>
       <c r="G62" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -5475,7 +5479,7 @@
         <v>7</v>
       </c>
       <c r="G63" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -5504,7 +5508,7 @@
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -5533,7 +5537,7 @@
         <v>7</v>
       </c>
       <c r="G65" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -5562,7 +5566,7 @@
         <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -5591,7 +5595,7 @@
         <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -5620,7 +5624,7 @@
         <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -5649,7 +5653,7 @@
         <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -5678,7 +5682,7 @@
         <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -5707,7 +5711,7 @@
         <v>7</v>
       </c>
       <c r="G71" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -5736,7 +5740,7 @@
         <v>7</v>
       </c>
       <c r="G72" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -5765,7 +5769,7 @@
         <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -5794,7 +5798,7 @@
         <v>7</v>
       </c>
       <c r="G74" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -5823,7 +5827,7 @@
         <v>7</v>
       </c>
       <c r="G75" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -5852,7 +5856,7 @@
         <v>7</v>
       </c>
       <c r="G76" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -5881,7 +5885,7 @@
         <v>7</v>
       </c>
       <c r="G77" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -5910,7 +5914,7 @@
         <v>7</v>
       </c>
       <c r="G78" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -5939,7 +5943,7 @@
         <v>7</v>
       </c>
       <c r="G79" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -5968,7 +5972,7 @@
         <v>7</v>
       </c>
       <c r="G80" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -5997,7 +6001,7 @@
         <v>7</v>
       </c>
       <c r="G81" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -6026,7 +6030,7 @@
         <v>7</v>
       </c>
       <c r="G82" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -6055,7 +6059,7 @@
         <v>7</v>
       </c>
       <c r="G83" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -6084,7 +6088,7 @@
         <v>7</v>
       </c>
       <c r="G84" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -6113,7 +6117,7 @@
         <v>7</v>
       </c>
       <c r="G85" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -6142,7 +6146,7 @@
         <v>7</v>
       </c>
       <c r="G86" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -6171,7 +6175,7 @@
         <v>7</v>
       </c>
       <c r="G87" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -6200,7 +6204,7 @@
         <v>7</v>
       </c>
       <c r="G88" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -6229,7 +6233,7 @@
         <v>7</v>
       </c>
       <c r="G89" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -6258,7 +6262,7 @@
         <v>7</v>
       </c>
       <c r="G90" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -6287,7 +6291,7 @@
         <v>7</v>
       </c>
       <c r="G91" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -6316,7 +6320,7 @@
         <v>7</v>
       </c>
       <c r="G92" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -6345,7 +6349,7 @@
         <v>7</v>
       </c>
       <c r="G93" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -6374,7 +6378,7 @@
         <v>7</v>
       </c>
       <c r="G94" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -6403,7 +6407,7 @@
         <v>7</v>
       </c>
       <c r="G95" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -6432,7 +6436,7 @@
         <v>7</v>
       </c>
       <c r="G96" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -6461,7 +6465,7 @@
         <v>7</v>
       </c>
       <c r="G97" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -6490,7 +6494,7 @@
         <v>7</v>
       </c>
       <c r="G98" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -6519,7 +6523,7 @@
         <v>7</v>
       </c>
       <c r="G99" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -6548,7 +6552,7 @@
         <v>7</v>
       </c>
       <c r="G100" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -6577,7 +6581,7 @@
         <v>7</v>
       </c>
       <c r="G101" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -6606,7 +6610,7 @@
         <v>7</v>
       </c>
       <c r="G102" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -6635,7 +6639,7 @@
         <v>7</v>
       </c>
       <c r="G103" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -6664,7 +6668,7 @@
         <v>7</v>
       </c>
       <c r="G104" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -6693,7 +6697,7 @@
         <v>7</v>
       </c>
       <c r="G105" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -6722,7 +6726,7 @@
         <v>7</v>
       </c>
       <c r="G106" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -6751,7 +6755,7 @@
         <v>7</v>
       </c>
       <c r="G107" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -6780,7 +6784,7 @@
         <v>7</v>
       </c>
       <c r="G108" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -6809,7 +6813,7 @@
         <v>7</v>
       </c>
       <c r="G109" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -6838,7 +6842,7 @@
         <v>7</v>
       </c>
       <c r="G110" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -6867,7 +6871,7 @@
         <v>7</v>
       </c>
       <c r="G111" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -6896,7 +6900,7 @@
         <v>7</v>
       </c>
       <c r="G112" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -6925,7 +6929,7 @@
         <v>7</v>
       </c>
       <c r="G113" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -6954,7 +6958,7 @@
         <v>7</v>
       </c>
       <c r="G114" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -6983,7 +6987,7 @@
         <v>7</v>
       </c>
       <c r="G115" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -7012,7 +7016,7 @@
         <v>7</v>
       </c>
       <c r="G116" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -7041,7 +7045,7 @@
         <v>7</v>
       </c>
       <c r="G117" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -7070,7 +7074,7 @@
         <v>7</v>
       </c>
       <c r="G118" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -7099,7 +7103,7 @@
         <v>7</v>
       </c>
       <c r="G119" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -7128,7 +7132,7 @@
         <v>7</v>
       </c>
       <c r="G120" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -7157,7 +7161,7 @@
         <v>7</v>
       </c>
       <c r="G121" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -7186,7 +7190,7 @@
         <v>7</v>
       </c>
       <c r="G122" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -7215,7 +7219,7 @@
         <v>7</v>
       </c>
       <c r="G123" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -7244,7 +7248,7 @@
         <v>7</v>
       </c>
       <c r="G124" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -7273,7 +7277,7 @@
         <v>7</v>
       </c>
       <c r="G125" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -7302,7 +7306,7 @@
         <v>7</v>
       </c>
       <c r="G126" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -7331,7 +7335,7 @@
         <v>7</v>
       </c>
       <c r="G127" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -7360,7 +7364,7 @@
         <v>7</v>
       </c>
       <c r="G128" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -7389,7 +7393,7 @@
         <v>7</v>
       </c>
       <c r="G129" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -7418,7 +7422,7 @@
         <v>7</v>
       </c>
       <c r="G130" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -7447,7 +7451,7 @@
         <v>7</v>
       </c>
       <c r="G131" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -7476,7 +7480,7 @@
         <v>7</v>
       </c>
       <c r="G132" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -7505,7 +7509,7 @@
         <v>7</v>
       </c>
       <c r="G133" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -7534,7 +7538,7 @@
         <v>7</v>
       </c>
       <c r="G134" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -7563,7 +7567,7 @@
         <v>7</v>
       </c>
       <c r="G135" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -7592,7 +7596,7 @@
         <v>7</v>
       </c>
       <c r="G136" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -7621,7 +7625,7 @@
         <v>7</v>
       </c>
       <c r="G137" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -7650,7 +7654,7 @@
         <v>7</v>
       </c>
       <c r="G138" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -7679,7 +7683,7 @@
         <v>7</v>
       </c>
       <c r="G139" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -7708,7 +7712,7 @@
         <v>7</v>
       </c>
       <c r="G140" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -7737,7 +7741,7 @@
         <v>7</v>
       </c>
       <c r="G141" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -7766,7 +7770,7 @@
         <v>7</v>
       </c>
       <c r="G142" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -7795,7 +7799,7 @@
         <v>7</v>
       </c>
       <c r="G143" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -7824,7 +7828,7 @@
         <v>7</v>
       </c>
       <c r="G144" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -7853,7 +7857,7 @@
         <v>7</v>
       </c>
       <c r="G145" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -7882,7 +7886,7 @@
         <v>7</v>
       </c>
       <c r="G146" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -7911,7 +7915,7 @@
         <v>7</v>
       </c>
       <c r="G147" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -7940,7 +7944,7 @@
         <v>7</v>
       </c>
       <c r="G148" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -7969,7 +7973,7 @@
         <v>7</v>
       </c>
       <c r="G149" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -7998,7 +8002,7 @@
         <v>7</v>
       </c>
       <c r="G150" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -8027,7 +8031,7 @@
         <v>7</v>
       </c>
       <c r="G151" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -8056,7 +8060,7 @@
         <v>7</v>
       </c>
       <c r="G152" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -8085,7 +8089,7 @@
         <v>7</v>
       </c>
       <c r="G153" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -8114,7 +8118,7 @@
         <v>7</v>
       </c>
       <c r="G154" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -8143,7 +8147,7 @@
         <v>7</v>
       </c>
       <c r="G155" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -8172,7 +8176,7 @@
         <v>7</v>
       </c>
       <c r="G156" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -8201,7 +8205,7 @@
         <v>7</v>
       </c>
       <c r="G157" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -8230,7 +8234,7 @@
         <v>7</v>
       </c>
       <c r="G158" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -8259,7 +8263,7 @@
         <v>7</v>
       </c>
       <c r="G159" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -8288,7 +8292,7 @@
         <v>7</v>
       </c>
       <c r="G160" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -8317,7 +8321,7 @@
         <v>7</v>
       </c>
       <c r="G161" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -8346,7 +8350,7 @@
         <v>7</v>
       </c>
       <c r="G162" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -8375,7 +8379,7 @@
         <v>7</v>
       </c>
       <c r="G163" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -8404,7 +8408,7 @@
         <v>7</v>
       </c>
       <c r="G164" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -8433,7 +8437,7 @@
         <v>7</v>
       </c>
       <c r="G165" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -8462,7 +8466,7 @@
         <v>7</v>
       </c>
       <c r="G166" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -8491,7 +8495,7 @@
         <v>7</v>
       </c>
       <c r="G167" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -8520,7 +8524,7 @@
         <v>7</v>
       </c>
       <c r="G168" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -8549,7 +8553,7 @@
         <v>7</v>
       </c>
       <c r="G169" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -8578,7 +8582,7 @@
         <v>7</v>
       </c>
       <c r="G170" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -8607,7 +8611,7 @@
         <v>7</v>
       </c>
       <c r="G171" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -8636,7 +8640,7 @@
         <v>7</v>
       </c>
       <c r="G172" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -8665,7 +8669,7 @@
         <v>7</v>
       </c>
       <c r="G173" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -8694,7 +8698,7 @@
         <v>7</v>
       </c>
       <c r="G174" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -8723,7 +8727,7 @@
         <v>7</v>
       </c>
       <c r="G175" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -8752,7 +8756,7 @@
         <v>7</v>
       </c>
       <c r="G176" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -8781,7 +8785,7 @@
         <v>7</v>
       </c>
       <c r="G177" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -8810,7 +8814,7 @@
         <v>7</v>
       </c>
       <c r="G178" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -8839,7 +8843,7 @@
         <v>7</v>
       </c>
       <c r="G179" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -8868,7 +8872,7 @@
         <v>7</v>
       </c>
       <c r="G180" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -8897,7 +8901,7 @@
         <v>7</v>
       </c>
       <c r="G181" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -8926,7 +8930,7 @@
         <v>7</v>
       </c>
       <c r="G182" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -8955,7 +8959,7 @@
         <v>7</v>
       </c>
       <c r="G183" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -8984,7 +8988,7 @@
         <v>7</v>
       </c>
       <c r="G184" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -9013,7 +9017,7 @@
         <v>7</v>
       </c>
       <c r="G185" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -9042,7 +9046,7 @@
         <v>7</v>
       </c>
       <c r="G186" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -9071,7 +9075,7 @@
         <v>7</v>
       </c>
       <c r="G187" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -9100,7 +9104,7 @@
         <v>7</v>
       </c>
       <c r="G188" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -9129,7 +9133,7 @@
         <v>7</v>
       </c>
       <c r="G189" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -9158,7 +9162,7 @@
         <v>7</v>
       </c>
       <c r="G190" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -9187,7 +9191,7 @@
         <v>7</v>
       </c>
       <c r="G191" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -9216,7 +9220,7 @@
         <v>7</v>
       </c>
       <c r="G192" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -9245,7 +9249,7 @@
         <v>7</v>
       </c>
       <c r="G193" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -9274,7 +9278,7 @@
         <v>7</v>
       </c>
       <c r="G194" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -9303,7 +9307,7 @@
         <v>7</v>
       </c>
       <c r="G195" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -9332,7 +9336,7 @@
         <v>7</v>
       </c>
       <c r="G196" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -9361,7 +9365,7 @@
         <v>7</v>
       </c>
       <c r="G197" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -9390,7 +9394,7 @@
         <v>7</v>
       </c>
       <c r="G198" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -9419,7 +9423,7 @@
         <v>7</v>
       </c>
       <c r="G199" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -9448,7 +9452,7 @@
         <v>7</v>
       </c>
       <c r="G200" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -9477,7 +9481,7 @@
         <v>7</v>
       </c>
       <c r="G201" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -9506,7 +9510,7 @@
         <v>7</v>
       </c>
       <c r="G202" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -9535,7 +9539,7 @@
         <v>7</v>
       </c>
       <c r="G203" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -9564,7 +9568,7 @@
         <v>7</v>
       </c>
       <c r="G204" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -9593,7 +9597,7 @@
         <v>7</v>
       </c>
       <c r="G205" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -9622,7 +9626,7 @@
         <v>7</v>
       </c>
       <c r="G206" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -9651,7 +9655,7 @@
         <v>7</v>
       </c>
       <c r="G207" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -9680,7 +9684,7 @@
         <v>7</v>
       </c>
       <c r="G208" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -9709,7 +9713,7 @@
         <v>7</v>
       </c>
       <c r="G209" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -9738,7 +9742,7 @@
         <v>7</v>
       </c>
       <c r="G210" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -9767,7 +9771,7 @@
         <v>7</v>
       </c>
       <c r="G211" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -9796,7 +9800,7 @@
         <v>7</v>
       </c>
       <c r="G212" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -9825,7 +9829,7 @@
         <v>7</v>
       </c>
       <c r="G213" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H213">
         <v>0</v>
@@ -9854,7 +9858,7 @@
         <v>7</v>
       </c>
       <c r="G214" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -9883,7 +9887,7 @@
         <v>7</v>
       </c>
       <c r="G215" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -9912,7 +9916,7 @@
         <v>7</v>
       </c>
       <c r="G216" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -9941,7 +9945,7 @@
         <v>7</v>
       </c>
       <c r="G217" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -9970,7 +9974,7 @@
         <v>7</v>
       </c>
       <c r="G218" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -9999,7 +10003,7 @@
         <v>7</v>
       </c>
       <c r="G219" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -10028,7 +10032,7 @@
         <v>7</v>
       </c>
       <c r="G220" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -10057,7 +10061,7 @@
         <v>7</v>
       </c>
       <c r="G221" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H221">
         <v>0</v>
@@ -10086,7 +10090,7 @@
         <v>7</v>
       </c>
       <c r="G222" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -10115,7 +10119,7 @@
         <v>7</v>
       </c>
       <c r="G223" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H223">
         <v>0</v>
@@ -10144,7 +10148,7 @@
         <v>7</v>
       </c>
       <c r="G224" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -10173,7 +10177,7 @@
         <v>7</v>
       </c>
       <c r="G225" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H225">
         <v>0</v>
@@ -10202,7 +10206,7 @@
         <v>7</v>
       </c>
       <c r="G226" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -10231,7 +10235,7 @@
         <v>7</v>
       </c>
       <c r="G227" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -10260,7 +10264,7 @@
         <v>7</v>
       </c>
       <c r="G228" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -10289,7 +10293,7 @@
         <v>7</v>
       </c>
       <c r="G229" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -10318,7 +10322,7 @@
         <v>7</v>
       </c>
       <c r="G230" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -10347,7 +10351,7 @@
         <v>7</v>
       </c>
       <c r="G231" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H231">
         <v>0</v>
@@ -10376,7 +10380,7 @@
         <v>7</v>
       </c>
       <c r="G232" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -10405,7 +10409,7 @@
         <v>7</v>
       </c>
       <c r="G233" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -10434,7 +10438,7 @@
         <v>7</v>
       </c>
       <c r="G234" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -10463,7 +10467,7 @@
         <v>7</v>
       </c>
       <c r="G235" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -10492,7 +10496,7 @@
         <v>7</v>
       </c>
       <c r="G236" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H236">
         <v>0</v>
@@ -10521,7 +10525,7 @@
         <v>7</v>
       </c>
       <c r="G237" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -10550,7 +10554,7 @@
         <v>7</v>
       </c>
       <c r="G238" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H238">
         <v>0</v>
@@ -10579,7 +10583,7 @@
         <v>7</v>
       </c>
       <c r="G239" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -10608,7 +10612,7 @@
         <v>7</v>
       </c>
       <c r="G240" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H240">
         <v>0</v>
@@ -10637,7 +10641,7 @@
         <v>7</v>
       </c>
       <c r="G241" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H241">
         <v>0</v>
@@ -10666,7 +10670,7 @@
         <v>7</v>
       </c>
       <c r="G242" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -10695,7 +10699,7 @@
         <v>7</v>
       </c>
       <c r="G243" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H243">
         <v>0</v>
@@ -10724,7 +10728,7 @@
         <v>7</v>
       </c>
       <c r="G244" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H244">
         <v>0</v>
@@ -10753,7 +10757,7 @@
         <v>7</v>
       </c>
       <c r="G245" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H245">
         <v>0</v>
@@ -10782,7 +10786,7 @@
         <v>7</v>
       </c>
       <c r="G246" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -10811,7 +10815,7 @@
         <v>7</v>
       </c>
       <c r="G247" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -10840,7 +10844,7 @@
         <v>7</v>
       </c>
       <c r="G248" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H248">
         <v>0</v>
@@ -10869,7 +10873,7 @@
         <v>7</v>
       </c>
       <c r="G249" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -10898,7 +10902,7 @@
         <v>7</v>
       </c>
       <c r="G250" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H250">
         <v>0</v>
@@ -10927,7 +10931,7 @@
         <v>7</v>
       </c>
       <c r="G251" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H251">
         <v>0</v>
@@ -10956,7 +10960,7 @@
         <v>7</v>
       </c>
       <c r="G252" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H252">
         <v>0</v>
@@ -10985,7 +10989,7 @@
         <v>7</v>
       </c>
       <c r="G253" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H253">
         <v>0</v>
@@ -11014,7 +11018,7 @@
         <v>7</v>
       </c>
       <c r="G254" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H254">
         <v>0</v>
@@ -11043,7 +11047,7 @@
         <v>7</v>
       </c>
       <c r="G255" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H255">
         <v>0</v>
@@ -11072,7 +11076,7 @@
         <v>7</v>
       </c>
       <c r="G256" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H256">
         <v>0</v>
@@ -11101,7 +11105,7 @@
         <v>7</v>
       </c>
       <c r="G257" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H257">
         <v>0</v>
@@ -11130,7 +11134,7 @@
         <v>7</v>
       </c>
       <c r="G258" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H258">
         <v>0</v>
@@ -11159,7 +11163,7 @@
         <v>7</v>
       </c>
       <c r="G259" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -11188,7 +11192,7 @@
         <v>7</v>
       </c>
       <c r="G260" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H260">
         <v>0</v>
@@ -11217,7 +11221,7 @@
         <v>7</v>
       </c>
       <c r="G261" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H261">
         <v>0</v>
@@ -11246,7 +11250,7 @@
         <v>7</v>
       </c>
       <c r="G262" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H262">
         <v>0</v>
@@ -11275,7 +11279,7 @@
         <v>7</v>
       </c>
       <c r="G263" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H263">
         <v>0</v>
@@ -11304,7 +11308,7 @@
         <v>7</v>
       </c>
       <c r="G264" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H264">
         <v>0</v>
@@ -11333,7 +11337,7 @@
         <v>7</v>
       </c>
       <c r="G265" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H265">
         <v>0</v>
@@ -11362,7 +11366,7 @@
         <v>7</v>
       </c>
       <c r="G266" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -11391,7 +11395,7 @@
         <v>7</v>
       </c>
       <c r="G267" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -11420,7 +11424,7 @@
         <v>7</v>
       </c>
       <c r="G268" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -11449,7 +11453,7 @@
         <v>7</v>
       </c>
       <c r="G269" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H269">
         <v>0</v>
@@ -11478,7 +11482,7 @@
         <v>7</v>
       </c>
       <c r="G270" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H270">
         <v>0</v>
@@ -11507,7 +11511,7 @@
         <v>7</v>
       </c>
       <c r="G271" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H271">
         <v>0</v>
@@ -11536,7 +11540,7 @@
         <v>7</v>
       </c>
       <c r="G272" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H272">
         <v>0</v>
@@ -11554,8 +11558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DF7B89-3137-4483-A2A9-559F907A912A}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="A1:H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11882,13 +11886,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871B8469-CA4D-495B-9C72-1DE61BB7D586}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="30.08984375" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" customWidth="1"/>
     <col min="8" max="8" width="16.36328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11939,7 +11944,7 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -11966,7 +11971,7 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -11993,7 +11998,7 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -12020,7 +12025,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -12044,7 +12049,7 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>0.89</v>
@@ -12068,7 +12073,7 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -12092,7 +12097,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12119,7 +12124,7 @@
         <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -12147,7 +12152,7 @@
         <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -12174,7 +12179,7 @@
         <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -12197,7 +12202,7 @@
         <v>471</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -12223,7 +12228,7 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -12248,7 +12253,7 @@
         <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -12273,7 +12278,7 @@
         <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -12297,7 +12302,7 @@
         <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>0</v>

--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\TraderesCode\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE95D08-1F81-4320-82FA-D29563BF3B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8595642-26F3-4515-84E6-0356A2B25925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4515" yWindow="-11535" windowWidth="19425" windowHeight="10425" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="37">
   <si>
     <t>Technology</t>
   </si>
@@ -128,9 +128,6 @@
     <t>biogas</t>
   </si>
   <si>
-    <t>river</t>
-  </si>
-  <si>
     <t>comments</t>
   </si>
   <si>
@@ -143,16 +140,16 @@
     <t>natural gas</t>
   </si>
   <si>
-    <t>gasTurbine</t>
-  </si>
-  <si>
-    <t>#gasCC</t>
-  </si>
-  <si>
     <t>HARD_COAL</t>
   </si>
   <si>
     <t>ProducerDE</t>
+  </si>
+  <si>
+    <t>Hydropower_ROR</t>
+  </si>
+  <si>
+    <t>Number</t>
   </si>
 </sst>
 </file>
@@ -185,13 +182,6 @@
     <font>
       <i/>
       <sz val="10"/>
-      <color rgb="FF6897BB"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
       <color rgb="FF629755"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
@@ -201,6 +191,12 @@
       <color rgb="FF6A8759"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -247,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -259,21 +255,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3710,7 +3707,7 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3739,7 +3736,7 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3768,7 +3765,7 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3797,7 +3794,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3826,7 +3823,7 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3855,7 +3852,7 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3884,7 +3881,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3913,7 +3910,7 @@
         <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3942,7 +3939,7 @@
         <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -3971,7 +3968,7 @@
         <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -4000,7 +3997,7 @@
         <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -4029,7 +4026,7 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -4058,7 +4055,7 @@
         <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -4087,7 +4084,7 @@
         <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -4116,7 +4113,7 @@
         <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -4145,7 +4142,7 @@
         <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -4174,7 +4171,7 @@
         <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -4203,7 +4200,7 @@
         <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -4232,7 +4229,7 @@
         <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -4261,7 +4258,7 @@
         <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -4290,7 +4287,7 @@
         <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -4319,7 +4316,7 @@
         <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -4348,7 +4345,7 @@
         <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -4377,7 +4374,7 @@
         <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -4406,7 +4403,7 @@
         <v>7</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -4435,7 +4432,7 @@
         <v>7</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -4464,7 +4461,7 @@
         <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -4493,7 +4490,7 @@
         <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -4522,7 +4519,7 @@
         <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -4551,7 +4548,7 @@
         <v>7</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -4580,7 +4577,7 @@
         <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -4609,7 +4606,7 @@
         <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -4638,7 +4635,7 @@
         <v>7</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -4667,7 +4664,7 @@
         <v>7</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -4696,7 +4693,7 @@
         <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -4725,7 +4722,7 @@
         <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -4754,7 +4751,7 @@
         <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -4783,7 +4780,7 @@
         <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4812,7 +4809,7 @@
         <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4841,7 +4838,7 @@
         <v>7</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4870,7 +4867,7 @@
         <v>7</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4899,7 +4896,7 @@
         <v>7</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4928,7 +4925,7 @@
         <v>7</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4957,7 +4954,7 @@
         <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4986,7 +4983,7 @@
         <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -5015,7 +5012,7 @@
         <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -5044,7 +5041,7 @@
         <v>7</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -5073,7 +5070,7 @@
         <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -5102,7 +5099,7 @@
         <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -5131,7 +5128,7 @@
         <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5160,7 +5157,7 @@
         <v>7</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5189,7 +5186,7 @@
         <v>7</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5218,7 +5215,7 @@
         <v>7</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5247,7 +5244,7 @@
         <v>7</v>
       </c>
       <c r="G55" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5276,7 +5273,7 @@
         <v>7</v>
       </c>
       <c r="G56" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5305,7 +5302,7 @@
         <v>7</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5334,7 +5331,7 @@
         <v>7</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5363,7 +5360,7 @@
         <v>7</v>
       </c>
       <c r="G59" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5392,7 +5389,7 @@
         <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5421,7 +5418,7 @@
         <v>7</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5450,7 +5447,7 @@
         <v>7</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -5479,7 +5476,7 @@
         <v>7</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -5508,7 +5505,7 @@
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -5537,7 +5534,7 @@
         <v>7</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -5566,7 +5563,7 @@
         <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -5595,7 +5592,7 @@
         <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -5624,7 +5621,7 @@
         <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -5653,7 +5650,7 @@
         <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -5682,7 +5679,7 @@
         <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -5711,7 +5708,7 @@
         <v>7</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -5740,7 +5737,7 @@
         <v>7</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -5769,7 +5766,7 @@
         <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -5798,7 +5795,7 @@
         <v>7</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -5827,7 +5824,7 @@
         <v>7</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -5856,7 +5853,7 @@
         <v>7</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -5885,7 +5882,7 @@
         <v>7</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -5914,7 +5911,7 @@
         <v>7</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -5943,7 +5940,7 @@
         <v>7</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -5972,7 +5969,7 @@
         <v>7</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -6001,7 +5998,7 @@
         <v>7</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -6030,7 +6027,7 @@
         <v>7</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -6059,7 +6056,7 @@
         <v>7</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -6088,7 +6085,7 @@
         <v>7</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -6117,7 +6114,7 @@
         <v>7</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -6146,7 +6143,7 @@
         <v>7</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -6175,7 +6172,7 @@
         <v>7</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -6204,7 +6201,7 @@
         <v>7</v>
       </c>
       <c r="G88" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -6233,7 +6230,7 @@
         <v>7</v>
       </c>
       <c r="G89" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -6262,7 +6259,7 @@
         <v>7</v>
       </c>
       <c r="G90" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -6291,7 +6288,7 @@
         <v>7</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -6320,7 +6317,7 @@
         <v>7</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -6349,7 +6346,7 @@
         <v>7</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -6378,7 +6375,7 @@
         <v>7</v>
       </c>
       <c r="G94" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -6407,7 +6404,7 @@
         <v>7</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -6436,7 +6433,7 @@
         <v>7</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -6465,7 +6462,7 @@
         <v>7</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -6494,7 +6491,7 @@
         <v>7</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -6523,7 +6520,7 @@
         <v>7</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -6552,7 +6549,7 @@
         <v>7</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -6581,7 +6578,7 @@
         <v>7</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -6610,7 +6607,7 @@
         <v>7</v>
       </c>
       <c r="G102" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -6639,7 +6636,7 @@
         <v>7</v>
       </c>
       <c r="G103" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -6668,7 +6665,7 @@
         <v>7</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -6697,7 +6694,7 @@
         <v>7</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -6726,7 +6723,7 @@
         <v>7</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -6755,7 +6752,7 @@
         <v>7</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -6784,7 +6781,7 @@
         <v>7</v>
       </c>
       <c r="G108" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -6813,7 +6810,7 @@
         <v>7</v>
       </c>
       <c r="G109" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -6842,7 +6839,7 @@
         <v>7</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -6871,7 +6868,7 @@
         <v>7</v>
       </c>
       <c r="G111" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -6900,7 +6897,7 @@
         <v>7</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -6929,7 +6926,7 @@
         <v>7</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -6958,7 +6955,7 @@
         <v>7</v>
       </c>
       <c r="G114" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -6987,7 +6984,7 @@
         <v>7</v>
       </c>
       <c r="G115" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -7016,7 +7013,7 @@
         <v>7</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -7045,7 +7042,7 @@
         <v>7</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -7074,7 +7071,7 @@
         <v>7</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -7103,7 +7100,7 @@
         <v>7</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -7132,7 +7129,7 @@
         <v>7</v>
       </c>
       <c r="G120" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -7161,7 +7158,7 @@
         <v>7</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -7190,7 +7187,7 @@
         <v>7</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -7219,7 +7216,7 @@
         <v>7</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -7248,7 +7245,7 @@
         <v>7</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -7277,7 +7274,7 @@
         <v>7</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -7306,7 +7303,7 @@
         <v>7</v>
       </c>
       <c r="G126" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -7335,7 +7332,7 @@
         <v>7</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -7364,7 +7361,7 @@
         <v>7</v>
       </c>
       <c r="G128" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -7393,7 +7390,7 @@
         <v>7</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -7422,7 +7419,7 @@
         <v>7</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -7451,7 +7448,7 @@
         <v>7</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -7480,7 +7477,7 @@
         <v>7</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -7509,7 +7506,7 @@
         <v>7</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -7538,7 +7535,7 @@
         <v>7</v>
       </c>
       <c r="G134" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -7567,7 +7564,7 @@
         <v>7</v>
       </c>
       <c r="G135" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -7596,7 +7593,7 @@
         <v>7</v>
       </c>
       <c r="G136" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -7625,7 +7622,7 @@
         <v>7</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -7654,7 +7651,7 @@
         <v>7</v>
       </c>
       <c r="G138" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -7683,7 +7680,7 @@
         <v>7</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -7712,7 +7709,7 @@
         <v>7</v>
       </c>
       <c r="G140" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -7741,7 +7738,7 @@
         <v>7</v>
       </c>
       <c r="G141" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -7770,7 +7767,7 @@
         <v>7</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -7799,7 +7796,7 @@
         <v>7</v>
       </c>
       <c r="G143" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -7828,7 +7825,7 @@
         <v>7</v>
       </c>
       <c r="G144" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -7857,7 +7854,7 @@
         <v>7</v>
       </c>
       <c r="G145" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -7886,7 +7883,7 @@
         <v>7</v>
       </c>
       <c r="G146" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -7915,7 +7912,7 @@
         <v>7</v>
       </c>
       <c r="G147" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -7944,7 +7941,7 @@
         <v>7</v>
       </c>
       <c r="G148" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -7973,7 +7970,7 @@
         <v>7</v>
       </c>
       <c r="G149" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -8002,7 +7999,7 @@
         <v>7</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -8031,7 +8028,7 @@
         <v>7</v>
       </c>
       <c r="G151" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -8060,7 +8057,7 @@
         <v>7</v>
       </c>
       <c r="G152" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -8089,7 +8086,7 @@
         <v>7</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -8118,7 +8115,7 @@
         <v>7</v>
       </c>
       <c r="G154" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -8147,7 +8144,7 @@
         <v>7</v>
       </c>
       <c r="G155" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -8176,7 +8173,7 @@
         <v>7</v>
       </c>
       <c r="G156" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -8205,7 +8202,7 @@
         <v>7</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -8234,7 +8231,7 @@
         <v>7</v>
       </c>
       <c r="G158" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -8263,7 +8260,7 @@
         <v>7</v>
       </c>
       <c r="G159" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -8292,7 +8289,7 @@
         <v>7</v>
       </c>
       <c r="G160" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -8321,7 +8318,7 @@
         <v>7</v>
       </c>
       <c r="G161" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -8350,7 +8347,7 @@
         <v>7</v>
       </c>
       <c r="G162" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -8379,7 +8376,7 @@
         <v>7</v>
       </c>
       <c r="G163" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -8408,7 +8405,7 @@
         <v>7</v>
       </c>
       <c r="G164" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -8437,7 +8434,7 @@
         <v>7</v>
       </c>
       <c r="G165" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -8466,7 +8463,7 @@
         <v>7</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -8495,7 +8492,7 @@
         <v>7</v>
       </c>
       <c r="G167" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -8524,7 +8521,7 @@
         <v>7</v>
       </c>
       <c r="G168" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -8553,7 +8550,7 @@
         <v>7</v>
       </c>
       <c r="G169" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -8582,7 +8579,7 @@
         <v>7</v>
       </c>
       <c r="G170" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -8611,7 +8608,7 @@
         <v>7</v>
       </c>
       <c r="G171" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -8640,7 +8637,7 @@
         <v>7</v>
       </c>
       <c r="G172" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -8669,7 +8666,7 @@
         <v>7</v>
       </c>
       <c r="G173" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -8698,7 +8695,7 @@
         <v>7</v>
       </c>
       <c r="G174" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -8727,7 +8724,7 @@
         <v>7</v>
       </c>
       <c r="G175" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -8756,7 +8753,7 @@
         <v>7</v>
       </c>
       <c r="G176" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -8785,7 +8782,7 @@
         <v>7</v>
       </c>
       <c r="G177" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -8814,7 +8811,7 @@
         <v>7</v>
       </c>
       <c r="G178" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -8843,7 +8840,7 @@
         <v>7</v>
       </c>
       <c r="G179" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -8872,7 +8869,7 @@
         <v>7</v>
       </c>
       <c r="G180" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -8901,7 +8898,7 @@
         <v>7</v>
       </c>
       <c r="G181" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -8930,7 +8927,7 @@
         <v>7</v>
       </c>
       <c r="G182" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -8959,7 +8956,7 @@
         <v>7</v>
       </c>
       <c r="G183" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -8988,7 +8985,7 @@
         <v>7</v>
       </c>
       <c r="G184" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -9017,7 +9014,7 @@
         <v>7</v>
       </c>
       <c r="G185" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -9046,7 +9043,7 @@
         <v>7</v>
       </c>
       <c r="G186" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -9075,7 +9072,7 @@
         <v>7</v>
       </c>
       <c r="G187" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -9104,7 +9101,7 @@
         <v>7</v>
       </c>
       <c r="G188" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -9133,7 +9130,7 @@
         <v>7</v>
       </c>
       <c r="G189" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -9162,7 +9159,7 @@
         <v>7</v>
       </c>
       <c r="G190" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -9191,7 +9188,7 @@
         <v>7</v>
       </c>
       <c r="G191" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -9220,7 +9217,7 @@
         <v>7</v>
       </c>
       <c r="G192" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -9249,7 +9246,7 @@
         <v>7</v>
       </c>
       <c r="G193" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -9278,7 +9275,7 @@
         <v>7</v>
       </c>
       <c r="G194" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -9307,7 +9304,7 @@
         <v>7</v>
       </c>
       <c r="G195" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -9336,7 +9333,7 @@
         <v>7</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -9365,7 +9362,7 @@
         <v>7</v>
       </c>
       <c r="G197" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -9394,7 +9391,7 @@
         <v>7</v>
       </c>
       <c r="G198" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -9423,7 +9420,7 @@
         <v>7</v>
       </c>
       <c r="G199" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -9452,7 +9449,7 @@
         <v>7</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -9481,7 +9478,7 @@
         <v>7</v>
       </c>
       <c r="G201" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -9510,7 +9507,7 @@
         <v>7</v>
       </c>
       <c r="G202" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -9539,7 +9536,7 @@
         <v>7</v>
       </c>
       <c r="G203" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -9568,7 +9565,7 @@
         <v>7</v>
       </c>
       <c r="G204" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -9597,7 +9594,7 @@
         <v>7</v>
       </c>
       <c r="G205" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -9626,7 +9623,7 @@
         <v>7</v>
       </c>
       <c r="G206" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -9655,7 +9652,7 @@
         <v>7</v>
       </c>
       <c r="G207" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -9684,7 +9681,7 @@
         <v>7</v>
       </c>
       <c r="G208" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -9713,7 +9710,7 @@
         <v>7</v>
       </c>
       <c r="G209" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -9742,7 +9739,7 @@
         <v>7</v>
       </c>
       <c r="G210" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -9771,7 +9768,7 @@
         <v>7</v>
       </c>
       <c r="G211" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -9800,7 +9797,7 @@
         <v>7</v>
       </c>
       <c r="G212" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -9829,7 +9826,7 @@
         <v>7</v>
       </c>
       <c r="G213" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H213">
         <v>0</v>
@@ -9858,7 +9855,7 @@
         <v>7</v>
       </c>
       <c r="G214" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -9887,7 +9884,7 @@
         <v>7</v>
       </c>
       <c r="G215" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -9916,7 +9913,7 @@
         <v>7</v>
       </c>
       <c r="G216" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -9945,7 +9942,7 @@
         <v>7</v>
       </c>
       <c r="G217" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -9974,7 +9971,7 @@
         <v>7</v>
       </c>
       <c r="G218" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -10003,7 +10000,7 @@
         <v>7</v>
       </c>
       <c r="G219" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -10032,7 +10029,7 @@
         <v>7</v>
       </c>
       <c r="G220" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -10061,7 +10058,7 @@
         <v>7</v>
       </c>
       <c r="G221" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H221">
         <v>0</v>
@@ -10090,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="G222" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -10119,7 +10116,7 @@
         <v>7</v>
       </c>
       <c r="G223" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H223">
         <v>0</v>
@@ -10148,7 +10145,7 @@
         <v>7</v>
       </c>
       <c r="G224" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -10177,7 +10174,7 @@
         <v>7</v>
       </c>
       <c r="G225" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H225">
         <v>0</v>
@@ -10206,7 +10203,7 @@
         <v>7</v>
       </c>
       <c r="G226" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -10235,7 +10232,7 @@
         <v>7</v>
       </c>
       <c r="G227" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -10264,7 +10261,7 @@
         <v>7</v>
       </c>
       <c r="G228" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -10293,7 +10290,7 @@
         <v>7</v>
       </c>
       <c r="G229" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -10322,7 +10319,7 @@
         <v>7</v>
       </c>
       <c r="G230" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -10351,7 +10348,7 @@
         <v>7</v>
       </c>
       <c r="G231" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H231">
         <v>0</v>
@@ -10380,7 +10377,7 @@
         <v>7</v>
       </c>
       <c r="G232" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -10409,7 +10406,7 @@
         <v>7</v>
       </c>
       <c r="G233" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -10438,7 +10435,7 @@
         <v>7</v>
       </c>
       <c r="G234" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -10467,7 +10464,7 @@
         <v>7</v>
       </c>
       <c r="G235" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -10496,7 +10493,7 @@
         <v>7</v>
       </c>
       <c r="G236" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H236">
         <v>0</v>
@@ -10525,7 +10522,7 @@
         <v>7</v>
       </c>
       <c r="G237" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -10554,7 +10551,7 @@
         <v>7</v>
       </c>
       <c r="G238" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H238">
         <v>0</v>
@@ -10583,7 +10580,7 @@
         <v>7</v>
       </c>
       <c r="G239" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -10612,7 +10609,7 @@
         <v>7</v>
       </c>
       <c r="G240" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H240">
         <v>0</v>
@@ -10641,7 +10638,7 @@
         <v>7</v>
       </c>
       <c r="G241" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H241">
         <v>0</v>
@@ -10670,7 +10667,7 @@
         <v>7</v>
       </c>
       <c r="G242" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -10699,7 +10696,7 @@
         <v>7</v>
       </c>
       <c r="G243" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H243">
         <v>0</v>
@@ -10728,7 +10725,7 @@
         <v>7</v>
       </c>
       <c r="G244" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H244">
         <v>0</v>
@@ -10757,7 +10754,7 @@
         <v>7</v>
       </c>
       <c r="G245" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H245">
         <v>0</v>
@@ -10786,7 +10783,7 @@
         <v>7</v>
       </c>
       <c r="G246" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -10815,7 +10812,7 @@
         <v>7</v>
       </c>
       <c r="G247" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -10844,7 +10841,7 @@
         <v>7</v>
       </c>
       <c r="G248" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H248">
         <v>0</v>
@@ -10873,7 +10870,7 @@
         <v>7</v>
       </c>
       <c r="G249" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -10902,7 +10899,7 @@
         <v>7</v>
       </c>
       <c r="G250" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H250">
         <v>0</v>
@@ -10931,7 +10928,7 @@
         <v>7</v>
       </c>
       <c r="G251" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H251">
         <v>0</v>
@@ -10960,7 +10957,7 @@
         <v>7</v>
       </c>
       <c r="G252" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H252">
         <v>0</v>
@@ -10989,7 +10986,7 @@
         <v>7</v>
       </c>
       <c r="G253" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H253">
         <v>0</v>
@@ -11018,7 +11015,7 @@
         <v>7</v>
       </c>
       <c r="G254" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H254">
         <v>0</v>
@@ -11047,7 +11044,7 @@
         <v>7</v>
       </c>
       <c r="G255" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H255">
         <v>0</v>
@@ -11076,7 +11073,7 @@
         <v>7</v>
       </c>
       <c r="G256" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H256">
         <v>0</v>
@@ -11105,7 +11102,7 @@
         <v>7</v>
       </c>
       <c r="G257" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H257">
         <v>0</v>
@@ -11134,7 +11131,7 @@
         <v>7</v>
       </c>
       <c r="G258" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H258">
         <v>0</v>
@@ -11163,7 +11160,7 @@
         <v>7</v>
       </c>
       <c r="G259" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -11192,7 +11189,7 @@
         <v>7</v>
       </c>
       <c r="G260" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H260">
         <v>0</v>
@@ -11221,7 +11218,7 @@
         <v>7</v>
       </c>
       <c r="G261" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H261">
         <v>0</v>
@@ -11250,7 +11247,7 @@
         <v>7</v>
       </c>
       <c r="G262" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H262">
         <v>0</v>
@@ -11279,7 +11276,7 @@
         <v>7</v>
       </c>
       <c r="G263" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H263">
         <v>0</v>
@@ -11308,7 +11305,7 @@
         <v>7</v>
       </c>
       <c r="G264" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H264">
         <v>0</v>
@@ -11337,7 +11334,7 @@
         <v>7</v>
       </c>
       <c r="G265" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H265">
         <v>0</v>
@@ -11366,7 +11363,7 @@
         <v>7</v>
       </c>
       <c r="G266" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -11395,7 +11392,7 @@
         <v>7</v>
       </c>
       <c r="G267" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -11424,7 +11421,7 @@
         <v>7</v>
       </c>
       <c r="G268" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -11453,7 +11450,7 @@
         <v>7</v>
       </c>
       <c r="G269" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H269">
         <v>0</v>
@@ -11482,7 +11479,7 @@
         <v>7</v>
       </c>
       <c r="G270" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H270">
         <v>0</v>
@@ -11511,7 +11508,7 @@
         <v>7</v>
       </c>
       <c r="G271" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H271">
         <v>0</v>
@@ -11540,7 +11537,7 @@
         <v>7</v>
       </c>
       <c r="G272" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H272">
         <v>0</v>
@@ -11558,7 +11555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DF7B89-3137-4483-A2A9-559F907A912A}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -11884,20 +11881,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871B8469-CA4D-495B-9C72-1DE61BB7D586}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="30.08984375" customWidth="1"/>
     <col min="7" max="7" width="17.7265625" customWidth="1"/>
-    <col min="8" max="8" width="16.36328125" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" customWidth="1"/>
+    <col min="9" max="10" width="5.08984375" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" customWidth="1"/>
+    <col min="12" max="12" width="13.6328125" customWidth="1"/>
+    <col min="13" max="14" width="5.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:26">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11919,14 +11923,15 @@
       <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="11"/>
+      <c r="N1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="O1" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -11939,12 +11944,12 @@
       <c r="D2" s="6">
         <v>7908</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="12"/>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -11953,7 +11958,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:26">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -11966,21 +11971,26 @@
       <c r="D3" s="6">
         <v>22051</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="12">
+        <v>0.4</v>
+      </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="N3">
+        <v>2.5</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -11993,21 +12003,26 @@
       <c r="D4" s="6">
         <v>3747</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="12">
+        <v>0.35</v>
+      </c>
       <c r="F4" t="s">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="O4" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="N4">
+        <v>1.2</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -12020,18 +12035,18 @@
       <c r="D5" s="6">
         <v>8000</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="12"/>
       <c r="F5" t="s">
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -12044,18 +12059,23 @@
       <c r="D6" s="6">
         <v>18049</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="12">
+        <v>0.35</v>
+      </c>
       <c r="F6" t="s">
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H6">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -12065,21 +12085,26 @@
       <c r="C7" s="6">
         <v>8</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>9516</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="12">
+        <v>0.33</v>
+      </c>
       <c r="F7" t="s">
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="N7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -12089,24 +12114,29 @@
       <c r="C8" s="6">
         <v>8</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>7820.6</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="12">
+        <v>0.4</v>
+      </c>
       <c r="F8" t="s">
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
+      <c r="N8">
+        <v>1.2</v>
+      </c>
       <c r="O8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -12116,24 +12146,27 @@
       <c r="C9" s="6">
         <v>8</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>16062.2</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="12">
+        <v>0.5</v>
+      </c>
       <c r="F9" t="s">
         <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="P9" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="N9">
+        <v>1.2</v>
+      </c>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -12147,21 +12180,19 @@
         <f>197+806+1229 +4257 +8015</f>
         <v>14504</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="12"/>
       <c r="F10" t="s">
         <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="P10" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -12174,44 +12205,45 @@
       <c r="D11" s="6">
         <v>30932</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="12"/>
       <c r="F11" t="s">
         <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C12" s="6">
         <v>8</v>
       </c>
-      <c r="D12">
-        <v>471</v>
+      <c r="D12" s="6">
+        <v>2328</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" t="s">
+        <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="N12">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -12221,45 +12253,47 @@
       <c r="C13" s="6">
         <v>8</v>
       </c>
-      <c r="D13">
-        <v>2328</v>
-      </c>
+      <c r="D13" s="6">
+        <f>12666 +14503 +13974 +5670 + 3804</f>
+        <v>50617</v>
+      </c>
+      <c r="E13" s="12"/>
       <c r="F13" t="s">
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:26">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="6">
         <v>8</v>
       </c>
       <c r="D14" s="6">
-        <f>12666 +14503 +13974 +5670 + 3804</f>
-        <v>50617</v>
-      </c>
-      <c r="E14" s="5"/>
+        <f>2108 + 79 +672</f>
+        <v>2859</v>
+      </c>
+      <c r="E14" s="12"/>
       <c r="F14" t="s">
         <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:26">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -12269,58 +12303,66 @@
       <c r="C15" s="6">
         <v>8</v>
       </c>
-      <c r="D15" s="7">
-        <f>2108 + 79 +672</f>
-        <v>2859</v>
-      </c>
-      <c r="E15" s="5"/>
+      <c r="D15" s="6">
+        <v>4644</v>
+      </c>
+      <c r="E15" s="12"/>
       <c r="F15" t="s">
         <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="N15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" s="6">
+        <v>8</v>
+      </c>
+      <c r="P15" s="6">
+        <v>471</v>
+      </c>
+      <c r="R15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S15" t="s">
+        <v>34</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>15</v>
+      <c r="B16" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="6">
         <v>8</v>
       </c>
-      <c r="D16" s="7">
-        <v>4644</v>
-      </c>
-      <c r="E16" s="5"/>
+      <c r="D16" s="6">
+        <v>5317</v>
+      </c>
       <c r="F16" t="s">
         <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="6">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>5317</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\TraderesCode\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8595642-26F3-4515-84E6-0356A2B25925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B763F6C-C467-4E27-A9E2-59BB228163C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4515" yWindow="-11535" windowWidth="19425" windowHeight="10425" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="39">
   <si>
     <t>Technology</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>Number</t>
+  </si>
+  <si>
+    <t>Pumped_hydro</t>
+  </si>
+  <si>
+    <t>InitialEnergyLevelInMWH</t>
   </si>
 </sst>
 </file>
@@ -11884,7 +11890,7 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11921,7 +11927,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="7" t="s">
@@ -11951,9 +11957,6 @@
       <c r="G2" t="s">
         <v>34</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
       <c r="O2" t="s">
         <v>28</v>
       </c>
@@ -11980,9 +11983,6 @@
       <c r="G3" t="s">
         <v>34</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="N3">
         <v>2.5</v>
       </c>
@@ -12012,9 +12012,6 @@
       <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="N4">
         <v>1.2</v>
       </c>
@@ -12027,7 +12024,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C5" s="6">
         <v>8</v>
@@ -12043,7 +12040,7 @@
         <v>34</v>
       </c>
       <c r="H5">
-        <v>0.89</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -12068,9 +12065,6 @@
       <c r="G6" t="s">
         <v>34</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="N6">
         <v>2</v>
       </c>
@@ -12097,9 +12091,6 @@
       <c r="G7" t="s">
         <v>34</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
       <c r="N7">
         <v>0.5</v>
       </c>
@@ -12126,9 +12117,6 @@
       <c r="G8" t="s">
         <v>34</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="N8">
         <v>1.2</v>
       </c>
@@ -12157,9 +12145,6 @@
       </c>
       <c r="G9" t="s">
         <v>34</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
       </c>
       <c r="N9">
         <v>1.2</v>
@@ -12187,9 +12172,6 @@
       <c r="G10" t="s">
         <v>34</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:26">
@@ -12212,9 +12194,6 @@
       <c r="G11" t="s">
         <v>34</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="O11" t="s">
         <v>30</v>
       </c>
@@ -12239,9 +12218,6 @@
       <c r="G12" t="s">
         <v>34</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="1">
@@ -12264,9 +12240,6 @@
       <c r="G13" t="s">
         <v>34</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="1">
@@ -12289,9 +12262,6 @@
       <c r="G14" t="s">
         <v>34</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="1">
@@ -12313,9 +12283,6 @@
       <c r="G15" t="s">
         <v>34</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>26</v>
       </c>
@@ -12356,9 +12323,6 @@
       </c>
       <c r="G16" t="s">
         <v>34</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:1">

--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\TraderesCode\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B763F6C-C467-4E27-A9E2-59BB228163C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A507B14-4614-4FDA-AE20-E467E77DD1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
-    <sheet name="backup" sheetId="1" r:id="rId2"/>
-    <sheet name="powerplants" sheetId="3" r:id="rId3"/>
-    <sheet name="germany2019" sheetId="5" r:id="rId4"/>
-    <sheet name="dummy" sheetId="2" r:id="rId5"/>
+    <sheet name="extended" sheetId="1" r:id="rId1"/>
+    <sheet name="powerplants_grouped" sheetId="3" r:id="rId2"/>
+    <sheet name="germany2019" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="40">
   <si>
     <t>Technology</t>
   </si>
@@ -157,6 +156,9 @@
   <si>
     <t>InitialEnergyLevelInMWH</t>
   </si>
+  <si>
+    <t>This are powerplants from the Amiris scenario</t>
+  </si>
 </sst>
 </file>
 
@@ -165,7 +167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,12 +199,6 @@
       <color rgb="FF6A8759"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -249,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -273,9 +269,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -297,7 +290,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ingrid Sanchez Jimenez" refreshedDate="44760.742488310185" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="271" xr:uid="{20EFE1D4-84EA-4D50-B43F-EAAC5E455D08}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B1:I272" sheet="backup"/>
+    <worksheetSource ref="B1:I272" sheet="extended"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Technology" numFmtId="0">
@@ -3451,214 +3444,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE56270-BB9F-4A65-A808-F3AE5E04B4CD}">
-  <dimension ref="A3:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4">
-        <v>4644.4034000000001</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.35162268780797246</v>
-      </c>
-      <c r="D4" s="4">
-        <v>20.333333333333332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4">
-        <v>31358.328999999998</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.53826095601515933</v>
-      </c>
-      <c r="D5" s="4">
-        <v>28.205882352941178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4">
-        <v>24845.77</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.40383904661803</v>
-      </c>
-      <c r="D6" s="4">
-        <v>31.09375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3652.9</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.35399077947121271</v>
-      </c>
-      <c r="D7" s="4">
-        <v>36.705882352941174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4">
-        <v>8858.7499999999982</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.7811457116585705</v>
-      </c>
-      <c r="D8" s="4">
-        <v>56.971428571428568</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="4">
-        <v>20779.019999999997</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.36004079896582097</v>
-      </c>
-      <c r="D9" s="4">
-        <v>38.666666666666664</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="4">
-        <v>8599</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="D10" s="4">
-        <v>35.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4">
-        <v>8194.3024999999998</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.37414216973934089</v>
-      </c>
-      <c r="D11" s="4">
-        <v>28.828571428571429</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4">
-        <v>53555.516075797081</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4">
-        <v>10271.799999999999</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>6.4545454545454541</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4">
-        <v>47547.508487000036</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="4">
-        <v>222307.29946279712</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.58860495021834658</v>
-      </c>
-      <c r="D15" s="4">
-        <v>29.719557195571955</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I272"/>
   <sheetViews>
-    <sheetView topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="G273" sqref="G273"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="K196" sqref="K196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11557,12 +11347,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DF7B89-3137-4483-A2A9-559F907A912A}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11885,12 +11675,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871B8469-CA4D-495B-9C72-1DE61BB7D586}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11929,7 +11719,9 @@
       <c r="H1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="11"/>
+      <c r="M1" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="N1" s="7" t="s">
         <v>27</v>
       </c>
@@ -11950,7 +11742,7 @@
       <c r="D2" s="6">
         <v>7908</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="11"/>
       <c r="F2" t="s">
         <v>7</v>
       </c>
@@ -11974,7 +11766,7 @@
       <c r="D3" s="6">
         <v>22051</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>0.4</v>
       </c>
       <c r="F3" t="s">
@@ -12003,7 +11795,7 @@
       <c r="D4" s="6">
         <v>3747</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>0.35</v>
       </c>
       <c r="F4" t="s">
@@ -12032,7 +11824,7 @@
       <c r="D5" s="6">
         <v>8000</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="11"/>
       <c r="F5" t="s">
         <v>7</v>
       </c>
@@ -12056,7 +11848,7 @@
       <c r="D6" s="6">
         <v>18049</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>0.35</v>
       </c>
       <c r="F6" t="s">
@@ -12082,7 +11874,7 @@
       <c r="D7" s="6">
         <v>9516</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>0.33</v>
       </c>
       <c r="F7" t="s">
@@ -12108,7 +11900,7 @@
       <c r="D8" s="6">
         <v>7820.6</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>0.4</v>
       </c>
       <c r="F8" t="s">
@@ -12137,7 +11929,7 @@
       <c r="D9" s="6">
         <v>16062.2</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>0.5</v>
       </c>
       <c r="F9" t="s">
@@ -12165,7 +11957,7 @@
         <f>197+806+1229 +4257 +8015</f>
         <v>14504</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="11"/>
       <c r="F10" t="s">
         <v>7</v>
       </c>
@@ -12187,7 +11979,7 @@
       <c r="D11" s="6">
         <v>30932</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="11"/>
       <c r="F11" t="s">
         <v>7</v>
       </c>
@@ -12211,7 +12003,7 @@
       <c r="D12" s="6">
         <v>2328</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="11"/>
       <c r="F12" t="s">
         <v>7</v>
       </c>
@@ -12233,7 +12025,7 @@
         <f>12666 +14503 +13974 +5670 + 3804</f>
         <v>50617</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="11"/>
       <c r="F13" t="s">
         <v>7</v>
       </c>
@@ -12255,7 +12047,7 @@
         <f>2108 + 79 +672</f>
         <v>2859</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="11"/>
       <c r="F14" t="s">
         <v>7</v>
       </c>
@@ -12276,7 +12068,7 @@
       <c r="D15" s="6">
         <v>4644</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="11"/>
       <c r="F15" t="s">
         <v>7</v>
       </c>
@@ -12335,16 +12127,205 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D2471E-A65C-45D2-8906-9D7F22409E2C}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE56270-BB9F-4A65-A808-F3AE5E04B4CD}">
+  <dimension ref="A3:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4644.4034000000001</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.35162268780797246</v>
+      </c>
+      <c r="D4" s="4">
+        <v>20.333333333333332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
+        <v>31358.328999999998</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.53826095601515933</v>
+      </c>
+      <c r="D5" s="4">
+        <v>28.205882352941178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
+        <v>24845.77</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.40383904661803</v>
+      </c>
+      <c r="D6" s="4">
+        <v>31.09375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3652.9</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.35399077947121271</v>
+      </c>
+      <c r="D7" s="4">
+        <v>36.705882352941174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8858.7499999999982</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.7811457116585705</v>
+      </c>
+      <c r="D8" s="4">
+        <v>56.971428571428568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4">
+        <v>20779.019999999997</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.36004079896582097</v>
+      </c>
+      <c r="D9" s="4">
+        <v>38.666666666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4">
+        <v>8599</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="D10" s="4">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4">
+        <v>8194.3024999999998</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.37414216973934089</v>
+      </c>
+      <c r="D11" s="4">
+        <v>28.828571428571429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4">
+        <v>53555.516075797081</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4">
+        <v>10271.799999999999</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>6.4545454545454541</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4">
+        <v>47547.508487000036</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="4">
+        <v>222307.29946279712</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.58860495021834658</v>
+      </c>
+      <c r="D15" s="4">
+        <v>29.719557195571955</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\TraderesCode\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A507B14-4614-4FDA-AE20-E467E77DD1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C66E97-7CEA-4858-BB89-73E795B7A755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="extended" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="39">
   <si>
     <t>Technology</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>DE</t>
-  </si>
-  <si>
-    <t>Producer1</t>
   </si>
   <si>
     <t>Coal PSC</t>
@@ -3447,7 +3444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+    <sheetView topLeftCell="A175" workbookViewId="0">
       <selection activeCell="K196" sqref="K196"/>
     </sheetView>
   </sheetViews>
@@ -3477,10 +3474,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3503,7 +3500,7 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3532,7 +3529,7 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3561,7 +3558,7 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3590,7 +3587,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3619,7 +3616,7 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3648,7 +3645,7 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3677,7 +3674,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3706,7 +3703,7 @@
         <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3735,7 +3732,7 @@
         <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -3764,7 +3761,7 @@
         <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -3793,7 +3790,7 @@
         <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -3822,7 +3819,7 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -3851,7 +3848,7 @@
         <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -3880,7 +3877,7 @@
         <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -3909,7 +3906,7 @@
         <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -3938,7 +3935,7 @@
         <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -3967,7 +3964,7 @@
         <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -3996,7 +3993,7 @@
         <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -4025,7 +4022,7 @@
         <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -4054,7 +4051,7 @@
         <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -4083,7 +4080,7 @@
         <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -4097,7 +4094,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -4112,7 +4109,7 @@
         <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -4126,7 +4123,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24">
         <v>8</v>
@@ -4141,7 +4138,7 @@
         <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -4155,7 +4152,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -4170,7 +4167,7 @@
         <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -4184,7 +4181,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -4199,7 +4196,7 @@
         <v>7</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -4213,7 +4210,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -4228,7 +4225,7 @@
         <v>7</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -4242,7 +4239,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28">
         <v>12</v>
@@ -4257,7 +4254,7 @@
         <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -4271,7 +4268,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29">
         <v>13</v>
@@ -4286,7 +4283,7 @@
         <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -4300,7 +4297,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30">
         <v>15</v>
@@ -4315,7 +4312,7 @@
         <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -4329,7 +4326,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31">
         <v>16</v>
@@ -4344,7 +4341,7 @@
         <v>7</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -4358,7 +4355,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32">
         <v>17</v>
@@ -4373,7 +4370,7 @@
         <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -4387,7 +4384,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33">
         <v>19</v>
@@ -4402,7 +4399,7 @@
         <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -4416,7 +4413,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34">
         <v>22</v>
@@ -4431,7 +4428,7 @@
         <v>7</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -4445,7 +4442,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35">
         <v>28</v>
@@ -4460,7 +4457,7 @@
         <v>7</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -4474,7 +4471,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36">
         <v>29</v>
@@ -4489,7 +4486,7 @@
         <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -4503,7 +4500,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37">
         <v>30</v>
@@ -4518,7 +4515,7 @@
         <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -4532,7 +4529,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38">
         <v>31</v>
@@ -4547,7 +4544,7 @@
         <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -4561,7 +4558,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C39">
         <v>32</v>
@@ -4576,7 +4573,7 @@
         <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4590,7 +4587,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C40">
         <v>33</v>
@@ -4605,7 +4602,7 @@
         <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4619,7 +4616,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C41">
         <v>34</v>
@@ -4634,7 +4631,7 @@
         <v>7</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4648,7 +4645,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C42">
         <v>35</v>
@@ -4663,7 +4660,7 @@
         <v>7</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4677,7 +4674,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C43">
         <v>37</v>
@@ -4692,7 +4689,7 @@
         <v>7</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4706,7 +4703,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C44">
         <v>38</v>
@@ -4721,7 +4718,7 @@
         <v>7</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4735,7 +4732,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C45">
         <v>39</v>
@@ -4750,7 +4747,7 @@
         <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4764,7 +4761,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C46">
         <v>40</v>
@@ -4779,7 +4776,7 @@
         <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4793,7 +4790,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C47">
         <v>41</v>
@@ -4808,7 +4805,7 @@
         <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4822,7 +4819,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C48">
         <v>43</v>
@@ -4837,7 +4834,7 @@
         <v>7</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4851,7 +4848,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C49">
         <v>46</v>
@@ -4866,7 +4863,7 @@
         <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4880,7 +4877,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C50">
         <v>51</v>
@@ -4895,7 +4892,7 @@
         <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4909,7 +4906,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C51">
         <v>53</v>
@@ -4924,7 +4921,7 @@
         <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -4938,7 +4935,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C52">
         <v>54</v>
@@ -4953,7 +4950,7 @@
         <v>7</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -4967,7 +4964,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C53">
         <v>60</v>
@@ -4982,7 +4979,7 @@
         <v>7</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -4996,7 +4993,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C54">
         <v>82</v>
@@ -5011,7 +5008,7 @@
         <v>7</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5025,7 +5022,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -5040,7 +5037,7 @@
         <v>7</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5054,7 +5051,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -5069,7 +5066,7 @@
         <v>7</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5083,7 +5080,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C57">
         <v>7</v>
@@ -5098,7 +5095,7 @@
         <v>7</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5112,7 +5109,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C58">
         <v>9</v>
@@ -5127,7 +5124,7 @@
         <v>7</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5141,7 +5138,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C59">
         <v>10</v>
@@ -5156,7 +5153,7 @@
         <v>7</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5170,7 +5167,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C60">
         <v>11</v>
@@ -5185,7 +5182,7 @@
         <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5199,7 +5196,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C61">
         <v>12</v>
@@ -5214,7 +5211,7 @@
         <v>7</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5228,7 +5225,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C62">
         <v>13</v>
@@ -5243,7 +5240,7 @@
         <v>7</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -5257,7 +5254,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C63">
         <v>14</v>
@@ -5272,7 +5269,7 @@
         <v>7</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -5286,7 +5283,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C64">
         <v>15</v>
@@ -5301,7 +5298,7 @@
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -5315,7 +5312,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C65">
         <v>17</v>
@@ -5330,7 +5327,7 @@
         <v>7</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -5344,7 +5341,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C66">
         <v>18</v>
@@ -5359,7 +5356,7 @@
         <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -5373,7 +5370,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C67">
         <v>19</v>
@@ -5388,7 +5385,7 @@
         <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -5402,7 +5399,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C68">
         <v>21</v>
@@ -5417,7 +5414,7 @@
         <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -5431,7 +5428,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C69">
         <v>22</v>
@@ -5446,7 +5443,7 @@
         <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -5460,7 +5457,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C70">
         <v>23</v>
@@ -5475,7 +5472,7 @@
         <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -5489,7 +5486,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C71">
         <v>24</v>
@@ -5504,7 +5501,7 @@
         <v>7</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -5518,7 +5515,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C72">
         <v>25</v>
@@ -5533,7 +5530,7 @@
         <v>7</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -5547,7 +5544,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C73">
         <v>26</v>
@@ -5562,7 +5559,7 @@
         <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -5576,7 +5573,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C74">
         <v>27</v>
@@ -5591,7 +5588,7 @@
         <v>7</v>
       </c>
       <c r="G74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -5605,7 +5602,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C75">
         <v>28</v>
@@ -5620,7 +5617,7 @@
         <v>7</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -5634,7 +5631,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C76">
         <v>29</v>
@@ -5649,7 +5646,7 @@
         <v>7</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -5663,7 +5660,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C77">
         <v>32</v>
@@ -5678,7 +5675,7 @@
         <v>7</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -5692,7 +5689,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C78">
         <v>35</v>
@@ -5707,7 +5704,7 @@
         <v>7</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -5721,7 +5718,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C79">
         <v>37</v>
@@ -5736,7 +5733,7 @@
         <v>7</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -5750,7 +5747,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C80">
         <v>39</v>
@@ -5765,7 +5762,7 @@
         <v>7</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -5779,7 +5776,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C81">
         <v>41</v>
@@ -5794,7 +5791,7 @@
         <v>7</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -5808,7 +5805,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C82">
         <v>42</v>
@@ -5823,7 +5820,7 @@
         <v>7</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -5837,7 +5834,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C83">
         <v>44</v>
@@ -5852,7 +5849,7 @@
         <v>7</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -5866,7 +5863,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C84">
         <v>46</v>
@@ -5881,7 +5878,7 @@
         <v>7</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -5895,7 +5892,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C85">
         <v>47</v>
@@ -5910,7 +5907,7 @@
         <v>7</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -5924,7 +5921,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C86">
         <v>48</v>
@@ -5939,7 +5936,7 @@
         <v>7</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -5953,7 +5950,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C87">
         <v>49</v>
@@ -5968,7 +5965,7 @@
         <v>7</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -5982,7 +5979,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C88">
         <v>121</v>
@@ -5997,7 +5994,7 @@
         <v>7</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -6011,7 +6008,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -6026,7 +6023,7 @@
         <v>7</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -6040,7 +6037,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -6055,7 +6052,7 @@
         <v>7</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -6069,7 +6066,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C91">
         <v>5</v>
@@ -6084,7 +6081,7 @@
         <v>7</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -6098,7 +6095,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C92">
         <v>6</v>
@@ -6113,7 +6110,7 @@
         <v>7</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -6127,7 +6124,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C93">
         <v>8</v>
@@ -6142,7 +6139,7 @@
         <v>7</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -6156,7 +6153,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C94">
         <v>9</v>
@@ -6171,7 +6168,7 @@
         <v>7</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -6185,7 +6182,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C95">
         <v>10</v>
@@ -6200,7 +6197,7 @@
         <v>7</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -6214,7 +6211,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C96">
         <v>15</v>
@@ -6229,7 +6226,7 @@
         <v>7</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -6243,7 +6240,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C97">
         <v>16</v>
@@ -6258,7 +6255,7 @@
         <v>7</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -6272,7 +6269,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C98">
         <v>17</v>
@@ -6287,7 +6284,7 @@
         <v>7</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -6301,7 +6298,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C99">
         <v>18</v>
@@ -6316,7 +6313,7 @@
         <v>7</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -6330,7 +6327,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C100">
         <v>19</v>
@@ -6345,7 +6342,7 @@
         <v>7</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -6359,7 +6356,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C101">
         <v>20</v>
@@ -6374,7 +6371,7 @@
         <v>7</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -6388,7 +6385,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C102">
         <v>21</v>
@@ -6403,7 +6400,7 @@
         <v>7</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -6417,7 +6414,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C103">
         <v>23</v>
@@ -6432,7 +6429,7 @@
         <v>7</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -6446,7 +6443,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C104">
         <v>24</v>
@@ -6461,7 +6458,7 @@
         <v>7</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -6475,7 +6472,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C105">
         <v>25</v>
@@ -6490,7 +6487,7 @@
         <v>7</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -6504,7 +6501,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C106">
         <v>26</v>
@@ -6519,7 +6516,7 @@
         <v>7</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -6533,7 +6530,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C107">
         <v>27</v>
@@ -6548,7 +6545,7 @@
         <v>7</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -6562,7 +6559,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C108">
         <v>28</v>
@@ -6577,7 +6574,7 @@
         <v>7</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -6591,7 +6588,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C109">
         <v>29</v>
@@ -6606,7 +6603,7 @@
         <v>7</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -6620,7 +6617,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C110">
         <v>30</v>
@@ -6635,7 +6632,7 @@
         <v>7</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -6649,7 +6646,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C111">
         <v>33</v>
@@ -6664,7 +6661,7 @@
         <v>7</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -6678,7 +6675,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C112">
         <v>34</v>
@@ -6693,7 +6690,7 @@
         <v>7</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -6707,7 +6704,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C113">
         <v>35</v>
@@ -6722,7 +6719,7 @@
         <v>7</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -6736,7 +6733,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C114">
         <v>38</v>
@@ -6751,7 +6748,7 @@
         <v>7</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -6765,7 +6762,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C115">
         <v>43</v>
@@ -6780,7 +6777,7 @@
         <v>7</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -6794,7 +6791,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C116">
         <v>45</v>
@@ -6809,7 +6806,7 @@
         <v>7</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -6823,7 +6820,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C117">
         <v>47</v>
@@ -6838,7 +6835,7 @@
         <v>7</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -6852,7 +6849,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C118">
         <v>48</v>
@@ -6867,7 +6864,7 @@
         <v>7</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -6881,7 +6878,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C119">
         <v>49</v>
@@ -6896,7 +6893,7 @@
         <v>7</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -6910,7 +6907,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C120">
         <v>51</v>
@@ -6925,7 +6922,7 @@
         <v>7</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -6939,7 +6936,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C121">
         <v>61</v>
@@ -6954,7 +6951,7 @@
         <v>7</v>
       </c>
       <c r="G121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -6968,7 +6965,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C122">
         <v>68</v>
@@ -6983,7 +6980,7 @@
         <v>7</v>
       </c>
       <c r="G122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -6997,7 +6994,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C123">
         <v>74</v>
@@ -7012,7 +7009,7 @@
         <v>7</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -7026,7 +7023,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C124">
         <v>2</v>
@@ -7041,7 +7038,7 @@
         <v>7</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -7055,7 +7052,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C125">
         <v>13</v>
@@ -7070,7 +7067,7 @@
         <v>7</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -7084,7 +7081,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C126">
         <v>18</v>
@@ -7099,7 +7096,7 @@
         <v>7</v>
       </c>
       <c r="G126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -7113,7 +7110,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C127">
         <v>19</v>
@@ -7128,7 +7125,7 @@
         <v>7</v>
       </c>
       <c r="G127" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -7142,7 +7139,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C128">
         <v>30</v>
@@ -7157,7 +7154,7 @@
         <v>7</v>
       </c>
       <c r="G128" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -7171,7 +7168,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C129">
         <v>33</v>
@@ -7186,7 +7183,7 @@
         <v>7</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -7200,7 +7197,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C130">
         <v>38</v>
@@ -7215,7 +7212,7 @@
         <v>7</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -7229,7 +7226,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C131">
         <v>39</v>
@@ -7244,7 +7241,7 @@
         <v>7</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -7258,7 +7255,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C132">
         <v>40</v>
@@ -7273,7 +7270,7 @@
         <v>7</v>
       </c>
       <c r="G132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -7287,7 +7284,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C133">
         <v>43</v>
@@ -7302,7 +7299,7 @@
         <v>7</v>
       </c>
       <c r="G133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -7316,7 +7313,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C134">
         <v>44</v>
@@ -7331,7 +7328,7 @@
         <v>7</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -7345,7 +7342,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C135">
         <v>47</v>
@@ -7360,7 +7357,7 @@
         <v>7</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -7374,7 +7371,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C136">
         <v>48</v>
@@ -7389,7 +7386,7 @@
         <v>7</v>
       </c>
       <c r="G136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -7403,7 +7400,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C137">
         <v>52</v>
@@ -7418,7 +7415,7 @@
         <v>7</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -7432,7 +7429,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C138">
         <v>55</v>
@@ -7447,7 +7444,7 @@
         <v>7</v>
       </c>
       <c r="G138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -7461,7 +7458,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C139">
         <v>56</v>
@@ -7476,7 +7473,7 @@
         <v>7</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -7490,7 +7487,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C140">
         <v>57</v>
@@ -7505,7 +7502,7 @@
         <v>7</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -7519,7 +7516,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C141">
         <v>58</v>
@@ -7534,7 +7531,7 @@
         <v>7</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -7548,7 +7545,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C142">
         <v>60</v>
@@ -7563,7 +7560,7 @@
         <v>7</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -7577,7 +7574,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C143">
         <v>62</v>
@@ -7592,7 +7589,7 @@
         <v>7</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -7606,7 +7603,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C144">
         <v>63</v>
@@ -7621,7 +7618,7 @@
         <v>7</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -7635,7 +7632,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C145">
         <v>64</v>
@@ -7650,7 +7647,7 @@
         <v>7</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -7664,7 +7661,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C146">
         <v>67</v>
@@ -7679,7 +7676,7 @@
         <v>7</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -7693,7 +7690,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C147">
         <v>68</v>
@@ -7708,7 +7705,7 @@
         <v>7</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -7722,7 +7719,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C148">
         <v>69</v>
@@ -7737,7 +7734,7 @@
         <v>7</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -7751,7 +7748,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C149">
         <v>71</v>
@@ -7766,7 +7763,7 @@
         <v>7</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -7780,7 +7777,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C150">
         <v>74</v>
@@ -7795,7 +7792,7 @@
         <v>7</v>
       </c>
       <c r="G150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -7809,7 +7806,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C151">
         <v>78</v>
@@ -7824,7 +7821,7 @@
         <v>7</v>
       </c>
       <c r="G151" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -7838,7 +7835,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C152">
         <v>79</v>
@@ -7853,7 +7850,7 @@
         <v>7</v>
       </c>
       <c r="G152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -7867,7 +7864,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C153">
         <v>80</v>
@@ -7882,7 +7879,7 @@
         <v>7</v>
       </c>
       <c r="G153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -7896,7 +7893,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C154">
         <v>84</v>
@@ -7911,7 +7908,7 @@
         <v>7</v>
       </c>
       <c r="G154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -7925,7 +7922,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C155">
         <v>90</v>
@@ -7940,7 +7937,7 @@
         <v>7</v>
       </c>
       <c r="G155" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -7954,7 +7951,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C156">
         <v>95</v>
@@ -7969,7 +7966,7 @@
         <v>7</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -7983,7 +7980,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C157">
         <v>98</v>
@@ -7998,7 +7995,7 @@
         <v>7</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -8012,7 +8009,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C158">
         <v>100</v>
@@ -8027,7 +8024,7 @@
         <v>7</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -8041,7 +8038,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C159">
         <v>33</v>
@@ -8056,7 +8053,7 @@
         <v>7</v>
       </c>
       <c r="G159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -8070,7 +8067,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C160">
         <v>34</v>
@@ -8085,7 +8082,7 @@
         <v>7</v>
       </c>
       <c r="G160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -8099,7 +8096,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C161">
         <v>36</v>
@@ -8114,7 +8111,7 @@
         <v>7</v>
       </c>
       <c r="G161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -8128,7 +8125,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C162">
         <v>37</v>
@@ -8143,7 +8140,7 @@
         <v>7</v>
       </c>
       <c r="G162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -8157,7 +8154,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C163">
         <v>38</v>
@@ -8172,7 +8169,7 @@
         <v>7</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -8186,7 +8183,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -8201,7 +8198,7 @@
         <v>7</v>
       </c>
       <c r="G164" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -8215,7 +8212,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -8230,7 +8227,7 @@
         <v>7</v>
       </c>
       <c r="G165" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -8244,7 +8241,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C166">
         <v>2</v>
@@ -8259,7 +8256,7 @@
         <v>7</v>
       </c>
       <c r="G166" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -8273,7 +8270,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C167">
         <v>3</v>
@@ -8288,7 +8285,7 @@
         <v>7</v>
       </c>
       <c r="G167" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -8302,7 +8299,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C168">
         <v>4</v>
@@ -8317,7 +8314,7 @@
         <v>7</v>
       </c>
       <c r="G168" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -8331,7 +8328,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C169">
         <v>5</v>
@@ -8346,7 +8343,7 @@
         <v>7</v>
       </c>
       <c r="G169" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -8360,7 +8357,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C170">
         <v>6</v>
@@ -8375,7 +8372,7 @@
         <v>7</v>
       </c>
       <c r="G170" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -8389,7 +8386,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C171">
         <v>7</v>
@@ -8404,7 +8401,7 @@
         <v>7</v>
       </c>
       <c r="G171" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -8418,7 +8415,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C172">
         <v>8</v>
@@ -8433,7 +8430,7 @@
         <v>7</v>
       </c>
       <c r="G172" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -8447,7 +8444,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C173">
         <v>9</v>
@@ -8462,7 +8459,7 @@
         <v>7</v>
       </c>
       <c r="G173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -8476,7 +8473,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C174">
         <v>10</v>
@@ -8491,7 +8488,7 @@
         <v>7</v>
       </c>
       <c r="G174" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -8505,7 +8502,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C175">
         <v>11</v>
@@ -8520,7 +8517,7 @@
         <v>7</v>
       </c>
       <c r="G175" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -8534,7 +8531,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C176">
         <v>12</v>
@@ -8549,7 +8546,7 @@
         <v>7</v>
       </c>
       <c r="G176" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -8563,7 +8560,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C177">
         <v>13</v>
@@ -8578,7 +8575,7 @@
         <v>7</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -8592,7 +8589,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C178">
         <v>14</v>
@@ -8607,7 +8604,7 @@
         <v>7</v>
       </c>
       <c r="G178" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -8621,7 +8618,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C179">
         <v>15</v>
@@ -8636,7 +8633,7 @@
         <v>7</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -8650,7 +8647,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C180">
         <v>16</v>
@@ -8665,7 +8662,7 @@
         <v>7</v>
       </c>
       <c r="G180" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -8679,7 +8676,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C181">
         <v>17</v>
@@ -8694,7 +8691,7 @@
         <v>7</v>
       </c>
       <c r="G181" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -8708,7 +8705,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C182">
         <v>18</v>
@@ -8723,7 +8720,7 @@
         <v>7</v>
       </c>
       <c r="G182" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -8737,7 +8734,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C183">
         <v>19</v>
@@ -8752,7 +8749,7 @@
         <v>7</v>
       </c>
       <c r="G183" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -8766,7 +8763,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C184">
         <v>20</v>
@@ -8781,7 +8778,7 @@
         <v>7</v>
       </c>
       <c r="G184" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -8795,7 +8792,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C185">
         <v>21</v>
@@ -8810,7 +8807,7 @@
         <v>7</v>
       </c>
       <c r="G185" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -8824,7 +8821,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C186">
         <v>22</v>
@@ -8839,7 +8836,7 @@
         <v>7</v>
       </c>
       <c r="G186" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -8853,7 +8850,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C187">
         <v>23</v>
@@ -8868,7 +8865,7 @@
         <v>7</v>
       </c>
       <c r="G187" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -8882,7 +8879,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C188">
         <v>24</v>
@@ -8897,7 +8894,7 @@
         <v>7</v>
       </c>
       <c r="G188" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -8911,7 +8908,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C189">
         <v>25</v>
@@ -8926,7 +8923,7 @@
         <v>7</v>
       </c>
       <c r="G189" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -8940,7 +8937,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C190">
         <v>26</v>
@@ -8955,7 +8952,7 @@
         <v>7</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -8969,7 +8966,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C191">
         <v>27</v>
@@ -8984,7 +8981,7 @@
         <v>7</v>
       </c>
       <c r="G191" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -8998,7 +8995,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C192">
         <v>28</v>
@@ -9013,7 +9010,7 @@
         <v>7</v>
       </c>
       <c r="G192" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -9027,7 +9024,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -9042,7 +9039,7 @@
         <v>7</v>
       </c>
       <c r="G193" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -9056,7 +9053,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C194">
         <v>2</v>
@@ -9071,7 +9068,7 @@
         <v>7</v>
       </c>
       <c r="G194" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -9085,7 +9082,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C195">
         <v>3</v>
@@ -9100,7 +9097,7 @@
         <v>7</v>
       </c>
       <c r="G195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -9114,7 +9111,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C196">
         <v>4</v>
@@ -9129,7 +9126,7 @@
         <v>7</v>
       </c>
       <c r="G196" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -9143,7 +9140,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C197">
         <v>5</v>
@@ -9158,7 +9155,7 @@
         <v>7</v>
       </c>
       <c r="G197" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -9172,7 +9169,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C198">
         <v>6</v>
@@ -9187,7 +9184,7 @@
         <v>7</v>
       </c>
       <c r="G198" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -9201,7 +9198,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C199">
         <v>7</v>
@@ -9216,7 +9213,7 @@
         <v>7</v>
       </c>
       <c r="G199" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -9230,7 +9227,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C200">
         <v>8</v>
@@ -9245,7 +9242,7 @@
         <v>7</v>
       </c>
       <c r="G200" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -9259,7 +9256,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C201">
         <v>9</v>
@@ -9274,7 +9271,7 @@
         <v>7</v>
       </c>
       <c r="G201" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -9288,7 +9285,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C202">
         <v>12</v>
@@ -9303,7 +9300,7 @@
         <v>7</v>
       </c>
       <c r="G202" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -9317,7 +9314,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C203">
         <v>14</v>
@@ -9332,7 +9329,7 @@
         <v>7</v>
       </c>
       <c r="G203" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -9346,7 +9343,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -9361,7 +9358,7 @@
         <v>7</v>
       </c>
       <c r="G204" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -9375,7 +9372,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -9390,7 +9387,7 @@
         <v>7</v>
       </c>
       <c r="G205" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -9404,7 +9401,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C206">
         <v>2</v>
@@ -9419,7 +9416,7 @@
         <v>7</v>
       </c>
       <c r="G206" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -9433,7 +9430,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C207">
         <v>3</v>
@@ -9448,7 +9445,7 @@
         <v>7</v>
       </c>
       <c r="G207" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -9462,7 +9459,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C208">
         <v>4</v>
@@ -9477,7 +9474,7 @@
         <v>7</v>
       </c>
       <c r="G208" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -9491,7 +9488,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C209">
         <v>5</v>
@@ -9506,7 +9503,7 @@
         <v>7</v>
       </c>
       <c r="G209" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -9520,7 +9517,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C210">
         <v>6</v>
@@ -9535,7 +9532,7 @@
         <v>7</v>
       </c>
       <c r="G210" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -9549,7 +9546,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C211">
         <v>7</v>
@@ -9564,7 +9561,7 @@
         <v>7</v>
       </c>
       <c r="G211" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -9578,7 +9575,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C212">
         <v>8</v>
@@ -9593,7 +9590,7 @@
         <v>7</v>
       </c>
       <c r="G212" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -9607,7 +9604,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C213">
         <v>9</v>
@@ -9622,7 +9619,7 @@
         <v>7</v>
       </c>
       <c r="G213" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H213">
         <v>0</v>
@@ -9636,7 +9633,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C214">
         <v>10</v>
@@ -9651,7 +9648,7 @@
         <v>7</v>
       </c>
       <c r="G214" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -9665,7 +9662,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C215">
         <v>11</v>
@@ -9680,7 +9677,7 @@
         <v>7</v>
       </c>
       <c r="G215" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -9694,7 +9691,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C216">
         <v>12</v>
@@ -9709,7 +9706,7 @@
         <v>7</v>
       </c>
       <c r="G216" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -9723,7 +9720,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C217">
         <v>13</v>
@@ -9738,7 +9735,7 @@
         <v>7</v>
       </c>
       <c r="G217" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -9752,7 +9749,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C218">
         <v>14</v>
@@ -9767,7 +9764,7 @@
         <v>7</v>
       </c>
       <c r="G218" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -9781,7 +9778,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C219">
         <v>15</v>
@@ -9796,7 +9793,7 @@
         <v>7</v>
       </c>
       <c r="G219" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -9810,7 +9807,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C220">
         <v>16</v>
@@ -9825,7 +9822,7 @@
         <v>7</v>
       </c>
       <c r="G220" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -9839,7 +9836,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C221">
         <v>17</v>
@@ -9854,7 +9851,7 @@
         <v>7</v>
       </c>
       <c r="G221" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H221">
         <v>0</v>
@@ -9868,7 +9865,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C222">
         <v>18</v>
@@ -9883,7 +9880,7 @@
         <v>7</v>
       </c>
       <c r="G222" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -9897,7 +9894,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C223">
         <v>19</v>
@@ -9912,7 +9909,7 @@
         <v>7</v>
       </c>
       <c r="G223" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H223">
         <v>0</v>
@@ -9926,7 +9923,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C224">
         <v>20</v>
@@ -9941,7 +9938,7 @@
         <v>7</v>
       </c>
       <c r="G224" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -9955,7 +9952,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C225">
         <v>21</v>
@@ -9970,7 +9967,7 @@
         <v>7</v>
       </c>
       <c r="G225" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H225">
         <v>0</v>
@@ -9984,7 +9981,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C226">
         <v>10</v>
@@ -9999,7 +9996,7 @@
         <v>7</v>
       </c>
       <c r="G226" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -10013,7 +10010,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C227">
         <v>12</v>
@@ -10028,7 +10025,7 @@
         <v>7</v>
       </c>
       <c r="G227" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -10042,7 +10039,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C228">
         <v>13</v>
@@ -10057,7 +10054,7 @@
         <v>7</v>
       </c>
       <c r="G228" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -10071,7 +10068,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C229">
         <v>14</v>
@@ -10086,7 +10083,7 @@
         <v>7</v>
       </c>
       <c r="G229" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -10100,7 +10097,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C230">
         <v>20</v>
@@ -10115,7 +10112,7 @@
         <v>7</v>
       </c>
       <c r="G230" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -10129,7 +10126,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C231">
         <v>22</v>
@@ -10144,7 +10141,7 @@
         <v>7</v>
       </c>
       <c r="G231" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H231">
         <v>0</v>
@@ -10158,7 +10155,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C232">
         <v>23</v>
@@ -10173,7 +10170,7 @@
         <v>7</v>
       </c>
       <c r="G232" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -10187,7 +10184,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C233">
         <v>24</v>
@@ -10202,7 +10199,7 @@
         <v>7</v>
       </c>
       <c r="G233" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -10216,7 +10213,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C234">
         <v>25</v>
@@ -10231,7 +10228,7 @@
         <v>7</v>
       </c>
       <c r="G234" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -10245,7 +10242,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C235">
         <v>26</v>
@@ -10260,7 +10257,7 @@
         <v>7</v>
       </c>
       <c r="G235" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -10274,7 +10271,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C236">
         <v>28</v>
@@ -10289,7 +10286,7 @@
         <v>7</v>
       </c>
       <c r="G236" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H236">
         <v>0</v>
@@ -10303,7 +10300,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C237">
         <v>29</v>
@@ -10318,7 +10315,7 @@
         <v>7</v>
       </c>
       <c r="G237" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -10332,7 +10329,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C238">
         <v>32</v>
@@ -10347,7 +10344,7 @@
         <v>7</v>
       </c>
       <c r="G238" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H238">
         <v>0</v>
@@ -10361,7 +10358,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C239">
         <v>33</v>
@@ -10376,7 +10373,7 @@
         <v>7</v>
       </c>
       <c r="G239" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -10390,7 +10387,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C240">
         <v>34</v>
@@ -10405,7 +10402,7 @@
         <v>7</v>
       </c>
       <c r="G240" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H240">
         <v>0</v>
@@ -10419,7 +10416,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C241">
         <v>35</v>
@@ -10434,7 +10431,7 @@
         <v>7</v>
       </c>
       <c r="G241" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H241">
         <v>0</v>
@@ -10448,7 +10445,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C242">
         <v>37</v>
@@ -10463,7 +10460,7 @@
         <v>7</v>
       </c>
       <c r="G242" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -10477,7 +10474,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C243">
         <v>43</v>
@@ -10492,7 +10489,7 @@
         <v>7</v>
       </c>
       <c r="G243" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H243">
         <v>0</v>
@@ -10506,7 +10503,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C244">
         <v>46</v>
@@ -10521,7 +10518,7 @@
         <v>7</v>
       </c>
       <c r="G244" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H244">
         <v>0</v>
@@ -10535,7 +10532,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C245">
         <v>47</v>
@@ -10550,7 +10547,7 @@
         <v>7</v>
       </c>
       <c r="G245" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H245">
         <v>0</v>
@@ -10564,7 +10561,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C246">
         <v>48</v>
@@ -10579,7 +10576,7 @@
         <v>7</v>
       </c>
       <c r="G246" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -10593,7 +10590,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C247">
         <v>49</v>
@@ -10608,7 +10605,7 @@
         <v>7</v>
       </c>
       <c r="G247" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -10622,7 +10619,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C248">
         <v>50</v>
@@ -10637,7 +10634,7 @@
         <v>7</v>
       </c>
       <c r="G248" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H248">
         <v>0</v>
@@ -10651,7 +10648,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C249">
         <v>51</v>
@@ -10666,7 +10663,7 @@
         <v>7</v>
       </c>
       <c r="G249" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -10680,7 +10677,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C250">
         <v>52</v>
@@ -10695,7 +10692,7 @@
         <v>7</v>
       </c>
       <c r="G250" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H250">
         <v>0</v>
@@ -10709,7 +10706,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C251">
         <v>54</v>
@@ -10724,7 +10721,7 @@
         <v>7</v>
       </c>
       <c r="G251" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H251">
         <v>0</v>
@@ -10738,7 +10735,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C252">
         <v>55</v>
@@ -10753,7 +10750,7 @@
         <v>7</v>
       </c>
       <c r="G252" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H252">
         <v>0</v>
@@ -10767,7 +10764,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C253">
         <v>57</v>
@@ -10782,7 +10779,7 @@
         <v>7</v>
       </c>
       <c r="G253" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H253">
         <v>0</v>
@@ -10796,7 +10793,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C254">
         <v>86</v>
@@ -10811,7 +10808,7 @@
         <v>7</v>
       </c>
       <c r="G254" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H254">
         <v>0</v>
@@ -10825,7 +10822,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C255">
         <v>105</v>
@@ -10840,7 +10837,7 @@
         <v>7</v>
       </c>
       <c r="G255" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H255">
         <v>0</v>
@@ -10854,7 +10851,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C256">
         <v>11</v>
@@ -10869,7 +10866,7 @@
         <v>7</v>
       </c>
       <c r="G256" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H256">
         <v>0</v>
@@ -10883,7 +10880,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C257">
         <v>14</v>
@@ -10898,7 +10895,7 @@
         <v>7</v>
       </c>
       <c r="G257" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H257">
         <v>0</v>
@@ -10912,7 +10909,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C258">
         <v>18</v>
@@ -10927,7 +10924,7 @@
         <v>7</v>
       </c>
       <c r="G258" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H258">
         <v>0</v>
@@ -10941,7 +10938,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C259">
         <v>24</v>
@@ -10956,7 +10953,7 @@
         <v>7</v>
       </c>
       <c r="G259" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -10970,7 +10967,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C260">
         <v>25</v>
@@ -10985,7 +10982,7 @@
         <v>7</v>
       </c>
       <c r="G260" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H260">
         <v>0</v>
@@ -10999,7 +10996,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C261">
         <v>27</v>
@@ -11014,7 +11011,7 @@
         <v>7</v>
       </c>
       <c r="G261" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H261">
         <v>0</v>
@@ -11028,7 +11025,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C262">
         <v>28</v>
@@ -11043,7 +11040,7 @@
         <v>7</v>
       </c>
       <c r="G262" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H262">
         <v>0</v>
@@ -11057,7 +11054,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C263">
         <v>40</v>
@@ -11072,7 +11069,7 @@
         <v>7</v>
       </c>
       <c r="G263" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H263">
         <v>0</v>
@@ -11086,7 +11083,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C264">
         <v>41</v>
@@ -11101,7 +11098,7 @@
         <v>7</v>
       </c>
       <c r="G264" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H264">
         <v>0</v>
@@ -11115,7 +11112,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C265">
         <v>45</v>
@@ -11130,7 +11127,7 @@
         <v>7</v>
       </c>
       <c r="G265" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H265">
         <v>0</v>
@@ -11144,7 +11141,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C266">
         <v>46</v>
@@ -11159,7 +11156,7 @@
         <v>7</v>
       </c>
       <c r="G266" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -11173,7 +11170,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C267">
         <v>47</v>
@@ -11188,7 +11185,7 @@
         <v>7</v>
       </c>
       <c r="G267" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -11202,7 +11199,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C268">
         <v>48</v>
@@ -11217,7 +11214,7 @@
         <v>7</v>
       </c>
       <c r="G268" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -11231,7 +11228,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C269">
         <v>49</v>
@@ -11246,7 +11243,7 @@
         <v>7</v>
       </c>
       <c r="G269" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H269">
         <v>0</v>
@@ -11260,7 +11257,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C270">
         <v>50</v>
@@ -11275,7 +11272,7 @@
         <v>7</v>
       </c>
       <c r="G270" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H270">
         <v>0</v>
@@ -11289,7 +11286,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C271">
         <v>51</v>
@@ -11304,7 +11301,7 @@
         <v>7</v>
       </c>
       <c r="G271" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H271">
         <v>0</v>
@@ -11318,7 +11315,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C272">
         <v>60</v>
@@ -11333,7 +11330,7 @@
         <v>7</v>
       </c>
       <c r="G272" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H272">
         <v>0</v>
@@ -11352,12 +11349,13 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="30.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11380,7 +11378,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -11403,7 +11401,7 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -11414,7 +11412,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6">
         <v>5</v>
@@ -11429,7 +11427,7 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -11440,7 +11438,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6">
         <v>5</v>
@@ -11455,7 +11453,7 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -11466,7 +11464,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="6">
         <v>5</v>
@@ -11481,7 +11479,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -11492,7 +11490,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="6">
         <v>5</v>
@@ -11507,7 +11505,7 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -11518,7 +11516,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6">
         <v>5</v>
@@ -11533,7 +11531,7 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -11544,7 +11542,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="6">
         <v>5</v>
@@ -11559,7 +11557,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11570,7 +11568,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="6">
         <v>5</v>
@@ -11585,7 +11583,7 @@
         <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -11596,7 +11594,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="6">
         <v>5</v>
@@ -11611,7 +11609,7 @@
         <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -11622,7 +11620,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="6">
         <v>5</v>
@@ -11637,7 +11635,7 @@
         <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -11648,7 +11646,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="6">
         <v>5</v>
@@ -11663,7 +11661,7 @@
         <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -11679,7 +11677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871B8469-CA4D-495B-9C72-1DE61BB7D586}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -11696,7 +11694,7 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -11717,16 +11715,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="N1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -11747,10 +11745,10 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -11758,7 +11756,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6">
         <v>8</v>
@@ -11773,13 +11771,13 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N3">
         <v>2.5</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -11787,7 +11785,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6">
         <v>8</v>
@@ -11802,13 +11800,13 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N4">
         <v>1.2</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -11816,7 +11814,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="6">
         <v>8</v>
@@ -11829,7 +11827,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5">
         <v>30000</v>
@@ -11840,7 +11838,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6">
         <v>8</v>
@@ -11855,7 +11853,7 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -11866,7 +11864,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="6">
         <v>8</v>
@@ -11881,7 +11879,7 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>0.5</v>
@@ -11892,7 +11890,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="6">
         <v>8</v>
@@ -11907,13 +11905,13 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1.2</v>
       </c>
       <c r="O8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -11921,7 +11919,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="6">
         <v>8</v>
@@ -11936,7 +11934,7 @@
         <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1.2</v>
@@ -11948,7 +11946,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="6">
         <v>8</v>
@@ -11962,7 +11960,7 @@
         <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P10" s="9"/>
     </row>
@@ -11971,7 +11969,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="6">
         <v>8</v>
@@ -11984,10 +11982,10 @@
         <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -11995,7 +11993,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="6">
         <v>8</v>
@@ -12008,7 +12006,7 @@
         <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -12016,7 +12014,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="6">
         <v>8</v>
@@ -12030,7 +12028,7 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -12038,7 +12036,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="6">
         <v>8</v>
@@ -12052,7 +12050,7 @@
         <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -12060,7 +12058,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="6">
         <v>8</v>
@@ -12073,10 +12071,10 @@
         <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O15" s="6">
         <v>8</v>
@@ -12088,7 +12086,7 @@
         <v>7</v>
       </c>
       <c r="S15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -12102,7 +12100,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="6">
         <v>8</v>
@@ -12114,7 +12112,7 @@
         <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -12145,16 +12143,16 @@
   <sheetData>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -12173,7 +12171,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4">
         <v>31358.328999999998</v>
@@ -12187,7 +12185,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4">
         <v>24845.77</v>
@@ -12201,7 +12199,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4">
         <v>3652.9</v>
@@ -12215,7 +12213,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4">
         <v>8858.7499999999982</v>
@@ -12229,7 +12227,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4">
         <v>20779.019999999997</v>
@@ -12243,7 +12241,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4">
         <v>8599</v>
@@ -12257,7 +12255,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4">
         <v>8194.3024999999998</v>
@@ -12271,7 +12269,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="4">
         <v>53555.516075797081</v>
@@ -12285,7 +12283,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="4">
         <v>10271.799999999999</v>
@@ -12299,7 +12297,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4">
         <v>47547.508487000036</v>
@@ -12313,7 +12311,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="4">
         <v>222307.29946279712</v>

--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\TraderesCode\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C66E97-7CEA-4858-BB89-73E795B7A755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A5C372-45FA-41D5-80B7-AC0590071F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="extended" sheetId="1" r:id="rId1"/>
@@ -11348,8 +11348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DF7B89-3137-4483-A2A9-559F907A912A}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11388,8 +11388,8 @@
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6">
-        <v>5</v>
+      <c r="C2" s="4">
+        <v>20</v>
       </c>
       <c r="D2" s="6">
         <v>4644.4034000000001</v>
@@ -11414,8 +11414,8 @@
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6">
-        <v>5</v>
+      <c r="C3" s="4">
+        <v>28</v>
       </c>
       <c r="D3" s="6">
         <v>31358.328999999998</v>
@@ -11440,8 +11440,8 @@
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6">
-        <v>5</v>
+      <c r="C4" s="4">
+        <v>31</v>
       </c>
       <c r="D4" s="6">
         <v>24845.77</v>
@@ -11466,8 +11466,8 @@
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6">
-        <v>5</v>
+      <c r="C5" s="4">
+        <v>36</v>
       </c>
       <c r="D5" s="6">
         <v>3652.9</v>
@@ -11492,8 +11492,8 @@
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6">
-        <v>5</v>
+      <c r="C6" s="4">
+        <v>56</v>
       </c>
       <c r="D6" s="6">
         <v>8858.7499999999982</v>
@@ -11518,8 +11518,8 @@
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6">
-        <v>5</v>
+      <c r="C7" s="4">
+        <v>38</v>
       </c>
       <c r="D7" s="6">
         <v>20779.019999999997</v>
@@ -11544,8 +11544,8 @@
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6">
-        <v>5</v>
+      <c r="C8" s="4">
+        <v>35</v>
       </c>
       <c r="D8" s="6">
         <v>8599</v>
@@ -11570,8 +11570,8 @@
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6">
-        <v>5</v>
+      <c r="C9" s="4">
+        <v>28</v>
       </c>
       <c r="D9" s="6">
         <v>8194.3024999999998</v>
@@ -11596,8 +11596,8 @@
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="6">
-        <v>5</v>
+      <c r="C10" s="4">
+        <v>10</v>
       </c>
       <c r="D10" s="6">
         <v>53555.516075797081</v>
@@ -11622,8 +11622,8 @@
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6">
-        <v>5</v>
+      <c r="C11" s="4">
+        <v>6</v>
       </c>
       <c r="D11" s="6">
         <v>10271.799999999999</v>
@@ -11648,8 +11648,8 @@
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6">
-        <v>5</v>
+      <c r="C12" s="4">
+        <v>14</v>
       </c>
       <c r="D12" s="6">
         <v>47547.508487000036</v>
@@ -11677,7 +11677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871B8469-CA4D-495B-9C72-1DE61BB7D586}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -12130,7 +12130,7 @@
   <dimension ref="A3:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D4" sqref="D4:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\TraderesCode\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A5C372-45FA-41D5-80B7-AC0590071F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572E91D9-45BD-4FCC-8B9C-564FC2E398B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-15720" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="extended" sheetId="1" r:id="rId1"/>
-    <sheet name="powerplants_grouped" sheetId="3" r:id="rId2"/>
-    <sheet name="germany2019" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="extendedDE" sheetId="1" r:id="rId1"/>
+    <sheet name="extendedNL" sheetId="6" r:id="rId2"/>
+    <sheet name="powerplants_grouped" sheetId="3" r:id="rId3"/>
+    <sheet name="germany2019" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="42">
   <si>
     <t>Technology</t>
   </si>
@@ -156,6 +157,15 @@
   <si>
     <t>This are powerplants from the Amiris scenario</t>
   </si>
+  <si>
+    <t>DischarginEfficiency</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>ProducerNL</t>
+  </si>
 </sst>
 </file>
 
@@ -206,7 +216,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -238,11 +248,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -267,6 +290,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -287,7 +317,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ingrid Sanchez Jimenez" refreshedDate="44760.742488310185" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="271" xr:uid="{20EFE1D4-84EA-4D50-B43F-EAAC5E455D08}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B1:I272" sheet="extended"/>
+    <worksheetSource ref="B1:I272" sheet="extendedDE"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Technology" numFmtId="0">
@@ -3444,8 +3474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I272"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="K196" sqref="K196"/>
+    <sheetView topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="D274" sqref="D274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11345,11 +11375,2004 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6B6640-7659-40BC-BB1F-545A343E7684}">
+  <dimension ref="A1:H76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="13">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="12">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.3706875</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="12">
+        <v>6</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1071.5999999999999</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.3706875</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12">
+        <v>731</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.3706875</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="12">
+        <v>8</v>
+      </c>
+      <c r="D5" s="12">
+        <v>50</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.3706875</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="12">
+        <v>11</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2.4</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.3706875</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12">
+        <v>13</v>
+      </c>
+      <c r="D7" s="12">
+        <v>25</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.3706875</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12">
+        <v>14</v>
+      </c>
+      <c r="D8" s="12">
+        <v>55</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.3706875</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12">
+        <v>16</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1.75</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.3706875</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="12">
+        <v>17</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.3706875</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="12">
+        <v>22</v>
+      </c>
+      <c r="D11" s="12">
+        <v>25</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.3706875</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="12">
+        <v>29</v>
+      </c>
+      <c r="D12" s="12">
+        <v>24</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.3706875</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="12">
+        <v>40</v>
+      </c>
+      <c r="D13" s="12">
+        <v>123</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.3706875</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="13">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="12">
+        <v>49</v>
+      </c>
+      <c r="D14" s="12">
+        <v>20</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.3706875</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="13">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12">
+        <v>9</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1320</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="13">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12">
+        <v>10</v>
+      </c>
+      <c r="D16" s="12">
+        <v>3470</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="13">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="12">
+        <v>12</v>
+      </c>
+      <c r="D17" s="12">
+        <v>2177</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="13">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="12">
+        <v>14</v>
+      </c>
+      <c r="D18" s="12">
+        <v>339</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="13">
+        <v>17</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="12">
+        <v>15</v>
+      </c>
+      <c r="D19" s="12">
+        <v>300</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="13">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="12">
+        <v>18</v>
+      </c>
+      <c r="D20" s="12">
+        <v>891</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="13">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="12">
+        <v>19</v>
+      </c>
+      <c r="D21" s="12">
+        <v>80</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="13">
+        <v>20</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="12">
+        <v>23</v>
+      </c>
+      <c r="D22" s="12">
+        <v>590</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="13">
+        <v>21</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="12">
+        <v>24</v>
+      </c>
+      <c r="D23" s="12">
+        <v>369</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="13">
+        <v>22</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="12">
+        <v>25</v>
+      </c>
+      <c r="D24" s="12">
+        <v>1064</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="13">
+        <v>23</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="12">
+        <v>26</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1050</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="13">
+        <v>24</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="12">
+        <v>27</v>
+      </c>
+      <c r="D26" s="12">
+        <v>514</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="13">
+        <v>25</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="12">
+        <v>28</v>
+      </c>
+      <c r="D27" s="12">
+        <v>130</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="13">
+        <v>26</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="12">
+        <v>29</v>
+      </c>
+      <c r="D28" s="12">
+        <v>60</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="13">
+        <v>27</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="12">
+        <v>32</v>
+      </c>
+      <c r="D29" s="12">
+        <v>225</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="13">
+        <v>28</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="12">
+        <v>35</v>
+      </c>
+      <c r="D30" s="12">
+        <v>169</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="13">
+        <v>29</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="12">
+        <v>37</v>
+      </c>
+      <c r="D31" s="12">
+        <v>103</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="13">
+        <v>30</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="12">
+        <v>39</v>
+      </c>
+      <c r="D32" s="12">
+        <v>50</v>
+      </c>
+      <c r="E32" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="13">
+        <v>31</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="12">
+        <v>44</v>
+      </c>
+      <c r="D33" s="12">
+        <v>695</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="13">
+        <v>32</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="12">
+        <v>46</v>
+      </c>
+      <c r="D34" s="12">
+        <v>332</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="13">
+        <v>33</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="12">
+        <v>47</v>
+      </c>
+      <c r="D35" s="12">
+        <v>332</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="13">
+        <v>34</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="12">
+        <v>121</v>
+      </c>
+      <c r="D36" s="12">
+        <v>97</v>
+      </c>
+      <c r="E36" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="13">
+        <v>35</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="12">
+        <v>7</v>
+      </c>
+      <c r="D37" s="12">
+        <v>1560</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0.40862500000000002</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="13">
+        <v>36</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="12">
+        <v>28</v>
+      </c>
+      <c r="D38" s="12">
+        <v>600</v>
+      </c>
+      <c r="E38" s="12">
+        <v>0.40862500000000002</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="13">
+        <v>37</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="12">
+        <v>4</v>
+      </c>
+      <c r="D39" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="E39" s="12">
+        <v>0.77875000000000005</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="13">
+        <v>38</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="12">
+        <v>14</v>
+      </c>
+      <c r="D40" s="12">
+        <v>10</v>
+      </c>
+      <c r="E40" s="12">
+        <v>0.77875000000000005</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="13">
+        <v>39</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="12">
+        <v>32</v>
+      </c>
+      <c r="D41" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="E41" s="12">
+        <v>0.77875000000000005</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="13">
+        <v>40</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="12">
+        <v>34</v>
+      </c>
+      <c r="D42" s="12">
+        <v>11</v>
+      </c>
+      <c r="E42" s="12">
+        <v>0.77875000000000005</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="13">
+        <v>41</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="12">
+        <v>64</v>
+      </c>
+      <c r="D43" s="12">
+        <v>14</v>
+      </c>
+      <c r="E43" s="12">
+        <v>0.77875000000000005</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="13">
+        <v>42</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="12">
+        <v>33</v>
+      </c>
+      <c r="D44" s="12">
+        <v>485</v>
+      </c>
+      <c r="E44" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="13">
+        <v>43</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="12">
+        <v>25</v>
+      </c>
+      <c r="D45" s="12">
+        <v>24</v>
+      </c>
+      <c r="E45" s="12">
+        <v>0.373622642</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="13">
+        <v>44</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="12">
+        <v>35</v>
+      </c>
+      <c r="D46" s="12">
+        <v>375</v>
+      </c>
+      <c r="E46" s="12">
+        <v>0.373622642</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="13">
+        <v>45</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="12">
+        <v>47</v>
+      </c>
+      <c r="D47" s="12">
+        <v>350</v>
+      </c>
+      <c r="E47" s="12">
+        <v>0.373622642</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H47" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="13">
+        <v>46</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="12">
+        <v>0</v>
+      </c>
+      <c r="D48" s="12">
+        <v>251.8</v>
+      </c>
+      <c r="E48" s="12">
+        <v>1</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="13">
+        <v>47</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="12">
+        <v>1</v>
+      </c>
+      <c r="D49" s="12">
+        <v>195.4</v>
+      </c>
+      <c r="E49" s="12">
+        <v>1</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H49" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="13">
+        <v>48</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="12">
+        <v>2</v>
+      </c>
+      <c r="D50" s="12">
+        <v>414.72300000000001</v>
+      </c>
+      <c r="E50" s="12">
+        <v>1</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="13">
+        <v>49</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="12">
+        <v>3</v>
+      </c>
+      <c r="D51" s="12">
+        <v>266.00300000000004</v>
+      </c>
+      <c r="E51" s="12">
+        <v>1</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H51" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="13">
+        <v>50</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="12">
+        <v>4</v>
+      </c>
+      <c r="D52" s="12">
+        <v>476.73099999999994</v>
+      </c>
+      <c r="E52" s="12">
+        <v>1</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H52" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="13">
+        <v>51</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="12">
+        <v>5</v>
+      </c>
+      <c r="D53" s="12">
+        <v>56.78</v>
+      </c>
+      <c r="E53" s="12">
+        <v>1</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H53" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="13">
+        <v>52</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="12">
+        <v>6</v>
+      </c>
+      <c r="D54" s="12">
+        <v>12.59</v>
+      </c>
+      <c r="E54" s="12">
+        <v>1</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H54" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="13">
+        <v>53</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="12">
+        <v>7</v>
+      </c>
+      <c r="D55" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="E55" s="12">
+        <v>1</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H55" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="13">
+        <v>54</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="12">
+        <v>10</v>
+      </c>
+      <c r="D56" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="E56" s="12">
+        <v>1</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H56" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="13">
+        <v>55</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="12">
+        <v>11</v>
+      </c>
+      <c r="D57" s="12">
+        <v>1.6</v>
+      </c>
+      <c r="E57" s="12">
+        <v>1</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H57" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="13">
+        <v>56</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="12">
+        <v>18</v>
+      </c>
+      <c r="D58" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="E58" s="12">
+        <v>1</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H58" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="13">
+        <v>57</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="12">
+        <v>1</v>
+      </c>
+      <c r="D59" s="12">
+        <v>1130.5</v>
+      </c>
+      <c r="E59" s="12">
+        <v>1</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H59" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="13">
+        <v>58</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="12">
+        <v>2</v>
+      </c>
+      <c r="D60" s="12">
+        <v>752</v>
+      </c>
+      <c r="E60" s="12">
+        <v>1</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H60" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="13">
+        <v>59</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="12">
+        <v>5</v>
+      </c>
+      <c r="D61" s="12">
+        <v>600</v>
+      </c>
+      <c r="E61" s="12">
+        <v>1</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H61" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="13">
+        <v>60</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="12">
+        <v>6</v>
+      </c>
+      <c r="D62" s="12">
+        <v>144</v>
+      </c>
+      <c r="E62" s="12">
+        <v>1</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H62" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="13">
+        <v>61</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="12">
+        <v>7</v>
+      </c>
+      <c r="D63" s="12">
+        <v>129</v>
+      </c>
+      <c r="E63" s="12">
+        <v>1</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H63" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="13">
+        <v>62</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="12">
+        <v>14</v>
+      </c>
+      <c r="D64" s="12">
+        <v>228</v>
+      </c>
+      <c r="E64" s="12">
+        <v>1</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H64" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="13">
+        <v>63</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="12">
+        <v>0</v>
+      </c>
+      <c r="D65" s="12">
+        <v>400</v>
+      </c>
+      <c r="E65" s="12">
+        <v>1</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H65" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="13">
+        <v>64</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="12">
+        <v>1</v>
+      </c>
+      <c r="D66" s="12">
+        <v>554.6</v>
+      </c>
+      <c r="E66" s="12">
+        <v>1</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H66" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="13">
+        <v>65</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="12">
+        <v>2</v>
+      </c>
+      <c r="D67" s="12">
+        <v>577</v>
+      </c>
+      <c r="E67" s="12">
+        <v>1</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H67" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="13">
+        <v>66</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="12">
+        <v>3</v>
+      </c>
+      <c r="D68" s="12">
+        <v>102</v>
+      </c>
+      <c r="E68" s="12">
+        <v>1</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H68" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="13">
+        <v>67</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="12">
+        <v>4</v>
+      </c>
+      <c r="D69" s="12">
+        <v>50.4</v>
+      </c>
+      <c r="E69" s="12">
+        <v>1</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H69" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="13">
+        <v>68</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="12">
+        <v>5</v>
+      </c>
+      <c r="D70" s="12">
+        <v>429</v>
+      </c>
+      <c r="E70" s="12">
+        <v>1</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H70" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="13">
+        <v>69</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="12">
+        <v>7</v>
+      </c>
+      <c r="D71" s="12">
+        <v>63</v>
+      </c>
+      <c r="E71" s="12">
+        <v>1</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H71" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="13">
+        <v>70</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="12">
+        <v>9</v>
+      </c>
+      <c r="D72" s="12">
+        <v>122</v>
+      </c>
+      <c r="E72" s="12">
+        <v>1</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H72" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="13">
+        <v>71</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="12">
+        <v>14</v>
+      </c>
+      <c r="D73" s="12">
+        <v>138</v>
+      </c>
+      <c r="E73" s="12">
+        <v>1</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H73" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="13">
+        <v>72</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="12">
+        <v>15</v>
+      </c>
+      <c r="D74" s="12">
+        <v>42</v>
+      </c>
+      <c r="E74" s="12">
+        <v>1</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H74" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="14">
+        <v>73</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="12">
+        <v>16</v>
+      </c>
+      <c r="D75" s="12">
+        <v>75</v>
+      </c>
+      <c r="E75" s="12">
+        <v>1</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H75" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="13">
+        <v>74</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="12">
+        <v>24</v>
+      </c>
+      <c r="D76" s="12">
+        <v>18</v>
+      </c>
+      <c r="E76" s="12">
+        <v>1</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H76" s="12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DF7B89-3137-4483-A2A9-559F907A912A}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11673,7 +13696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871B8469-CA4D-495B-9C72-1DE61BB7D586}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
@@ -12125,12 +14148,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE56270-BB9F-4A65-A808-F3AE5E04B4CD}">
   <dimension ref="A3:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D14"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\TraderesCode\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572E91D9-45BD-4FCC-8B9C-564FC2E398B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5813530-B465-4B92-A542-EC2AF3DD3381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-15720" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="extendedDE" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="43">
   <si>
     <t>Technology</t>
   </si>
@@ -166,6 +166,9 @@
   <si>
     <t>ProducerNL</t>
   </si>
+  <si>
+    <t>cash</t>
+  </si>
 </sst>
 </file>
 
@@ -216,7 +219,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -261,11 +264,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -295,6 +309,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3472,19 +3489,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I272"/>
+  <dimension ref="A1:J272"/>
   <sheetViews>
-    <sheetView topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="D274" sqref="D274"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="14.81640625" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3509,8 +3527,11 @@
       <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3538,8 +3559,11 @@
       <c r="I2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3567,8 +3591,11 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3596,8 +3623,11 @@
       <c r="I4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3625,8 +3655,11 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3654,8 +3687,11 @@
       <c r="I6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3683,8 +3719,11 @@
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3712,8 +3751,11 @@
       <c r="I8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3741,8 +3783,11 @@
       <c r="I9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3770,8 +3815,11 @@
       <c r="I10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3799,8 +3847,11 @@
       <c r="I11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3828,8 +3879,11 @@
       <c r="I12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3857,8 +3911,11 @@
       <c r="I13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3886,8 +3943,11 @@
       <c r="I14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3915,8 +3975,11 @@
       <c r="I15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3944,8 +4007,11 @@
       <c r="I16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3973,8 +4039,11 @@
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4002,8 +4071,11 @@
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4031,8 +4103,11 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4060,8 +4135,11 @@
       <c r="I20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4089,8 +4167,11 @@
       <c r="I21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4118,8 +4199,11 @@
       <c r="I22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4147,8 +4231,11 @@
       <c r="I23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4176,8 +4263,11 @@
       <c r="I24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4205,8 +4295,11 @@
       <c r="I25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4234,8 +4327,11 @@
       <c r="I26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4263,8 +4359,11 @@
       <c r="I27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4292,8 +4391,11 @@
       <c r="I28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4321,8 +4423,11 @@
       <c r="I29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4350,8 +4455,11 @@
       <c r="I30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4379,8 +4487,11 @@
       <c r="I31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4408,8 +4519,11 @@
       <c r="I32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4437,8 +4551,11 @@
       <c r="I33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4466,8 +4583,11 @@
       <c r="I34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4495,8 +4615,11 @@
       <c r="I35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4524,8 +4647,11 @@
       <c r="I36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4553,8 +4679,11 @@
       <c r="I37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4582,8 +4711,11 @@
       <c r="I38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4611,8 +4743,11 @@
       <c r="I39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4640,8 +4775,11 @@
       <c r="I40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4669,8 +4807,11 @@
       <c r="I41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4698,8 +4839,11 @@
       <c r="I42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4727,8 +4871,11 @@
       <c r="I43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4756,8 +4903,11 @@
       <c r="I44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4785,8 +4935,11 @@
       <c r="I45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4814,8 +4967,11 @@
       <c r="I46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4843,8 +4999,11 @@
       <c r="I47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4872,8 +5031,11 @@
       <c r="I48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4901,8 +5063,11 @@
       <c r="I49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4930,8 +5095,11 @@
       <c r="I50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4959,8 +5127,11 @@
       <c r="I51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4988,8 +5159,11 @@
       <c r="I52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5017,8 +5191,11 @@
       <c r="I53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5046,8 +5223,11 @@
       <c r="I54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5075,8 +5255,11 @@
       <c r="I55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5104,8 +5287,11 @@
       <c r="I56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5133,8 +5319,11 @@
       <c r="I57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5162,8 +5351,11 @@
       <c r="I58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5191,8 +5383,11 @@
       <c r="I59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5220,8 +5415,11 @@
       <c r="I60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5249,8 +5447,11 @@
       <c r="I61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5278,8 +5479,11 @@
       <c r="I62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5307,8 +5511,11 @@
       <c r="I63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5336,8 +5543,11 @@
       <c r="I64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5365,8 +5575,11 @@
       <c r="I65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5394,8 +5607,11 @@
       <c r="I66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5423,8 +5639,11 @@
       <c r="I67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5452,8 +5671,11 @@
       <c r="I68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5481,8 +5703,11 @@
       <c r="I69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="J69" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5510,8 +5735,11 @@
       <c r="I70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="J70" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5539,8 +5767,11 @@
       <c r="I71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="J71" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5568,8 +5799,11 @@
       <c r="I72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="J72" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5597,8 +5831,11 @@
       <c r="I73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="J73" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5626,8 +5863,11 @@
       <c r="I74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="J74" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5655,8 +5895,11 @@
       <c r="I75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="J75" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5684,8 +5927,11 @@
       <c r="I76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5714,7 +5960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:10">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5743,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:10">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5772,7 +6018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:10">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -11376,10 +11622,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6B6640-7659-40BC-BB1F-545A343E7684}">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11388,7 +11634,7 @@
     <col min="7" max="7" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="12"/>
       <c r="B1" s="13" t="s">
         <v>0</v>
@@ -11411,8 +11657,11 @@
       <c r="H1" s="13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="13">
         <v>0</v>
       </c>
@@ -11437,8 +11686,11 @@
       <c r="H2" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -11463,8 +11715,11 @@
       <c r="H3" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -11489,8 +11744,11 @@
       <c r="H4" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -11515,8 +11773,11 @@
       <c r="H5" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -11541,8 +11802,11 @@
       <c r="H6" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -11567,8 +11831,11 @@
       <c r="H7" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -11593,8 +11860,11 @@
       <c r="H8" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -11619,8 +11889,11 @@
       <c r="H9" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -11645,8 +11918,11 @@
       <c r="H10" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="13">
         <v>9</v>
       </c>
@@ -11671,8 +11947,11 @@
       <c r="H11" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="13">
         <v>10</v>
       </c>
@@ -11697,8 +11976,11 @@
       <c r="H12" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -11723,8 +12005,11 @@
       <c r="H13" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="13">
         <v>12</v>
       </c>
@@ -11749,8 +12034,11 @@
       <c r="H14" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="13">
         <v>13</v>
       </c>
@@ -11775,8 +12063,11 @@
       <c r="H15" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="13">
         <v>14</v>
       </c>
@@ -11801,8 +12092,11 @@
       <c r="H16" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="13">
         <v>15</v>
       </c>
@@ -11827,8 +12121,11 @@
       <c r="H17" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="13">
         <v>16</v>
       </c>
@@ -11853,8 +12150,11 @@
       <c r="H18" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="13">
         <v>17</v>
       </c>
@@ -11879,8 +12179,11 @@
       <c r="H19" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="13">
         <v>18</v>
       </c>
@@ -11905,8 +12208,11 @@
       <c r="H20" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="13">
         <v>19</v>
       </c>
@@ -11931,8 +12237,11 @@
       <c r="H21" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="13">
         <v>20</v>
       </c>
@@ -11957,8 +12266,11 @@
       <c r="H22" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="13">
         <v>21</v>
       </c>
@@ -11983,8 +12295,11 @@
       <c r="H23" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="13">
         <v>22</v>
       </c>
@@ -12009,8 +12324,11 @@
       <c r="H24" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="13">
         <v>23</v>
       </c>
@@ -12035,8 +12353,11 @@
       <c r="H25" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="13">
         <v>24</v>
       </c>
@@ -12061,8 +12382,11 @@
       <c r="H26" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="13">
         <v>25</v>
       </c>
@@ -12087,8 +12411,11 @@
       <c r="H27" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="13">
         <v>26</v>
       </c>
@@ -12113,8 +12440,11 @@
       <c r="H28" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="13">
         <v>27</v>
       </c>
@@ -12139,8 +12469,11 @@
       <c r="H29" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="13">
         <v>28</v>
       </c>
@@ -12165,8 +12498,11 @@
       <c r="H30" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="13">
         <v>29</v>
       </c>
@@ -12191,8 +12527,11 @@
       <c r="H31" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="13">
         <v>30</v>
       </c>
@@ -12217,8 +12556,11 @@
       <c r="H32" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="13">
         <v>31</v>
       </c>
@@ -12243,8 +12585,11 @@
       <c r="H33" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="13">
         <v>32</v>
       </c>
@@ -12269,8 +12614,11 @@
       <c r="H34" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="13">
         <v>33</v>
       </c>
@@ -12295,8 +12643,11 @@
       <c r="H35" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="13">
         <v>34</v>
       </c>
@@ -12321,8 +12672,11 @@
       <c r="H36" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="13">
         <v>35</v>
       </c>
@@ -12347,8 +12701,11 @@
       <c r="H37" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="13">
         <v>36</v>
       </c>
@@ -12373,8 +12730,11 @@
       <c r="H38" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="13">
         <v>37</v>
       </c>
@@ -12399,8 +12759,11 @@
       <c r="H39" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="13">
         <v>38</v>
       </c>
@@ -12425,8 +12788,11 @@
       <c r="H40" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="13">
         <v>39</v>
       </c>
@@ -12451,8 +12817,11 @@
       <c r="H41" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="13">
         <v>40</v>
       </c>
@@ -12477,8 +12846,11 @@
       <c r="H42" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="13">
         <v>41</v>
       </c>
@@ -12503,8 +12875,11 @@
       <c r="H43" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="13">
         <v>42</v>
       </c>
@@ -12529,8 +12904,11 @@
       <c r="H44" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="13">
         <v>43</v>
       </c>
@@ -12555,8 +12933,11 @@
       <c r="H45" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="13">
         <v>44</v>
       </c>
@@ -12581,8 +12962,11 @@
       <c r="H46" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="13">
         <v>45</v>
       </c>
@@ -12607,8 +12991,11 @@
       <c r="H47" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="13">
         <v>46</v>
       </c>
@@ -12633,8 +13020,11 @@
       <c r="H48" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="13">
         <v>47</v>
       </c>
@@ -12659,8 +13049,11 @@
       <c r="H49" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="13">
         <v>48</v>
       </c>
@@ -12685,8 +13078,11 @@
       <c r="H50" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="13">
         <v>49</v>
       </c>
@@ -12711,8 +13107,11 @@
       <c r="H51" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="13">
         <v>50</v>
       </c>
@@ -12737,8 +13136,11 @@
       <c r="H52" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="13">
         <v>51</v>
       </c>
@@ -12763,8 +13165,11 @@
       <c r="H53" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="13">
         <v>52</v>
       </c>
@@ -12789,8 +13194,11 @@
       <c r="H54" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="13">
         <v>53</v>
       </c>
@@ -12815,8 +13223,11 @@
       <c r="H55" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="13">
         <v>54</v>
       </c>
@@ -12841,8 +13252,11 @@
       <c r="H56" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="13">
         <v>55</v>
       </c>
@@ -12867,8 +13281,11 @@
       <c r="H57" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="13">
         <v>56</v>
       </c>
@@ -12893,8 +13310,11 @@
       <c r="H58" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="13">
         <v>57</v>
       </c>
@@ -12919,8 +13339,11 @@
       <c r="H59" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="13">
         <v>58</v>
       </c>
@@ -12945,8 +13368,11 @@
       <c r="H60" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="13">
         <v>59</v>
       </c>
@@ -12971,8 +13397,11 @@
       <c r="H61" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="13">
         <v>60</v>
       </c>
@@ -12997,8 +13426,11 @@
       <c r="H62" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="13">
         <v>61</v>
       </c>
@@ -13023,8 +13455,11 @@
       <c r="H63" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="13">
         <v>62</v>
       </c>
@@ -13049,8 +13484,11 @@
       <c r="H64" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="13">
         <v>63</v>
       </c>
@@ -13075,8 +13513,11 @@
       <c r="H65" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="13">
         <v>64</v>
       </c>
@@ -13101,8 +13542,11 @@
       <c r="H66" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="13">
         <v>65</v>
       </c>
@@ -13127,8 +13571,11 @@
       <c r="H67" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="13">
         <v>66</v>
       </c>
@@ -13153,8 +13600,11 @@
       <c r="H68" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="13">
         <v>67</v>
       </c>
@@ -13179,8 +13629,11 @@
       <c r="H69" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="13">
         <v>68</v>
       </c>
@@ -13205,8 +13658,11 @@
       <c r="H70" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="13">
         <v>69</v>
       </c>
@@ -13231,8 +13687,11 @@
       <c r="H71" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="13">
         <v>70</v>
       </c>
@@ -13257,8 +13716,11 @@
       <c r="H72" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="13">
         <v>71</v>
       </c>
@@ -13283,8 +13745,11 @@
       <c r="H73" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="13">
         <v>72</v>
       </c>
@@ -13309,8 +13774,11 @@
       <c r="H74" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="14">
         <v>73</v>
       </c>
@@ -13335,8 +13803,11 @@
       <c r="H75" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="13">
         <v>74</v>
       </c>
@@ -13359,6 +13830,9 @@
         <v>41</v>
       </c>
       <c r="H76" s="12">
+        <v>0</v>
+      </c>
+      <c r="I76" s="12">
         <v>0</v>
       </c>
     </row>
@@ -13369,19 +13843,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DF7B89-3137-4483-A2A9-559F907A912A}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="30.1796875" customWidth="1"/>
     <col min="7" max="7" width="12.26953125" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13403,8 +13878,11 @@
       <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -13429,8 +13907,11 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -13455,8 +13936,11 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -13481,8 +13965,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -13507,8 +13994,11 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -13533,8 +14023,11 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -13559,8 +14052,11 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -13585,8 +14081,11 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -13611,8 +14110,11 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -13637,8 +14139,11 @@
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -13663,8 +14168,11 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -13687,6 +14195,9 @@
         <v>33</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
         <v>0</v>
       </c>
     </row>
@@ -13700,8 +14211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871B8469-CA4D-495B-9C72-1DE61BB7D586}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\TraderesCode\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5813530-B465-4B92-A542-EC2AF3DD3381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39DB3D7-9A3B-42BB-A6E5-43F225058E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28815" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="extendedDE" sheetId="1" r:id="rId1"/>
     <sheet name="extendedNL" sheetId="6" r:id="rId2"/>
     <sheet name="powerplants_grouped" sheetId="3" r:id="rId3"/>
-    <sheet name="germany2019" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="groupedDE_RES" sheetId="8" r:id="rId4"/>
+    <sheet name="germany2019" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="43">
   <si>
     <t>Technology</t>
   </si>
@@ -3492,7 +3493,7 @@
   <dimension ref="A1:J272"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11624,8 +11625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6B6640-7659-40BC-BB1F-545A343E7684}">
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -13846,7 +13847,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -14208,11 +14209,549 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1842032F-786B-416F-9171-8FFE55F32C1D}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="14.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="13">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6">
+        <v>4644.4034000000001</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.35162268780797246</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6">
+        <v>31358.328999999998</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.53826095601515933</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3652.9</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.35399077947121271</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6">
+        <v>8858.7499999999982</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.7811457116585705</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6">
+        <v>20779.019999999997</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.36004079896582097</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6">
+        <v>8599</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6">
+        <v>8194.3024999999998</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.37414216973934089</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6">
+        <v>53555.516075797081</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6">
+        <v>10271.799999999999</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6">
+        <v>20000</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6">
+        <v>20000</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="13">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4">
+        <v>8</v>
+      </c>
+      <c r="D14" s="6">
+        <v>20000</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="13">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4">
+        <v>8</v>
+      </c>
+      <c r="D15" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="13">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4">
+        <v>8</v>
+      </c>
+      <c r="D16" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="13">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4">
+        <v>8</v>
+      </c>
+      <c r="D17" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="13">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871B8469-CA4D-495B-9C72-1DE61BB7D586}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -14659,7 +15198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE56270-BB9F-4A65-A808-F3AE5E04B4CD}">
   <dimension ref="A3:D15"/>
   <sheetViews>

--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\TraderesCode\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39DB3D7-9A3B-42BB-A6E5-43F225058E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36875444-E073-4A54-B19A-2BC36D120E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28815" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14213,7 +14213,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -14569,7 +14569,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="13">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
@@ -14598,7 +14598,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="13">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
@@ -14627,7 +14627,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="13">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>15</v>
@@ -14656,7 +14656,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="13">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>15</v>
@@ -14685,7 +14685,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="13">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>15</v>
@@ -14714,7 +14714,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="13">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>15</v>

--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\TraderesCode\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D6BDA7-38C3-47FB-BC11-6C5A3D78D18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A9C12B-0F48-4264-AD2E-3BD445BFE92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="27645" windowHeight="16440" tabRatio="840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="extendedDE" sheetId="1" r:id="rId1"/>
-    <sheet name="extendedNL" sheetId="6" r:id="rId2"/>
-    <sheet name="powerplants_grouped" sheetId="3" r:id="rId3"/>
-    <sheet name="groupedDE_RES" sheetId="8" r:id="rId4"/>
-    <sheet name="germany2019" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
+    <sheet name="extendedDE" sheetId="1" r:id="rId2"/>
+    <sheet name="extendedNL" sheetId="6" r:id="rId3"/>
+    <sheet name="powerplants_grouped" sheetId="3" r:id="rId4"/>
+    <sheet name="groupedDE_RES" sheetId="8" r:id="rId5"/>
+    <sheet name="germany2019" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">extendedDE!$B$1:$J$272</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">extendedDE!$B$1:$J$272</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId7"/>
+    <pivotCache cacheId="3" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="43">
   <si>
     <t>Technology</t>
   </si>
@@ -336,48 +336,34 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ingrid Sanchez Jimenez" refreshedDate="44760.742488310185" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="271" xr:uid="{20EFE1D4-84EA-4D50-B43F-EAAC5E455D08}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ingrid Sanchez Jimenez" refreshedDate="44824.595359259256" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="271" xr:uid="{422CA394-D91B-4F32-8799-E2C38CB3C075}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B1:I272" sheet="extendedDE"/>
+    <worksheetSource ref="B1:E272" sheet="extendedDE"/>
   </cacheSource>
-  <cacheFields count="8">
+  <cacheFields count="4">
     <cacheField name="Technology" numFmtId="0">
       <sharedItems count="11">
         <s v="Biomass_CHP_wood_pellets_DH"/>
+        <s v="CCGT"/>
         <s v="Coal PSC"/>
-        <s v="CCGT"/>
+        <s v="Fuel oil PGT"/>
+        <s v="Hydropower_reservoir_medium"/>
+        <s v="Lignite PSC"/>
+        <s v="Nuclear"/>
         <s v="OCGT"/>
-        <s v="Hydropower_reservoir_medium"/>
-        <s v="Nuclear"/>
+        <s v="PV_utility_systems"/>
+        <s v="WTG_offshore"/>
         <s v="WTG_onshore"/>
-        <s v="WTG_offshore"/>
-        <s v="PV_utility_systems"/>
-        <s v="Lignite PSC"/>
-        <s v="Fuel oil PGT"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Age" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="121"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="105"/>
     </cacheField>
     <cacheField name="Capacity" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="50" maxValue="9295.3445625134536"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.0000000000005613" maxValue="7604.0000000000027"/>
     </cacheField>
     <cacheField name="Efficiency" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.20080000000000001" maxValue="1"/>
-    </cacheField>
-    <cacheField name="Location" numFmtId="0">
-      <sharedItems count="1">
-        <s v="DE"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Owner" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="DischargingEfficiency" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="Id" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -392,2749 +378,1656 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="271">
   <r>
     <x v="0"/>
-    <n v="6"/>
-    <n v="1125.5999999999999"/>
-    <n v="0.36877168843283581"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="7"/>
-    <n v="731"/>
-    <n v="0.37068749999999989"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="8"/>
-    <n v="89.8"/>
-    <n v="0.35855651447661469"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="10"/>
-    <n v="89.05"/>
-    <n v="0.33362324536777088"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="12"/>
-    <n v="127.8"/>
-    <n v="0.36082942097026599"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="13"/>
-    <n v="217.8"/>
-    <n v="0.33882547061524337"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="14"/>
-    <n v="91.5"/>
-    <n v="0.35445696721311482"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="15"/>
-    <n v="66.78"/>
-    <n v="0.34132824198861927"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="16"/>
-    <n v="166.92"/>
-    <n v="0.34912515651210169"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="17"/>
-    <n v="206.65"/>
-    <n v="0.35464952818775719"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
     <n v="18"/>
     <n v="256"/>
     <n v="0.37644531250000002"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="0"/>
     <n v="19"/>
     <n v="169.39340000000001"/>
     <n v="0.38000000000000012"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="0"/>
     <n v="20"/>
     <n v="81.2"/>
     <n v="0.37150246305418722"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="0"/>
     <n v="22"/>
-    <n v="90.800000000000011"/>
-    <n v="0.34786550110132147"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="65.8"/>
+    <n v="0.33919452887537987"/>
   </r>
   <r>
     <x v="0"/>
     <n v="23"/>
     <n v="95.8"/>
     <n v="0.33511482254697278"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="0"/>
     <n v="24"/>
     <n v="93.1"/>
     <n v="0.33000000000000013"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="0"/>
     <n v="25"/>
     <n v="117.9"/>
     <n v="0.3366157760814249"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="0"/>
     <n v="31"/>
-    <n v="171"/>
-    <n v="0.34483333333333333"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="147"/>
+    <n v="0.34061224489795922"/>
   </r>
   <r>
     <x v="0"/>
     <n v="38"/>
     <n v="123.5"/>
     <n v="0.33"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="0"/>
     <n v="40"/>
-    <n v="252.61"/>
-    <n v="0.34981141878785482"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="129.61000000000001"/>
+    <n v="0.33"/>
   </r>
   <r>
     <x v="0"/>
     <n v="49"/>
-    <n v="280.2"/>
-    <n v="0.35103408279800152"/>
+    <n v="260.2"/>
+    <n v="0.34952344350499609"/>
+  </r>
+  <r>
     <x v="0"/>
-    <s v="Producer1"/>
+    <n v="17"/>
+    <n v="556"/>
+    <n v="0.34"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="16"/>
+    <n v="279.99999999999983"/>
+    <n v="0.34"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="15"/>
+    <n v="780.00000000000023"/>
+    <n v="0.34"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="14"/>
+    <n v="706.99999999999989"/>
+    <n v="0.34"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="13"/>
+    <n v="354.00000000000011"/>
+    <n v="0.34"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="347.0000000000004"/>
+    <n v="0.34"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="11"/>
+    <n v="1228.9999999999991"/>
+    <n v="0.34"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="10"/>
+    <n v="551.00000000000011"/>
+    <n v="0.34"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="9"/>
+    <n v="7.0000000000005613"/>
+    <n v="0.34"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="8"/>
+    <n v="200.99999999999963"/>
+    <n v="0.34"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="7"/>
+    <n v="682.00000000000034"/>
+    <n v="0.34"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="6"/>
+    <n v="258.99999999999943"/>
+    <n v="0.34"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="253.00000000000011"/>
+    <n v="0.34"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="174.00000000000037"/>
+    <n v="0.34"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="316.99999999999926"/>
+    <n v="0.34"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="438.00000000000063"/>
+    <n v="0.34"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="334.99999999999909"/>
+    <n v="0.34"/>
+  </r>
+  <r>
+    <x v="0"/>
     <n v="0"/>
-    <n v="0"/>
+    <n v="688.00000000000057"/>
+    <n v="0.34"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="140.5"/>
+    <n v="0.63"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="1117.5"/>
+    <n v="0.61199999999999999"/>
   </r>
   <r>
     <x v="1"/>
     <n v="7"/>
-    <n v="4734"/>
-    <n v="0.44474651457541198"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="296.3"/>
+    <n v="0.60690313871076618"/>
   </r>
   <r>
     <x v="1"/>
+    <n v="9"/>
+    <n v="790.5"/>
+    <n v="0.59850000000000014"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="11"/>
+    <n v="639"/>
+    <n v="0.58950000000000002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="2092.5"/>
+    <n v="0.58499999999999996"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="196"/>
+    <n v="0.58050000000000002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="1230"/>
+    <n v="0.57600000000000007"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="1217"/>
+    <n v="0.57150000000000001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="1207.759"/>
+    <n v="0.5625"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="18"/>
+    <n v="484.4"/>
+    <n v="0.55800000000000005"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="19"/>
+    <n v="165.46"/>
+    <n v="0.55309748579717155"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="21"/>
+    <n v="135.80000000000001"/>
+    <n v="0.54449999999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="1239.2"/>
+    <n v="0.54"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="188.6"/>
+    <n v="0.53549999999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="430.6"/>
+    <n v="0.53100000000000003"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25"/>
+    <n v="533"/>
+    <n v="0.52649999999999997"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="26"/>
+    <n v="734"/>
+    <n v="0.52200000000000002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="27"/>
+    <n v="360"/>
+    <n v="0.47999999999999993"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="28"/>
+    <n v="413.51"/>
+    <n v="0.51260921138545623"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="41"/>
+    <n v="125"/>
+    <n v="0.45450000000000002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="42"/>
+    <n v="316.7"/>
+    <n v="0.45000000000000012"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="46"/>
+    <n v="775"/>
+    <n v="0.43199999999999988"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="48"/>
+    <n v="475"/>
+    <n v="0.42299999999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="49"/>
+    <n v="1698"/>
+    <n v="0.41839399293286222"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="7"/>
+    <n v="3174"/>
+    <n v="0.46250000000000002"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="8"/>
     <n v="1597.7"/>
     <n v="0.46"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="9"/>
     <n v="1909"/>
     <n v="0.45750000000000002"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="10"/>
     <n v="433"/>
     <n v="0.45500000000000002"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="11"/>
     <n v="716"/>
     <n v="0.45250000000000001"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="12"/>
     <n v="250"/>
     <n v="0.45"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="13"/>
     <n v="1572"/>
     <n v="0.44750000000000001"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="15"/>
     <n v="350"/>
     <n v="0.4425"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="16"/>
     <n v="336"/>
     <n v="0.44"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="17"/>
     <n v="822"/>
     <n v="0.4375"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="19"/>
     <n v="690"/>
     <n v="0.4325"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="22"/>
     <n v="123"/>
     <n v="0.42499999999999999"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="28"/>
-    <n v="1127.4000000000001"/>
-    <n v="0.409327656554905"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+    <n v="527.4"/>
+    <n v="0.41012703830109981"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="29"/>
     <n v="889"/>
     <n v="0.40749999999999992"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="30"/>
     <n v="561.70000000000005"/>
     <n v="0.41046377069610113"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="31"/>
     <n v="332.7"/>
     <n v="0.40250000000000002"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="32"/>
     <n v="169.9"/>
     <n v="0.4"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="33"/>
     <n v="762.5"/>
     <n v="0.40152491803278689"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="34"/>
     <n v="713.5"/>
     <n v="0.39500000000000007"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="35"/>
     <n v="1157"/>
     <n v="0.39250000000000002"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="37"/>
     <n v="380"/>
     <n v="0.39488157894736842"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="38"/>
     <n v="88.3"/>
     <n v="0.42570101925254811"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="39"/>
     <n v="794.4"/>
     <n v="0.38947432024169182"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="40"/>
     <n v="666.4"/>
     <n v="0.37999999999999989"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="41"/>
     <n v="717"/>
     <n v="0.3775"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="43"/>
     <n v="303"/>
     <n v="0.3725"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="46"/>
     <n v="1412.6"/>
     <n v="0.36499999999999999"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="51"/>
     <n v="190.35"/>
     <n v="0.36881176779616498"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="53"/>
     <n v="345"/>
     <n v="0.34749999999999998"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="54"/>
     <n v="385"/>
     <n v="0.34422077922077909"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="60"/>
     <n v="129"/>
     <n v="0.32748062015503882"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="82"/>
     <n v="188.32"/>
     <n v="0.26621654630416308"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="2"/>
-    <n v="140.5"/>
-    <n v="0.63"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="6"/>
-    <n v="1117.5"/>
-    <n v="0.61199999999999999"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="7"/>
-    <n v="296.3"/>
-    <n v="0.60690313871076618"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="9"/>
-    <n v="2110.5"/>
-    <n v="0.56764319653162765"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="10"/>
-    <n v="3470"/>
-    <n v="0.54916417900000014"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
     <n v="11"/>
-    <n v="639"/>
-    <n v="0.58950000000000002"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="12"/>
-    <n v="4269.5"/>
-    <n v="0.56672746637381433"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="13"/>
-    <n v="196"/>
-    <n v="0.58050000000000002"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
+    <n v="83.8"/>
+    <n v="0.39710000000000001"/>
+  </r>
+  <r>
+    <x v="3"/>
     <n v="14"/>
-    <n v="1569"/>
-    <n v="0.57020182070172087"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="15"/>
-    <n v="1517"/>
-    <n v="0.56708289630850361"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="17"/>
-    <n v="1207.759"/>
-    <n v="0.5625"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="18"/>
-    <n v="1375.4"/>
-    <n v="0.55227605314017736"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="19"/>
-    <n v="245.46"/>
-    <n v="0.55181554762486762"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="21"/>
-    <n v="135.80000000000001"/>
-    <n v="0.54449999999999998"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="22"/>
-    <n v="1239.2"/>
-    <n v="0.54"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="23"/>
-    <n v="778.6"/>
-    <n v="0.54585430979964034"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="24"/>
-    <n v="799.6"/>
-    <n v="0.53938241877313664"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="25"/>
-    <n v="1597"/>
-    <n v="0.54159999151909832"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="26"/>
-    <n v="1784"/>
-    <n v="0.53798788562219735"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="27"/>
-    <n v="834"/>
-    <n v="0.53701485372422053"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="28"/>
-    <n v="519"/>
-    <n v="0.52205846487475915"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="29"/>
-    <n v="84.51"/>
-    <n v="0.5367635278665247"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="32"/>
-    <n v="225"/>
-    <n v="0.54916417900000003"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="35"/>
-    <n v="169"/>
-    <n v="0.54916417900000003"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="37"/>
-    <n v="103"/>
-    <n v="0.54916417900000003"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="39"/>
-    <n v="50"/>
-    <n v="0.54916417900000003"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="41"/>
-    <n v="125"/>
-    <n v="0.45450000000000002"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="42"/>
-    <n v="316.7"/>
-    <n v="0.45000000000000012"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="44"/>
-    <n v="695"/>
-    <n v="0.54916417900000003"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="46"/>
-    <n v="1107"/>
-    <n v="0.46713866976332441"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="47"/>
-    <n v="332"/>
-    <n v="0.54916417900000003"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="48"/>
-    <n v="475"/>
-    <n v="0.42299999999999999"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="49"/>
-    <n v="1698"/>
-    <n v="0.41839399293286222"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="121"/>
-    <n v="137"/>
-    <n v="0.44137901724817508"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="535.20000000000005"/>
-    <n v="0.40589999999999993"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="167.45099999999999"/>
-    <n v="0.40479999999999988"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="5"/>
-    <n v="220.2"/>
-    <n v="0.4037"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="6"/>
-    <n v="574.30999999999995"/>
-    <n v="0.40260000000000012"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="8"/>
-    <n v="141.6"/>
-    <n v="0.40260338983050842"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="9"/>
-    <n v="454.24"/>
-    <n v="0.40355321415991552"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="10"/>
-    <n v="275.77999999999997"/>
-    <n v="0.40463723257669171"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="15"/>
-    <n v="158"/>
-    <n v="0.39478481012658229"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="16"/>
-    <n v="746.01499999999999"/>
-    <n v="0.39546587401057631"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="17"/>
-    <n v="163.9"/>
-    <n v="0.39117876754118369"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="60"/>
+    <n v="0.38"/>
   </r>
   <r>
     <x v="3"/>
     <n v="18"/>
-    <n v="126.7"/>
-    <n v="0.38964230465666932"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="19"/>
-    <n v="110.55"/>
-    <n v="0.38829999999999998"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="20"/>
-    <n v="124.5"/>
-    <n v="0.38719999999999988"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="21"/>
-    <n v="115.8"/>
-    <n v="0.38573238341968907"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="23"/>
-    <n v="72.599999999999994"/>
-    <n v="0.39393856749311301"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="97.1"/>
+    <n v="0.38"/>
   </r>
   <r>
     <x v="3"/>
     <n v="24"/>
-    <n v="53.099999999999987"/>
+    <n v="212"/>
     <n v="0.38279999999999997"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="3"/>
     <n v="25"/>
-    <n v="183.72"/>
-    <n v="0.37728373289788808"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="26"/>
-    <n v="352.5"/>
-    <n v="0.37810042553191492"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="97.3"/>
+    <n v="0.38008386433710178"/>
   </r>
   <r>
     <x v="3"/>
     <n v="27"/>
-    <n v="65.599999999999994"/>
-    <n v="0.37852820121951231"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="87.8"/>
+    <n v="0.37950000000000012"/>
   </r>
   <r>
     <x v="3"/>
     <n v="28"/>
-    <n v="261.10000000000002"/>
-    <n v="0.37812654155495989"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="190.4"/>
+    <n v="0.36544154411764712"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="29"/>
-    <n v="163"/>
-    <n v="0.37650122699386512"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="40"/>
+    <n v="93.6"/>
+    <n v="0.3332"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="30"/>
-    <n v="97.079000000000008"/>
-    <n v="0.36577992974793722"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="33"/>
-    <n v="120.4"/>
-    <n v="0.36632416943521601"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="34"/>
-    <n v="60.491"/>
-    <n v="0.37180000000000007"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="35"/>
-    <n v="521"/>
-    <n v="0.36593798608445299"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="38"/>
-    <n v="156.5"/>
-    <n v="0.34654057507987218"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="43"/>
-    <n v="100.78"/>
-    <n v="0.36255598333002581"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="41"/>
+    <n v="136"/>
+    <n v="0.3306"/>
   </r>
   <r>
     <x v="3"/>
     <n v="45"/>
-    <n v="619.4"/>
-    <n v="0.35966377139166938"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="205.9"/>
+    <n v="0.32451830985915492"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="46"/>
+    <n v="50"/>
+    <n v="0.31759999999999999"/>
   </r>
   <r>
     <x v="3"/>
     <n v="47"/>
-    <n v="639.70000000000005"/>
-    <n v="0.35664127669219953"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="434.5"/>
+    <n v="0.3671346375143843"/>
   </r>
   <r>
     <x v="3"/>
     <n v="48"/>
-    <n v="77.7"/>
-    <n v="0.31862908622908631"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="870.9"/>
+    <n v="0.35639999999999999"/>
   </r>
   <r>
     <x v="3"/>
     <n v="49"/>
-    <n v="183"/>
-    <n v="0.32711420765027333"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="529"/>
+    <n v="0.35048336483931952"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="50"/>
+    <n v="303.2"/>
+    <n v="0.3251815303430079"/>
   </r>
   <r>
     <x v="3"/>
     <n v="51"/>
-    <n v="173.28649999999999"/>
-    <n v="0.33726830520554107"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="111.4"/>
+    <n v="0.30459999999999998"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="61"/>
-    <n v="149"/>
-    <n v="0.33307986577181209"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="68"/>
-    <n v="94.6"/>
-    <n v="0.33404418604651159"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="74"/>
-    <n v="135.5"/>
-    <n v="0.32421992619926199"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="60"/>
+    <n v="90"/>
+    <n v="0.34320000000000001"/>
   </r>
   <r>
     <x v="4"/>
     <n v="2"/>
-    <n v="105.3"/>
-    <n v="0.79963675213675234"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="103.5"/>
+    <n v="0.80000000000000016"/>
   </r>
   <r>
     <x v="4"/>
     <n v="13"/>
-    <n v="691.6"/>
-    <n v="0.75450766338924236"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="681.6"/>
+    <n v="0.7541519953051643"/>
   </r>
   <r>
     <x v="4"/>
     <n v="18"/>
     <n v="1052"/>
     <n v="0.75"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <n v="19"/>
     <n v="138"/>
     <n v="0.75"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <n v="30"/>
     <n v="117.4"/>
     <n v="0.79999999999999993"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <n v="33"/>
-    <n v="189.8"/>
-    <n v="0.75516728134878819"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="177.6"/>
+    <n v="0.75354729729729741"/>
   </r>
   <r>
     <x v="4"/>
     <n v="38"/>
     <n v="91.800000000000011"/>
     <n v="0.79999999999999982"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <n v="39"/>
     <n v="60.3"/>
     <n v="0.76019900497512449"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <n v="40"/>
     <n v="70"/>
     <n v="0.80000000000000016"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <n v="43"/>
     <n v="1057.4000000000001"/>
     <n v="0.75057688670323441"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <n v="44"/>
     <n v="179.4"/>
     <n v="0.8"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <n v="47"/>
     <n v="926.7"/>
     <n v="0.75090104672493796"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <n v="48"/>
     <n v="164"/>
     <n v="0.75"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <n v="52"/>
     <n v="121.1"/>
     <n v="0.79999999999999993"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <n v="55"/>
     <n v="108.9"/>
     <n v="0.76340679522497701"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <n v="56"/>
     <n v="441.7"/>
     <n v="0.75924835861444406"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <n v="57"/>
     <n v="465.7"/>
     <n v="0.772321236847756"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <n v="58"/>
     <n v="340"/>
     <n v="0.75441176470588234"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <n v="60"/>
     <n v="62.8"/>
     <n v="0.8"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <n v="62"/>
     <n v="95.7"/>
     <n v="0.77701149425287364"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <n v="63"/>
     <n v="70.3"/>
     <n v="0.75746799431009948"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <n v="64"/>
-    <n v="390.7"/>
-    <n v="0.75484386997696451"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="376.7"/>
+    <n v="0.75395540217679824"/>
   </r>
   <r>
     <x v="4"/>
     <n v="67"/>
     <n v="339.2"/>
     <n v="0.78540683962264157"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <n v="68"/>
     <n v="57.4"/>
     <n v="0.95853658536585373"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <n v="69"/>
     <n v="111.5"/>
     <n v="0.8"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <n v="71"/>
     <n v="244.1"/>
     <n v="0.76927488734125371"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <n v="74"/>
     <n v="100"/>
     <n v="0.75"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <n v="78"/>
     <n v="84"/>
     <n v="0.8"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <n v="79"/>
     <n v="220"/>
     <n v="0.75"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <n v="80"/>
     <n v="91.5"/>
     <n v="0.8"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <n v="84"/>
     <n v="88.1"/>
     <n v="0.8"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <n v="90"/>
     <n v="104.8"/>
     <n v="0.76192748091603046"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <n v="95"/>
     <n v="130"/>
     <n v="0.78346153846153854"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <n v="98"/>
     <n v="164"/>
     <n v="0.79999999999999993"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
     <n v="100"/>
     <n v="183.55"/>
     <n v="0.82179242713157175"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="10"/>
+    <n v="2780.3"/>
+    <n v="0.42883504657770738"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="12"/>
+    <n v="94.8"/>
+    <n v="0.42399999999999999"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="13"/>
+    <n v="648"/>
+    <n v="0.42159999999999997"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="14"/>
+    <n v="628"/>
+    <n v="0.41920000000000002"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="20"/>
+    <n v="967.22"/>
+    <n v="0.40491523334918628"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="22"/>
+    <n v="1732"/>
+    <n v="0.4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="23"/>
+    <n v="949"/>
+    <n v="0.39760000000000001"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="24"/>
+    <n v="750"/>
+    <n v="0.3952"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="25"/>
+    <n v="750"/>
+    <n v="0.39279999999999993"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="26"/>
+    <n v="2780"/>
+    <n v="0.39038273381294969"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="28"/>
+    <n v="496"/>
+    <n v="0.3856"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="29"/>
+    <n v="488.3"/>
+    <n v="0.38319999999999999"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="32"/>
+    <n v="652.79999999999995"/>
+    <n v="0.37600000000000011"/>
   </r>
   <r>
     <x v="5"/>
     <n v="33"/>
-    <n v="1795"/>
+    <n v="498.5"/>
+    <n v="0.37359999999999999"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="34"/>
+    <n v="232.8"/>
+    <n v="0.37119999999999997"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="35"/>
+    <n v="465"/>
+    <n v="0.36880000000000002"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="37"/>
+    <n v="361.3"/>
+    <n v="0.36387644616662052"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="43"/>
+    <n v="59.5"/>
+    <n v="0.34960000000000002"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="46"/>
+    <n v="604"/>
+    <n v="0.34239999999999998"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="47"/>
+    <n v="1263"/>
+    <n v="0.34000000000000008"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="48"/>
+    <n v="663"/>
+    <n v="0.33760000000000001"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="49"/>
+    <n v="292"/>
+    <n v="0.3352"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="50"/>
+    <n v="588"/>
+    <n v="0.33279999999999998"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="51"/>
+    <n v="299"/>
+    <n v="0.33040000000000003"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="52"/>
+    <n v="295"/>
+    <n v="0.32800000000000001"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="54"/>
+    <n v="297"/>
+    <n v="0.32319999999999999"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="55"/>
+    <n v="321"/>
+    <n v="0.32079999999999997"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="57"/>
+    <n v="643.5"/>
+    <n v="0.31589743589743591"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="86"/>
+    <n v="82"/>
+    <n v="0.24771707317073169"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="105"/>
+    <n v="98"/>
+    <n v="0.20080000000000001"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="33"/>
+    <n v="1310"/>
     <n v="0.33"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
     <n v="34"/>
     <n v="2746"/>
     <n v="0.33"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
     <n v="36"/>
     <n v="1410"/>
     <n v="0.33"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
     <n v="37"/>
     <n v="1360"/>
     <n v="0.33"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
     <n v="38"/>
     <n v="1288"/>
     <n v="0.33"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="400"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1"/>
-    <n v="554.6"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="2"/>
-    <n v="577"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="3"/>
-    <n v="888.59160000000077"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="4"/>
-    <n v="4593.9048999999804"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="5"/>
-    <n v="5251.3512000000264"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="6"/>
-    <n v="3907.871117000042"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="7"/>
-    <n v="3468.728360000041"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="8"/>
-    <n v="3969.1042430000321"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="9"/>
-    <n v="2785.4316200000098"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="10"/>
-    <n v="2104.2190869999849"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="11"/>
-    <n v="1734.3472139999919"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="12"/>
-    <n v="1087.143895999995"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="13"/>
-    <n v="2049.836699999993"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="14"/>
-    <n v="751.41200000000049"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="15"/>
-    <n v="1340.2021999999949"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="16"/>
-    <n v="1659.914999999992"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="17"/>
-    <n v="1287.459599999997"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="18"/>
-    <n v="1434.670999999991"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="19"/>
-    <n v="1773.431999999988"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="20"/>
-    <n v="1975.2310899999791"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="21"/>
-    <n v="1648.599299999983"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="22"/>
-    <n v="853.38700000000108"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="23"/>
-    <n v="564.2280000000012"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="24"/>
-    <n v="251.93539999999979"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="25"/>
-    <n v="170.86999999999969"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="26"/>
-    <n v="157.89503999999971"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="27"/>
-    <n v="172.67299999999949"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="28"/>
-    <n v="133.46791999999999"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1"/>
-    <n v="1130.5"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="2"/>
-    <n v="952"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="7"/>
     <n v="3"/>
-    <n v="1455"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="535.20000000000005"/>
+    <n v="0.40589999999999993"/>
   </r>
   <r>
     <x v="7"/>
     <n v="4"/>
-    <n v="735"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="167.45099999999999"/>
+    <n v="0.40479999999999988"/>
   </r>
   <r>
     <x v="7"/>
     <n v="5"/>
-    <n v="1622"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="220.2"/>
+    <n v="0.4037"/>
   </r>
   <r>
     <x v="7"/>
     <n v="6"/>
-    <n v="726"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="7"/>
-    <n v="2502"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="574.30999999999995"/>
+    <n v="0.40260000000000012"/>
   </r>
   <r>
     <x v="7"/>
     <n v="8"/>
-    <n v="401"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="141.6"/>
+    <n v="0.40260338983050842"/>
   </r>
   <r>
     <x v="7"/>
     <n v="9"/>
-    <n v="400"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="454.24"/>
+    <n v="0.40355321415991552"/>
   </r>
   <r>
     <x v="7"/>
-    <n v="12"/>
-    <n v="108.3"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="10"/>
+    <n v="275.77999999999997"/>
+    <n v="0.40463723257669171"/>
   </r>
   <r>
     <x v="7"/>
-    <n v="14"/>
-    <n v="240"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="0"/>
-    <n v="251.8"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="1"/>
-    <n v="195.4"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="2"/>
-    <n v="414.72300000000001"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="3"/>
-    <n v="3311.8251235000898"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="4"/>
-    <n v="6222.2708520004007"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="5"/>
-    <n v="1688.3228170017601"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="6"/>
-    <n v="1467.6041030027829"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="7"/>
-    <n v="1387.194197003628"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="8"/>
-    <n v="1732.597611001665"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="9"/>
-    <n v="3084.7393325018802"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="10"/>
-    <n v="6784.0983869737693"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="11"/>
-    <n v="9295.3445625134536"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="12"/>
-    <n v="7475.4852885013324"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="13"/>
-    <n v="4341.2807897911334"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="14"/>
-    <n v="1924.091949500588"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
     <n v="15"/>
-    <n v="1221.0464004994919"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
+    <n v="158"/>
+    <n v="0.39478481012658229"/>
+  </r>
+  <r>
+    <x v="7"/>
     <n v="16"/>
-    <n v="829.72907300021166"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
+    <n v="746.01499999999999"/>
+    <n v="0.39546587401057631"/>
+  </r>
+  <r>
+    <x v="7"/>
     <n v="17"/>
-    <n v="907.44900499994742"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="163.9"/>
+    <n v="0.39117876754118369"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="18"/>
+    <n v="126.7"/>
+    <n v="0.38964230465666932"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="19"/>
+    <n v="110.55"/>
+    <n v="0.38829999999999998"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="20"/>
+    <n v="124.5"/>
+    <n v="0.38719999999999988"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="21"/>
+    <n v="115.8"/>
+    <n v="0.38573238341968907"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="23"/>
+    <n v="72.599999999999994"/>
+    <n v="0.39393856749311301"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="24"/>
+    <n v="53.099999999999987"/>
+    <n v="0.38279999999999997"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="25"/>
+    <n v="159.72"/>
+    <n v="0.37783385925369389"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="26"/>
+    <n v="352.5"/>
+    <n v="0.37810042553191492"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="27"/>
+    <n v="65.599999999999994"/>
+    <n v="0.37852820121951231"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="28"/>
+    <n v="261.10000000000002"/>
+    <n v="0.37812654155495989"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="29"/>
+    <n v="163"/>
+    <n v="0.37650122699386512"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="30"/>
+    <n v="97.079000000000008"/>
+    <n v="0.36577992974793722"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="33"/>
+    <n v="120.4"/>
+    <n v="0.36632416943521601"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="34"/>
+    <n v="60.491"/>
+    <n v="0.37180000000000007"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="35"/>
+    <n v="146"/>
+    <n v="0.34620000000000001"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="38"/>
+    <n v="156.5"/>
+    <n v="0.34654057507987218"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="43"/>
+    <n v="100.78"/>
+    <n v="0.36255598333002581"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="45"/>
+    <n v="619.4"/>
+    <n v="0.35966377139166938"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="47"/>
+    <n v="289.7"/>
+    <n v="0.33612530203658958"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="48"/>
+    <n v="77.7"/>
+    <n v="0.31862908622908631"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="49"/>
+    <n v="183"/>
+    <n v="0.32711420765027333"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="51"/>
+    <n v="173.28649999999999"/>
+    <n v="0.33726830520554107"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="61"/>
+    <n v="149"/>
+    <n v="0.33307986577181209"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="68"/>
+    <n v="94.6"/>
+    <n v="0.33404418604651159"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="74"/>
+    <n v="135.5"/>
+    <n v="0.32421992619926199"/>
   </r>
   <r>
     <x v="8"/>
     <n v="18"/>
-    <n v="633.04350900002578"/>
+    <n v="632.34350900002573"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="8"/>
     <n v="19"/>
     <n v="122.12090299971361"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="8"/>
     <n v="20"/>
     <n v="93.425178999952891"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="8"/>
     <n v="21"/>
     <n v="171.92399300525551"/>
     <n v="1"/>
-    <x v="0"/>
-    <s v="Producer1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="17"/>
+    <n v="139"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="16"/>
+    <n v="669.99999999999989"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="15"/>
+    <n v="951.00000000000011"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="14"/>
+    <n v="843"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="13"/>
+    <n v="1271"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="12"/>
+    <n v="1950.0000000000002"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="11"/>
+    <n v="4446.0000000000009"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="10"/>
+    <n v="7439.9999999999991"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="9"/>
+    <n v="7422.9999999999982"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="8"/>
+    <n v="7604.0000000000027"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="7"/>
+    <n v="3676.9999999999995"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="6"/>
+    <n v="1189.9999999999977"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="5"/>
+    <n v="1323.9999999999982"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="4"/>
+    <n v="1455.0000000000055"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="3"/>
+    <n v="1612.9999999999995"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2"/>
+    <n v="2914.9999999999991"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="1"/>
+    <n v="3888.9999999999959"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
     <n v="0"/>
-    <n v="0"/>
+    <n v="4625"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="11"/>
+    <n v="35"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="9"/>
     <n v="10"/>
-    <n v="2780.3"/>
-    <n v="0.42883504657770738"/>
-    <x v="0"/>
-    <s v="Producer1"/>
+    <n v="45"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="9"/>
+    <n v="108"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="8"/>
+    <n v="80.000000000000014"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="7"/>
+    <n v="240"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="6"/>
+    <n v="486"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="5"/>
+    <n v="2288.9999999999995"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="4"/>
+    <n v="869.00000000000023"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="3"/>
+    <n v="1253.9999999999995"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2"/>
+    <n v="987.00000000000011"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="1"/>
+    <n v="1134.9999999999998"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
     <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
+    <n v="246.00000000000045"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="18"/>
+    <n v="1434.670999999991"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="19"/>
+    <n v="1773.431999999988"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20"/>
+    <n v="1975.2310899999791"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="21"/>
+    <n v="1648.599299999983"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="22"/>
+    <n v="853.38700000000108"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="23"/>
+    <n v="564.2280000000012"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="24"/>
+    <n v="233.93539999999979"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="25"/>
+    <n v="170.86999999999969"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="26"/>
+    <n v="157.89503999999971"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="27"/>
+    <n v="172.67299999999949"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="28"/>
+    <n v="133.46791999999999"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="17"/>
+    <n v="2404.9999999999995"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="16"/>
+    <n v="2038.0000000000002"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="15"/>
+    <n v="1829.0000000000007"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="14"/>
+    <n v="2225.9999999999991"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="13"/>
+    <n v="1641.9999999999995"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
     <n v="12"/>
-    <n v="94.8"/>
-    <n v="0.42399999999999999"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="13"/>
-    <n v="648"/>
-    <n v="0.42159999999999997"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="14"/>
-    <n v="628"/>
-    <n v="0.41920000000000002"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="20"/>
-    <n v="967.22"/>
-    <n v="0.40491523334918628"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="22"/>
-    <n v="1732"/>
-    <n v="0.4"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="23"/>
-    <n v="949"/>
-    <n v="0.39760000000000001"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="24"/>
-    <n v="750"/>
-    <n v="0.3952"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="25"/>
-    <n v="750"/>
-    <n v="0.39279999999999993"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="26"/>
-    <n v="2780"/>
-    <n v="0.39038273381294969"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="28"/>
-    <n v="496"/>
-    <n v="0.3856"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="29"/>
-    <n v="488.3"/>
-    <n v="0.38319999999999999"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="32"/>
-    <n v="652.79999999999995"/>
-    <n v="0.37600000000000011"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="33"/>
-    <n v="498.5"/>
-    <n v="0.37359999999999999"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="34"/>
-    <n v="232.8"/>
-    <n v="0.37119999999999997"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="35"/>
-    <n v="465"/>
-    <n v="0.36880000000000002"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="37"/>
-    <n v="361.3"/>
-    <n v="0.36387644616662052"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="43"/>
-    <n v="59.5"/>
-    <n v="0.34960000000000002"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="46"/>
-    <n v="604"/>
-    <n v="0.34239999999999998"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="47"/>
-    <n v="1263"/>
-    <n v="0.34000000000000008"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="48"/>
-    <n v="663"/>
-    <n v="0.33760000000000001"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="49"/>
-    <n v="292"/>
-    <n v="0.3352"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="50"/>
-    <n v="588"/>
-    <n v="0.33279999999999998"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="51"/>
-    <n v="299"/>
-    <n v="0.33040000000000003"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="52"/>
-    <n v="295"/>
-    <n v="0.32800000000000001"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="54"/>
-    <n v="297"/>
-    <n v="0.32319999999999999"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="55"/>
-    <n v="321"/>
-    <n v="0.32079999999999997"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="57"/>
-    <n v="643.5"/>
-    <n v="0.31589743589743591"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="86"/>
-    <n v="82"/>
-    <n v="0.24771707317073169"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="105"/>
-    <n v="98"/>
-    <n v="0.20080000000000001"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="678.0000000000008"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="10"/>
     <n v="11"/>
-    <n v="83.8"/>
-    <n v="0.39710000000000001"/>
-    <x v="0"/>
-    <s v="Producer1"/>
+    <n v="2902.9999999999986"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="10"/>
+    <n v="1126.0000000000011"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="9"/>
+    <n v="1756.0000000000002"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="8"/>
+    <n v="1977.0000000000002"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="7"/>
+    <n v="2413.0000000000005"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="6"/>
+    <n v="4652.0000000000009"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="5"/>
+    <n v="3675.999999999995"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="4"/>
+    <n v="3986.0000000000041"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="3"/>
+    <n v="4890.9999999999982"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="2"/>
+    <n v="2154.0000000000036"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="1"/>
+    <n v="864.99999999999488"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
     <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="14"/>
-    <n v="60"/>
-    <n v="0.38"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="18"/>
-    <n v="97.1"/>
-    <n v="0.38"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="24"/>
-    <n v="212"/>
-    <n v="0.38279999999999997"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="25"/>
-    <n v="97.3"/>
-    <n v="0.38008386433710178"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="27"/>
-    <n v="87.8"/>
-    <n v="0.37950000000000012"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="28"/>
-    <n v="190.4"/>
-    <n v="0.36544154411764712"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="40"/>
-    <n v="93.6"/>
-    <n v="0.3332"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="41"/>
-    <n v="136"/>
-    <n v="0.3306"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="45"/>
-    <n v="205.9"/>
-    <n v="0.32451830985915492"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="46"/>
-    <n v="50"/>
-    <n v="0.31759999999999999"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="47"/>
-    <n v="434.5"/>
-    <n v="0.3671346375143843"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="48"/>
-    <n v="870.9"/>
-    <n v="0.35639999999999999"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="49"/>
-    <n v="529"/>
-    <n v="0.35048336483931952"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="50"/>
-    <n v="303.2"/>
-    <n v="0.3251815303430079"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="51"/>
-    <n v="111.4"/>
-    <n v="0.30459999999999998"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="60"/>
-    <n v="90"/>
-    <n v="0.34320000000000001"/>
-    <x v="0"/>
-    <s v="Producer1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="1221.0000000000036"/>
+    <n v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F2A88F4-60AA-4E67-A537-DC2C51174147}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{52F3B87C-97DD-428A-994C-5076FC20298A}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
+  <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
       <items count="12">
         <item x="0"/>
+        <item x="1"/>
         <item x="2"/>
-        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
         <item x="10"/>
-        <item x="4"/>
-        <item x="9"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -3192,9 +2085,9 @@
     </i>
   </colItems>
   <dataFields count="3">
+    <dataField name="Average of Age" fld="1" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="Sum of Capacity" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Average of Efficiency" fld="3" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of Age" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of Efficiency" fld="3" subtotal="average" baseField="0" baseItem="7"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -3492,11 +2385,214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB55C996-D3CF-4EE5-95A8-EE30955CDCEF}">
+  <dimension ref="A3:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>15.931034482758621</v>
+      </c>
+      <c r="C4" s="4">
+        <v>9697.5033999999978</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.34272443418830756</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
+        <v>22.6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>17001.329000000002</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>31.09375</v>
+      </c>
+      <c r="C6" s="4">
+        <v>22685.77</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.40441882371711696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4">
+        <v>36.705882352941174</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3652.9</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.35399077947121271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4">
+        <v>56.971428571428568</v>
+      </c>
+      <c r="C8" s="4">
+        <v>8820.7499999999982</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.78107425817078524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4">
+        <v>38.666666666666664</v>
+      </c>
+      <c r="C9" s="4">
+        <v>20779.019999999997</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.36004079896582097</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
+        <v>35.6</v>
+      </c>
+      <c r="C10" s="4">
+        <v>8114</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>28.828571428571429</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7445.3024999999998</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.37300777447121924</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="C12" s="4">
+        <v>54444.813584004944</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7774</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4">
+        <v>51556.389749999944</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4">
+        <v>28.376383763837637</v>
+      </c>
+      <c r="C15" s="4">
+        <v>211971.77823400492</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.58352713336417072</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J272"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="D272" sqref="A1:D272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -12217,7 +11313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6B6640-7659-40BC-BB1F-545A343E7684}">
   <dimension ref="A1:I76"/>
   <sheetViews>
@@ -14438,12 +13534,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DF7B89-3137-4483-A2A9-559F907A912A}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -14487,21 +13583,21 @@
         <v>6</v>
       </c>
       <c r="C2" s="4">
-        <v>20</v>
-      </c>
-      <c r="D2" s="6">
-        <v>4644.4034000000001</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.35162268780797246</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2">
+        <v>15.931034482758621</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3232.5011333333327</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.34272443418830756</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="12">
         <v>0</v>
       </c>
       <c r="I2" s="12">
@@ -14516,21 +13612,21 @@
         <v>9</v>
       </c>
       <c r="C3" s="4">
-        <v>28</v>
-      </c>
-      <c r="D3" s="6">
-        <v>31358.328999999998</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.53826095601515933</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3">
+        <v>22.6</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5667.1096666666672</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="12">
         <v>0</v>
       </c>
       <c r="I3" s="12">
@@ -14545,21 +13641,21 @@
         <v>8</v>
       </c>
       <c r="C4" s="4">
-        <v>31</v>
-      </c>
-      <c r="D4" s="6">
-        <v>24845.77</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.40383904661803</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4">
+        <v>31.09375</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7561.9233333333332</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.40441882371711696</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="12">
         <v>0</v>
       </c>
       <c r="I4" s="12">
@@ -14574,21 +13670,21 @@
         <v>17</v>
       </c>
       <c r="C5" s="4">
-        <v>36</v>
-      </c>
-      <c r="D5" s="6">
-        <v>3652.9</v>
-      </c>
-      <c r="E5" s="5">
+        <v>36.705882352941174</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1217.6333333333334</v>
+      </c>
+      <c r="E5" s="4">
         <v>0.35399077947121271</v>
       </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5">
+      <c r="F5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="12">
         <v>0</v>
       </c>
       <c r="I5" s="12">
@@ -14603,21 +13699,21 @@
         <v>11</v>
       </c>
       <c r="C6" s="4">
-        <v>56</v>
-      </c>
-      <c r="D6" s="6">
-        <v>8858.7499999999982</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.7811457116585705</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6">
+        <v>56.971428571428568</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2940.2499999999995</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.78107425817078524</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="12">
         <v>0</v>
       </c>
       <c r="I6" s="12">
@@ -14632,21 +13728,21 @@
         <v>16</v>
       </c>
       <c r="C7" s="4">
-        <v>38</v>
-      </c>
-      <c r="D7" s="6">
-        <v>20779.019999999997</v>
-      </c>
-      <c r="E7" s="5">
+        <v>38.666666666666664</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6926.3399999999992</v>
+      </c>
+      <c r="E7" s="4">
         <v>0.36004079896582097</v>
       </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7">
+      <c r="F7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="12">
         <v>0</v>
       </c>
       <c r="I7" s="12">
@@ -14661,21 +13757,21 @@
         <v>12</v>
       </c>
       <c r="C8" s="4">
-        <v>35</v>
-      </c>
-      <c r="D8" s="6">
-        <v>8599</v>
-      </c>
-      <c r="E8" s="5">
+        <v>35.6</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2704.6666666666665</v>
+      </c>
+      <c r="E8" s="4">
         <v>0.33</v>
       </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8">
+      <c r="F8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="12">
         <v>0</v>
       </c>
       <c r="I8" s="12">
@@ -14690,21 +13786,21 @@
         <v>10</v>
       </c>
       <c r="C9" s="4">
-        <v>28</v>
-      </c>
-      <c r="D9" s="6">
-        <v>8194.3024999999998</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.37414216973934089</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9">
+        <v>28.828571428571429</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2481.7674999999999</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.37300777447121924</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="12">
         <v>0</v>
       </c>
       <c r="I9" s="12">
@@ -14719,21 +13815,21 @@
         <v>15</v>
       </c>
       <c r="C10" s="4">
-        <v>10</v>
-      </c>
-      <c r="D10" s="6">
-        <v>53555.516075797081</v>
-      </c>
-      <c r="E10" s="5">
+        <v>10.5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>18148.271194668316</v>
+      </c>
+      <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10">
+      <c r="F10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="12">
         <v>0</v>
       </c>
       <c r="I10" s="12">
@@ -14748,21 +13844,21 @@
         <v>14</v>
       </c>
       <c r="C11" s="4">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6">
-        <v>10271.799999999999</v>
-      </c>
-      <c r="E11" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2591.3333333333335</v>
+      </c>
+      <c r="E11" s="4">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11">
+      <c r="F11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="12">
         <v>0</v>
       </c>
       <c r="I11" s="12">
@@ -14779,22 +13875,682 @@
       <c r="C12" s="4">
         <v>14</v>
       </c>
-      <c r="D12" s="6">
-        <v>47547.508487000036</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12" s="4">
+        <v>17185.463249999983</v>
+      </c>
+      <c r="E12" s="4">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12">
+      <c r="F12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="12">
         <v>0</v>
       </c>
       <c r="I12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4">
+        <f>C2-5</f>
+        <v>10.931034482758621</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3232.5011333333327</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.34272443418830756</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="13">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" ref="C14:C23" si="0">C3-5</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5667.1096666666672</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="13">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="0"/>
+        <v>26.09375</v>
+      </c>
+      <c r="D15" s="4">
+        <v>7561.9233333333332</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.40441882371711696</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="13">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="0"/>
+        <v>31.705882352941174</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1217.6333333333334</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.35399077947121271</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="13">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="0"/>
+        <v>51.971428571428568</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2940.2499999999995</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.78107425817078524</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="13">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="0"/>
+        <v>33.666666666666664</v>
+      </c>
+      <c r="D18" s="4">
+        <v>6926.3399999999992</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.36004079896582097</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="13">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="0"/>
+        <v>30.6</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2704.6666666666665</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="13">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="0"/>
+        <v>23.828571428571429</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2481.7674999999999</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.37300777447121924</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="13">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="D21" s="4">
+        <v>18148.271194668316</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="13">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2591.3333333333335</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="13">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D23" s="4">
+        <v>17185.463249999983</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="13">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="4">
+        <f>C2+5</f>
+        <v>20.931034482758619</v>
+      </c>
+      <c r="D24" s="4">
+        <v>3232.5011333333327</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.34272443418830756</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="13">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" ref="C25:C34" si="1">C3+5</f>
+        <v>27.6</v>
+      </c>
+      <c r="D25" s="4">
+        <v>5667.1096666666672</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="13">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="1"/>
+        <v>36.09375</v>
+      </c>
+      <c r="D26" s="4">
+        <v>7561.9233333333332</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.40441882371711696</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
+      <c r="I26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="13">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" si="1"/>
+        <v>41.705882352941174</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1217.6333333333334</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.35399077947121271</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="13">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="1"/>
+        <v>61.971428571428568</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2940.2499999999995</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.78107425817078524</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="12">
+        <v>0</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="13">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="1"/>
+        <v>43.666666666666664</v>
+      </c>
+      <c r="D29" s="4">
+        <v>6926.3399999999992</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.36004079896582097</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="12">
+        <v>0</v>
+      </c>
+      <c r="I29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="13">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="1"/>
+        <v>40.6</v>
+      </c>
+      <c r="D30" s="4">
+        <v>2704.6666666666665</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="12">
+        <v>0</v>
+      </c>
+      <c r="I30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="13">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="4">
+        <f t="shared" si="1"/>
+        <v>33.828571428571429</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2481.7674999999999</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.37300777447121924</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="12">
+        <v>0</v>
+      </c>
+      <c r="I31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="13">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
+      </c>
+      <c r="D32" s="4">
+        <v>18148.271194668316</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="12">
+        <v>0</v>
+      </c>
+      <c r="I32" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="13">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2591.3333333333335</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="12">
+        <v>0</v>
+      </c>
+      <c r="I33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="13">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D34" s="4">
+        <v>17185.463249999983</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0</v>
+      </c>
+      <c r="I34" s="12">
         <v>0</v>
       </c>
     </row>
@@ -14804,7 +14560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1842032F-786B-416F-9171-8FFE55F32C1D}">
   <dimension ref="A1:I18"/>
   <sheetViews>
@@ -15342,7 +15098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871B8469-CA4D-495B-9C72-1DE61BB7D586}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
@@ -15792,207 +15548,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE56270-BB9F-4A65-A808-F3AE5E04B4CD}">
-  <dimension ref="A3:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4">
-        <v>4644.4034000000001</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.35162268780797246</v>
-      </c>
-      <c r="D4" s="4">
-        <v>20.333333333333332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4">
-        <v>31358.328999999998</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.53826095601515933</v>
-      </c>
-      <c r="D5" s="4">
-        <v>28.205882352941178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4">
-        <v>24845.77</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.40383904661803</v>
-      </c>
-      <c r="D6" s="4">
-        <v>31.09375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3652.9</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.35399077947121271</v>
-      </c>
-      <c r="D7" s="4">
-        <v>36.705882352941174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4">
-        <v>8858.7499999999982</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.7811457116585705</v>
-      </c>
-      <c r="D8" s="4">
-        <v>56.971428571428568</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="4">
-        <v>20779.019999999997</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.36004079896582097</v>
-      </c>
-      <c r="D9" s="4">
-        <v>38.666666666666664</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4">
-        <v>8599</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="D10" s="4">
-        <v>35.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <v>8194.3024999999998</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.37414216973934089</v>
-      </c>
-      <c r="D11" s="4">
-        <v>28.828571428571429</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="4">
-        <v>53555.516075797081</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="4">
-        <v>10271.799999999999</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>6.4545454545454541</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
-        <v>47547.508487000036</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="4">
-        <v>222307.29946279712</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.58860495021834658</v>
-      </c>
-      <c r="D15" s="4">
-        <v>29.719557195571955</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\TraderesCode\toolbox-amiris-emlab\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A9C12B-0F48-4264-AD2E-3BD445BFE92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E306E9F4-7C95-41E8-BA78-961CA915C254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="27645" windowHeight="16440" tabRatio="840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28815" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
@@ -18,14 +18,16 @@
     <sheet name="extendedNL" sheetId="6" r:id="rId3"/>
     <sheet name="powerplants_grouped" sheetId="3" r:id="rId4"/>
     <sheet name="groupedDE_RES" sheetId="8" r:id="rId5"/>
-    <sheet name="germany2019" sheetId="5" r:id="rId6"/>
+    <sheet name="two_techs_DE" sheetId="10" r:id="rId6"/>
+    <sheet name="germany2019" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">extendedDE!$B$1:$J$272</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">two_techs_DE!$B$1:$I$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="43">
   <si>
     <t>Technology</t>
   </si>
@@ -2006,7 +2008,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{52F3B87C-97DD-428A-994C-5076FC20298A}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{52F3B87C-97DD-428A-994C-5076FC20298A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -2388,8 +2390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB55C996-D3CF-4EE5-95A8-EE30955CDCEF}">
   <dimension ref="A3:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2591,8 +2593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J272"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="D272" sqref="A1:D272"/>
+    <sheetView topLeftCell="A13" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -13539,7 +13541,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="I34" sqref="A1:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -15099,6 +15101,1031 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A9FF33-AD05-496F-B170-C2A91E3708F6}">
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="5" width="28.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="13">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4">
+        <v>15.931034482758621</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3232.5011333333327</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>22.6</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5667.1096666666672</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4">
+        <v>31.09375</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7561.9233333333332</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4">
+        <v>36.705882352941174</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1217.6333333333334</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4">
+        <v>56.971428571428568</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2940.2499999999995</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4">
+        <v>38.666666666666664</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6926.3399999999992</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4">
+        <v>35.6</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2704.6666666666665</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4">
+        <v>28.828571428571429</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2481.7674999999999</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>18148.271194668316</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2591.3333333333335</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4">
+        <v>17185.463249999983</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4">
+        <f>C2-5</f>
+        <v>10.931034482758621</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3232.5011333333327</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="13">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" ref="C14:C23" si="0">C3-5</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5667.1096666666672</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="13">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="0"/>
+        <v>26.09375</v>
+      </c>
+      <c r="D15" s="4">
+        <v>7561.9233333333332</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="13">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="0"/>
+        <v>31.705882352941174</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1217.6333333333334</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="13">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="0"/>
+        <v>51.971428571428568</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2940.2499999999995</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="13">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="0"/>
+        <v>33.666666666666664</v>
+      </c>
+      <c r="D18" s="4">
+        <v>6926.3399999999992</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="13">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="0"/>
+        <v>30.6</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2704.6666666666665</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="13">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="0"/>
+        <v>23.828571428571429</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2481.7674999999999</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="13">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="D21" s="4">
+        <v>18148.271194668316</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="13">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2591.3333333333335</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="13">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D23" s="4">
+        <v>17185.463249999983</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="13">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="4">
+        <f>C2+5</f>
+        <v>20.931034482758619</v>
+      </c>
+      <c r="D24" s="4">
+        <v>3232.5011333333327</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="13">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" ref="C25:C34" si="1">C3+5</f>
+        <v>27.6</v>
+      </c>
+      <c r="D25" s="4">
+        <v>5667.1096666666672</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="13">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="1"/>
+        <v>36.09375</v>
+      </c>
+      <c r="D26" s="4">
+        <v>7561.9233333333332</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
+      <c r="I26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="13">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" si="1"/>
+        <v>41.705882352941174</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1217.6333333333334</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="13">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="1"/>
+        <v>61.971428571428568</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2940.2499999999995</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="12">
+        <v>0</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="13">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="1"/>
+        <v>43.666666666666664</v>
+      </c>
+      <c r="D29" s="4">
+        <v>6926.3399999999992</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="12">
+        <v>0</v>
+      </c>
+      <c r="I29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="13">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="1"/>
+        <v>40.6</v>
+      </c>
+      <c r="D30" s="4">
+        <v>2704.6666666666665</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="12">
+        <v>0</v>
+      </c>
+      <c r="I30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="13">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="4">
+        <f t="shared" si="1"/>
+        <v>33.828571428571429</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2481.7674999999999</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="12">
+        <v>0</v>
+      </c>
+      <c r="I31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="13">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
+      </c>
+      <c r="D32" s="4">
+        <v>18148.271194668316</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="12">
+        <v>0</v>
+      </c>
+      <c r="I32" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="13">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2591.3333333333335</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="12">
+        <v>0</v>
+      </c>
+      <c r="I33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="13">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D34" s="4">
+        <v>17185.463249999983</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0</v>
+      </c>
+      <c r="I34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:I34" xr:uid="{37A9FF33-AD05-496F-B170-C2A91E3708F6}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871B8469-CA4D-495B-9C72-1DE61BB7D586}">
   <dimension ref="A1:Z17"/>
   <sheetViews>

--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E306E9F4-7C95-41E8-BA78-961CA915C254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B9961D-C243-45BE-8D37-D5299A626635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28815" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="43">
   <si>
     <t>Technology</t>
   </si>
@@ -15104,8 +15104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A9FF33-AD05-496F-B170-C2A91E3708F6}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -15820,304 +15820,114 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="13">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="4">
-        <f t="shared" ref="C25:C34" si="1">C3+5</f>
-        <v>27.6</v>
-      </c>
-      <c r="D25" s="4">
-        <v>5667.1096666666672</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0.53574015315305035</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="12">
-        <v>0</v>
-      </c>
-      <c r="I25" s="12">
-        <v>0</v>
-      </c>
+      <c r="A25" s="13"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="13">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="4">
-        <f t="shared" si="1"/>
-        <v>36.09375</v>
-      </c>
-      <c r="D26" s="4">
-        <v>7561.9233333333332</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0.53574015315305035</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" s="12">
-        <v>0</v>
-      </c>
-      <c r="I26" s="12">
-        <v>0</v>
-      </c>
+      <c r="A26" s="13"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="13">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="4">
-        <f t="shared" si="1"/>
-        <v>41.705882352941174</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1217.6333333333334</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0.53574015315305035</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="12">
-        <v>0</v>
-      </c>
-      <c r="I27" s="12">
-        <v>0</v>
-      </c>
+      <c r="A27" s="13"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="13">
-        <v>26</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="4">
-        <f t="shared" si="1"/>
-        <v>61.971428571428568</v>
-      </c>
-      <c r="D28" s="4">
-        <v>2940.2499999999995</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0.53574015315305035</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="12">
-        <v>0</v>
-      </c>
-      <c r="I28" s="12">
-        <v>0</v>
-      </c>
+      <c r="A28" s="13"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="13">
-        <v>27</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="4">
-        <f t="shared" si="1"/>
-        <v>43.666666666666664</v>
-      </c>
-      <c r="D29" s="4">
-        <v>6926.3399999999992</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0.53574015315305035</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H29" s="12">
-        <v>0</v>
-      </c>
-      <c r="I29" s="12">
-        <v>0</v>
-      </c>
+      <c r="A29" s="13"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="13">
-        <v>28</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="4">
-        <f t="shared" si="1"/>
-        <v>40.6</v>
-      </c>
-      <c r="D30" s="4">
-        <v>2704.6666666666665</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0.53574015315305035</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" s="12">
-        <v>0</v>
-      </c>
-      <c r="I30" s="12">
-        <v>0</v>
-      </c>
+      <c r="A30" s="13"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="13">
-        <v>29</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="4">
-        <f t="shared" si="1"/>
-        <v>33.828571428571429</v>
-      </c>
-      <c r="D31" s="4">
-        <v>2481.7674999999999</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0.53574015315305035</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H31" s="12">
-        <v>0</v>
-      </c>
-      <c r="I31" s="12">
-        <v>0</v>
-      </c>
+      <c r="A31" s="13"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="13">
-        <v>30</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="4">
-        <f t="shared" si="1"/>
-        <v>15.5</v>
-      </c>
-      <c r="D32" s="4">
-        <v>18148.271194668316</v>
-      </c>
-      <c r="E32" s="4">
-        <v>1</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H32" s="12">
-        <v>0</v>
-      </c>
-      <c r="I32" s="12">
-        <v>0</v>
-      </c>
+      <c r="A32" s="13"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="13">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="4">
-        <f t="shared" si="1"/>
-        <v>10.5</v>
-      </c>
-      <c r="D33" s="4">
-        <v>2591.3333333333335</v>
-      </c>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" s="12">
-        <v>0</v>
-      </c>
-      <c r="I33" s="12">
-        <v>0</v>
-      </c>
+      <c r="A33" s="13"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="13">
-        <v>32</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="4">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="D34" s="4">
-        <v>17185.463249999983</v>
-      </c>
-      <c r="E34" s="4">
-        <v>1</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H34" s="12">
-        <v>0</v>
-      </c>
-      <c r="I34" s="12">
-        <v>0</v>
-      </c>
+      <c r="A34" s="13"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:I34" xr:uid="{37A9FF33-AD05-496F-B170-C2A91E3708F6}"/>

--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -8,26 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B9961D-C243-45BE-8D37-D5299A626635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4566F98D-5F0D-453A-8C5E-BDA1F5879BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
     <sheet name="extendedDE" sheetId="1" r:id="rId2"/>
-    <sheet name="extendedNL" sheetId="6" r:id="rId3"/>
-    <sheet name="powerplants_grouped" sheetId="3" r:id="rId4"/>
-    <sheet name="groupedDE_RES" sheetId="8" r:id="rId5"/>
-    <sheet name="two_techs_DE" sheetId="10" r:id="rId6"/>
-    <sheet name="germany2019" sheetId="5" r:id="rId7"/>
+    <sheet name="extendedNLold" sheetId="6" r:id="rId3"/>
+    <sheet name="extendedNL" sheetId="11" r:id="rId4"/>
+    <sheet name="powerplants_grouped" sheetId="3" r:id="rId5"/>
+    <sheet name="groupedDE_RES" sheetId="8" r:id="rId6"/>
+    <sheet name="two_techs_DE" sheetId="10" r:id="rId7"/>
+    <sheet name="germany2019" sheetId="5" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">extendedDE!$B$1:$J$272</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">two_techs_DE!$B$1:$I$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">two_techs_DE!$B$1:$I$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -45,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="49">
   <si>
     <t>Technology</t>
   </si>
@@ -175,6 +179,24 @@
   <si>
     <t>cash</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>WASTE</t>
+  </si>
+  <si>
+    <t>CHP</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
 </sst>
 </file>
 
@@ -183,7 +205,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,13 +238,33 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -282,10 +324,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -320,8 +363,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -335,6 +384,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Import Priorities"/>
+      <sheetName val="Coupling Parameters"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="B2">
+            <v>2020</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2593,8 +2663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J272"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="J1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11319,8 +11389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6B6640-7659-40BC-BB1F-545A343E7684}">
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -13537,6 +13607,9569 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA576D0-74B9-41EF-8F2C-1A3DC05E8AA3}">
+  <dimension ref="A1:L265"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P203" sqref="P203"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="30.81640625" customWidth="1"/>
+    <col min="4" max="11" width="13.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="16"/>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="16">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <f>$L$2-K2</f>
+        <v>26</v>
+      </c>
+      <c r="D2" s="12">
+        <v>631</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="K2" s="12">
+        <v>1994</v>
+      </c>
+      <c r="L2">
+        <f>'[1]Coupling Parameters'!$B$2</f>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="12">
+        <f t="shared" ref="C3:C66" si="0">$L$2-K3</f>
+        <v>25</v>
+      </c>
+      <c r="D3" s="12">
+        <v>630</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.41</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K3" s="12">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="16">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1070</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.46</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K4" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="16">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D5" s="12">
+        <v>790</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.46</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K5" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="16">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D6" s="12">
+        <v>780</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.46</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K6" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="16">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D7" s="12">
+        <v>790</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.46</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K7" s="12">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>-630</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.41</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K8" s="12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="D9" s="12">
+        <v>-631</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="K9" s="12">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="12">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="D10" s="12">
+        <v>-790</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.46</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K10" s="12">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="12">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="D11" s="12">
+        <v>-790</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.46</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K11" s="12">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="16">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="12">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="D12" s="12">
+        <v>-780</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.46</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K12" s="12">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="12">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="D13" s="12">
+        <v>-1070</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.46</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K13" s="12">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="16">
+        <v>15</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="12">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D14" s="12">
+        <v>341</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.52</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K14" s="12">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="16">
+        <v>16</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D15" s="12">
+        <v>341</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.52</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K15" s="12">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="16">
+        <v>17</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D16" s="12">
+        <v>341</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.52</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K16" s="12">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="16">
+        <v>18</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D17" s="12">
+        <v>245</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K17" s="12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="16">
+        <v>19</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D18" s="12">
+        <v>435</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K18" s="12">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="16">
+        <v>20</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D19" s="12">
+        <v>435</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K19" s="12">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="16">
+        <v>21</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D20" s="12">
+        <v>435</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K20" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="16">
+        <v>22</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D21" s="12">
+        <v>435</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K21" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="16">
+        <v>23</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D22" s="12">
+        <v>425</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K22" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="16">
+        <v>24</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D23" s="12">
+        <v>426</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K23" s="12">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="16">
+        <v>25</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D24" s="12">
+        <v>420</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0</v>
+      </c>
+      <c r="J24" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K24" s="12">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="16">
+        <v>26</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D25" s="12">
+        <v>435</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K25" s="12">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="16">
+        <v>27</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D26" s="12">
+        <v>437</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
+      <c r="I26" s="12">
+        <v>0</v>
+      </c>
+      <c r="J26" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K26" s="12">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="16">
+        <v>28</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D27" s="12">
+        <v>420</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K27" s="12">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="16">
+        <v>29</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D28" s="12">
+        <v>437</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="12">
+        <v>0</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0</v>
+      </c>
+      <c r="J28" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K28" s="12">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="16">
+        <v>30</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D29" s="12">
+        <v>437</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="12">
+        <v>0</v>
+      </c>
+      <c r="I29" s="12">
+        <v>0</v>
+      </c>
+      <c r="J29" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K29" s="12">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="16">
+        <v>31</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D30" s="12">
+        <v>400</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="12">
+        <v>0</v>
+      </c>
+      <c r="I30" s="12">
+        <v>0</v>
+      </c>
+      <c r="J30" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K30" s="12">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="16">
+        <v>32</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D31" s="12">
+        <v>400</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="12">
+        <v>0</v>
+      </c>
+      <c r="I31" s="12">
+        <v>0</v>
+      </c>
+      <c r="J31" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K31" s="12">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="16">
+        <v>33</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D32" s="12">
+        <v>341</v>
+      </c>
+      <c r="E32" s="12">
+        <v>0.52</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="12">
+        <v>0</v>
+      </c>
+      <c r="I32" s="12">
+        <v>0</v>
+      </c>
+      <c r="J32" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K32" s="12">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="16">
+        <v>35</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="12">
+        <v>341</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0.52</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="12">
+        <v>0</v>
+      </c>
+      <c r="I33" s="12">
+        <v>0</v>
+      </c>
+      <c r="J33" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K33" s="12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="16">
+        <v>36</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="12">
+        <v>341</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0.52</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0</v>
+      </c>
+      <c r="I34" s="12">
+        <v>0</v>
+      </c>
+      <c r="J34" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K34" s="12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="16">
+        <v>37</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="12">
+        <v>435</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="12">
+        <v>0</v>
+      </c>
+      <c r="I35" s="12">
+        <v>0</v>
+      </c>
+      <c r="J35" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K35" s="12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="16">
+        <v>38</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="12">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D36" s="12">
+        <v>435</v>
+      </c>
+      <c r="E36" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" s="12">
+        <v>0</v>
+      </c>
+      <c r="I36" s="12">
+        <v>0</v>
+      </c>
+      <c r="J36" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K36" s="12">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="16">
+        <v>39</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="12">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D37" s="12">
+        <v>435</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" s="12">
+        <v>0</v>
+      </c>
+      <c r="I37" s="12">
+        <v>0</v>
+      </c>
+      <c r="J37" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K37" s="12">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="16">
+        <v>40</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="12">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="D38" s="12">
+        <v>2731.1649536609498</v>
+      </c>
+      <c r="E38" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" s="12">
+        <v>0</v>
+      </c>
+      <c r="I38" s="12">
+        <v>0</v>
+      </c>
+      <c r="J38" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K38" s="12">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="16">
+        <v>41</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="12">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+      <c r="D39" s="12">
+        <v>-341</v>
+      </c>
+      <c r="E39" s="12">
+        <v>0.52</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="12">
+        <v>0</v>
+      </c>
+      <c r="I39" s="12">
+        <v>0</v>
+      </c>
+      <c r="J39" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K39" s="12">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="16">
+        <v>42</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="12">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+      <c r="D40" s="12">
+        <v>-341</v>
+      </c>
+      <c r="E40" s="12">
+        <v>0.52</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="12">
+        <v>0</v>
+      </c>
+      <c r="I40" s="12">
+        <v>0</v>
+      </c>
+      <c r="J40" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K40" s="12">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="16">
+        <v>43</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="12">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+      <c r="D41" s="12">
+        <v>-341</v>
+      </c>
+      <c r="E41" s="12">
+        <v>0.52</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" s="12">
+        <v>0</v>
+      </c>
+      <c r="I41" s="12">
+        <v>0</v>
+      </c>
+      <c r="J41" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K41" s="12">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="16">
+        <v>44</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="12">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+      <c r="D42" s="12">
+        <v>-426</v>
+      </c>
+      <c r="E42" s="12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" s="12">
+        <v>0</v>
+      </c>
+      <c r="I42" s="12">
+        <v>0</v>
+      </c>
+      <c r="J42" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K42" s="12">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="16">
+        <v>45</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="12">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+      <c r="D43" s="12">
+        <v>-341</v>
+      </c>
+      <c r="E43" s="12">
+        <v>0.52</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" s="12">
+        <v>0</v>
+      </c>
+      <c r="I43" s="12">
+        <v>0</v>
+      </c>
+      <c r="J43" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K43" s="12">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="16">
+        <v>46</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="12">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+      <c r="D44" s="12">
+        <v>-341</v>
+      </c>
+      <c r="E44" s="12">
+        <v>0.52</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" s="12">
+        <v>0</v>
+      </c>
+      <c r="I44" s="12">
+        <v>0</v>
+      </c>
+      <c r="J44" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K44" s="12">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="16">
+        <v>47</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="12">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+      <c r="D45" s="12">
+        <v>-341</v>
+      </c>
+      <c r="E45" s="12">
+        <v>0.52</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" s="12">
+        <v>0</v>
+      </c>
+      <c r="I45" s="12">
+        <v>0</v>
+      </c>
+      <c r="J45" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K45" s="12">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="16">
+        <v>48</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="12">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+      <c r="D46" s="12">
+        <v>-435</v>
+      </c>
+      <c r="E46" s="12">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" s="12">
+        <v>0</v>
+      </c>
+      <c r="I46" s="12">
+        <v>0</v>
+      </c>
+      <c r="J46" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K46" s="12">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="16">
+        <v>49</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="12">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+      <c r="D47" s="12">
+        <v>-435</v>
+      </c>
+      <c r="E47" s="12">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H47" s="12">
+        <v>0</v>
+      </c>
+      <c r="I47" s="12">
+        <v>0</v>
+      </c>
+      <c r="J47" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K47" s="12">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="16">
+        <v>50</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="12">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+      <c r="D48" s="12">
+        <v>-245</v>
+      </c>
+      <c r="E48" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48" s="12">
+        <v>0</v>
+      </c>
+      <c r="I48" s="12">
+        <v>0</v>
+      </c>
+      <c r="J48" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K48" s="12">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="16">
+        <v>51</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="12">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+      <c r="D49" s="12">
+        <v>-425</v>
+      </c>
+      <c r="E49" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H49" s="12">
+        <v>0</v>
+      </c>
+      <c r="I49" s="12">
+        <v>0</v>
+      </c>
+      <c r="J49" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K49" s="12">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="16">
+        <v>52</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="12">
+        <f t="shared" si="0"/>
+        <v>-22</v>
+      </c>
+      <c r="D50" s="12">
+        <v>-420</v>
+      </c>
+      <c r="E50" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50" s="12">
+        <v>0</v>
+      </c>
+      <c r="I50" s="12">
+        <v>0</v>
+      </c>
+      <c r="J50" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K50" s="12">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="16">
+        <v>53</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="12">
+        <f t="shared" si="0"/>
+        <v>-23</v>
+      </c>
+      <c r="D51" s="12">
+        <v>-435</v>
+      </c>
+      <c r="E51" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H51" s="12">
+        <v>0</v>
+      </c>
+      <c r="I51" s="12">
+        <v>0</v>
+      </c>
+      <c r="J51" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K51" s="12">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="16">
+        <v>54</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="12">
+        <f t="shared" si="0"/>
+        <v>-25</v>
+      </c>
+      <c r="D52" s="12">
+        <v>-420</v>
+      </c>
+      <c r="E52" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H52" s="12">
+        <v>0</v>
+      </c>
+      <c r="I52" s="12">
+        <v>0</v>
+      </c>
+      <c r="J52" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K52" s="12">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="16">
+        <v>55</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="12">
+        <f t="shared" si="0"/>
+        <v>-26</v>
+      </c>
+      <c r="D53" s="12">
+        <v>-437</v>
+      </c>
+      <c r="E53" s="12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H53" s="12">
+        <v>0</v>
+      </c>
+      <c r="I53" s="12">
+        <v>0</v>
+      </c>
+      <c r="J53" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K53" s="12">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="16">
+        <v>56</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="12">
+        <f t="shared" si="0"/>
+        <v>-26</v>
+      </c>
+      <c r="D54" s="12">
+        <v>-437</v>
+      </c>
+      <c r="E54" s="12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H54" s="12">
+        <v>0</v>
+      </c>
+      <c r="I54" s="12">
+        <v>0</v>
+      </c>
+      <c r="J54" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K54" s="12">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="16">
+        <v>57</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="12">
+        <f t="shared" si="0"/>
+        <v>-27</v>
+      </c>
+      <c r="D55" s="12">
+        <v>-400</v>
+      </c>
+      <c r="E55" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H55" s="12">
+        <v>0</v>
+      </c>
+      <c r="I55" s="12">
+        <v>0</v>
+      </c>
+      <c r="J55" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K55" s="12">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="16">
+        <v>58</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="12">
+        <f t="shared" si="0"/>
+        <v>-27</v>
+      </c>
+      <c r="D56" s="12">
+        <v>-400</v>
+      </c>
+      <c r="E56" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H56" s="12">
+        <v>0</v>
+      </c>
+      <c r="I56" s="12">
+        <v>0</v>
+      </c>
+      <c r="J56" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K56" s="12">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="16">
+        <v>59</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="12">
+        <f t="shared" si="0"/>
+        <v>-30</v>
+      </c>
+      <c r="D57" s="12">
+        <v>-435</v>
+      </c>
+      <c r="E57" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H57" s="12">
+        <v>0</v>
+      </c>
+      <c r="I57" s="12">
+        <v>0</v>
+      </c>
+      <c r="J57" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K57" s="12">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="16">
+        <v>60</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="12">
+        <f t="shared" si="0"/>
+        <v>-30</v>
+      </c>
+      <c r="D58" s="12">
+        <v>-435</v>
+      </c>
+      <c r="E58" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H58" s="12">
+        <v>0</v>
+      </c>
+      <c r="I58" s="12">
+        <v>0</v>
+      </c>
+      <c r="J58" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K58" s="12">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="16">
+        <v>61</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="12">
+        <f t="shared" si="0"/>
+        <v>-30</v>
+      </c>
+      <c r="D59" s="12">
+        <v>-435</v>
+      </c>
+      <c r="E59" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H59" s="12">
+        <v>0</v>
+      </c>
+      <c r="I59" s="12">
+        <v>0</v>
+      </c>
+      <c r="J59" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K59" s="12">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="16">
+        <v>62</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="12">
+        <f t="shared" si="0"/>
+        <v>-31</v>
+      </c>
+      <c r="D60" s="12">
+        <v>-435</v>
+      </c>
+      <c r="E60" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H60" s="12">
+        <v>0</v>
+      </c>
+      <c r="I60" s="12">
+        <v>0</v>
+      </c>
+      <c r="J60" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K60" s="12">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="16">
+        <v>63</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="12">
+        <f t="shared" si="0"/>
+        <v>-31</v>
+      </c>
+      <c r="D61" s="12">
+        <v>-435</v>
+      </c>
+      <c r="E61" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H61" s="12">
+        <v>0</v>
+      </c>
+      <c r="I61" s="12">
+        <v>0</v>
+      </c>
+      <c r="J61" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K61" s="12">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="16">
+        <v>64</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="12">
+        <f t="shared" si="0"/>
+        <v>-51</v>
+      </c>
+      <c r="D62" s="12">
+        <v>-437</v>
+      </c>
+      <c r="E62" s="12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H62" s="12">
+        <v>0</v>
+      </c>
+      <c r="I62" s="12">
+        <v>0</v>
+      </c>
+      <c r="J62" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K62" s="12">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="16">
+        <v>65</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D63" s="12">
+        <v>38.613</v>
+      </c>
+      <c r="E63" s="12">
+        <v>1</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H63" s="12">
+        <v>0</v>
+      </c>
+      <c r="I63" s="12">
+        <v>0</v>
+      </c>
+      <c r="J63" s="12">
+        <v>1</v>
+      </c>
+      <c r="K63" s="12">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="16">
+        <v>66</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D64" s="12">
+        <v>1.1679999999999999</v>
+      </c>
+      <c r="E64" s="12">
+        <v>1</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H64" s="12">
+        <v>0</v>
+      </c>
+      <c r="I64" s="12">
+        <v>0</v>
+      </c>
+      <c r="J64" s="12">
+        <v>1</v>
+      </c>
+      <c r="K64" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="16">
+        <v>67</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D65" s="12">
+        <v>0.313</v>
+      </c>
+      <c r="E65" s="12">
+        <v>1</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H65" s="12">
+        <v>0</v>
+      </c>
+      <c r="I65" s="12">
+        <v>0</v>
+      </c>
+      <c r="J65" s="12">
+        <v>1</v>
+      </c>
+      <c r="K65" s="12">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="16">
+        <v>68</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D66" s="12">
+        <v>0.113</v>
+      </c>
+      <c r="E66" s="12">
+        <v>1</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H66" s="12">
+        <v>0</v>
+      </c>
+      <c r="I66" s="12">
+        <v>0</v>
+      </c>
+      <c r="J66" s="12">
+        <v>1</v>
+      </c>
+      <c r="K66" s="18">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="16">
+        <v>69</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="12">
+        <f t="shared" ref="C67:C130" si="1">$L$2-K67</f>
+        <v>0</v>
+      </c>
+      <c r="D67" s="12">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E67" s="12">
+        <v>1</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H67" s="12">
+        <v>0</v>
+      </c>
+      <c r="I67" s="12">
+        <v>0</v>
+      </c>
+      <c r="J67" s="12">
+        <v>1</v>
+      </c>
+      <c r="K67" s="12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="16">
+        <v>70</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="12">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D68" s="12">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E68" s="12">
+        <v>1</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H68" s="12">
+        <v>0</v>
+      </c>
+      <c r="I68" s="12">
+        <v>0</v>
+      </c>
+      <c r="J68" s="12">
+        <v>1</v>
+      </c>
+      <c r="K68" s="12">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="16">
+        <v>71</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="12">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="D69" s="12">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E69" s="12">
+        <v>1</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H69" s="12">
+        <v>0</v>
+      </c>
+      <c r="I69" s="12">
+        <v>0</v>
+      </c>
+      <c r="J69" s="12">
+        <v>1</v>
+      </c>
+      <c r="K69" s="12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="16">
+        <v>72</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="12">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="D70" s="12">
+        <v>1.2310000000000001</v>
+      </c>
+      <c r="E70" s="12">
+        <v>1</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H70" s="12">
+        <v>0</v>
+      </c>
+      <c r="I70" s="12">
+        <v>0</v>
+      </c>
+      <c r="J70" s="12">
+        <v>1</v>
+      </c>
+      <c r="K70" s="12">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="16">
+        <v>73</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="12">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="D71" s="12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E71" s="12">
+        <v>1</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H71" s="12">
+        <v>0</v>
+      </c>
+      <c r="I71" s="12">
+        <v>0</v>
+      </c>
+      <c r="J71" s="12">
+        <v>1</v>
+      </c>
+      <c r="K71" s="12">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="16">
+        <v>74</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="12">
+        <f t="shared" si="1"/>
+        <v>-7</v>
+      </c>
+      <c r="D72" s="12">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E72" s="12">
+        <v>1</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H72" s="12">
+        <v>0</v>
+      </c>
+      <c r="I72" s="12">
+        <v>0</v>
+      </c>
+      <c r="J72" s="12">
+        <v>1</v>
+      </c>
+      <c r="K72" s="12">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="16">
+        <v>75</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="12">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="D73" s="12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E73" s="12">
+        <v>1</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H73" s="12">
+        <v>0</v>
+      </c>
+      <c r="I73" s="12">
+        <v>0</v>
+      </c>
+      <c r="J73" s="12">
+        <v>1</v>
+      </c>
+      <c r="K73" s="12">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="16">
+        <v>76</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="12">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+      <c r="D74" s="12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E74" s="12">
+        <v>1</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H74" s="12">
+        <v>0</v>
+      </c>
+      <c r="I74" s="12">
+        <v>0</v>
+      </c>
+      <c r="J74" s="12">
+        <v>1</v>
+      </c>
+      <c r="K74" s="12">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="16">
+        <v>77</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="12">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="D75" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E75" s="12">
+        <v>1</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H75" s="12">
+        <v>0</v>
+      </c>
+      <c r="I75" s="12">
+        <v>0</v>
+      </c>
+      <c r="J75" s="12">
+        <v>1</v>
+      </c>
+      <c r="K75" s="12">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="16">
+        <v>78</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="12">
+        <f t="shared" si="1"/>
+        <v>-13</v>
+      </c>
+      <c r="D76" s="12">
+        <v>-2E-3</v>
+      </c>
+      <c r="E76" s="12">
+        <v>1</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H76" s="12">
+        <v>0</v>
+      </c>
+      <c r="I76" s="12">
+        <v>0</v>
+      </c>
+      <c r="J76" s="12">
+        <v>1</v>
+      </c>
+      <c r="K76" s="12">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="16">
+        <v>79</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="12">
+        <f t="shared" si="1"/>
+        <v>-14</v>
+      </c>
+      <c r="D77" s="12">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="E77" s="12">
+        <v>1</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H77" s="12">
+        <v>0</v>
+      </c>
+      <c r="I77" s="12">
+        <v>0</v>
+      </c>
+      <c r="J77" s="12">
+        <v>1</v>
+      </c>
+      <c r="K77" s="12">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="16">
+        <v>80</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="12">
+        <f t="shared" si="1"/>
+        <v>-15</v>
+      </c>
+      <c r="D78" s="12">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="E78" s="12">
+        <v>1</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H78" s="12">
+        <v>0</v>
+      </c>
+      <c r="I78" s="12">
+        <v>0</v>
+      </c>
+      <c r="J78" s="12">
+        <v>1</v>
+      </c>
+      <c r="K78" s="12">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="16">
+        <v>81</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="12">
+        <f t="shared" si="1"/>
+        <v>-16</v>
+      </c>
+      <c r="D79" s="12">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="E79" s="12">
+        <v>1</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H79" s="12">
+        <v>0</v>
+      </c>
+      <c r="I79" s="12">
+        <v>0</v>
+      </c>
+      <c r="J79" s="12">
+        <v>1</v>
+      </c>
+      <c r="K79" s="12">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="16">
+        <v>82</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="12">
+        <f t="shared" si="1"/>
+        <v>-17</v>
+      </c>
+      <c r="D80" s="12">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+      <c r="E80" s="12">
+        <v>1</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H80" s="12">
+        <v>0</v>
+      </c>
+      <c r="I80" s="12">
+        <v>0</v>
+      </c>
+      <c r="J80" s="12">
+        <v>1</v>
+      </c>
+      <c r="K80" s="12">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="16">
+        <v>83</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="12">
+        <f t="shared" si="1"/>
+        <v>-18</v>
+      </c>
+      <c r="D81" s="12">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+      <c r="E81" s="12">
+        <v>1</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H81" s="12">
+        <v>0</v>
+      </c>
+      <c r="I81" s="12">
+        <v>0</v>
+      </c>
+      <c r="J81" s="12">
+        <v>1</v>
+      </c>
+      <c r="K81" s="12">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="16">
+        <v>84</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="12">
+        <f t="shared" si="1"/>
+        <v>-19</v>
+      </c>
+      <c r="D82" s="12">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+      <c r="E82" s="12">
+        <v>1</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H82" s="12">
+        <v>0</v>
+      </c>
+      <c r="I82" s="12">
+        <v>0</v>
+      </c>
+      <c r="J82" s="12">
+        <v>1</v>
+      </c>
+      <c r="K82" s="12">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="16">
+        <v>85</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="12">
+        <f t="shared" si="1"/>
+        <v>-20</v>
+      </c>
+      <c r="D83" s="12">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+      <c r="E83" s="12">
+        <v>1</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H83" s="12">
+        <v>0</v>
+      </c>
+      <c r="I83" s="12">
+        <v>0</v>
+      </c>
+      <c r="J83" s="12">
+        <v>1</v>
+      </c>
+      <c r="K83" s="12">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="16">
+        <v>86</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="12">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D84" s="12">
+        <v>484</v>
+      </c>
+      <c r="E84" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H84" s="12">
+        <v>0</v>
+      </c>
+      <c r="I84" s="12">
+        <v>0</v>
+      </c>
+      <c r="J84" s="12">
+        <v>0.94999999975000005</v>
+      </c>
+      <c r="K84" s="12">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="16">
+        <v>88</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="12">
+        <f t="shared" si="1"/>
+        <v>-14</v>
+      </c>
+      <c r="D85" s="12">
+        <v>-484</v>
+      </c>
+      <c r="E85" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H85" s="12">
+        <v>0</v>
+      </c>
+      <c r="I85" s="12">
+        <v>0</v>
+      </c>
+      <c r="J85" s="12">
+        <v>0.94999999975000005</v>
+      </c>
+      <c r="K85" s="12">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="16">
+        <v>89</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="12">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D86" s="12">
+        <v>75.769000000000005</v>
+      </c>
+      <c r="E86" s="12">
+        <v>1</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H86" s="12">
+        <v>0</v>
+      </c>
+      <c r="I86" s="12">
+        <v>0</v>
+      </c>
+      <c r="J86" s="12">
+        <v>1</v>
+      </c>
+      <c r="K86" s="12">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="16">
+        <v>90</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D87" s="12">
+        <v>23.736000000000001</v>
+      </c>
+      <c r="E87" s="12">
+        <v>2</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H87" s="12">
+        <v>0</v>
+      </c>
+      <c r="I87" s="12">
+        <v>0</v>
+      </c>
+      <c r="J87" s="12">
+        <v>1</v>
+      </c>
+      <c r="K87" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="16">
+        <v>91</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="12">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D88" s="12">
+        <v>1540.0909999999999</v>
+      </c>
+      <c r="E88" s="12">
+        <v>3</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H88" s="12">
+        <v>0</v>
+      </c>
+      <c r="I88" s="12">
+        <v>0</v>
+      </c>
+      <c r="J88" s="12">
+        <v>1</v>
+      </c>
+      <c r="K88" s="12">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="16">
+        <v>92</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D89" s="12">
+        <v>5150.3239999999996</v>
+      </c>
+      <c r="E89" s="12">
+        <v>4</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H89" s="12">
+        <v>0</v>
+      </c>
+      <c r="I89" s="12">
+        <v>0</v>
+      </c>
+      <c r="J89" s="12">
+        <v>1</v>
+      </c>
+      <c r="K89" s="18">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="16">
+        <v>93</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D90" s="12">
+        <v>3095.902</v>
+      </c>
+      <c r="E90" s="12">
+        <v>1</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H90" s="12">
+        <v>0</v>
+      </c>
+      <c r="I90" s="12">
+        <v>0</v>
+      </c>
+      <c r="J90" s="12">
+        <v>1</v>
+      </c>
+      <c r="K90" s="12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="16">
+        <v>94</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D91" s="12">
+        <v>-0.81799999999999995</v>
+      </c>
+      <c r="E91" s="12">
+        <v>1</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H91" s="12">
+        <v>0</v>
+      </c>
+      <c r="I91" s="12">
+        <v>0</v>
+      </c>
+      <c r="J91" s="12">
+        <v>1</v>
+      </c>
+      <c r="K91" s="12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="16">
+        <v>95</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" s="12">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D92" s="12">
+        <v>2189.6350000000002</v>
+      </c>
+      <c r="E92" s="12">
+        <v>1</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H92" s="12">
+        <v>0</v>
+      </c>
+      <c r="I92" s="12">
+        <v>0</v>
+      </c>
+      <c r="J92" s="12">
+        <v>1</v>
+      </c>
+      <c r="K92" s="12">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="16">
+        <v>96</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="12">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D93" s="12">
+        <v>-0.32600000000000001</v>
+      </c>
+      <c r="E93" s="12">
+        <v>1</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H93" s="12">
+        <v>0</v>
+      </c>
+      <c r="I93" s="12">
+        <v>0</v>
+      </c>
+      <c r="J93" s="12">
+        <v>1</v>
+      </c>
+      <c r="K93" s="12">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="16">
+        <v>97</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="12">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="D94" s="12">
+        <v>-404.44799999999998</v>
+      </c>
+      <c r="E94" s="12">
+        <v>1</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H94" s="12">
+        <v>0</v>
+      </c>
+      <c r="I94" s="12">
+        <v>0</v>
+      </c>
+      <c r="J94" s="12">
+        <v>1</v>
+      </c>
+      <c r="K94" s="12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="16">
+        <v>98</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="12">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="D95" s="12">
+        <v>2576.7629999999999</v>
+      </c>
+      <c r="E95" s="12">
+        <v>1</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H95" s="12">
+        <v>0</v>
+      </c>
+      <c r="I95" s="12">
+        <v>0</v>
+      </c>
+      <c r="J95" s="12">
+        <v>1</v>
+      </c>
+      <c r="K95" s="12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="16">
+        <v>99</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="12">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="D96" s="12">
+        <v>-0.755</v>
+      </c>
+      <c r="E96" s="12">
+        <v>1</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H96" s="12">
+        <v>0</v>
+      </c>
+      <c r="I96" s="12">
+        <v>0</v>
+      </c>
+      <c r="J96" s="12">
+        <v>1</v>
+      </c>
+      <c r="K96" s="12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="16">
+        <v>100</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="12">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="D97" s="12">
+        <v>3930.1080000000002</v>
+      </c>
+      <c r="E97" s="12">
+        <v>1</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H97" s="12">
+        <v>0</v>
+      </c>
+      <c r="I97" s="12">
+        <v>0</v>
+      </c>
+      <c r="J97" s="12">
+        <v>1</v>
+      </c>
+      <c r="K97" s="12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="16">
+        <v>101</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="12">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="D98" s="12">
+        <v>-1.3049999999999999</v>
+      </c>
+      <c r="E98" s="12">
+        <v>1</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H98" s="12">
+        <v>0</v>
+      </c>
+      <c r="I98" s="12">
+        <v>0</v>
+      </c>
+      <c r="J98" s="12">
+        <v>1</v>
+      </c>
+      <c r="K98" s="12">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="16">
+        <v>102</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="12">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="D99" s="12">
+        <v>3061.2910000000002</v>
+      </c>
+      <c r="E99" s="12">
+        <v>1</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H99" s="12">
+        <v>0</v>
+      </c>
+      <c r="I99" s="12">
+        <v>0</v>
+      </c>
+      <c r="J99" s="12">
+        <v>1</v>
+      </c>
+      <c r="K99" s="12">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="16">
+        <v>103</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="12">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="D100" s="12">
+        <v>-2.0059999999999998</v>
+      </c>
+      <c r="E100" s="12">
+        <v>1</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H100" s="12">
+        <v>0</v>
+      </c>
+      <c r="I100" s="12">
+        <v>0</v>
+      </c>
+      <c r="J100" s="12">
+        <v>1</v>
+      </c>
+      <c r="K100" s="12">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="16">
+        <v>104</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="12">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="D101" s="12">
+        <v>1439.2460000000001</v>
+      </c>
+      <c r="E101" s="12">
+        <v>1</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H101" s="12">
+        <v>0</v>
+      </c>
+      <c r="I101" s="12">
+        <v>0</v>
+      </c>
+      <c r="J101" s="12">
+        <v>1</v>
+      </c>
+      <c r="K101" s="12">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="16">
+        <v>105</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="12">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="D102" s="12">
+        <v>-3.2759999999999998</v>
+      </c>
+      <c r="E102" s="12">
+        <v>1</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G102" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H102" s="12">
+        <v>0</v>
+      </c>
+      <c r="I102" s="12">
+        <v>0</v>
+      </c>
+      <c r="J102" s="12">
+        <v>1</v>
+      </c>
+      <c r="K102" s="12">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="16">
+        <v>106</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="12">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="D103" s="12">
+        <v>661.12300000000005</v>
+      </c>
+      <c r="E103" s="12">
+        <v>1</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H103" s="12">
+        <v>0</v>
+      </c>
+      <c r="I103" s="12">
+        <v>0</v>
+      </c>
+      <c r="J103" s="12">
+        <v>1</v>
+      </c>
+      <c r="K103" s="12">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="16">
+        <v>107</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" s="12">
+        <f t="shared" si="1"/>
+        <v>-7</v>
+      </c>
+      <c r="D104" s="12">
+        <v>609.97199999999998</v>
+      </c>
+      <c r="E104" s="12">
+        <v>1</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H104" s="12">
+        <v>0</v>
+      </c>
+      <c r="I104" s="12">
+        <v>0</v>
+      </c>
+      <c r="J104" s="12">
+        <v>1</v>
+      </c>
+      <c r="K104" s="12">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="16">
+        <v>108</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" s="12">
+        <f t="shared" si="1"/>
+        <v>-7</v>
+      </c>
+      <c r="D105" s="12">
+        <v>-5.6950000000000003</v>
+      </c>
+      <c r="E105" s="12">
+        <v>1</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H105" s="12">
+        <v>0</v>
+      </c>
+      <c r="I105" s="12">
+        <v>0</v>
+      </c>
+      <c r="J105" s="12">
+        <v>1</v>
+      </c>
+      <c r="K105" s="12">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="16">
+        <v>109</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" s="12">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="D106" s="12">
+        <v>-9.32</v>
+      </c>
+      <c r="E106" s="12">
+        <v>1</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H106" s="12">
+        <v>0</v>
+      </c>
+      <c r="I106" s="12">
+        <v>0</v>
+      </c>
+      <c r="J106" s="12">
+        <v>1</v>
+      </c>
+      <c r="K106" s="12">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="16">
+        <v>110</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" s="12">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="D107" s="12">
+        <v>615.26099999999997</v>
+      </c>
+      <c r="E107" s="12">
+        <v>1</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G107" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H107" s="12">
+        <v>0</v>
+      </c>
+      <c r="I107" s="12">
+        <v>0</v>
+      </c>
+      <c r="J107" s="12">
+        <v>1</v>
+      </c>
+      <c r="K107" s="12">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="16">
+        <v>111</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" s="12">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+      <c r="D108" s="12">
+        <v>-12.47</v>
+      </c>
+      <c r="E108" s="12">
+        <v>1</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H108" s="12">
+        <v>0</v>
+      </c>
+      <c r="I108" s="12">
+        <v>0</v>
+      </c>
+      <c r="J108" s="12">
+        <v>1</v>
+      </c>
+      <c r="K108" s="12">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="16">
+        <v>112</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" s="12">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+      <c r="D109" s="12">
+        <v>620.40599999999995</v>
+      </c>
+      <c r="E109" s="12">
+        <v>1</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H109" s="12">
+        <v>0</v>
+      </c>
+      <c r="I109" s="12">
+        <v>0</v>
+      </c>
+      <c r="J109" s="12">
+        <v>1</v>
+      </c>
+      <c r="K109" s="12">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="16">
+        <v>113</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" s="12">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="D110" s="12">
+        <v>-12.782</v>
+      </c>
+      <c r="E110" s="12">
+        <v>1</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H110" s="12">
+        <v>0</v>
+      </c>
+      <c r="I110" s="12">
+        <v>0</v>
+      </c>
+      <c r="J110" s="12">
+        <v>1</v>
+      </c>
+      <c r="K110" s="12">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="16">
+        <v>114</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" s="12">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="D111" s="12">
+        <v>620.08100000000002</v>
+      </c>
+      <c r="E111" s="12">
+        <v>1</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H111" s="12">
+        <v>0</v>
+      </c>
+      <c r="I111" s="12">
+        <v>0</v>
+      </c>
+      <c r="J111" s="12">
+        <v>1</v>
+      </c>
+      <c r="K111" s="12">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="16">
+        <v>115</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="12">
+        <f t="shared" si="1"/>
+        <v>-11</v>
+      </c>
+      <c r="D112" s="12">
+        <v>-10.768000000000001</v>
+      </c>
+      <c r="E112" s="12">
+        <v>1</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H112" s="12">
+        <v>0</v>
+      </c>
+      <c r="I112" s="12">
+        <v>0</v>
+      </c>
+      <c r="J112" s="12">
+        <v>1</v>
+      </c>
+      <c r="K112" s="12">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="16">
+        <v>116</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" s="12">
+        <f t="shared" si="1"/>
+        <v>-11</v>
+      </c>
+      <c r="D113" s="12">
+        <v>1840.2629999999999</v>
+      </c>
+      <c r="E113" s="12">
+        <v>1</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H113" s="12">
+        <v>0</v>
+      </c>
+      <c r="I113" s="12">
+        <v>0</v>
+      </c>
+      <c r="J113" s="12">
+        <v>1</v>
+      </c>
+      <c r="K113" s="12">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="16">
+        <v>117</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" s="12">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="D114" s="12">
+        <v>-9.4960000000000004</v>
+      </c>
+      <c r="E114" s="12">
+        <v>1</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H114" s="12">
+        <v>0</v>
+      </c>
+      <c r="I114" s="12">
+        <v>0</v>
+      </c>
+      <c r="J114" s="12">
+        <v>1</v>
+      </c>
+      <c r="K114" s="12">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="16">
+        <v>118</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" s="12">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="D115" s="12">
+        <v>1800.809</v>
+      </c>
+      <c r="E115" s="12">
+        <v>1</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H115" s="12">
+        <v>0</v>
+      </c>
+      <c r="I115" s="12">
+        <v>0</v>
+      </c>
+      <c r="J115" s="12">
+        <v>1</v>
+      </c>
+      <c r="K115" s="12">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="16">
+        <v>119</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" s="12">
+        <f t="shared" si="1"/>
+        <v>-13</v>
+      </c>
+      <c r="D116" s="12">
+        <v>-12.038</v>
+      </c>
+      <c r="E116" s="12">
+        <v>1</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H116" s="12">
+        <v>0</v>
+      </c>
+      <c r="I116" s="12">
+        <v>0</v>
+      </c>
+      <c r="J116" s="12">
+        <v>1</v>
+      </c>
+      <c r="K116" s="12">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="16">
+        <v>120</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" s="12">
+        <f t="shared" si="1"/>
+        <v>-13</v>
+      </c>
+      <c r="D117" s="12">
+        <v>1745.5630000000001</v>
+      </c>
+      <c r="E117" s="12">
+        <v>1</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H117" s="12">
+        <v>0</v>
+      </c>
+      <c r="I117" s="12">
+        <v>0</v>
+      </c>
+      <c r="J117" s="12">
+        <v>1</v>
+      </c>
+      <c r="K117" s="12">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="16">
+        <v>121</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118" s="12">
+        <f t="shared" si="1"/>
+        <v>-14</v>
+      </c>
+      <c r="D118" s="12">
+        <v>1703.886</v>
+      </c>
+      <c r="E118" s="12">
+        <v>1</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H118" s="12">
+        <v>0</v>
+      </c>
+      <c r="I118" s="12">
+        <v>0</v>
+      </c>
+      <c r="J118" s="12">
+        <v>1</v>
+      </c>
+      <c r="K118" s="12">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="16">
+        <v>122</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119" s="12">
+        <f t="shared" si="1"/>
+        <v>-14</v>
+      </c>
+      <c r="D119" s="12">
+        <v>-21.210999999999999</v>
+      </c>
+      <c r="E119" s="12">
+        <v>1</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H119" s="12">
+        <v>0</v>
+      </c>
+      <c r="I119" s="12">
+        <v>0</v>
+      </c>
+      <c r="J119" s="12">
+        <v>1</v>
+      </c>
+      <c r="K119" s="12">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="16">
+        <v>123</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120" s="12">
+        <f t="shared" si="1"/>
+        <v>-15</v>
+      </c>
+      <c r="D120" s="12">
+        <v>1693.0840000000001</v>
+      </c>
+      <c r="E120" s="12">
+        <v>1</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H120" s="12">
+        <v>0</v>
+      </c>
+      <c r="I120" s="12">
+        <v>0</v>
+      </c>
+      <c r="J120" s="12">
+        <v>1</v>
+      </c>
+      <c r="K120" s="12">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="16">
+        <v>124</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" s="12">
+        <f t="shared" si="1"/>
+        <v>-15</v>
+      </c>
+      <c r="D121" s="12">
+        <v>-41.777999999999999</v>
+      </c>
+      <c r="E121" s="12">
+        <v>1</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H121" s="12">
+        <v>0</v>
+      </c>
+      <c r="I121" s="12">
+        <v>0</v>
+      </c>
+      <c r="J121" s="12">
+        <v>1</v>
+      </c>
+      <c r="K121" s="12">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="16">
+        <v>125</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" s="12">
+        <f t="shared" si="1"/>
+        <v>-16</v>
+      </c>
+      <c r="D122" s="12">
+        <v>1676.5139999999999</v>
+      </c>
+      <c r="E122" s="12">
+        <v>1</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H122" s="12">
+        <v>0</v>
+      </c>
+      <c r="I122" s="12">
+        <v>0</v>
+      </c>
+      <c r="J122" s="12">
+        <v>1</v>
+      </c>
+      <c r="K122" s="12">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="16">
+        <v>126</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" s="12">
+        <f t="shared" si="1"/>
+        <v>-16</v>
+      </c>
+      <c r="D123" s="12">
+        <v>-81.66</v>
+      </c>
+      <c r="E123" s="12">
+        <v>1</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H123" s="12">
+        <v>0</v>
+      </c>
+      <c r="I123" s="12">
+        <v>0</v>
+      </c>
+      <c r="J123" s="12">
+        <v>1</v>
+      </c>
+      <c r="K123" s="12">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="16">
+        <v>127</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" s="12">
+        <f t="shared" si="1"/>
+        <v>-17</v>
+      </c>
+      <c r="D124" s="12">
+        <v>1741.6980000000001</v>
+      </c>
+      <c r="E124" s="12">
+        <v>1</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H124" s="12">
+        <v>0</v>
+      </c>
+      <c r="I124" s="12">
+        <v>0</v>
+      </c>
+      <c r="J124" s="12">
+        <v>1</v>
+      </c>
+      <c r="K124" s="12">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="16">
+        <v>128</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" s="12">
+        <f t="shared" si="1"/>
+        <v>-17</v>
+      </c>
+      <c r="D125" s="12">
+        <v>-147.46</v>
+      </c>
+      <c r="E125" s="12">
+        <v>1</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H125" s="12">
+        <v>0</v>
+      </c>
+      <c r="I125" s="12">
+        <v>0</v>
+      </c>
+      <c r="J125" s="12">
+        <v>1</v>
+      </c>
+      <c r="K125" s="12">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="16">
+        <v>129</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" s="12">
+        <f t="shared" si="1"/>
+        <v>-18</v>
+      </c>
+      <c r="D126" s="12">
+        <v>1855.021</v>
+      </c>
+      <c r="E126" s="12">
+        <v>1</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G126" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H126" s="12">
+        <v>0</v>
+      </c>
+      <c r="I126" s="12">
+        <v>0</v>
+      </c>
+      <c r="J126" s="12">
+        <v>1</v>
+      </c>
+      <c r="K126" s="12">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="16">
+        <v>130</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" s="12">
+        <f t="shared" si="1"/>
+        <v>-18</v>
+      </c>
+      <c r="D127" s="12">
+        <v>-240.17400000000001</v>
+      </c>
+      <c r="E127" s="12">
+        <v>1</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G127" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H127" s="12">
+        <v>0</v>
+      </c>
+      <c r="I127" s="12">
+        <v>0</v>
+      </c>
+      <c r="J127" s="12">
+        <v>1</v>
+      </c>
+      <c r="K127" s="12">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="16">
+        <v>131</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" s="12">
+        <f t="shared" si="1"/>
+        <v>-19</v>
+      </c>
+      <c r="D128" s="12">
+        <v>1994.1980000000001</v>
+      </c>
+      <c r="E128" s="12">
+        <v>1</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G128" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H128" s="12">
+        <v>0</v>
+      </c>
+      <c r="I128" s="12">
+        <v>0</v>
+      </c>
+      <c r="J128" s="12">
+        <v>1</v>
+      </c>
+      <c r="K128" s="12">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="16">
+        <v>132</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" s="12">
+        <f t="shared" si="1"/>
+        <v>-19</v>
+      </c>
+      <c r="D129" s="12">
+        <v>-347.18599999999998</v>
+      </c>
+      <c r="E129" s="12">
+        <v>1</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G129" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H129" s="12">
+        <v>0</v>
+      </c>
+      <c r="I129" s="12">
+        <v>0</v>
+      </c>
+      <c r="J129" s="12">
+        <v>1</v>
+      </c>
+      <c r="K129" s="12">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="16">
+        <v>133</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" s="12">
+        <f t="shared" si="1"/>
+        <v>-20</v>
+      </c>
+      <c r="D130" s="12">
+        <v>-461.80900000000003</v>
+      </c>
+      <c r="E130" s="12">
+        <v>1</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H130" s="12">
+        <v>0</v>
+      </c>
+      <c r="I130" s="12">
+        <v>0</v>
+      </c>
+      <c r="J130" s="12">
+        <v>1</v>
+      </c>
+      <c r="K130" s="12">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="16">
+        <v>134</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131" s="12">
+        <f t="shared" ref="C131:C194" si="2">$L$2-K131</f>
+        <v>-20</v>
+      </c>
+      <c r="D131" s="12">
+        <v>2144.9140000000002</v>
+      </c>
+      <c r="E131" s="12">
+        <v>1</v>
+      </c>
+      <c r="F131" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G131" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H131" s="12">
+        <v>0</v>
+      </c>
+      <c r="I131" s="12">
+        <v>0</v>
+      </c>
+      <c r="J131" s="12">
+        <v>1</v>
+      </c>
+      <c r="K131" s="12">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="16">
+        <v>135</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" s="12">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D132" s="12">
+        <v>227.05</v>
+      </c>
+      <c r="E132" s="12">
+        <v>1</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G132" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H132" s="12">
+        <v>0</v>
+      </c>
+      <c r="I132" s="12">
+        <v>0</v>
+      </c>
+      <c r="J132" s="12">
+        <v>1</v>
+      </c>
+      <c r="K132" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="16">
+        <v>136</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="12">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D133" s="12">
+        <v>128.06899999999999</v>
+      </c>
+      <c r="E133" s="12">
+        <v>1</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G133" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H133" s="12">
+        <v>0</v>
+      </c>
+      <c r="I133" s="12">
+        <v>0</v>
+      </c>
+      <c r="J133" s="12">
+        <v>1</v>
+      </c>
+      <c r="K133" s="12">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="16">
+        <v>137</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D134" s="12">
+        <v>607.57100000000003</v>
+      </c>
+      <c r="E134" s="12">
+        <v>1</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G134" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H134" s="12">
+        <v>0</v>
+      </c>
+      <c r="I134" s="12">
+        <v>0</v>
+      </c>
+      <c r="J134" s="12">
+        <v>1</v>
+      </c>
+      <c r="K134" s="18">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="16">
+        <v>138</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D135" s="12">
+        <v>732.62</v>
+      </c>
+      <c r="E135" s="12">
+        <v>1</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G135" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H135" s="12">
+        <v>0</v>
+      </c>
+      <c r="I135" s="12">
+        <v>0</v>
+      </c>
+      <c r="J135" s="12">
+        <v>1</v>
+      </c>
+      <c r="K135" s="12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="16">
+        <v>139</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" s="12">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="D136" s="12">
+        <v>730.97299999999996</v>
+      </c>
+      <c r="E136" s="12">
+        <v>1</v>
+      </c>
+      <c r="F136" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G136" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H136" s="12">
+        <v>0</v>
+      </c>
+      <c r="I136" s="12">
+        <v>0</v>
+      </c>
+      <c r="J136" s="12">
+        <v>1</v>
+      </c>
+      <c r="K136" s="12">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="16">
+        <v>140</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" s="12">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D137" s="12">
+        <v>759.91399999999999</v>
+      </c>
+      <c r="E137" s="12">
+        <v>1</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G137" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H137" s="12">
+        <v>0</v>
+      </c>
+      <c r="I137" s="12">
+        <v>0</v>
+      </c>
+      <c r="J137" s="12">
+        <v>1</v>
+      </c>
+      <c r="K137" s="12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="16">
+        <v>141</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" s="12">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="D138" s="12">
+        <v>759.91399999999999</v>
+      </c>
+      <c r="E138" s="12">
+        <v>1</v>
+      </c>
+      <c r="F138" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G138" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H138" s="12">
+        <v>0</v>
+      </c>
+      <c r="I138" s="12">
+        <v>0</v>
+      </c>
+      <c r="J138" s="12">
+        <v>1</v>
+      </c>
+      <c r="K138" s="12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="16">
+        <v>142</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" s="12">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="D139" s="12">
+        <v>681.26900000000001</v>
+      </c>
+      <c r="E139" s="12">
+        <v>1</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G139" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H139" s="12">
+        <v>0</v>
+      </c>
+      <c r="I139" s="12">
+        <v>0</v>
+      </c>
+      <c r="J139" s="12">
+        <v>1</v>
+      </c>
+      <c r="K139" s="12">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="16">
+        <v>143</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="12">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+      <c r="D140" s="12">
+        <v>681.1</v>
+      </c>
+      <c r="E140" s="12">
+        <v>1</v>
+      </c>
+      <c r="F140" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G140" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H140" s="12">
+        <v>0</v>
+      </c>
+      <c r="I140" s="12">
+        <v>0</v>
+      </c>
+      <c r="J140" s="12">
+        <v>1</v>
+      </c>
+      <c r="K140" s="12">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="16">
+        <v>144</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" s="12">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D141" s="12">
+        <v>680.92700000000002</v>
+      </c>
+      <c r="E141" s="12">
+        <v>1</v>
+      </c>
+      <c r="F141" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G141" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H141" s="12">
+        <v>0</v>
+      </c>
+      <c r="I141" s="12">
+        <v>0</v>
+      </c>
+      <c r="J141" s="12">
+        <v>1</v>
+      </c>
+      <c r="K141" s="12">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="16">
+        <v>145</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" s="12">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+      <c r="D142" s="12">
+        <v>-24.495000000000001</v>
+      </c>
+      <c r="E142" s="12">
+        <v>1</v>
+      </c>
+      <c r="F142" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G142" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H142" s="12">
+        <v>0</v>
+      </c>
+      <c r="I142" s="12">
+        <v>0</v>
+      </c>
+      <c r="J142" s="12">
+        <v>1</v>
+      </c>
+      <c r="K142" s="12">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="16">
+        <v>146</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" s="12">
+        <f t="shared" si="2"/>
+        <v>-8</v>
+      </c>
+      <c r="D143" s="12">
+        <v>-57.546999999999997</v>
+      </c>
+      <c r="E143" s="12">
+        <v>1</v>
+      </c>
+      <c r="F143" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G143" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H143" s="12">
+        <v>0</v>
+      </c>
+      <c r="I143" s="12">
+        <v>0</v>
+      </c>
+      <c r="J143" s="12">
+        <v>1</v>
+      </c>
+      <c r="K143" s="12">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="16">
+        <v>147</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" s="12">
+        <f t="shared" si="2"/>
+        <v>-8</v>
+      </c>
+      <c r="D144" s="12">
+        <v>2001.0150000000001</v>
+      </c>
+      <c r="E144" s="12">
+        <v>1</v>
+      </c>
+      <c r="F144" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G144" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H144" s="12">
+        <v>0</v>
+      </c>
+      <c r="I144" s="12">
+        <v>0</v>
+      </c>
+      <c r="J144" s="12">
+        <v>1</v>
+      </c>
+      <c r="K144" s="12">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" s="16">
+        <v>148</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" s="12">
+        <f t="shared" si="2"/>
+        <v>-9</v>
+      </c>
+      <c r="D145" s="12">
+        <v>-144.99700000000001</v>
+      </c>
+      <c r="E145" s="12">
+        <v>1</v>
+      </c>
+      <c r="F145" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G145" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H145" s="12">
+        <v>0</v>
+      </c>
+      <c r="I145" s="12">
+        <v>0</v>
+      </c>
+      <c r="J145" s="12">
+        <v>1</v>
+      </c>
+      <c r="K145" s="12">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" s="16">
+        <v>149</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" s="12">
+        <f t="shared" si="2"/>
+        <v>-9</v>
+      </c>
+      <c r="D146" s="12">
+        <v>2000.508</v>
+      </c>
+      <c r="E146" s="12">
+        <v>1</v>
+      </c>
+      <c r="F146" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G146" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H146" s="12">
+        <v>0</v>
+      </c>
+      <c r="I146" s="12">
+        <v>0</v>
+      </c>
+      <c r="J146" s="12">
+        <v>1</v>
+      </c>
+      <c r="K146" s="12">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="16">
+        <v>150</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" s="12">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="D147" s="12">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="E147" s="12">
+        <v>1</v>
+      </c>
+      <c r="F147" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G147" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H147" s="12">
+        <v>0</v>
+      </c>
+      <c r="I147" s="12">
+        <v>0</v>
+      </c>
+      <c r="J147" s="12">
+        <v>1</v>
+      </c>
+      <c r="K147" s="12">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="16">
+        <v>151</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" s="12">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="D148" s="12">
+        <v>6000.0010000000002</v>
+      </c>
+      <c r="E148" s="12">
+        <v>1</v>
+      </c>
+      <c r="F148" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G148" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H148" s="12">
+        <v>0</v>
+      </c>
+      <c r="I148" s="12">
+        <v>0</v>
+      </c>
+      <c r="J148" s="12">
+        <v>1</v>
+      </c>
+      <c r="K148" s="12">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="16">
+        <v>152</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" s="12">
+        <f t="shared" si="2"/>
+        <v>-11</v>
+      </c>
+      <c r="D149" s="12">
+        <v>5360.5969999999998</v>
+      </c>
+      <c r="E149" s="12">
+        <v>1</v>
+      </c>
+      <c r="F149" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G149" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H149" s="12">
+        <v>0</v>
+      </c>
+      <c r="I149" s="12">
+        <v>0</v>
+      </c>
+      <c r="J149" s="12">
+        <v>1</v>
+      </c>
+      <c r="K149" s="12">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" s="16">
+        <v>153</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" s="12">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="D150" s="12">
+        <v>132.96700000000001</v>
+      </c>
+      <c r="E150" s="12">
+        <v>1</v>
+      </c>
+      <c r="F150" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G150" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H150" s="12">
+        <v>0</v>
+      </c>
+      <c r="I150" s="12">
+        <v>0</v>
+      </c>
+      <c r="J150" s="12">
+        <v>1</v>
+      </c>
+      <c r="K150" s="12">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="16">
+        <v>154</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" s="12">
+        <f t="shared" si="2"/>
+        <v>-16</v>
+      </c>
+      <c r="D151" s="12">
+        <v>-128.06899999999999</v>
+      </c>
+      <c r="E151" s="12">
+        <v>1</v>
+      </c>
+      <c r="F151" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G151" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H151" s="12">
+        <v>0</v>
+      </c>
+      <c r="I151" s="12">
+        <v>0</v>
+      </c>
+      <c r="J151" s="12">
+        <v>1</v>
+      </c>
+      <c r="K151" s="12">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="16">
+        <v>155</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" s="12">
+        <f t="shared" si="2"/>
+        <v>-16</v>
+      </c>
+      <c r="D152" s="12">
+        <v>242.77600000000001</v>
+      </c>
+      <c r="E152" s="12">
+        <v>1</v>
+      </c>
+      <c r="F152" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G152" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H152" s="12">
+        <v>0</v>
+      </c>
+      <c r="I152" s="12">
+        <v>0</v>
+      </c>
+      <c r="J152" s="12">
+        <v>1</v>
+      </c>
+      <c r="K152" s="12">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="16">
+        <v>156</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" s="12">
+        <f t="shared" si="2"/>
+        <v>-17</v>
+      </c>
+      <c r="D153" s="12">
+        <v>-403.875</v>
+      </c>
+      <c r="E153" s="12">
+        <v>1</v>
+      </c>
+      <c r="F153" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G153" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H153" s="12">
+        <v>0</v>
+      </c>
+      <c r="I153" s="12">
+        <v>0</v>
+      </c>
+      <c r="J153" s="12">
+        <v>1</v>
+      </c>
+      <c r="K153" s="12">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="16">
+        <v>157</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" s="12">
+        <f t="shared" si="2"/>
+        <v>-17</v>
+      </c>
+      <c r="D154" s="12">
+        <v>140.21700000000001</v>
+      </c>
+      <c r="E154" s="12">
+        <v>1</v>
+      </c>
+      <c r="F154" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G154" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H154" s="12">
+        <v>0</v>
+      </c>
+      <c r="I154" s="12">
+        <v>0</v>
+      </c>
+      <c r="J154" s="12">
+        <v>1</v>
+      </c>
+      <c r="K154" s="12">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="16">
+        <v>158</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" s="12">
+        <f t="shared" si="2"/>
+        <v>-18</v>
+      </c>
+      <c r="D155" s="12">
+        <v>-203.696</v>
+      </c>
+      <c r="E155" s="12">
+        <v>1</v>
+      </c>
+      <c r="F155" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G155" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H155" s="12">
+        <v>0</v>
+      </c>
+      <c r="I155" s="12">
+        <v>0</v>
+      </c>
+      <c r="J155" s="12">
+        <v>1</v>
+      </c>
+      <c r="K155" s="12">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="16">
+        <v>159</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" s="12">
+        <f t="shared" si="2"/>
+        <v>-18</v>
+      </c>
+      <c r="D156" s="12">
+        <v>113.502</v>
+      </c>
+      <c r="E156" s="12">
+        <v>1</v>
+      </c>
+      <c r="F156" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G156" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H156" s="12">
+        <v>0</v>
+      </c>
+      <c r="I156" s="12">
+        <v>0</v>
+      </c>
+      <c r="J156" s="12">
+        <v>1</v>
+      </c>
+      <c r="K156" s="12">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="16">
+        <v>160</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="12">
+        <f t="shared" si="2"/>
+        <v>-19</v>
+      </c>
+      <c r="D157" s="12">
+        <v>91.841999999999999</v>
+      </c>
+      <c r="E157" s="12">
+        <v>1</v>
+      </c>
+      <c r="F157" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G157" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H157" s="12">
+        <v>0</v>
+      </c>
+      <c r="I157" s="12">
+        <v>0</v>
+      </c>
+      <c r="J157" s="12">
+        <v>1</v>
+      </c>
+      <c r="K157" s="12">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="16">
+        <v>161</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="12">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="D158" s="12">
+        <v>74.28</v>
+      </c>
+      <c r="E158" s="12">
+        <v>1</v>
+      </c>
+      <c r="F158" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G158" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H158" s="12">
+        <v>0</v>
+      </c>
+      <c r="I158" s="12">
+        <v>0</v>
+      </c>
+      <c r="J158" s="12">
+        <v>1</v>
+      </c>
+      <c r="K158" s="12">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="16">
+        <v>162</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" s="12">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D159" s="12">
+        <v>1016.313</v>
+      </c>
+      <c r="E159" s="12">
+        <v>1</v>
+      </c>
+      <c r="F159" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G159" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H159" s="12">
+        <v>0</v>
+      </c>
+      <c r="I159" s="12">
+        <v>0</v>
+      </c>
+      <c r="J159" s="12">
+        <v>1</v>
+      </c>
+      <c r="K159" s="12">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="16">
+        <v>163</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" s="12">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D160" s="12">
+        <v>1203.0530000000001</v>
+      </c>
+      <c r="E160" s="12">
+        <v>2</v>
+      </c>
+      <c r="F160" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G160" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H160" s="12">
+        <v>0</v>
+      </c>
+      <c r="I160" s="12">
+        <v>0</v>
+      </c>
+      <c r="J160" s="12">
+        <v>1</v>
+      </c>
+      <c r="K160" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" s="16">
+        <v>164</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161" s="12">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D161" s="12">
+        <v>366.38099999999997</v>
+      </c>
+      <c r="E161" s="12">
+        <v>3</v>
+      </c>
+      <c r="F161" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G161" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H161" s="12">
+        <v>0</v>
+      </c>
+      <c r="I161" s="12">
+        <v>0</v>
+      </c>
+      <c r="J161" s="12">
+        <v>1</v>
+      </c>
+      <c r="K161" s="12">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="16">
+        <v>165</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D162" s="12">
+        <v>1651.2470000000001</v>
+      </c>
+      <c r="E162" s="12">
+        <v>4</v>
+      </c>
+      <c r="F162" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G162" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H162" s="12">
+        <v>0</v>
+      </c>
+      <c r="I162" s="12">
+        <v>0</v>
+      </c>
+      <c r="J162" s="12">
+        <v>1</v>
+      </c>
+      <c r="K162" s="18">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" s="16">
+        <v>166</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D163" s="12">
+        <v>397.779</v>
+      </c>
+      <c r="E163" s="12">
+        <v>1</v>
+      </c>
+      <c r="F163" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G163" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H163" s="12">
+        <v>0</v>
+      </c>
+      <c r="I163" s="12">
+        <v>0</v>
+      </c>
+      <c r="J163" s="12">
+        <v>1</v>
+      </c>
+      <c r="K163" s="12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" s="16">
+        <v>167</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D164" s="12">
+        <v>-51.655999999999999</v>
+      </c>
+      <c r="E164" s="12">
+        <v>1</v>
+      </c>
+      <c r="F164" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G164" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H164" s="12">
+        <v>0</v>
+      </c>
+      <c r="I164" s="12">
+        <v>0</v>
+      </c>
+      <c r="J164" s="12">
+        <v>1</v>
+      </c>
+      <c r="K164" s="12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" s="16">
+        <v>168</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" s="12">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="D165" s="12">
+        <v>393.40899999999999</v>
+      </c>
+      <c r="E165" s="12">
+        <v>1</v>
+      </c>
+      <c r="F165" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G165" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H165" s="12">
+        <v>0</v>
+      </c>
+      <c r="I165" s="12">
+        <v>0</v>
+      </c>
+      <c r="J165" s="12">
+        <v>1</v>
+      </c>
+      <c r="K165" s="12">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" s="16">
+        <v>169</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166" s="12">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="D166" s="12">
+        <v>-58.607999999999997</v>
+      </c>
+      <c r="E166" s="12">
+        <v>1</v>
+      </c>
+      <c r="F166" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G166" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H166" s="12">
+        <v>0</v>
+      </c>
+      <c r="I166" s="12">
+        <v>0</v>
+      </c>
+      <c r="J166" s="12">
+        <v>1</v>
+      </c>
+      <c r="K166" s="12">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" s="16">
+        <v>170</v>
+      </c>
+      <c r="B167" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" s="12">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D167" s="12">
+        <v>438.279</v>
+      </c>
+      <c r="E167" s="12">
+        <v>1</v>
+      </c>
+      <c r="F167" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G167" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H167" s="12">
+        <v>0</v>
+      </c>
+      <c r="I167" s="12">
+        <v>0</v>
+      </c>
+      <c r="J167" s="12">
+        <v>1</v>
+      </c>
+      <c r="K167" s="12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" s="16">
+        <v>171</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" s="12">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="D168" s="12">
+        <v>-65.230999999999995</v>
+      </c>
+      <c r="E168" s="12">
+        <v>1</v>
+      </c>
+      <c r="F168" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G168" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H168" s="12">
+        <v>0</v>
+      </c>
+      <c r="I168" s="12">
+        <v>0</v>
+      </c>
+      <c r="J168" s="12">
+        <v>1</v>
+      </c>
+      <c r="K168" s="12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" s="16">
+        <v>172</v>
+      </c>
+      <c r="B169" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169" s="12">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="D169" s="12">
+        <v>544.41600000000005</v>
+      </c>
+      <c r="E169" s="12">
+        <v>1</v>
+      </c>
+      <c r="F169" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G169" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H169" s="12">
+        <v>0</v>
+      </c>
+      <c r="I169" s="12">
+        <v>0</v>
+      </c>
+      <c r="J169" s="12">
+        <v>1</v>
+      </c>
+      <c r="K169" s="12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" s="16">
+        <v>173</v>
+      </c>
+      <c r="B170" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" s="12">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="D170" s="12">
+        <v>-77.822000000000003</v>
+      </c>
+      <c r="E170" s="12">
+        <v>1</v>
+      </c>
+      <c r="F170" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G170" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H170" s="12">
+        <v>0</v>
+      </c>
+      <c r="I170" s="12">
+        <v>0</v>
+      </c>
+      <c r="J170" s="12">
+        <v>1</v>
+      </c>
+      <c r="K170" s="12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171" s="16">
+        <v>174</v>
+      </c>
+      <c r="B171" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" s="12">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="D171" s="12">
+        <v>536.96299999999997</v>
+      </c>
+      <c r="E171" s="12">
+        <v>1</v>
+      </c>
+      <c r="F171" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G171" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H171" s="12">
+        <v>0</v>
+      </c>
+      <c r="I171" s="12">
+        <v>0</v>
+      </c>
+      <c r="J171" s="12">
+        <v>1</v>
+      </c>
+      <c r="K171" s="12">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172" s="16">
+        <v>175</v>
+      </c>
+      <c r="B172" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" s="12">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="D172" s="12">
+        <v>-98.956999999999994</v>
+      </c>
+      <c r="E172" s="12">
+        <v>1</v>
+      </c>
+      <c r="F172" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G172" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H172" s="12">
+        <v>0</v>
+      </c>
+      <c r="I172" s="12">
+        <v>0</v>
+      </c>
+      <c r="J172" s="12">
+        <v>1</v>
+      </c>
+      <c r="K172" s="12">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173" s="16">
+        <v>176</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" s="12">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+      <c r="D173" s="12">
+        <v>546.01400000000001</v>
+      </c>
+      <c r="E173" s="12">
+        <v>1</v>
+      </c>
+      <c r="F173" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G173" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H173" s="12">
+        <v>0</v>
+      </c>
+      <c r="I173" s="12">
+        <v>0</v>
+      </c>
+      <c r="J173" s="12">
+        <v>1</v>
+      </c>
+      <c r="K173" s="12">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174" s="16">
+        <v>177</v>
+      </c>
+      <c r="B174" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" s="12">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+      <c r="D174" s="12">
+        <v>-147.91999999999999</v>
+      </c>
+      <c r="E174" s="12">
+        <v>1</v>
+      </c>
+      <c r="F174" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G174" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H174" s="12">
+        <v>0</v>
+      </c>
+      <c r="I174" s="12">
+        <v>0</v>
+      </c>
+      <c r="J174" s="12">
+        <v>1</v>
+      </c>
+      <c r="K174" s="12">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175" s="16">
+        <v>178</v>
+      </c>
+      <c r="B175" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" s="12">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D175" s="12">
+        <v>-164.86099999999999</v>
+      </c>
+      <c r="E175" s="12">
+        <v>1</v>
+      </c>
+      <c r="F175" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G175" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H175" s="12">
+        <v>0</v>
+      </c>
+      <c r="I175" s="12">
+        <v>0</v>
+      </c>
+      <c r="J175" s="12">
+        <v>1</v>
+      </c>
+      <c r="K175" s="12">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176" s="16">
+        <v>179</v>
+      </c>
+      <c r="B176" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176" s="12">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="D176" s="12">
+        <v>626.85</v>
+      </c>
+      <c r="E176" s="12">
+        <v>1</v>
+      </c>
+      <c r="F176" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G176" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H176" s="12">
+        <v>0</v>
+      </c>
+      <c r="I176" s="12">
+        <v>0</v>
+      </c>
+      <c r="J176" s="12">
+        <v>1</v>
+      </c>
+      <c r="K176" s="12">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" s="16">
+        <v>180</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177" s="12">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+      <c r="D177" s="12">
+        <v>-200.899</v>
+      </c>
+      <c r="E177" s="12">
+        <v>1</v>
+      </c>
+      <c r="F177" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G177" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H177" s="12">
+        <v>0</v>
+      </c>
+      <c r="I177" s="12">
+        <v>0</v>
+      </c>
+      <c r="J177" s="12">
+        <v>1</v>
+      </c>
+      <c r="K177" s="12">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178" s="16">
+        <v>181</v>
+      </c>
+      <c r="B178" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" s="12">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+      <c r="D178" s="12">
+        <v>524.82799999999997</v>
+      </c>
+      <c r="E178" s="12">
+        <v>1</v>
+      </c>
+      <c r="F178" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G178" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H178" s="12">
+        <v>0</v>
+      </c>
+      <c r="I178" s="12">
+        <v>0</v>
+      </c>
+      <c r="J178" s="12">
+        <v>1</v>
+      </c>
+      <c r="K178" s="12">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179" s="16">
+        <v>182</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" s="12">
+        <f t="shared" si="2"/>
+        <v>-8</v>
+      </c>
+      <c r="D179" s="12">
+        <v>-217.678</v>
+      </c>
+      <c r="E179" s="12">
+        <v>1</v>
+      </c>
+      <c r="F179" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G179" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H179" s="12">
+        <v>0</v>
+      </c>
+      <c r="I179" s="12">
+        <v>0</v>
+      </c>
+      <c r="J179" s="12">
+        <v>1</v>
+      </c>
+      <c r="K179" s="12">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180" s="16">
+        <v>183</v>
+      </c>
+      <c r="B180" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" s="12">
+        <f t="shared" si="2"/>
+        <v>-8</v>
+      </c>
+      <c r="D180" s="12">
+        <v>442.07499999999999</v>
+      </c>
+      <c r="E180" s="12">
+        <v>1</v>
+      </c>
+      <c r="F180" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G180" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H180" s="12">
+        <v>0</v>
+      </c>
+      <c r="I180" s="12">
+        <v>0</v>
+      </c>
+      <c r="J180" s="12">
+        <v>1</v>
+      </c>
+      <c r="K180" s="12">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181" s="16">
+        <v>184</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181" s="12">
+        <f t="shared" si="2"/>
+        <v>-9</v>
+      </c>
+      <c r="D181" s="12">
+        <v>-230.43299999999999</v>
+      </c>
+      <c r="E181" s="12">
+        <v>1</v>
+      </c>
+      <c r="F181" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G181" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H181" s="12">
+        <v>0</v>
+      </c>
+      <c r="I181" s="12">
+        <v>0</v>
+      </c>
+      <c r="J181" s="12">
+        <v>1</v>
+      </c>
+      <c r="K181" s="12">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182" s="16">
+        <v>185</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182" s="12">
+        <f t="shared" si="2"/>
+        <v>-9</v>
+      </c>
+      <c r="D182" s="12">
+        <v>250.95599999999999</v>
+      </c>
+      <c r="E182" s="12">
+        <v>1</v>
+      </c>
+      <c r="F182" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G182" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H182" s="12">
+        <v>0</v>
+      </c>
+      <c r="I182" s="12">
+        <v>0</v>
+      </c>
+      <c r="J182" s="12">
+        <v>1</v>
+      </c>
+      <c r="K182" s="12">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183" s="16">
+        <v>186</v>
+      </c>
+      <c r="B183" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" s="12">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="D183" s="12">
+        <v>-192.60499999999999</v>
+      </c>
+      <c r="E183" s="12">
+        <v>1</v>
+      </c>
+      <c r="F183" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G183" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H183" s="12">
+        <v>0</v>
+      </c>
+      <c r="I183" s="12">
+        <v>0</v>
+      </c>
+      <c r="J183" s="12">
+        <v>1</v>
+      </c>
+      <c r="K183" s="12">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184" s="16">
+        <v>187</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" s="12">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="D184" s="12">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="E184" s="12">
+        <v>1</v>
+      </c>
+      <c r="F184" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G184" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H184" s="12">
+        <v>0</v>
+      </c>
+      <c r="I184" s="12">
+        <v>0</v>
+      </c>
+      <c r="J184" s="12">
+        <v>1</v>
+      </c>
+      <c r="K184" s="12">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185" s="16">
+        <v>188</v>
+      </c>
+      <c r="B185" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185" s="12">
+        <f t="shared" si="2"/>
+        <v>-11</v>
+      </c>
+      <c r="D185" s="12">
+        <v>-191.79300000000001</v>
+      </c>
+      <c r="E185" s="12">
+        <v>1</v>
+      </c>
+      <c r="F185" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G185" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H185" s="12">
+        <v>0</v>
+      </c>
+      <c r="I185" s="12">
+        <v>0</v>
+      </c>
+      <c r="J185" s="12">
+        <v>1</v>
+      </c>
+      <c r="K185" s="12">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186" s="16">
+        <v>189</v>
+      </c>
+      <c r="B186" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C186" s="12">
+        <f t="shared" si="2"/>
+        <v>-11</v>
+      </c>
+      <c r="D186" s="12">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="E186" s="12">
+        <v>1</v>
+      </c>
+      <c r="F186" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G186" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H186" s="12">
+        <v>0</v>
+      </c>
+      <c r="I186" s="12">
+        <v>0</v>
+      </c>
+      <c r="J186" s="12">
+        <v>1</v>
+      </c>
+      <c r="K186" s="12">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187" s="16">
+        <v>190</v>
+      </c>
+      <c r="B187" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187" s="12">
+        <f t="shared" si="2"/>
+        <v>-12</v>
+      </c>
+      <c r="D187" s="12">
+        <v>-172.44399999999999</v>
+      </c>
+      <c r="E187" s="12">
+        <v>1</v>
+      </c>
+      <c r="F187" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G187" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H187" s="12">
+        <v>0</v>
+      </c>
+      <c r="I187" s="12">
+        <v>0</v>
+      </c>
+      <c r="J187" s="12">
+        <v>1</v>
+      </c>
+      <c r="K187" s="12">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188" s="16">
+        <v>191</v>
+      </c>
+      <c r="B188" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C188" s="12">
+        <f t="shared" si="2"/>
+        <v>-12</v>
+      </c>
+      <c r="D188" s="12">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="E188" s="12">
+        <v>1</v>
+      </c>
+      <c r="F188" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G188" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H188" s="12">
+        <v>0</v>
+      </c>
+      <c r="I188" s="12">
+        <v>0</v>
+      </c>
+      <c r="J188" s="12">
+        <v>1</v>
+      </c>
+      <c r="K188" s="12">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189" s="16">
+        <v>192</v>
+      </c>
+      <c r="B189" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189" s="12">
+        <f t="shared" si="2"/>
+        <v>-13</v>
+      </c>
+      <c r="D189" s="12">
+        <v>-156.84</v>
+      </c>
+      <c r="E189" s="12">
+        <v>1</v>
+      </c>
+      <c r="F189" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G189" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H189" s="12">
+        <v>0</v>
+      </c>
+      <c r="I189" s="12">
+        <v>0</v>
+      </c>
+      <c r="J189" s="12">
+        <v>1</v>
+      </c>
+      <c r="K189" s="12">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190" s="16">
+        <v>193</v>
+      </c>
+      <c r="B190" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190" s="12">
+        <f t="shared" si="2"/>
+        <v>-13</v>
+      </c>
+      <c r="D190" s="12">
+        <v>115.798</v>
+      </c>
+      <c r="E190" s="12">
+        <v>1</v>
+      </c>
+      <c r="F190" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G190" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H190" s="12">
+        <v>0</v>
+      </c>
+      <c r="I190" s="12">
+        <v>0</v>
+      </c>
+      <c r="J190" s="12">
+        <v>1</v>
+      </c>
+      <c r="K190" s="12">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191" s="16">
+        <v>194</v>
+      </c>
+      <c r="B191" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191" s="12">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="D191" s="12">
+        <v>-163.31299999999999</v>
+      </c>
+      <c r="E191" s="12">
+        <v>1</v>
+      </c>
+      <c r="F191" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G191" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H191" s="12">
+        <v>0</v>
+      </c>
+      <c r="I191" s="12">
+        <v>0</v>
+      </c>
+      <c r="J191" s="12">
+        <v>1</v>
+      </c>
+      <c r="K191" s="12">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192" s="16">
+        <v>195</v>
+      </c>
+      <c r="B192" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C192" s="12">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="D192" s="12">
+        <v>157.012</v>
+      </c>
+      <c r="E192" s="12">
+        <v>1</v>
+      </c>
+      <c r="F192" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G192" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H192" s="12">
+        <v>0</v>
+      </c>
+      <c r="I192" s="12">
+        <v>0</v>
+      </c>
+      <c r="J192" s="12">
+        <v>1</v>
+      </c>
+      <c r="K192" s="12">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193" s="16">
+        <v>196</v>
+      </c>
+      <c r="B193" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C193" s="12">
+        <f t="shared" si="2"/>
+        <v>-15</v>
+      </c>
+      <c r="D193" s="12">
+        <v>-146.35400000000001</v>
+      </c>
+      <c r="E193" s="12">
+        <v>1</v>
+      </c>
+      <c r="F193" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G193" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H193" s="12">
+        <v>0</v>
+      </c>
+      <c r="I193" s="12">
+        <v>0</v>
+      </c>
+      <c r="J193" s="12">
+        <v>1</v>
+      </c>
+      <c r="K193" s="12">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194" s="16">
+        <v>197</v>
+      </c>
+      <c r="B194" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C194" s="12">
+        <f t="shared" si="2"/>
+        <v>-15</v>
+      </c>
+      <c r="D194" s="12">
+        <v>158.13499999999999</v>
+      </c>
+      <c r="E194" s="12">
+        <v>1</v>
+      </c>
+      <c r="F194" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G194" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H194" s="12">
+        <v>0</v>
+      </c>
+      <c r="I194" s="12">
+        <v>0</v>
+      </c>
+      <c r="J194" s="12">
+        <v>1</v>
+      </c>
+      <c r="K194" s="12">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195" s="16">
+        <v>198</v>
+      </c>
+      <c r="B195" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C195" s="12">
+        <f t="shared" ref="C195:C258" si="3">$L$2-K195</f>
+        <v>-16</v>
+      </c>
+      <c r="D195" s="12">
+        <v>-217.77799999999999</v>
+      </c>
+      <c r="E195" s="12">
+        <v>1</v>
+      </c>
+      <c r="F195" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G195" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H195" s="12">
+        <v>0</v>
+      </c>
+      <c r="I195" s="12">
+        <v>0</v>
+      </c>
+      <c r="J195" s="12">
+        <v>1</v>
+      </c>
+      <c r="K195" s="12">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196" s="16">
+        <v>199</v>
+      </c>
+      <c r="B196" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196" s="12">
+        <f t="shared" si="3"/>
+        <v>-16</v>
+      </c>
+      <c r="D196" s="12">
+        <v>273.25700000000001</v>
+      </c>
+      <c r="E196" s="12">
+        <v>1</v>
+      </c>
+      <c r="F196" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G196" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H196" s="12">
+        <v>0</v>
+      </c>
+      <c r="I196" s="12">
+        <v>0</v>
+      </c>
+      <c r="J196" s="12">
+        <v>1</v>
+      </c>
+      <c r="K196" s="12">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197" s="16">
+        <v>200</v>
+      </c>
+      <c r="B197" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C197" s="12">
+        <f t="shared" si="3"/>
+        <v>-17</v>
+      </c>
+      <c r="D197" s="12">
+        <v>-267.42399999999998</v>
+      </c>
+      <c r="E197" s="12">
+        <v>1</v>
+      </c>
+      <c r="F197" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G197" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H197" s="12">
+        <v>0</v>
+      </c>
+      <c r="I197" s="12">
+        <v>0</v>
+      </c>
+      <c r="J197" s="12">
+        <v>1</v>
+      </c>
+      <c r="K197" s="12">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198" s="16">
+        <v>201</v>
+      </c>
+      <c r="B198" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C198" s="12">
+        <f t="shared" si="3"/>
+        <v>-17</v>
+      </c>
+      <c r="D198" s="12">
+        <v>306.33999999999997</v>
+      </c>
+      <c r="E198" s="12">
+        <v>1</v>
+      </c>
+      <c r="F198" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G198" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H198" s="12">
+        <v>0</v>
+      </c>
+      <c r="I198" s="12">
+        <v>0</v>
+      </c>
+      <c r="J198" s="12">
+        <v>1</v>
+      </c>
+      <c r="K198" s="12">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199" s="16">
+        <v>202</v>
+      </c>
+      <c r="B199" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C199" s="12">
+        <f t="shared" si="3"/>
+        <v>-18</v>
+      </c>
+      <c r="D199" s="12">
+        <v>-331.07499999999999</v>
+      </c>
+      <c r="E199" s="12">
+        <v>1</v>
+      </c>
+      <c r="F199" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G199" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H199" s="12">
+        <v>0</v>
+      </c>
+      <c r="I199" s="12">
+        <v>0</v>
+      </c>
+      <c r="J199" s="12">
+        <v>1</v>
+      </c>
+      <c r="K199" s="12">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200" s="16">
+        <v>203</v>
+      </c>
+      <c r="B200" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C200" s="12">
+        <f t="shared" si="3"/>
+        <v>-18</v>
+      </c>
+      <c r="D200" s="12">
+        <v>344.14499999999998</v>
+      </c>
+      <c r="E200" s="12">
+        <v>1</v>
+      </c>
+      <c r="F200" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G200" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H200" s="12">
+        <v>0</v>
+      </c>
+      <c r="I200" s="12">
+        <v>0</v>
+      </c>
+      <c r="J200" s="12">
+        <v>1</v>
+      </c>
+      <c r="K200" s="12">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201" s="16">
+        <v>204</v>
+      </c>
+      <c r="B201" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C201" s="12">
+        <f t="shared" si="3"/>
+        <v>-19</v>
+      </c>
+      <c r="D201" s="12">
+        <v>-349.19200000000001</v>
+      </c>
+      <c r="E201" s="12">
+        <v>1</v>
+      </c>
+      <c r="F201" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G201" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H201" s="12">
+        <v>0</v>
+      </c>
+      <c r="I201" s="12">
+        <v>0</v>
+      </c>
+      <c r="J201" s="12">
+        <v>1</v>
+      </c>
+      <c r="K201" s="12">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202" s="16">
+        <v>205</v>
+      </c>
+      <c r="B202" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C202" s="12">
+        <f t="shared" si="3"/>
+        <v>-19</v>
+      </c>
+      <c r="D202" s="12">
+        <v>375.78199999999998</v>
+      </c>
+      <c r="E202" s="12">
+        <v>1</v>
+      </c>
+      <c r="F202" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G202" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H202" s="12">
+        <v>0</v>
+      </c>
+      <c r="I202" s="12">
+        <v>0</v>
+      </c>
+      <c r="J202" s="12">
+        <v>1</v>
+      </c>
+      <c r="K202" s="12">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203" s="16">
+        <v>206</v>
+      </c>
+      <c r="B203" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203" s="12">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+      <c r="D203" s="12">
+        <v>-374.25400000000002</v>
+      </c>
+      <c r="E203" s="12">
+        <v>1</v>
+      </c>
+      <c r="F203" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G203" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H203" s="12">
+        <v>0</v>
+      </c>
+      <c r="I203" s="12">
+        <v>0</v>
+      </c>
+      <c r="J203" s="12">
+        <v>1</v>
+      </c>
+      <c r="K203" s="12">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204" s="16">
+        <v>207</v>
+      </c>
+      <c r="B204" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204" s="12">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+      <c r="D204" s="12">
+        <v>380.714</v>
+      </c>
+      <c r="E204" s="12">
+        <v>1</v>
+      </c>
+      <c r="F204" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G204" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H204" s="12">
+        <v>0</v>
+      </c>
+      <c r="I204" s="12">
+        <v>0</v>
+      </c>
+      <c r="J204" s="12">
+        <v>1</v>
+      </c>
+      <c r="K204" s="12">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205" s="16">
+        <v>208</v>
+      </c>
+      <c r="B205" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C205" s="12">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="D205" s="12">
+        <v>136</v>
+      </c>
+      <c r="E205" s="12">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="F205" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G205" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H205" s="12">
+        <v>0</v>
+      </c>
+      <c r="I205" s="12">
+        <v>0</v>
+      </c>
+      <c r="J205" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K205" s="12">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206" s="16">
+        <v>209</v>
+      </c>
+      <c r="B206" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C206" s="12">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="D206" s="12">
+        <v>124</v>
+      </c>
+      <c r="E206" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="F206" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G206" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H206" s="12">
+        <v>0</v>
+      </c>
+      <c r="I206" s="12">
+        <v>0</v>
+      </c>
+      <c r="J206" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K206" s="12">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207" s="16">
+        <v>210</v>
+      </c>
+      <c r="B207" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C207" s="12">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="D207" s="12">
+        <v>72</v>
+      </c>
+      <c r="E207" s="12">
+        <v>0.44</v>
+      </c>
+      <c r="F207" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G207" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H207" s="12">
+        <v>0</v>
+      </c>
+      <c r="I207" s="12">
+        <v>0</v>
+      </c>
+      <c r="J207" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K207" s="12">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208" s="16">
+        <v>211</v>
+      </c>
+      <c r="B208" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C208" s="12">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="D208" s="12">
+        <v>72</v>
+      </c>
+      <c r="E208" s="12">
+        <v>0.44</v>
+      </c>
+      <c r="F208" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G208" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H208" s="12">
+        <v>0</v>
+      </c>
+      <c r="I208" s="12">
+        <v>0</v>
+      </c>
+      <c r="J208" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K208" s="12">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209" s="16">
+        <v>213</v>
+      </c>
+      <c r="B209" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C209" s="12">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+      <c r="D209" s="12">
+        <v>-136</v>
+      </c>
+      <c r="E209" s="12">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="F209" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G209" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H209" s="12">
+        <v>0</v>
+      </c>
+      <c r="I209" s="12">
+        <v>0</v>
+      </c>
+      <c r="J209" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K209" s="12">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210" s="16">
+        <v>214</v>
+      </c>
+      <c r="B210" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C210" s="12">
+        <f t="shared" si="3"/>
+        <v>-13</v>
+      </c>
+      <c r="D210" s="12">
+        <v>2225.2399999999998</v>
+      </c>
+      <c r="E210" s="12">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="F210" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G210" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H210" s="12">
+        <v>0</v>
+      </c>
+      <c r="I210" s="12">
+        <v>0</v>
+      </c>
+      <c r="J210" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K210" s="12">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211" s="16">
+        <v>215</v>
+      </c>
+      <c r="B211" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C211" s="12">
+        <f t="shared" si="3"/>
+        <v>-21</v>
+      </c>
+      <c r="D211" s="12">
+        <v>-124</v>
+      </c>
+      <c r="E211" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="F211" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G211" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H211" s="12">
+        <v>0</v>
+      </c>
+      <c r="I211" s="12">
+        <v>0</v>
+      </c>
+      <c r="J211" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K211" s="12">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212" s="16">
+        <v>216</v>
+      </c>
+      <c r="B212" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C212" s="12">
+        <f t="shared" si="3"/>
+        <v>-22</v>
+      </c>
+      <c r="D212" s="12">
+        <v>-72</v>
+      </c>
+      <c r="E212" s="12">
+        <v>0.44</v>
+      </c>
+      <c r="F212" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G212" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H212" s="12">
+        <v>0</v>
+      </c>
+      <c r="I212" s="12">
+        <v>0</v>
+      </c>
+      <c r="J212" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K212" s="12">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213" s="16">
+        <v>217</v>
+      </c>
+      <c r="B213" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C213" s="12">
+        <f t="shared" si="3"/>
+        <v>-22</v>
+      </c>
+      <c r="D213" s="12">
+        <v>-72</v>
+      </c>
+      <c r="E213" s="12">
+        <v>0.44</v>
+      </c>
+      <c r="F213" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G213" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H213" s="12">
+        <v>0</v>
+      </c>
+      <c r="I213" s="12">
+        <v>0</v>
+      </c>
+      <c r="J213" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K213" s="12">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
+      <c r="A214" s="16">
+        <v>218</v>
+      </c>
+      <c r="B214" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C214" s="12">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="D214" s="12">
+        <v>324</v>
+      </c>
+      <c r="E214" s="12">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="F214" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G214" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H214" s="12">
+        <v>0</v>
+      </c>
+      <c r="I214" s="12">
+        <v>0</v>
+      </c>
+      <c r="J214" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K214" s="12">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
+      <c r="A215" s="16">
+        <v>219</v>
+      </c>
+      <c r="B215" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C215" s="12">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="D215" s="12">
+        <v>375</v>
+      </c>
+      <c r="E215" s="12">
+        <v>0.38</v>
+      </c>
+      <c r="F215" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G215" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H215" s="12">
+        <v>0</v>
+      </c>
+      <c r="I215" s="12">
+        <v>0</v>
+      </c>
+      <c r="J215" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K215" s="12">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
+      <c r="A216" s="16">
+        <v>221</v>
+      </c>
+      <c r="B216" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C216" s="12">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+      <c r="D216" s="12">
+        <v>-324</v>
+      </c>
+      <c r="E216" s="12">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="F216" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G216" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H216" s="12">
+        <v>0</v>
+      </c>
+      <c r="I216" s="12">
+        <v>0</v>
+      </c>
+      <c r="J216" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K216" s="12">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
+      <c r="A217" s="16">
+        <v>222</v>
+      </c>
+      <c r="B217" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C217" s="12">
+        <f t="shared" si="3"/>
+        <v>-31</v>
+      </c>
+      <c r="D217" s="12">
+        <v>-375</v>
+      </c>
+      <c r="E217" s="12">
+        <v>0.38</v>
+      </c>
+      <c r="F217" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G217" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H217" s="12">
+        <v>0</v>
+      </c>
+      <c r="I217" s="12">
+        <v>0</v>
+      </c>
+      <c r="J217" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K217" s="12">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
+      <c r="A218" s="16">
+        <v>223</v>
+      </c>
+      <c r="B218" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C218" s="12">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="D218" s="12">
+        <v>21.196999999999999</v>
+      </c>
+      <c r="E218" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F218" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G218" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H218" s="12">
+        <v>0</v>
+      </c>
+      <c r="I218" s="12">
+        <v>0</v>
+      </c>
+      <c r="J218" s="12">
+        <v>0.74200913242009103</v>
+      </c>
+      <c r="K218" s="12">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
+      <c r="A219" s="16">
+        <v>224</v>
+      </c>
+      <c r="B219" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C219" s="12">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="D219" s="12">
+        <v>-4.1539999999999999</v>
+      </c>
+      <c r="E219" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F219" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G219" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H219" s="12">
+        <v>0</v>
+      </c>
+      <c r="I219" s="12">
+        <v>0</v>
+      </c>
+      <c r="J219" s="12">
+        <v>0.74200913242009103</v>
+      </c>
+      <c r="K219" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
+      <c r="A220" s="16">
+        <v>225</v>
+      </c>
+      <c r="B220" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C220" s="12">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D220" s="12">
+        <v>-10.021000000000001</v>
+      </c>
+      <c r="E220" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F220" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G220" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H220" s="12">
+        <v>0</v>
+      </c>
+      <c r="I220" s="12">
+        <v>0</v>
+      </c>
+      <c r="J220" s="12">
+        <v>0.74200913242009103</v>
+      </c>
+      <c r="K220" s="12">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
+      <c r="A221" s="16">
+        <v>226</v>
+      </c>
+      <c r="B221" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C221" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D221" s="12">
+        <v>-5.2539999999999996</v>
+      </c>
+      <c r="E221" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F221" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G221" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H221" s="12">
+        <v>0</v>
+      </c>
+      <c r="I221" s="12">
+        <v>0</v>
+      </c>
+      <c r="J221" s="12">
+        <v>0.74200913242009103</v>
+      </c>
+      <c r="K221" s="18">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
+      <c r="A222" s="16">
+        <v>227</v>
+      </c>
+      <c r="B222" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C222" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D222" s="12">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="E222" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F222" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G222" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H222" s="12">
+        <v>0</v>
+      </c>
+      <c r="I222" s="12">
+        <v>0</v>
+      </c>
+      <c r="J222" s="12">
+        <v>0.74200913242009103</v>
+      </c>
+      <c r="K222" s="12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
+      <c r="A223" s="16">
+        <v>228</v>
+      </c>
+      <c r="B223" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C223" s="12">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D223" s="12">
+        <v>-9.8000000000000004E-2</v>
+      </c>
+      <c r="E223" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F223" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G223" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H223" s="12">
+        <v>0</v>
+      </c>
+      <c r="I223" s="12">
+        <v>0</v>
+      </c>
+      <c r="J223" s="12">
+        <v>0.74200913242009103</v>
+      </c>
+      <c r="K223" s="12">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
+      <c r="A224" s="16">
+        <v>229</v>
+      </c>
+      <c r="B224" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C224" s="12">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="D224" s="12">
+        <v>-1.069</v>
+      </c>
+      <c r="E224" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F224" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G224" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H224" s="12">
+        <v>0</v>
+      </c>
+      <c r="I224" s="12">
+        <v>0</v>
+      </c>
+      <c r="J224" s="12">
+        <v>0.74200913242009103</v>
+      </c>
+      <c r="K224" s="12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
+      <c r="A225" s="16">
+        <v>230</v>
+      </c>
+      <c r="B225" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C225" s="12">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="D225" s="12">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="E225" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F225" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G225" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H225" s="12">
+        <v>0</v>
+      </c>
+      <c r="I225" s="12">
+        <v>0</v>
+      </c>
+      <c r="J225" s="12">
+        <v>0.74200913242009103</v>
+      </c>
+      <c r="K225" s="12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
+      <c r="A226" s="16">
+        <v>231</v>
+      </c>
+      <c r="B226" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C226" s="12">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="D226" s="12">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="E226" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F226" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G226" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H226" s="12">
+        <v>0</v>
+      </c>
+      <c r="I226" s="12">
+        <v>0</v>
+      </c>
+      <c r="J226" s="12">
+        <v>0.74200913242009103</v>
+      </c>
+      <c r="K226" s="12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
+      <c r="A227" s="16">
+        <v>232</v>
+      </c>
+      <c r="B227" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C227" s="12">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+      <c r="D227" s="12">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="E227" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F227" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G227" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H227" s="12">
+        <v>0</v>
+      </c>
+      <c r="I227" s="12">
+        <v>0</v>
+      </c>
+      <c r="J227" s="12">
+        <v>0.74200913242009103</v>
+      </c>
+      <c r="K227" s="12">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
+      <c r="A228" s="16">
+        <v>233</v>
+      </c>
+      <c r="B228" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C228" s="12">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+      <c r="D228" s="12">
+        <v>-0.59099999999999997</v>
+      </c>
+      <c r="E228" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F228" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G228" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H228" s="12">
+        <v>0</v>
+      </c>
+      <c r="I228" s="12">
+        <v>0</v>
+      </c>
+      <c r="J228" s="12">
+        <v>0.74200913242009103</v>
+      </c>
+      <c r="K228" s="12">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
+      <c r="A229" s="16">
+        <v>234</v>
+      </c>
+      <c r="B229" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C229" s="12">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+      <c r="D229" s="12">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="E229" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F229" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G229" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H229" s="12">
+        <v>0</v>
+      </c>
+      <c r="I229" s="12">
+        <v>0</v>
+      </c>
+      <c r="J229" s="12">
+        <v>0.74200913242009103</v>
+      </c>
+      <c r="K229" s="12">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
+      <c r="A230" s="16">
+        <v>235</v>
+      </c>
+      <c r="B230" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C230" s="12">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+      <c r="D230" s="12">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="E230" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F230" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G230" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H230" s="12">
+        <v>0</v>
+      </c>
+      <c r="I230" s="12">
+        <v>0</v>
+      </c>
+      <c r="J230" s="12">
+        <v>0.74200913242009103</v>
+      </c>
+      <c r="K230" s="12">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
+      <c r="A231" s="16">
+        <v>236</v>
+      </c>
+      <c r="B231" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C231" s="12">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+      <c r="D231" s="12">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E231" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F231" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G231" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H231" s="12">
+        <v>0</v>
+      </c>
+      <c r="I231" s="12">
+        <v>0</v>
+      </c>
+      <c r="J231" s="12">
+        <v>0.74200913242009103</v>
+      </c>
+      <c r="K231" s="12">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
+      <c r="A232" s="16">
+        <v>237</v>
+      </c>
+      <c r="B232" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C232" s="12">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+      <c r="D232" s="12">
+        <v>-1.6779999999999999</v>
+      </c>
+      <c r="E232" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F232" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G232" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H232" s="12">
+        <v>0</v>
+      </c>
+      <c r="I232" s="12">
+        <v>0</v>
+      </c>
+      <c r="J232" s="12">
+        <v>0.74200913242009103</v>
+      </c>
+      <c r="K232" s="12">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
+      <c r="A233" s="16">
+        <v>238</v>
+      </c>
+      <c r="B233" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C233" s="12">
+        <f t="shared" si="3"/>
+        <v>-8</v>
+      </c>
+      <c r="D233" s="12">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E233" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F233" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G233" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H233" s="12">
+        <v>0</v>
+      </c>
+      <c r="I233" s="12">
+        <v>0</v>
+      </c>
+      <c r="J233" s="12">
+        <v>0.74200913242009103</v>
+      </c>
+      <c r="K233" s="12">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
+      <c r="A234" s="16">
+        <v>239</v>
+      </c>
+      <c r="B234" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C234" s="12">
+        <f t="shared" si="3"/>
+        <v>-9</v>
+      </c>
+      <c r="D234" s="12">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E234" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F234" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G234" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H234" s="12">
+        <v>0</v>
+      </c>
+      <c r="I234" s="12">
+        <v>0</v>
+      </c>
+      <c r="J234" s="12">
+        <v>0.74200913242009103</v>
+      </c>
+      <c r="K234" s="12">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
+      <c r="A235" s="16">
+        <v>240</v>
+      </c>
+      <c r="B235" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C235" s="12">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+      <c r="D235" s="12">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="E235" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F235" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G235" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H235" s="12">
+        <v>0</v>
+      </c>
+      <c r="I235" s="12">
+        <v>0</v>
+      </c>
+      <c r="J235" s="12">
+        <v>0.74200913242009103</v>
+      </c>
+      <c r="K235" s="12">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
+      <c r="A236" s="16">
+        <v>241</v>
+      </c>
+      <c r="B236" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C236" s="12">
+        <f t="shared" si="3"/>
+        <v>-11</v>
+      </c>
+      <c r="D236" s="12">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E236" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F236" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G236" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H236" s="12">
+        <v>0</v>
+      </c>
+      <c r="I236" s="12">
+        <v>0</v>
+      </c>
+      <c r="J236" s="12">
+        <v>0.74200913242009103</v>
+      </c>
+      <c r="K236" s="12">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
+      <c r="A237" s="16">
+        <v>242</v>
+      </c>
+      <c r="B237" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C237" s="12">
+        <f t="shared" si="3"/>
+        <v>-12</v>
+      </c>
+      <c r="D237" s="12">
+        <v>-0.36499999999999999</v>
+      </c>
+      <c r="E237" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F237" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G237" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H237" s="12">
+        <v>0</v>
+      </c>
+      <c r="I237" s="12">
+        <v>0</v>
+      </c>
+      <c r="J237" s="12">
+        <v>0.74200913242009103</v>
+      </c>
+      <c r="K237" s="12">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
+      <c r="A238" s="16">
+        <v>243</v>
+      </c>
+      <c r="B238" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C238" s="12">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="D238" s="12">
+        <v>97</v>
+      </c>
+      <c r="E238" s="12">
+        <v>0.38</v>
+      </c>
+      <c r="F238" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G238" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H238" s="12">
+        <v>0</v>
+      </c>
+      <c r="I238" s="12">
+        <v>0</v>
+      </c>
+      <c r="J238" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K238" s="12">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
+      <c r="A239" s="16">
+        <v>244</v>
+      </c>
+      <c r="B239" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C239" s="12">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="D239" s="12">
+        <v>25</v>
+      </c>
+      <c r="E239" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="F239" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G239" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H239" s="12">
+        <v>0</v>
+      </c>
+      <c r="I239" s="12">
+        <v>0</v>
+      </c>
+      <c r="J239" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K239" s="12">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
+      <c r="A240" s="16">
+        <v>245</v>
+      </c>
+      <c r="B240" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C240" s="12">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="D240" s="12">
+        <v>25</v>
+      </c>
+      <c r="E240" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="F240" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G240" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H240" s="12">
+        <v>0</v>
+      </c>
+      <c r="I240" s="12">
+        <v>0</v>
+      </c>
+      <c r="J240" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K240" s="12">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
+      <c r="A241" s="16">
+        <v>246</v>
+      </c>
+      <c r="B241" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C241" s="12">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="D241" s="12">
+        <v>26</v>
+      </c>
+      <c r="E241" s="12">
+        <v>0.41</v>
+      </c>
+      <c r="F241" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G241" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H241" s="12">
+        <v>0</v>
+      </c>
+      <c r="I241" s="12">
+        <v>0</v>
+      </c>
+      <c r="J241" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K241" s="12">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
+      <c r="A242" s="16">
+        <v>247</v>
+      </c>
+      <c r="B242" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C242" s="12">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="D242" s="12">
+        <v>103</v>
+      </c>
+      <c r="E242" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="F242" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G242" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H242" s="12">
+        <v>0</v>
+      </c>
+      <c r="I242" s="12">
+        <v>0</v>
+      </c>
+      <c r="J242" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K242" s="12">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11">
+      <c r="A243" s="16">
+        <v>248</v>
+      </c>
+      <c r="B243" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C243" s="12">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="D243" s="12">
+        <v>81</v>
+      </c>
+      <c r="E243" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="F243" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G243" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H243" s="12">
+        <v>0</v>
+      </c>
+      <c r="I243" s="12">
+        <v>0</v>
+      </c>
+      <c r="J243" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K243" s="12">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11">
+      <c r="A244" s="16">
+        <v>249</v>
+      </c>
+      <c r="B244" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C244" s="12">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="D244" s="12">
+        <v>28</v>
+      </c>
+      <c r="E244" s="12">
+        <v>0.41</v>
+      </c>
+      <c r="F244" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G244" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H244" s="12">
+        <v>0</v>
+      </c>
+      <c r="I244" s="12">
+        <v>0</v>
+      </c>
+      <c r="J244" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K244" s="12">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11">
+      <c r="A245" s="16">
+        <v>250</v>
+      </c>
+      <c r="B245" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C245" s="12">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="D245" s="12">
+        <v>217</v>
+      </c>
+      <c r="E245" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="F245" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G245" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H245" s="12">
+        <v>0</v>
+      </c>
+      <c r="I245" s="12">
+        <v>0</v>
+      </c>
+      <c r="J245" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K245" s="12">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11">
+      <c r="A246" s="16">
+        <v>251</v>
+      </c>
+      <c r="B246" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C246" s="12">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="D246" s="12">
+        <v>247</v>
+      </c>
+      <c r="E246" s="12">
+        <v>0.53</v>
+      </c>
+      <c r="F246" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G246" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H246" s="12">
+        <v>0</v>
+      </c>
+      <c r="I246" s="12">
+        <v>0</v>
+      </c>
+      <c r="J246" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K246" s="12">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11">
+      <c r="A247" s="16">
+        <v>252</v>
+      </c>
+      <c r="B247" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C247" s="12">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="D247" s="12">
+        <v>266</v>
+      </c>
+      <c r="E247" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="F247" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G247" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H247" s="12">
+        <v>0</v>
+      </c>
+      <c r="I247" s="12">
+        <v>0</v>
+      </c>
+      <c r="J247" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K247" s="12">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11">
+      <c r="A248" s="16">
+        <v>253</v>
+      </c>
+      <c r="B248" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C248" s="12">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="D248" s="12">
+        <v>144</v>
+      </c>
+      <c r="E248" s="12">
+        <v>0.41</v>
+      </c>
+      <c r="F248" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G248" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H248" s="12">
+        <v>0</v>
+      </c>
+      <c r="I248" s="12">
+        <v>0</v>
+      </c>
+      <c r="J248" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K248" s="12">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11">
+      <c r="A249" s="16">
+        <v>254</v>
+      </c>
+      <c r="B249" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C249" s="12">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="D249" s="12">
+        <v>220</v>
+      </c>
+      <c r="E249" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="F249" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G249" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H249" s="12">
+        <v>0</v>
+      </c>
+      <c r="I249" s="12">
+        <v>0</v>
+      </c>
+      <c r="J249" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K249" s="12">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11">
+      <c r="A250" s="16">
+        <v>255</v>
+      </c>
+      <c r="B250" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C250" s="12">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="D250" s="12">
+        <v>78</v>
+      </c>
+      <c r="E250" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="F250" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G250" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H250" s="12">
+        <v>0</v>
+      </c>
+      <c r="I250" s="12">
+        <v>0</v>
+      </c>
+      <c r="J250" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K250" s="12">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11">
+      <c r="A251" s="16">
+        <v>256</v>
+      </c>
+      <c r="B251" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C251" s="12">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="D251" s="12">
+        <v>435</v>
+      </c>
+      <c r="E251" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F251" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G251" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H251" s="12">
+        <v>0</v>
+      </c>
+      <c r="I251" s="12">
+        <v>0</v>
+      </c>
+      <c r="J251" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K251" s="12">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11">
+      <c r="A252" s="16">
+        <v>258</v>
+      </c>
+      <c r="B252" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C252" s="12">
+        <f t="shared" si="3"/>
+        <v>-21</v>
+      </c>
+      <c r="D252" s="12">
+        <v>-144</v>
+      </c>
+      <c r="E252" s="12">
+        <v>0.41</v>
+      </c>
+      <c r="F252" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G252" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H252" s="12">
+        <v>0</v>
+      </c>
+      <c r="I252" s="12">
+        <v>0</v>
+      </c>
+      <c r="J252" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K252" s="12">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11">
+      <c r="A253" s="16">
+        <v>259</v>
+      </c>
+      <c r="B253" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C253" s="12">
+        <f t="shared" si="3"/>
+        <v>-21</v>
+      </c>
+      <c r="D253" s="12">
+        <v>-266</v>
+      </c>
+      <c r="E253" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="F253" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G253" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H253" s="12">
+        <v>0</v>
+      </c>
+      <c r="I253" s="12">
+        <v>0</v>
+      </c>
+      <c r="J253" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K253" s="12">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11">
+      <c r="A254" s="16">
+        <v>260</v>
+      </c>
+      <c r="B254" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C254" s="12">
+        <f t="shared" si="3"/>
+        <v>-21</v>
+      </c>
+      <c r="D254" s="12">
+        <v>-78</v>
+      </c>
+      <c r="E254" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="F254" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G254" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H254" s="12">
+        <v>0</v>
+      </c>
+      <c r="I254" s="12">
+        <v>0</v>
+      </c>
+      <c r="J254" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K254" s="12">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11">
+      <c r="A255" s="16">
+        <v>261</v>
+      </c>
+      <c r="B255" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C255" s="12">
+        <f t="shared" si="3"/>
+        <v>-21</v>
+      </c>
+      <c r="D255" s="12">
+        <v>-25</v>
+      </c>
+      <c r="E255" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="F255" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G255" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H255" s="12">
+        <v>0</v>
+      </c>
+      <c r="I255" s="12">
+        <v>0</v>
+      </c>
+      <c r="J255" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K255" s="12">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11">
+      <c r="A256" s="16">
+        <v>262</v>
+      </c>
+      <c r="B256" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C256" s="12">
+        <f t="shared" si="3"/>
+        <v>-21</v>
+      </c>
+      <c r="D256" s="12">
+        <v>-28</v>
+      </c>
+      <c r="E256" s="12">
+        <v>0.41</v>
+      </c>
+      <c r="F256" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G256" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H256" s="12">
+        <v>0</v>
+      </c>
+      <c r="I256" s="12">
+        <v>0</v>
+      </c>
+      <c r="J256" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K256" s="12">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11">
+      <c r="A257" s="16">
+        <v>263</v>
+      </c>
+      <c r="B257" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C257" s="12">
+        <f t="shared" si="3"/>
+        <v>-21</v>
+      </c>
+      <c r="D257" s="12">
+        <v>-26</v>
+      </c>
+      <c r="E257" s="12">
+        <v>0.41</v>
+      </c>
+      <c r="F257" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G257" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H257" s="12">
+        <v>0</v>
+      </c>
+      <c r="I257" s="12">
+        <v>0</v>
+      </c>
+      <c r="J257" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K257" s="12">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11">
+      <c r="A258" s="16">
+        <v>264</v>
+      </c>
+      <c r="B258" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C258" s="12">
+        <f t="shared" si="3"/>
+        <v>-21</v>
+      </c>
+      <c r="D258" s="12">
+        <v>-220</v>
+      </c>
+      <c r="E258" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="F258" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G258" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H258" s="12">
+        <v>0</v>
+      </c>
+      <c r="I258" s="12">
+        <v>0</v>
+      </c>
+      <c r="J258" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K258" s="12">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11">
+      <c r="A259" s="16">
+        <v>265</v>
+      </c>
+      <c r="B259" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C259" s="12">
+        <f t="shared" ref="C259:C265" si="4">$L$2-K259</f>
+        <v>-21</v>
+      </c>
+      <c r="D259" s="12">
+        <v>-247</v>
+      </c>
+      <c r="E259" s="12">
+        <v>0.53</v>
+      </c>
+      <c r="F259" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G259" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H259" s="12">
+        <v>0</v>
+      </c>
+      <c r="I259" s="12">
+        <v>0</v>
+      </c>
+      <c r="J259" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K259" s="12">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11">
+      <c r="A260" s="16">
+        <v>266</v>
+      </c>
+      <c r="B260" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C260" s="12">
+        <f t="shared" si="4"/>
+        <v>-21</v>
+      </c>
+      <c r="D260" s="12">
+        <v>-81</v>
+      </c>
+      <c r="E260" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="F260" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G260" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H260" s="12">
+        <v>0</v>
+      </c>
+      <c r="I260" s="12">
+        <v>0</v>
+      </c>
+      <c r="J260" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K260" s="12">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11">
+      <c r="A261" s="16">
+        <v>267</v>
+      </c>
+      <c r="B261" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C261" s="12">
+        <f t="shared" si="4"/>
+        <v>-21</v>
+      </c>
+      <c r="D261" s="12">
+        <v>-97</v>
+      </c>
+      <c r="E261" s="12">
+        <v>0.38</v>
+      </c>
+      <c r="F261" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G261" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H261" s="12">
+        <v>0</v>
+      </c>
+      <c r="I261" s="12">
+        <v>0</v>
+      </c>
+      <c r="J261" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K261" s="12">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11">
+      <c r="A262" s="16">
+        <v>268</v>
+      </c>
+      <c r="B262" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C262" s="12">
+        <f t="shared" si="4"/>
+        <v>-21</v>
+      </c>
+      <c r="D262" s="12">
+        <v>-25</v>
+      </c>
+      <c r="E262" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="F262" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G262" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H262" s="12">
+        <v>0</v>
+      </c>
+      <c r="I262" s="12">
+        <v>0</v>
+      </c>
+      <c r="J262" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K262" s="12">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11">
+      <c r="A263" s="16">
+        <v>269</v>
+      </c>
+      <c r="B263" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C263" s="12">
+        <f t="shared" si="4"/>
+        <v>-23</v>
+      </c>
+      <c r="D263" s="12">
+        <v>-435</v>
+      </c>
+      <c r="E263" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F263" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G263" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H263" s="12">
+        <v>0</v>
+      </c>
+      <c r="I263" s="12">
+        <v>0</v>
+      </c>
+      <c r="J263" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K263" s="12">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11">
+      <c r="A264" s="16">
+        <v>270</v>
+      </c>
+      <c r="B264" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C264" s="12">
+        <f t="shared" si="4"/>
+        <v>-31</v>
+      </c>
+      <c r="D264" s="12">
+        <v>-217</v>
+      </c>
+      <c r="E264" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="F264" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G264" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H264" s="12">
+        <v>0</v>
+      </c>
+      <c r="I264" s="12">
+        <v>0</v>
+      </c>
+      <c r="J264" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K264" s="12">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11">
+      <c r="A265" s="16">
+        <v>271</v>
+      </c>
+      <c r="B265" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C265" s="12">
+        <f t="shared" si="4"/>
+        <v>-31</v>
+      </c>
+      <c r="D265" s="12">
+        <v>-103</v>
+      </c>
+      <c r="E265" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="F265" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G265" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H265" s="12">
+        <v>0</v>
+      </c>
+      <c r="I265" s="12">
+        <v>0</v>
+      </c>
+      <c r="J265" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K265" s="12">
+        <v>2051</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DF7B89-3137-4483-A2A9-559F907A912A}">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -14562,7 +24195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1842032F-786B-416F-9171-8FFE55F32C1D}">
   <dimension ref="A1:I18"/>
   <sheetViews>
@@ -15100,12 +24733,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A9FF33-AD05-496F-B170-C2A91E3708F6}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -15935,7 +25568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871B8469-CA4D-495B-9C72-1DE61BB7D586}">
   <dimension ref="A1:Z17"/>
   <sheetViews>

--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -8,30 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4566F98D-5F0D-453A-8C5E-BDA1F5879BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45304D3D-FB02-4BFC-8C62-03755EEC774B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
-    <sheet name="extendedDE" sheetId="1" r:id="rId2"/>
-    <sheet name="extendedNLold" sheetId="6" r:id="rId3"/>
-    <sheet name="extendedNL" sheetId="11" r:id="rId4"/>
-    <sheet name="powerplants_grouped" sheetId="3" r:id="rId5"/>
-    <sheet name="groupedDE_RES" sheetId="8" r:id="rId6"/>
-    <sheet name="two_techs_DE" sheetId="10" r:id="rId7"/>
-    <sheet name="germany2019" sheetId="5" r:id="rId8"/>
+    <sheet name="extendedDEmoreoptimal" sheetId="12" r:id="rId2"/>
+    <sheet name="extendedDE" sheetId="1" r:id="rId3"/>
+    <sheet name="extendedNLold" sheetId="6" r:id="rId4"/>
+    <sheet name="extendedNL" sheetId="11" r:id="rId5"/>
+    <sheet name="powerplants_grouped" sheetId="3" r:id="rId6"/>
+    <sheet name="groupedDE_RES" sheetId="8" r:id="rId7"/>
+    <sheet name="two_techs_DE" sheetId="10" r:id="rId8"/>
+    <sheet name="germany2019" sheetId="5" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">extendedDE!$B$1:$J$272</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">two_techs_DE!$B$1:$I$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">extendedDE!$B$1:$J$272</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">extendedDEmoreoptimal!$B$1:$J$193</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">two_techs_DE!$B$1:$I$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="49">
   <si>
     <t>Technology</t>
   </si>
@@ -394,7 +396,7 @@
       <sheetName val="Coupling Parameters"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="B2">
@@ -2660,6 +2662,6090 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF78530-F1D3-4B7A-B937-9D785DB65B2F}">
+  <dimension ref="A1:J193"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35:I35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="12"/>
+    <col min="2" max="2" width="14.81640625" style="12" customWidth="1"/>
+    <col min="3" max="6" width="8.7265625" style="12"/>
+    <col min="7" max="7" width="14.36328125" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="13">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="12">
+        <v>49</v>
+      </c>
+      <c r="D2" s="12">
+        <v>260.2</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.34952344350499609</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="12">
+        <v>40</v>
+      </c>
+      <c r="D3" s="12">
+        <v>129.61000000000001</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12">
+        <v>38</v>
+      </c>
+      <c r="D4" s="12">
+        <v>123.5</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="12">
+        <v>31</v>
+      </c>
+      <c r="D5" s="12">
+        <v>147</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.34061224489795922</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="12">
+        <v>25</v>
+      </c>
+      <c r="D6" s="12">
+        <v>117.9</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.3366157760814249</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12">
+        <v>24</v>
+      </c>
+      <c r="D7" s="12">
+        <v>93.1</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.33000000000000013</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12">
+        <v>23</v>
+      </c>
+      <c r="D8" s="12">
+        <v>95.8</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.33511482254697278</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12">
+        <v>22</v>
+      </c>
+      <c r="D9" s="12">
+        <v>65.8</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.33919452887537987</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="12">
+        <v>20</v>
+      </c>
+      <c r="D10" s="12">
+        <v>81.2</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.37150246305418722</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="12">
+        <v>19</v>
+      </c>
+      <c r="D11" s="12">
+        <v>169.39340000000001</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.38000000000000012</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="12">
+        <v>18</v>
+      </c>
+      <c r="D12" s="12">
+        <v>256</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.37644531250000002</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="12">
+        <v>17</v>
+      </c>
+      <c r="D13" s="12">
+        <v>556</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="13">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="12">
+        <v>16</v>
+      </c>
+      <c r="D14" s="12">
+        <v>279.99999999999983</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="13">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="12">
+        <v>15</v>
+      </c>
+      <c r="D15" s="12">
+        <v>780.00000000000023</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="13">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="12">
+        <v>14</v>
+      </c>
+      <c r="D16" s="12">
+        <v>706.99999999999989</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="13">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="12">
+        <v>13</v>
+      </c>
+      <c r="D17" s="12">
+        <v>354.00000000000011</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="13">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="12">
+        <v>12</v>
+      </c>
+      <c r="D18" s="12">
+        <v>347.0000000000004</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="13">
+        <v>17</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="12">
+        <v>11</v>
+      </c>
+      <c r="D19" s="12">
+        <v>1228.9999999999991</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="13">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="12">
+        <v>10</v>
+      </c>
+      <c r="D20" s="12">
+        <v>551.00000000000011</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="13">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="12">
+        <v>9</v>
+      </c>
+      <c r="D21" s="12">
+        <v>7.0000000000005613</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="13">
+        <v>20</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="12">
+        <v>8</v>
+      </c>
+      <c r="D22" s="12">
+        <v>200.99999999999963</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="13">
+        <v>21</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="12">
+        <v>7</v>
+      </c>
+      <c r="D23" s="12">
+        <v>682.00000000000034</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="13">
+        <v>22</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="12">
+        <v>6</v>
+      </c>
+      <c r="D24" s="12">
+        <v>258.99999999999943</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0</v>
+      </c>
+      <c r="J24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="13">
+        <v>23</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="12">
+        <v>5</v>
+      </c>
+      <c r="D25" s="12">
+        <v>253.00000000000011</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="13">
+        <v>24</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="12">
+        <v>4</v>
+      </c>
+      <c r="D26" s="12">
+        <v>174.00000000000037</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
+      <c r="I26" s="12">
+        <v>0</v>
+      </c>
+      <c r="J26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="13">
+        <v>25</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="12">
+        <v>3</v>
+      </c>
+      <c r="D27" s="12">
+        <v>316.99999999999926</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="13">
+        <v>26</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="12">
+        <v>2</v>
+      </c>
+      <c r="D28" s="12">
+        <v>438.00000000000063</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="12">
+        <v>0</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0</v>
+      </c>
+      <c r="J28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="13">
+        <v>27</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="12">
+        <v>1</v>
+      </c>
+      <c r="D29" s="12">
+        <v>334.99999999999909</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="12">
+        <v>0</v>
+      </c>
+      <c r="I29" s="12">
+        <v>0</v>
+      </c>
+      <c r="J29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="13">
+        <v>28</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="12">
+        <v>0</v>
+      </c>
+      <c r="D30" s="12">
+        <v>688.00000000000057</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="12">
+        <v>0</v>
+      </c>
+      <c r="I30" s="12">
+        <v>0</v>
+      </c>
+      <c r="J30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="13">
+        <v>29</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="12">
+        <v>41</v>
+      </c>
+      <c r="D31" s="12">
+        <v>125</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="12">
+        <v>0</v>
+      </c>
+      <c r="I31" s="12">
+        <v>0</v>
+      </c>
+      <c r="J31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="13">
+        <v>30</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="12">
+        <v>28</v>
+      </c>
+      <c r="D32" s="12">
+        <v>413.51</v>
+      </c>
+      <c r="E32" s="12">
+        <v>0.51260921138545623</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="12">
+        <v>0</v>
+      </c>
+      <c r="I32" s="12">
+        <v>0</v>
+      </c>
+      <c r="J32" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="13">
+        <v>31</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="12">
+        <v>27</v>
+      </c>
+      <c r="D33" s="12">
+        <v>360</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0.47999999999999993</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="12">
+        <v>0</v>
+      </c>
+      <c r="I33" s="12">
+        <v>0</v>
+      </c>
+      <c r="J33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="13">
+        <v>32</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="12">
+        <v>26</v>
+      </c>
+      <c r="D34" s="12">
+        <v>734</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0</v>
+      </c>
+      <c r="I34" s="12">
+        <v>0</v>
+      </c>
+      <c r="J34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="13">
+        <v>33</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="12">
+        <v>25</v>
+      </c>
+      <c r="D35" s="12">
+        <v>533</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0.52649999999999997</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="12">
+        <v>0</v>
+      </c>
+      <c r="I35" s="12">
+        <v>0</v>
+      </c>
+      <c r="J35" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="13">
+        <v>34</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="12">
+        <v>24</v>
+      </c>
+      <c r="D36" s="12">
+        <v>430.6</v>
+      </c>
+      <c r="E36" s="12">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="12">
+        <v>0</v>
+      </c>
+      <c r="I36" s="12">
+        <v>0</v>
+      </c>
+      <c r="J36" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="13">
+        <v>35</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="12">
+        <v>23</v>
+      </c>
+      <c r="D37" s="12">
+        <v>188.6</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0.53549999999999998</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="12">
+        <v>0</v>
+      </c>
+      <c r="I37" s="12">
+        <v>0</v>
+      </c>
+      <c r="J37" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="13">
+        <v>36</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="12">
+        <v>22</v>
+      </c>
+      <c r="D38" s="12">
+        <v>1239.2</v>
+      </c>
+      <c r="E38" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="12">
+        <v>0</v>
+      </c>
+      <c r="I38" s="12">
+        <v>0</v>
+      </c>
+      <c r="J38" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="13">
+        <v>37</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="12">
+        <v>21</v>
+      </c>
+      <c r="D39" s="12">
+        <v>135.80000000000001</v>
+      </c>
+      <c r="E39" s="12">
+        <v>0.54449999999999998</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="12">
+        <v>0</v>
+      </c>
+      <c r="I39" s="12">
+        <v>0</v>
+      </c>
+      <c r="J39" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="13">
+        <v>38</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="12">
+        <v>19</v>
+      </c>
+      <c r="D40" s="12">
+        <v>165.46</v>
+      </c>
+      <c r="E40" s="12">
+        <v>0.55309748579717155</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="12">
+        <v>0</v>
+      </c>
+      <c r="I40" s="12">
+        <v>0</v>
+      </c>
+      <c r="J40" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="13">
+        <v>39</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="12">
+        <v>18</v>
+      </c>
+      <c r="D41" s="12">
+        <v>484.4</v>
+      </c>
+      <c r="E41" s="12">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="12">
+        <v>0</v>
+      </c>
+      <c r="I41" s="12">
+        <v>0</v>
+      </c>
+      <c r="J41" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="13">
+        <v>40</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="12">
+        <v>17</v>
+      </c>
+      <c r="D42" s="12">
+        <v>1207.759</v>
+      </c>
+      <c r="E42" s="12">
+        <v>0.5625</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="12">
+        <v>0</v>
+      </c>
+      <c r="I42" s="12">
+        <v>0</v>
+      </c>
+      <c r="J42" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="13">
+        <v>41</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="12">
+        <v>15</v>
+      </c>
+      <c r="D43" s="12">
+        <v>1217</v>
+      </c>
+      <c r="E43" s="12">
+        <v>0.57150000000000001</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="12">
+        <v>0</v>
+      </c>
+      <c r="I43" s="12">
+        <v>0</v>
+      </c>
+      <c r="J43" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="13">
+        <v>42</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="12">
+        <v>14</v>
+      </c>
+      <c r="D44" s="12">
+        <v>1230</v>
+      </c>
+      <c r="E44" s="12">
+        <v>0.57600000000000007</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="12">
+        <v>0</v>
+      </c>
+      <c r="I44" s="12">
+        <v>0</v>
+      </c>
+      <c r="J44" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="13">
+        <v>43</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="12">
+        <v>13</v>
+      </c>
+      <c r="D45" s="12">
+        <v>196</v>
+      </c>
+      <c r="E45" s="12">
+        <v>0.58050000000000002</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" s="12">
+        <v>0</v>
+      </c>
+      <c r="I45" s="12">
+        <v>0</v>
+      </c>
+      <c r="J45" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="13">
+        <v>44</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="12">
+        <v>12</v>
+      </c>
+      <c r="D46" s="12">
+        <v>2092.5</v>
+      </c>
+      <c r="E46" s="12">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" s="12">
+        <v>0</v>
+      </c>
+      <c r="I46" s="12">
+        <v>0</v>
+      </c>
+      <c r="J46" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="13">
+        <v>45</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="12">
+        <v>11</v>
+      </c>
+      <c r="D47" s="12">
+        <v>639</v>
+      </c>
+      <c r="E47" s="12">
+        <v>0.58950000000000002</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" s="12">
+        <v>0</v>
+      </c>
+      <c r="I47" s="12">
+        <v>0</v>
+      </c>
+      <c r="J47" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="13">
+        <v>46</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="12">
+        <v>9</v>
+      </c>
+      <c r="D48" s="12">
+        <v>790.5</v>
+      </c>
+      <c r="E48" s="12">
+        <v>0.59850000000000014</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" s="12">
+        <v>0</v>
+      </c>
+      <c r="I48" s="12">
+        <v>0</v>
+      </c>
+      <c r="J48" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="13">
+        <v>47</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="12">
+        <v>7</v>
+      </c>
+      <c r="D49" s="12">
+        <v>296.3</v>
+      </c>
+      <c r="E49" s="12">
+        <v>0.60690313871076618</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" s="12">
+        <v>0</v>
+      </c>
+      <c r="I49" s="12">
+        <v>0</v>
+      </c>
+      <c r="J49" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="13">
+        <v>48</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="12">
+        <v>6</v>
+      </c>
+      <c r="D50" s="12">
+        <v>1117.5</v>
+      </c>
+      <c r="E50" s="12">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" s="12">
+        <v>0</v>
+      </c>
+      <c r="I50" s="12">
+        <v>0</v>
+      </c>
+      <c r="J50" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="13">
+        <v>49</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="12">
+        <v>2</v>
+      </c>
+      <c r="D51" s="12">
+        <v>140.5</v>
+      </c>
+      <c r="E51" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" s="12">
+        <v>0</v>
+      </c>
+      <c r="I51" s="12">
+        <v>0</v>
+      </c>
+      <c r="J51" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="13">
+        <v>50</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="12">
+        <v>100</v>
+      </c>
+      <c r="D52" s="12">
+        <v>183.55</v>
+      </c>
+      <c r="E52" s="12">
+        <v>0.82179242713157175</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52" s="12">
+        <v>0</v>
+      </c>
+      <c r="I52" s="12">
+        <v>0</v>
+      </c>
+      <c r="J52" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="13">
+        <v>51</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="12">
+        <v>98</v>
+      </c>
+      <c r="D53" s="12">
+        <v>164</v>
+      </c>
+      <c r="E53" s="12">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" s="12">
+        <v>0</v>
+      </c>
+      <c r="I53" s="12">
+        <v>0</v>
+      </c>
+      <c r="J53" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="13">
+        <v>52</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="12">
+        <v>95</v>
+      </c>
+      <c r="D54" s="12">
+        <v>130</v>
+      </c>
+      <c r="E54" s="12">
+        <v>0.78346153846153854</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" s="12">
+        <v>0</v>
+      </c>
+      <c r="I54" s="12">
+        <v>0</v>
+      </c>
+      <c r="J54" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="13">
+        <v>53</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="12">
+        <v>90</v>
+      </c>
+      <c r="D55" s="12">
+        <v>104.8</v>
+      </c>
+      <c r="E55" s="12">
+        <v>0.76192748091603046</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H55" s="12">
+        <v>0</v>
+      </c>
+      <c r="I55" s="12">
+        <v>0</v>
+      </c>
+      <c r="J55" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="13">
+        <v>54</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="12">
+        <v>84</v>
+      </c>
+      <c r="D56" s="12">
+        <v>88.1</v>
+      </c>
+      <c r="E56" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H56" s="12">
+        <v>0</v>
+      </c>
+      <c r="I56" s="12">
+        <v>0</v>
+      </c>
+      <c r="J56" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="13">
+        <v>55</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="12">
+        <v>80</v>
+      </c>
+      <c r="D57" s="12">
+        <v>91.5</v>
+      </c>
+      <c r="E57" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H57" s="12">
+        <v>0</v>
+      </c>
+      <c r="I57" s="12">
+        <v>0</v>
+      </c>
+      <c r="J57" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="13">
+        <v>56</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="12">
+        <v>79</v>
+      </c>
+      <c r="D58" s="12">
+        <v>220</v>
+      </c>
+      <c r="E58" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H58" s="12">
+        <v>0</v>
+      </c>
+      <c r="I58" s="12">
+        <v>0</v>
+      </c>
+      <c r="J58" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="13">
+        <v>57</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="12">
+        <v>78</v>
+      </c>
+      <c r="D59" s="12">
+        <v>84</v>
+      </c>
+      <c r="E59" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" s="12">
+        <v>0</v>
+      </c>
+      <c r="I59" s="12">
+        <v>0</v>
+      </c>
+      <c r="J59" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="13">
+        <v>58</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="12">
+        <v>74</v>
+      </c>
+      <c r="D60" s="12">
+        <v>100</v>
+      </c>
+      <c r="E60" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H60" s="12">
+        <v>0</v>
+      </c>
+      <c r="I60" s="12">
+        <v>0</v>
+      </c>
+      <c r="J60" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="13">
+        <v>59</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="12">
+        <v>71</v>
+      </c>
+      <c r="D61" s="12">
+        <v>244.1</v>
+      </c>
+      <c r="E61" s="12">
+        <v>0.76927488734125371</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H61" s="12">
+        <v>0</v>
+      </c>
+      <c r="I61" s="12">
+        <v>0</v>
+      </c>
+      <c r="J61" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="13">
+        <v>60</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="12">
+        <v>69</v>
+      </c>
+      <c r="D62" s="12">
+        <v>111.5</v>
+      </c>
+      <c r="E62" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H62" s="12">
+        <v>0</v>
+      </c>
+      <c r="I62" s="12">
+        <v>0</v>
+      </c>
+      <c r="J62" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="13">
+        <v>61</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="12">
+        <v>68</v>
+      </c>
+      <c r="D63" s="12">
+        <v>57.4</v>
+      </c>
+      <c r="E63" s="12">
+        <v>0.95853658536585373</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H63" s="12">
+        <v>0</v>
+      </c>
+      <c r="I63" s="12">
+        <v>0</v>
+      </c>
+      <c r="J63" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="13">
+        <v>62</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="12">
+        <v>67</v>
+      </c>
+      <c r="D64" s="12">
+        <v>339.2</v>
+      </c>
+      <c r="E64" s="12">
+        <v>0.78540683962264157</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H64" s="12">
+        <v>0</v>
+      </c>
+      <c r="I64" s="12">
+        <v>0</v>
+      </c>
+      <c r="J64" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="13">
+        <v>63</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="12">
+        <v>64</v>
+      </c>
+      <c r="D65" s="12">
+        <v>376.7</v>
+      </c>
+      <c r="E65" s="12">
+        <v>0.75395540217679824</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H65" s="12">
+        <v>0</v>
+      </c>
+      <c r="I65" s="12">
+        <v>0</v>
+      </c>
+      <c r="J65" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="13">
+        <v>64</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="12">
+        <v>63</v>
+      </c>
+      <c r="D66" s="12">
+        <v>70.3</v>
+      </c>
+      <c r="E66" s="12">
+        <v>0.75746799431009948</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H66" s="12">
+        <v>0</v>
+      </c>
+      <c r="I66" s="12">
+        <v>0</v>
+      </c>
+      <c r="J66" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="13">
+        <v>65</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="12">
+        <v>62</v>
+      </c>
+      <c r="D67" s="12">
+        <v>95.7</v>
+      </c>
+      <c r="E67" s="12">
+        <v>0.77701149425287364</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H67" s="12">
+        <v>0</v>
+      </c>
+      <c r="I67" s="12">
+        <v>0</v>
+      </c>
+      <c r="J67" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="13">
+        <v>66</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="12">
+        <v>60</v>
+      </c>
+      <c r="D68" s="12">
+        <v>62.8</v>
+      </c>
+      <c r="E68" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H68" s="12">
+        <v>0</v>
+      </c>
+      <c r="I68" s="12">
+        <v>0</v>
+      </c>
+      <c r="J68" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="13">
+        <v>67</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="12">
+        <v>58</v>
+      </c>
+      <c r="D69" s="12">
+        <v>340</v>
+      </c>
+      <c r="E69" s="12">
+        <v>0.75441176470588234</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H69" s="12">
+        <v>0</v>
+      </c>
+      <c r="I69" s="12">
+        <v>0</v>
+      </c>
+      <c r="J69" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="13">
+        <v>68</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="12">
+        <v>57</v>
+      </c>
+      <c r="D70" s="12">
+        <v>465.7</v>
+      </c>
+      <c r="E70" s="12">
+        <v>0.772321236847756</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70" s="12">
+        <v>0</v>
+      </c>
+      <c r="I70" s="12">
+        <v>0</v>
+      </c>
+      <c r="J70" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="13">
+        <v>69</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="12">
+        <v>56</v>
+      </c>
+      <c r="D71" s="12">
+        <v>441.7</v>
+      </c>
+      <c r="E71" s="12">
+        <v>0.75924835861444406</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H71" s="12">
+        <v>0</v>
+      </c>
+      <c r="I71" s="12">
+        <v>0</v>
+      </c>
+      <c r="J71" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="13">
+        <v>70</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="12">
+        <v>55</v>
+      </c>
+      <c r="D72" s="12">
+        <v>108.9</v>
+      </c>
+      <c r="E72" s="12">
+        <v>0.76340679522497701</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H72" s="12">
+        <v>0</v>
+      </c>
+      <c r="I72" s="12">
+        <v>0</v>
+      </c>
+      <c r="J72" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="13">
+        <v>71</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="12">
+        <v>52</v>
+      </c>
+      <c r="D73" s="12">
+        <v>121.1</v>
+      </c>
+      <c r="E73" s="12">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H73" s="12">
+        <v>0</v>
+      </c>
+      <c r="I73" s="12">
+        <v>0</v>
+      </c>
+      <c r="J73" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="13">
+        <v>72</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="12">
+        <v>48</v>
+      </c>
+      <c r="D74" s="12">
+        <v>164</v>
+      </c>
+      <c r="E74" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H74" s="12">
+        <v>0</v>
+      </c>
+      <c r="I74" s="12">
+        <v>0</v>
+      </c>
+      <c r="J74" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="13">
+        <v>73</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="12">
+        <v>47</v>
+      </c>
+      <c r="D75" s="12">
+        <v>926.7</v>
+      </c>
+      <c r="E75" s="12">
+        <v>0.75090104672493796</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H75" s="12">
+        <v>0</v>
+      </c>
+      <c r="I75" s="12">
+        <v>0</v>
+      </c>
+      <c r="J75" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="13">
+        <v>74</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="12">
+        <v>44</v>
+      </c>
+      <c r="D76" s="12">
+        <v>179.4</v>
+      </c>
+      <c r="E76" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H76" s="12">
+        <v>0</v>
+      </c>
+      <c r="I76" s="12">
+        <v>0</v>
+      </c>
+      <c r="J76" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="13">
+        <v>75</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="12">
+        <v>43</v>
+      </c>
+      <c r="D77" s="12">
+        <v>1057.4000000000001</v>
+      </c>
+      <c r="E77" s="12">
+        <v>0.75057688670323441</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H77" s="12">
+        <v>0</v>
+      </c>
+      <c r="I77" s="12">
+        <v>0</v>
+      </c>
+      <c r="J77" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="13">
+        <v>76</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="12">
+        <v>40</v>
+      </c>
+      <c r="D78" s="12">
+        <v>70</v>
+      </c>
+      <c r="E78" s="12">
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H78" s="12">
+        <v>0</v>
+      </c>
+      <c r="I78" s="12">
+        <v>0</v>
+      </c>
+      <c r="J78" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="13">
+        <v>77</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="12">
+        <v>39</v>
+      </c>
+      <c r="D79" s="12">
+        <v>60.3</v>
+      </c>
+      <c r="E79" s="12">
+        <v>0.76019900497512449</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H79" s="12">
+        <v>0</v>
+      </c>
+      <c r="I79" s="12">
+        <v>0</v>
+      </c>
+      <c r="J79" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="13">
+        <v>78</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="12">
+        <v>38</v>
+      </c>
+      <c r="D80" s="12">
+        <v>91.800000000000011</v>
+      </c>
+      <c r="E80" s="12">
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H80" s="12">
+        <v>0</v>
+      </c>
+      <c r="I80" s="12">
+        <v>0</v>
+      </c>
+      <c r="J80" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="13">
+        <v>79</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="12">
+        <v>33</v>
+      </c>
+      <c r="D81" s="12">
+        <v>177.6</v>
+      </c>
+      <c r="E81" s="12">
+        <v>0.75354729729729741</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H81" s="12">
+        <v>0</v>
+      </c>
+      <c r="I81" s="12">
+        <v>0</v>
+      </c>
+      <c r="J81" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="13">
+        <v>80</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="12">
+        <v>30</v>
+      </c>
+      <c r="D82" s="12">
+        <v>117.4</v>
+      </c>
+      <c r="E82" s="12">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H82" s="12">
+        <v>0</v>
+      </c>
+      <c r="I82" s="12">
+        <v>0</v>
+      </c>
+      <c r="J82" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="13">
+        <v>81</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="12">
+        <v>19</v>
+      </c>
+      <c r="D83" s="12">
+        <v>138</v>
+      </c>
+      <c r="E83" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H83" s="12">
+        <v>0</v>
+      </c>
+      <c r="I83" s="12">
+        <v>0</v>
+      </c>
+      <c r="J83" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="13">
+        <v>82</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="12">
+        <v>18</v>
+      </c>
+      <c r="D84" s="12">
+        <v>1052</v>
+      </c>
+      <c r="E84" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H84" s="12">
+        <v>0</v>
+      </c>
+      <c r="I84" s="12">
+        <v>0</v>
+      </c>
+      <c r="J84" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="13">
+        <v>83</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="12">
+        <v>13</v>
+      </c>
+      <c r="D85" s="12">
+        <v>681.6</v>
+      </c>
+      <c r="E85" s="12">
+        <v>0.7541519953051643</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H85" s="12">
+        <v>0</v>
+      </c>
+      <c r="I85" s="12">
+        <v>0</v>
+      </c>
+      <c r="J85" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="13">
+        <v>84</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="12">
+        <v>2</v>
+      </c>
+      <c r="D86" s="12">
+        <v>103.5</v>
+      </c>
+      <c r="E86" s="12">
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H86" s="12">
+        <v>0</v>
+      </c>
+      <c r="I86" s="12">
+        <v>0</v>
+      </c>
+      <c r="J86" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="13">
+        <v>85</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="12">
+        <v>38</v>
+      </c>
+      <c r="D87" s="12">
+        <v>1288</v>
+      </c>
+      <c r="E87" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H87" s="12">
+        <v>0</v>
+      </c>
+      <c r="I87" s="12">
+        <v>0</v>
+      </c>
+      <c r="J87" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="13">
+        <v>86</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="12">
+        <v>37</v>
+      </c>
+      <c r="D88" s="12">
+        <v>1360</v>
+      </c>
+      <c r="E88" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H88" s="12">
+        <v>0</v>
+      </c>
+      <c r="I88" s="12">
+        <v>0</v>
+      </c>
+      <c r="J88" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="13">
+        <v>87</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="12">
+        <v>36</v>
+      </c>
+      <c r="D89" s="12">
+        <v>1410</v>
+      </c>
+      <c r="E89" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H89" s="12">
+        <v>0</v>
+      </c>
+      <c r="I89" s="12">
+        <v>0</v>
+      </c>
+      <c r="J89" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="13">
+        <v>88</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="12">
+        <v>34</v>
+      </c>
+      <c r="D90" s="12">
+        <v>2746</v>
+      </c>
+      <c r="E90" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H90" s="12">
+        <v>0</v>
+      </c>
+      <c r="I90" s="12">
+        <v>0</v>
+      </c>
+      <c r="J90" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="13">
+        <v>89</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="12">
+        <v>33</v>
+      </c>
+      <c r="D91" s="12">
+        <v>1310</v>
+      </c>
+      <c r="E91" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H91" s="12">
+        <v>0</v>
+      </c>
+      <c r="I91" s="12">
+        <v>0</v>
+      </c>
+      <c r="J91" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="13">
+        <v>90</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="12">
+        <v>74</v>
+      </c>
+      <c r="D92" s="12">
+        <v>135.5</v>
+      </c>
+      <c r="E92" s="12">
+        <v>0.32421992619926199</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H92" s="12">
+        <v>0</v>
+      </c>
+      <c r="I92" s="12">
+        <v>0</v>
+      </c>
+      <c r="J92" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="13">
+        <v>91</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="12">
+        <v>68</v>
+      </c>
+      <c r="D93" s="12">
+        <v>94.6</v>
+      </c>
+      <c r="E93" s="12">
+        <v>0.33404418604651159</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H93" s="12">
+        <v>0</v>
+      </c>
+      <c r="I93" s="12">
+        <v>0</v>
+      </c>
+      <c r="J93" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="13">
+        <v>92</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="12">
+        <v>61</v>
+      </c>
+      <c r="D94" s="12">
+        <v>149</v>
+      </c>
+      <c r="E94" s="12">
+        <v>0.33307986577181209</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H94" s="12">
+        <v>0</v>
+      </c>
+      <c r="I94" s="12">
+        <v>0</v>
+      </c>
+      <c r="J94" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="13">
+        <v>93</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="12">
+        <v>51</v>
+      </c>
+      <c r="D95" s="12">
+        <v>173.28649999999999</v>
+      </c>
+      <c r="E95" s="12">
+        <v>0.33726830520554107</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H95" s="12">
+        <v>0</v>
+      </c>
+      <c r="I95" s="12">
+        <v>0</v>
+      </c>
+      <c r="J95" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="13">
+        <v>94</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="12">
+        <v>49</v>
+      </c>
+      <c r="D96" s="12">
+        <v>183</v>
+      </c>
+      <c r="E96" s="12">
+        <v>0.32711420765027333</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H96" s="12">
+        <v>0</v>
+      </c>
+      <c r="I96" s="12">
+        <v>0</v>
+      </c>
+      <c r="J96" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="13">
+        <v>95</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="12">
+        <v>48</v>
+      </c>
+      <c r="D97" s="12">
+        <v>77.7</v>
+      </c>
+      <c r="E97" s="12">
+        <v>0.31862908622908631</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H97" s="12">
+        <v>0</v>
+      </c>
+      <c r="I97" s="12">
+        <v>0</v>
+      </c>
+      <c r="J97" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="13">
+        <v>96</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="12">
+        <v>47</v>
+      </c>
+      <c r="D98" s="12">
+        <v>289.7</v>
+      </c>
+      <c r="E98" s="12">
+        <v>0.33612530203658958</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H98" s="12">
+        <v>0</v>
+      </c>
+      <c r="I98" s="12">
+        <v>0</v>
+      </c>
+      <c r="J98" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="13">
+        <v>97</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="12">
+        <v>45</v>
+      </c>
+      <c r="D99" s="12">
+        <v>619.4</v>
+      </c>
+      <c r="E99" s="12">
+        <v>0.35966377139166938</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H99" s="12">
+        <v>0</v>
+      </c>
+      <c r="I99" s="12">
+        <v>0</v>
+      </c>
+      <c r="J99" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="13">
+        <v>98</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="12">
+        <v>43</v>
+      </c>
+      <c r="D100" s="12">
+        <v>100.78</v>
+      </c>
+      <c r="E100" s="12">
+        <v>0.36255598333002581</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H100" s="12">
+        <v>0</v>
+      </c>
+      <c r="I100" s="12">
+        <v>0</v>
+      </c>
+      <c r="J100" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="13">
+        <v>99</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="12">
+        <v>38</v>
+      </c>
+      <c r="D101" s="12">
+        <v>156.5</v>
+      </c>
+      <c r="E101" s="12">
+        <v>0.34654057507987218</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H101" s="12">
+        <v>0</v>
+      </c>
+      <c r="I101" s="12">
+        <v>0</v>
+      </c>
+      <c r="J101" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="13">
+        <v>100</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="12">
+        <v>35</v>
+      </c>
+      <c r="D102" s="12">
+        <v>146</v>
+      </c>
+      <c r="E102" s="12">
+        <v>0.34620000000000001</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G102" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H102" s="12">
+        <v>0</v>
+      </c>
+      <c r="I102" s="12">
+        <v>0</v>
+      </c>
+      <c r="J102" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="13">
+        <v>101</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="12">
+        <v>34</v>
+      </c>
+      <c r="D103" s="12">
+        <v>60.491</v>
+      </c>
+      <c r="E103" s="12">
+        <v>0.37180000000000007</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H103" s="12">
+        <v>0</v>
+      </c>
+      <c r="I103" s="12">
+        <v>0</v>
+      </c>
+      <c r="J103" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="13">
+        <v>102</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="12">
+        <v>33</v>
+      </c>
+      <c r="D104" s="12">
+        <v>120.4</v>
+      </c>
+      <c r="E104" s="12">
+        <v>0.36632416943521601</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H104" s="12">
+        <v>0</v>
+      </c>
+      <c r="I104" s="12">
+        <v>0</v>
+      </c>
+      <c r="J104" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="13">
+        <v>103</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="12">
+        <v>30</v>
+      </c>
+      <c r="D105" s="12">
+        <v>97.079000000000008</v>
+      </c>
+      <c r="E105" s="12">
+        <v>0.36577992974793722</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H105" s="12">
+        <v>0</v>
+      </c>
+      <c r="I105" s="12">
+        <v>0</v>
+      </c>
+      <c r="J105" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="13">
+        <v>104</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="12">
+        <v>29</v>
+      </c>
+      <c r="D106" s="12">
+        <v>163</v>
+      </c>
+      <c r="E106" s="12">
+        <v>0.37650122699386512</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H106" s="12">
+        <v>0</v>
+      </c>
+      <c r="I106" s="12">
+        <v>0</v>
+      </c>
+      <c r="J106" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="13">
+        <v>105</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" s="12">
+        <v>28</v>
+      </c>
+      <c r="D107" s="12">
+        <v>261.10000000000002</v>
+      </c>
+      <c r="E107" s="12">
+        <v>0.37812654155495989</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G107" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H107" s="12">
+        <v>0</v>
+      </c>
+      <c r="I107" s="12">
+        <v>0</v>
+      </c>
+      <c r="J107" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="13">
+        <v>106</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="12">
+        <v>27</v>
+      </c>
+      <c r="D108" s="12">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="E108" s="12">
+        <v>0.37852820121951231</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H108" s="12">
+        <v>0</v>
+      </c>
+      <c r="I108" s="12">
+        <v>0</v>
+      </c>
+      <c r="J108" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="13">
+        <v>107</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="12">
+        <v>26</v>
+      </c>
+      <c r="D109" s="12">
+        <v>352.5</v>
+      </c>
+      <c r="E109" s="12">
+        <v>0.37810042553191492</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H109" s="12">
+        <v>0</v>
+      </c>
+      <c r="I109" s="12">
+        <v>0</v>
+      </c>
+      <c r="J109" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="13">
+        <v>108</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="12">
+        <v>25</v>
+      </c>
+      <c r="D110" s="12">
+        <v>159.72</v>
+      </c>
+      <c r="E110" s="12">
+        <v>0.37783385925369389</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H110" s="12">
+        <v>0</v>
+      </c>
+      <c r="I110" s="12">
+        <v>0</v>
+      </c>
+      <c r="J110" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="13">
+        <v>109</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="12">
+        <v>24</v>
+      </c>
+      <c r="D111" s="12">
+        <v>53.099999999999987</v>
+      </c>
+      <c r="E111" s="12">
+        <v>0.38279999999999997</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H111" s="12">
+        <v>0</v>
+      </c>
+      <c r="I111" s="12">
+        <v>0</v>
+      </c>
+      <c r="J111" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="13">
+        <v>110</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="12">
+        <v>23</v>
+      </c>
+      <c r="D112" s="12">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="E112" s="12">
+        <v>0.39393856749311301</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H112" s="12">
+        <v>0</v>
+      </c>
+      <c r="I112" s="12">
+        <v>0</v>
+      </c>
+      <c r="J112" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="13">
+        <v>111</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="12">
+        <v>21</v>
+      </c>
+      <c r="D113" s="12">
+        <v>115.8</v>
+      </c>
+      <c r="E113" s="12">
+        <v>0.38573238341968907</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H113" s="12">
+        <v>0</v>
+      </c>
+      <c r="I113" s="12">
+        <v>0</v>
+      </c>
+      <c r="J113" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="13">
+        <v>112</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" s="12">
+        <v>20</v>
+      </c>
+      <c r="D114" s="12">
+        <v>124.5</v>
+      </c>
+      <c r="E114" s="12">
+        <v>0.38719999999999988</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H114" s="12">
+        <v>0</v>
+      </c>
+      <c r="I114" s="12">
+        <v>0</v>
+      </c>
+      <c r="J114" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="13">
+        <v>113</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" s="12">
+        <v>19</v>
+      </c>
+      <c r="D115" s="12">
+        <v>110.55</v>
+      </c>
+      <c r="E115" s="12">
+        <v>0.38829999999999998</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H115" s="12">
+        <v>0</v>
+      </c>
+      <c r="I115" s="12">
+        <v>0</v>
+      </c>
+      <c r="J115" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="13">
+        <v>114</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" s="12">
+        <v>18</v>
+      </c>
+      <c r="D116" s="12">
+        <v>126.7</v>
+      </c>
+      <c r="E116" s="12">
+        <v>0.38964230465666932</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H116" s="12">
+        <v>0</v>
+      </c>
+      <c r="I116" s="12">
+        <v>0</v>
+      </c>
+      <c r="J116" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="13">
+        <v>115</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="12">
+        <v>17</v>
+      </c>
+      <c r="D117" s="12">
+        <v>163.9</v>
+      </c>
+      <c r="E117" s="12">
+        <v>0.39117876754118369</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H117" s="12">
+        <v>0</v>
+      </c>
+      <c r="I117" s="12">
+        <v>0</v>
+      </c>
+      <c r="J117" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="13">
+        <v>116</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="12">
+        <v>16</v>
+      </c>
+      <c r="D118" s="12">
+        <v>746.01499999999999</v>
+      </c>
+      <c r="E118" s="12">
+        <v>0.39546587401057631</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H118" s="12">
+        <v>0</v>
+      </c>
+      <c r="I118" s="12">
+        <v>0</v>
+      </c>
+      <c r="J118" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="13">
+        <v>117</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" s="12">
+        <v>15</v>
+      </c>
+      <c r="D119" s="12">
+        <v>158</v>
+      </c>
+      <c r="E119" s="12">
+        <v>0.39478481012658229</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H119" s="12">
+        <v>0</v>
+      </c>
+      <c r="I119" s="12">
+        <v>0</v>
+      </c>
+      <c r="J119" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="13">
+        <v>118</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="12">
+        <v>10</v>
+      </c>
+      <c r="D120" s="12">
+        <v>275.77999999999997</v>
+      </c>
+      <c r="E120" s="12">
+        <v>0.40463723257669171</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H120" s="12">
+        <v>0</v>
+      </c>
+      <c r="I120" s="12">
+        <v>0</v>
+      </c>
+      <c r="J120" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="13">
+        <v>119</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="12">
+        <v>9</v>
+      </c>
+      <c r="D121" s="12">
+        <v>454.24</v>
+      </c>
+      <c r="E121" s="12">
+        <v>0.40355321415991552</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H121" s="12">
+        <v>0</v>
+      </c>
+      <c r="I121" s="12">
+        <v>0</v>
+      </c>
+      <c r="J121" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="13">
+        <v>120</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="12">
+        <v>8</v>
+      </c>
+      <c r="D122" s="12">
+        <v>141.6</v>
+      </c>
+      <c r="E122" s="12">
+        <v>0.40260338983050842</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H122" s="12">
+        <v>0</v>
+      </c>
+      <c r="I122" s="12">
+        <v>0</v>
+      </c>
+      <c r="J122" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="13">
+        <v>121</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="12">
+        <v>6</v>
+      </c>
+      <c r="D123" s="12">
+        <v>574.30999999999995</v>
+      </c>
+      <c r="E123" s="12">
+        <v>0.40260000000000012</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H123" s="12">
+        <v>0</v>
+      </c>
+      <c r="I123" s="12">
+        <v>0</v>
+      </c>
+      <c r="J123" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="13">
+        <v>122</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="12">
+        <v>5</v>
+      </c>
+      <c r="D124" s="12">
+        <v>220.2</v>
+      </c>
+      <c r="E124" s="12">
+        <v>0.4037</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H124" s="12">
+        <v>0</v>
+      </c>
+      <c r="I124" s="12">
+        <v>0</v>
+      </c>
+      <c r="J124" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="13">
+        <v>123</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="12">
+        <v>4</v>
+      </c>
+      <c r="D125" s="12">
+        <v>167.45099999999999</v>
+      </c>
+      <c r="E125" s="12">
+        <v>0.40479999999999988</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H125" s="12">
+        <v>0</v>
+      </c>
+      <c r="I125" s="12">
+        <v>0</v>
+      </c>
+      <c r="J125" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="13">
+        <v>124</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="12">
+        <v>3</v>
+      </c>
+      <c r="D126" s="12">
+        <v>535.20000000000005</v>
+      </c>
+      <c r="E126" s="12">
+        <v>0.40589999999999993</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G126" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H126" s="12">
+        <v>0</v>
+      </c>
+      <c r="I126" s="12">
+        <v>0</v>
+      </c>
+      <c r="J126" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="13">
+        <v>125</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" s="12">
+        <v>21</v>
+      </c>
+      <c r="D127" s="12">
+        <v>171.92399300525551</v>
+      </c>
+      <c r="E127" s="12">
+        <v>1</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G127" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H127" s="12">
+        <v>0</v>
+      </c>
+      <c r="I127" s="12">
+        <v>0</v>
+      </c>
+      <c r="J127" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="13">
+        <v>126</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" s="12">
+        <v>20</v>
+      </c>
+      <c r="D128" s="12">
+        <v>93.425178999952891</v>
+      </c>
+      <c r="E128" s="12">
+        <v>1</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G128" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H128" s="12">
+        <v>0</v>
+      </c>
+      <c r="I128" s="12">
+        <v>0</v>
+      </c>
+      <c r="J128" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="13">
+        <v>127</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" s="12">
+        <v>19</v>
+      </c>
+      <c r="D129" s="12">
+        <v>122.12090299971361</v>
+      </c>
+      <c r="E129" s="12">
+        <v>1</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G129" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H129" s="12">
+        <v>0</v>
+      </c>
+      <c r="I129" s="12">
+        <v>0</v>
+      </c>
+      <c r="J129" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="13">
+        <v>128</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" s="12">
+        <v>18</v>
+      </c>
+      <c r="D130" s="12">
+        <v>632.34350900002573</v>
+      </c>
+      <c r="E130" s="12">
+        <v>1</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H130" s="12">
+        <v>0</v>
+      </c>
+      <c r="I130" s="12">
+        <v>0</v>
+      </c>
+      <c r="J130" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="13">
+        <v>129</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131" s="12">
+        <v>17</v>
+      </c>
+      <c r="D131" s="12">
+        <v>139</v>
+      </c>
+      <c r="E131" s="12">
+        <v>1</v>
+      </c>
+      <c r="F131" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G131" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H131" s="12">
+        <v>0</v>
+      </c>
+      <c r="I131" s="12">
+        <v>0</v>
+      </c>
+      <c r="J131" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="13">
+        <v>130</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" s="12">
+        <v>16</v>
+      </c>
+      <c r="D132" s="12">
+        <v>669.99999999999989</v>
+      </c>
+      <c r="E132" s="12">
+        <v>1</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G132" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H132" s="12">
+        <v>0</v>
+      </c>
+      <c r="I132" s="12">
+        <v>0</v>
+      </c>
+      <c r="J132" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="13">
+        <v>131</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" s="12">
+        <v>15</v>
+      </c>
+      <c r="D133" s="12">
+        <v>951.00000000000011</v>
+      </c>
+      <c r="E133" s="12">
+        <v>1</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G133" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H133" s="12">
+        <v>0</v>
+      </c>
+      <c r="I133" s="12">
+        <v>0</v>
+      </c>
+      <c r="J133" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="13">
+        <v>132</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" s="12">
+        <v>14</v>
+      </c>
+      <c r="D134" s="12">
+        <v>843</v>
+      </c>
+      <c r="E134" s="12">
+        <v>1</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G134" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H134" s="12">
+        <v>0</v>
+      </c>
+      <c r="I134" s="12">
+        <v>0</v>
+      </c>
+      <c r="J134" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="13">
+        <v>133</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135" s="12">
+        <v>13</v>
+      </c>
+      <c r="D135" s="12">
+        <v>1271</v>
+      </c>
+      <c r="E135" s="12">
+        <v>1</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G135" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H135" s="12">
+        <v>0</v>
+      </c>
+      <c r="I135" s="12">
+        <v>0</v>
+      </c>
+      <c r="J135" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="13">
+        <v>134</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" s="12">
+        <v>12</v>
+      </c>
+      <c r="D136" s="12">
+        <v>1950.0000000000002</v>
+      </c>
+      <c r="E136" s="12">
+        <v>1</v>
+      </c>
+      <c r="F136" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G136" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H136" s="12">
+        <v>0</v>
+      </c>
+      <c r="I136" s="12">
+        <v>0</v>
+      </c>
+      <c r="J136" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="13">
+        <v>135</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C137" s="12">
+        <v>11</v>
+      </c>
+      <c r="D137" s="12">
+        <v>4446.0000000000009</v>
+      </c>
+      <c r="E137" s="12">
+        <v>1</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G137" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H137" s="12">
+        <v>0</v>
+      </c>
+      <c r="I137" s="12">
+        <v>0</v>
+      </c>
+      <c r="J137" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" s="13">
+        <v>136</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138" s="12">
+        <v>10</v>
+      </c>
+      <c r="D138" s="12">
+        <v>7439.9999999999991</v>
+      </c>
+      <c r="E138" s="12">
+        <v>1</v>
+      </c>
+      <c r="F138" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G138" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H138" s="12">
+        <v>0</v>
+      </c>
+      <c r="I138" s="12">
+        <v>0</v>
+      </c>
+      <c r="J138" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="13">
+        <v>137</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139" s="12">
+        <v>9</v>
+      </c>
+      <c r="D139" s="12">
+        <v>7422.9999999999982</v>
+      </c>
+      <c r="E139" s="12">
+        <v>1</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G139" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H139" s="12">
+        <v>0</v>
+      </c>
+      <c r="I139" s="12">
+        <v>0</v>
+      </c>
+      <c r="J139" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" s="13">
+        <v>138</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140" s="12">
+        <v>8</v>
+      </c>
+      <c r="D140" s="12">
+        <v>7604.0000000000027</v>
+      </c>
+      <c r="E140" s="12">
+        <v>1</v>
+      </c>
+      <c r="F140" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G140" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H140" s="12">
+        <v>0</v>
+      </c>
+      <c r="I140" s="12">
+        <v>0</v>
+      </c>
+      <c r="J140" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="13">
+        <v>139</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" s="12">
+        <v>7</v>
+      </c>
+      <c r="D141" s="12">
+        <v>3676.9999999999995</v>
+      </c>
+      <c r="E141" s="12">
+        <v>1</v>
+      </c>
+      <c r="F141" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G141" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H141" s="12">
+        <v>0</v>
+      </c>
+      <c r="I141" s="12">
+        <v>0</v>
+      </c>
+      <c r="J141" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" s="13">
+        <v>140</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142" s="12">
+        <v>6</v>
+      </c>
+      <c r="D142" s="12">
+        <v>1189.9999999999977</v>
+      </c>
+      <c r="E142" s="12">
+        <v>1</v>
+      </c>
+      <c r="F142" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G142" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H142" s="12">
+        <v>0</v>
+      </c>
+      <c r="I142" s="12">
+        <v>0</v>
+      </c>
+      <c r="J142" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="13">
+        <v>141</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" s="12">
+        <v>5</v>
+      </c>
+      <c r="D143" s="12">
+        <v>1323.9999999999982</v>
+      </c>
+      <c r="E143" s="12">
+        <v>1</v>
+      </c>
+      <c r="F143" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G143" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H143" s="12">
+        <v>0</v>
+      </c>
+      <c r="I143" s="12">
+        <v>0</v>
+      </c>
+      <c r="J143" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="13">
+        <v>142</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C144" s="12">
+        <v>4</v>
+      </c>
+      <c r="D144" s="12">
+        <v>1455.0000000000055</v>
+      </c>
+      <c r="E144" s="12">
+        <v>1</v>
+      </c>
+      <c r="F144" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G144" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H144" s="12">
+        <v>0</v>
+      </c>
+      <c r="I144" s="12">
+        <v>0</v>
+      </c>
+      <c r="J144" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" s="13">
+        <v>143</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145" s="12">
+        <v>3</v>
+      </c>
+      <c r="D145" s="12">
+        <v>1612.9999999999995</v>
+      </c>
+      <c r="E145" s="12">
+        <v>1</v>
+      </c>
+      <c r="F145" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G145" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H145" s="12">
+        <v>0</v>
+      </c>
+      <c r="I145" s="12">
+        <v>0</v>
+      </c>
+      <c r="J145" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" s="13">
+        <v>144</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146" s="12">
+        <v>2</v>
+      </c>
+      <c r="D146" s="12">
+        <v>2914.9999999999991</v>
+      </c>
+      <c r="E146" s="12">
+        <v>1</v>
+      </c>
+      <c r="F146" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G146" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H146" s="12">
+        <v>0</v>
+      </c>
+      <c r="I146" s="12">
+        <v>0</v>
+      </c>
+      <c r="J146" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" s="13">
+        <v>145</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" s="12">
+        <v>1</v>
+      </c>
+      <c r="D147" s="12">
+        <v>3888.9999999999959</v>
+      </c>
+      <c r="E147" s="12">
+        <v>1</v>
+      </c>
+      <c r="F147" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G147" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H147" s="12">
+        <v>0</v>
+      </c>
+      <c r="I147" s="12">
+        <v>0</v>
+      </c>
+      <c r="J147" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" s="13">
+        <v>146</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148" s="12">
+        <v>0</v>
+      </c>
+      <c r="D148" s="12">
+        <v>4625</v>
+      </c>
+      <c r="E148" s="12">
+        <v>1</v>
+      </c>
+      <c r="F148" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G148" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H148" s="12">
+        <v>0</v>
+      </c>
+      <c r="I148" s="12">
+        <v>0</v>
+      </c>
+      <c r="J148" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" s="13">
+        <v>147</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" s="12">
+        <v>11</v>
+      </c>
+      <c r="D149" s="12">
+        <v>35</v>
+      </c>
+      <c r="E149" s="12">
+        <v>1</v>
+      </c>
+      <c r="F149" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G149" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H149" s="12">
+        <v>0</v>
+      </c>
+      <c r="I149" s="12">
+        <v>0</v>
+      </c>
+      <c r="J149" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" s="13">
+        <v>148</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" s="12">
+        <v>10</v>
+      </c>
+      <c r="D150" s="12">
+        <v>45</v>
+      </c>
+      <c r="E150" s="12">
+        <v>1</v>
+      </c>
+      <c r="F150" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G150" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H150" s="12">
+        <v>0</v>
+      </c>
+      <c r="I150" s="12">
+        <v>0</v>
+      </c>
+      <c r="J150" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" s="13">
+        <v>149</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" s="12">
+        <v>9</v>
+      </c>
+      <c r="D151" s="12">
+        <v>108</v>
+      </c>
+      <c r="E151" s="12">
+        <v>1</v>
+      </c>
+      <c r="F151" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G151" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H151" s="12">
+        <v>0</v>
+      </c>
+      <c r="I151" s="12">
+        <v>0</v>
+      </c>
+      <c r="J151" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" s="13">
+        <v>150</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" s="12">
+        <v>8</v>
+      </c>
+      <c r="D152" s="12">
+        <v>80.000000000000014</v>
+      </c>
+      <c r="E152" s="12">
+        <v>1</v>
+      </c>
+      <c r="F152" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G152" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H152" s="12">
+        <v>0</v>
+      </c>
+      <c r="I152" s="12">
+        <v>0</v>
+      </c>
+      <c r="J152" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" s="13">
+        <v>151</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" s="12">
+        <v>7</v>
+      </c>
+      <c r="D153" s="12">
+        <v>240</v>
+      </c>
+      <c r="E153" s="12">
+        <v>1</v>
+      </c>
+      <c r="F153" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G153" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H153" s="12">
+        <v>0</v>
+      </c>
+      <c r="I153" s="12">
+        <v>0</v>
+      </c>
+      <c r="J153" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" s="13">
+        <v>152</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" s="12">
+        <v>6</v>
+      </c>
+      <c r="D154" s="12">
+        <v>486</v>
+      </c>
+      <c r="E154" s="12">
+        <v>1</v>
+      </c>
+      <c r="F154" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G154" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H154" s="12">
+        <v>0</v>
+      </c>
+      <c r="I154" s="12">
+        <v>0</v>
+      </c>
+      <c r="J154" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" s="13">
+        <v>153</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" s="12">
+        <v>5</v>
+      </c>
+      <c r="D155" s="12">
+        <v>2288.9999999999995</v>
+      </c>
+      <c r="E155" s="12">
+        <v>1</v>
+      </c>
+      <c r="F155" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G155" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H155" s="12">
+        <v>0</v>
+      </c>
+      <c r="I155" s="12">
+        <v>0</v>
+      </c>
+      <c r="J155" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" s="13">
+        <v>154</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" s="12">
+        <v>4</v>
+      </c>
+      <c r="D156" s="12">
+        <v>869.00000000000023</v>
+      </c>
+      <c r="E156" s="12">
+        <v>1</v>
+      </c>
+      <c r="F156" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G156" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H156" s="12">
+        <v>0</v>
+      </c>
+      <c r="I156" s="12">
+        <v>0</v>
+      </c>
+      <c r="J156" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" s="13">
+        <v>155</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="12">
+        <v>3</v>
+      </c>
+      <c r="D157" s="12">
+        <v>1253.9999999999995</v>
+      </c>
+      <c r="E157" s="12">
+        <v>1</v>
+      </c>
+      <c r="F157" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G157" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H157" s="12">
+        <v>0</v>
+      </c>
+      <c r="I157" s="12">
+        <v>0</v>
+      </c>
+      <c r="J157" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" s="13">
+        <v>156</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="12">
+        <v>2</v>
+      </c>
+      <c r="D158" s="12">
+        <v>987.00000000000011</v>
+      </c>
+      <c r="E158" s="12">
+        <v>1</v>
+      </c>
+      <c r="F158" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G158" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H158" s="12">
+        <v>0</v>
+      </c>
+      <c r="I158" s="12">
+        <v>0</v>
+      </c>
+      <c r="J158" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" s="13">
+        <v>157</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" s="12">
+        <v>1</v>
+      </c>
+      <c r="D159" s="12">
+        <v>1134.9999999999998</v>
+      </c>
+      <c r="E159" s="12">
+        <v>1</v>
+      </c>
+      <c r="F159" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G159" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H159" s="12">
+        <v>0</v>
+      </c>
+      <c r="I159" s="12">
+        <v>0</v>
+      </c>
+      <c r="J159" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" s="13">
+        <v>158</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" s="12">
+        <v>0</v>
+      </c>
+      <c r="D160" s="12">
+        <v>246.00000000000045</v>
+      </c>
+      <c r="E160" s="12">
+        <v>1</v>
+      </c>
+      <c r="F160" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G160" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H160" s="12">
+        <v>0</v>
+      </c>
+      <c r="I160" s="12">
+        <v>0</v>
+      </c>
+      <c r="J160" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" s="13">
+        <v>159</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161" s="12">
+        <v>28</v>
+      </c>
+      <c r="D161" s="12">
+        <v>133.46791999999999</v>
+      </c>
+      <c r="E161" s="12">
+        <v>1</v>
+      </c>
+      <c r="F161" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G161" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H161" s="12">
+        <v>0</v>
+      </c>
+      <c r="I161" s="12">
+        <v>0</v>
+      </c>
+      <c r="J161" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" s="13">
+        <v>160</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" s="12">
+        <v>27</v>
+      </c>
+      <c r="D162" s="12">
+        <v>172.67299999999949</v>
+      </c>
+      <c r="E162" s="12">
+        <v>1</v>
+      </c>
+      <c r="F162" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G162" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H162" s="12">
+        <v>0</v>
+      </c>
+      <c r="I162" s="12">
+        <v>0</v>
+      </c>
+      <c r="J162" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" s="13">
+        <v>161</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" s="12">
+        <v>26</v>
+      </c>
+      <c r="D163" s="12">
+        <v>157.89503999999971</v>
+      </c>
+      <c r="E163" s="12">
+        <v>1</v>
+      </c>
+      <c r="F163" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G163" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H163" s="12">
+        <v>0</v>
+      </c>
+      <c r="I163" s="12">
+        <v>0</v>
+      </c>
+      <c r="J163" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" s="13">
+        <v>162</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" s="12">
+        <v>25</v>
+      </c>
+      <c r="D164" s="12">
+        <v>170.86999999999969</v>
+      </c>
+      <c r="E164" s="12">
+        <v>1</v>
+      </c>
+      <c r="F164" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G164" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H164" s="12">
+        <v>0</v>
+      </c>
+      <c r="I164" s="12">
+        <v>0</v>
+      </c>
+      <c r="J164" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" s="13">
+        <v>163</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" s="12">
+        <v>24</v>
+      </c>
+      <c r="D165" s="12">
+        <v>233.93539999999979</v>
+      </c>
+      <c r="E165" s="12">
+        <v>1</v>
+      </c>
+      <c r="F165" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G165" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H165" s="12">
+        <v>0</v>
+      </c>
+      <c r="I165" s="12">
+        <v>0</v>
+      </c>
+      <c r="J165" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" s="13">
+        <v>164</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166" s="12">
+        <v>23</v>
+      </c>
+      <c r="D166" s="12">
+        <v>564.2280000000012</v>
+      </c>
+      <c r="E166" s="12">
+        <v>1</v>
+      </c>
+      <c r="F166" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G166" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H166" s="12">
+        <v>0</v>
+      </c>
+      <c r="I166" s="12">
+        <v>0</v>
+      </c>
+      <c r="J166" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" s="13">
+        <v>165</v>
+      </c>
+      <c r="B167" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" s="12">
+        <v>22</v>
+      </c>
+      <c r="D167" s="12">
+        <v>853.38700000000108</v>
+      </c>
+      <c r="E167" s="12">
+        <v>1</v>
+      </c>
+      <c r="F167" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G167" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H167" s="12">
+        <v>0</v>
+      </c>
+      <c r="I167" s="12">
+        <v>0</v>
+      </c>
+      <c r="J167" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" s="13">
+        <v>166</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" s="12">
+        <v>21</v>
+      </c>
+      <c r="D168" s="12">
+        <v>1648.599299999983</v>
+      </c>
+      <c r="E168" s="12">
+        <v>1</v>
+      </c>
+      <c r="F168" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G168" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H168" s="12">
+        <v>0</v>
+      </c>
+      <c r="I168" s="12">
+        <v>0</v>
+      </c>
+      <c r="J168" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169" s="13">
+        <v>167</v>
+      </c>
+      <c r="B169" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169" s="12">
+        <v>20</v>
+      </c>
+      <c r="D169" s="12">
+        <v>1975.2310899999791</v>
+      </c>
+      <c r="E169" s="12">
+        <v>1</v>
+      </c>
+      <c r="F169" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G169" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H169" s="12">
+        <v>0</v>
+      </c>
+      <c r="I169" s="12">
+        <v>0</v>
+      </c>
+      <c r="J169" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" s="13">
+        <v>168</v>
+      </c>
+      <c r="B170" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" s="12">
+        <v>19</v>
+      </c>
+      <c r="D170" s="12">
+        <v>1773.431999999988</v>
+      </c>
+      <c r="E170" s="12">
+        <v>1</v>
+      </c>
+      <c r="F170" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G170" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H170" s="12">
+        <v>0</v>
+      </c>
+      <c r="I170" s="12">
+        <v>0</v>
+      </c>
+      <c r="J170" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171" s="13">
+        <v>169</v>
+      </c>
+      <c r="B171" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" s="12">
+        <v>18</v>
+      </c>
+      <c r="D171" s="12">
+        <v>1434.670999999991</v>
+      </c>
+      <c r="E171" s="12">
+        <v>1</v>
+      </c>
+      <c r="F171" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G171" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H171" s="12">
+        <v>0</v>
+      </c>
+      <c r="I171" s="12">
+        <v>0</v>
+      </c>
+      <c r="J171" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172" s="13">
+        <v>170</v>
+      </c>
+      <c r="B172" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" s="12">
+        <v>17</v>
+      </c>
+      <c r="D172" s="12">
+        <v>2404.9999999999995</v>
+      </c>
+      <c r="E172" s="12">
+        <v>1</v>
+      </c>
+      <c r="F172" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G172" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H172" s="12">
+        <v>0</v>
+      </c>
+      <c r="I172" s="12">
+        <v>0</v>
+      </c>
+      <c r="J172" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173" s="13">
+        <v>171</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" s="12">
+        <v>16</v>
+      </c>
+      <c r="D173" s="12">
+        <v>2038.0000000000002</v>
+      </c>
+      <c r="E173" s="12">
+        <v>1</v>
+      </c>
+      <c r="F173" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G173" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H173" s="12">
+        <v>0</v>
+      </c>
+      <c r="I173" s="12">
+        <v>0</v>
+      </c>
+      <c r="J173" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174" s="13">
+        <v>172</v>
+      </c>
+      <c r="B174" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" s="12">
+        <v>15</v>
+      </c>
+      <c r="D174" s="12">
+        <v>1829.0000000000007</v>
+      </c>
+      <c r="E174" s="12">
+        <v>1</v>
+      </c>
+      <c r="F174" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G174" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H174" s="12">
+        <v>0</v>
+      </c>
+      <c r="I174" s="12">
+        <v>0</v>
+      </c>
+      <c r="J174" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175" s="13">
+        <v>173</v>
+      </c>
+      <c r="B175" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" s="12">
+        <v>14</v>
+      </c>
+      <c r="D175" s="12">
+        <v>2225.9999999999991</v>
+      </c>
+      <c r="E175" s="12">
+        <v>1</v>
+      </c>
+      <c r="F175" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G175" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H175" s="12">
+        <v>0</v>
+      </c>
+      <c r="I175" s="12">
+        <v>0</v>
+      </c>
+      <c r="J175" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176" s="13">
+        <v>174</v>
+      </c>
+      <c r="B176" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176" s="12">
+        <v>13</v>
+      </c>
+      <c r="D176" s="12">
+        <v>1641.9999999999995</v>
+      </c>
+      <c r="E176" s="12">
+        <v>1</v>
+      </c>
+      <c r="F176" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G176" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H176" s="12">
+        <v>0</v>
+      </c>
+      <c r="I176" s="12">
+        <v>0</v>
+      </c>
+      <c r="J176" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177" s="13">
+        <v>175</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177" s="12">
+        <v>12</v>
+      </c>
+      <c r="D177" s="12">
+        <v>678.0000000000008</v>
+      </c>
+      <c r="E177" s="12">
+        <v>1</v>
+      </c>
+      <c r="F177" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G177" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H177" s="12">
+        <v>0</v>
+      </c>
+      <c r="I177" s="12">
+        <v>0</v>
+      </c>
+      <c r="J177" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178" s="13">
+        <v>176</v>
+      </c>
+      <c r="B178" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" s="12">
+        <v>11</v>
+      </c>
+      <c r="D178" s="12">
+        <v>2902.9999999999986</v>
+      </c>
+      <c r="E178" s="12">
+        <v>1</v>
+      </c>
+      <c r="F178" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G178" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H178" s="12">
+        <v>0</v>
+      </c>
+      <c r="I178" s="12">
+        <v>0</v>
+      </c>
+      <c r="J178" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179" s="13">
+        <v>177</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" s="12">
+        <v>10</v>
+      </c>
+      <c r="D179" s="12">
+        <v>1126.0000000000011</v>
+      </c>
+      <c r="E179" s="12">
+        <v>1</v>
+      </c>
+      <c r="F179" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G179" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H179" s="12">
+        <v>0</v>
+      </c>
+      <c r="I179" s="12">
+        <v>0</v>
+      </c>
+      <c r="J179" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180" s="13">
+        <v>178</v>
+      </c>
+      <c r="B180" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" s="12">
+        <v>9</v>
+      </c>
+      <c r="D180" s="12">
+        <v>1756.0000000000002</v>
+      </c>
+      <c r="E180" s="12">
+        <v>1</v>
+      </c>
+      <c r="F180" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G180" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H180" s="12">
+        <v>0</v>
+      </c>
+      <c r="I180" s="12">
+        <v>0</v>
+      </c>
+      <c r="J180" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="A181" s="13">
+        <v>179</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181" s="12">
+        <v>8</v>
+      </c>
+      <c r="D181" s="12">
+        <v>1977.0000000000002</v>
+      </c>
+      <c r="E181" s="12">
+        <v>1</v>
+      </c>
+      <c r="F181" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G181" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H181" s="12">
+        <v>0</v>
+      </c>
+      <c r="I181" s="12">
+        <v>0</v>
+      </c>
+      <c r="J181" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182" s="13">
+        <v>180</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182" s="12">
+        <v>7</v>
+      </c>
+      <c r="D182" s="12">
+        <v>2413.0000000000005</v>
+      </c>
+      <c r="E182" s="12">
+        <v>1</v>
+      </c>
+      <c r="F182" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G182" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H182" s="12">
+        <v>0</v>
+      </c>
+      <c r="I182" s="12">
+        <v>0</v>
+      </c>
+      <c r="J182" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183" s="13">
+        <v>181</v>
+      </c>
+      <c r="B183" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" s="12">
+        <v>6</v>
+      </c>
+      <c r="D183" s="12">
+        <v>4652.0000000000009</v>
+      </c>
+      <c r="E183" s="12">
+        <v>1</v>
+      </c>
+      <c r="F183" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G183" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H183" s="12">
+        <v>0</v>
+      </c>
+      <c r="I183" s="12">
+        <v>0</v>
+      </c>
+      <c r="J183" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184" s="13">
+        <v>182</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" s="12">
+        <v>5</v>
+      </c>
+      <c r="D184" s="12">
+        <v>3675.999999999995</v>
+      </c>
+      <c r="E184" s="12">
+        <v>1</v>
+      </c>
+      <c r="F184" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G184" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H184" s="12">
+        <v>0</v>
+      </c>
+      <c r="I184" s="12">
+        <v>0</v>
+      </c>
+      <c r="J184" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185" s="13">
+        <v>183</v>
+      </c>
+      <c r="B185" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185" s="12">
+        <v>4</v>
+      </c>
+      <c r="D185" s="12">
+        <v>3986.0000000000041</v>
+      </c>
+      <c r="E185" s="12">
+        <v>1</v>
+      </c>
+      <c r="F185" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G185" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H185" s="12">
+        <v>0</v>
+      </c>
+      <c r="I185" s="12">
+        <v>0</v>
+      </c>
+      <c r="J185" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186" s="13">
+        <v>184</v>
+      </c>
+      <c r="B186" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C186" s="12">
+        <v>3</v>
+      </c>
+      <c r="D186" s="12">
+        <v>4890.9999999999982</v>
+      </c>
+      <c r="E186" s="12">
+        <v>1</v>
+      </c>
+      <c r="F186" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G186" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H186" s="12">
+        <v>0</v>
+      </c>
+      <c r="I186" s="12">
+        <v>0</v>
+      </c>
+      <c r="J186" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="A187" s="13">
+        <v>185</v>
+      </c>
+      <c r="B187" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187" s="12">
+        <v>2</v>
+      </c>
+      <c r="D187" s="12">
+        <v>2154.0000000000036</v>
+      </c>
+      <c r="E187" s="12">
+        <v>1</v>
+      </c>
+      <c r="F187" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G187" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H187" s="12">
+        <v>0</v>
+      </c>
+      <c r="I187" s="12">
+        <v>0</v>
+      </c>
+      <c r="J187" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
+      <c r="A188" s="13">
+        <v>186</v>
+      </c>
+      <c r="B188" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C188" s="12">
+        <v>1</v>
+      </c>
+      <c r="D188" s="12">
+        <v>864.99999999999488</v>
+      </c>
+      <c r="E188" s="12">
+        <v>1</v>
+      </c>
+      <c r="F188" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G188" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H188" s="12">
+        <v>0</v>
+      </c>
+      <c r="I188" s="12">
+        <v>0</v>
+      </c>
+      <c r="J188" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
+      <c r="A189" s="13">
+        <v>187</v>
+      </c>
+      <c r="B189" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189" s="12">
+        <v>0</v>
+      </c>
+      <c r="D189" s="12">
+        <v>1221.0000000000036</v>
+      </c>
+      <c r="E189" s="12">
+        <v>1</v>
+      </c>
+      <c r="F189" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G189" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H189" s="12">
+        <v>0</v>
+      </c>
+      <c r="I189" s="12">
+        <v>0</v>
+      </c>
+      <c r="J189" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="A190" s="13"/>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="A191" s="13"/>
+    </row>
+    <row r="192" spans="1:10">
+      <c r="A192" s="13"/>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="13"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:J193" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J193">
+      <sortCondition ref="B1:B193"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J272"/>
   <sheetViews>
@@ -11385,7 +17471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6B6640-7659-40BC-BB1F-545A343E7684}">
   <dimension ref="A1:I76"/>
   <sheetViews>
@@ -13606,11 +19692,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA576D0-74B9-41EF-8F2C-1A3DC05E8AA3}">
   <dimension ref="A1:L265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P203" sqref="P203"/>
     </sheetView>
   </sheetViews>
@@ -23169,7 +29255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DF7B89-3137-4483-A2A9-559F907A912A}">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -24195,7 +30281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1842032F-786B-416F-9171-8FFE55F32C1D}">
   <dimension ref="A1:I18"/>
   <sheetViews>
@@ -24733,12 +30819,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A9FF33-AD05-496F-B170-C2A91E3708F6}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -25568,7 +31654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871B8469-CA4D-495B-9C72-1DE61BB7D586}">
   <dimension ref="A1:Z17"/>
   <sheetViews>

--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -8,36 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871AAF79-070B-4629-B830-6B5CCB3BCEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B778039-618D-478A-8E04-17BEE465F6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
     <sheet name="extendedDEmoreoptimal" sheetId="12" r:id="rId2"/>
     <sheet name="extendedDE" sheetId="1" r:id="rId3"/>
     <sheet name="extendedNLold" sheetId="6" r:id="rId4"/>
-    <sheet name="extendedNL" sheetId="11" r:id="rId5"/>
-    <sheet name="powerplants_grouped" sheetId="3" r:id="rId6"/>
-    <sheet name="groupedDE_RES" sheetId="8" r:id="rId7"/>
-    <sheet name="two_techs_DE" sheetId="10" r:id="rId8"/>
-    <sheet name="germany2019" sheetId="5" r:id="rId9"/>
-    <sheet name="dutchGermanPlants2015_from_emla" sheetId="13" r:id="rId10"/>
+    <sheet name="extendedNL" sheetId="14" r:id="rId5"/>
+    <sheet name="extendedNL2020" sheetId="11" r:id="rId6"/>
+    <sheet name="powerplants_grouped" sheetId="3" r:id="rId7"/>
+    <sheet name="groupedDE_RES" sheetId="8" r:id="rId8"/>
+    <sheet name="two_techs_DE" sheetId="10" r:id="rId9"/>
+    <sheet name="germany2019" sheetId="5" r:id="rId10"/>
+    <sheet name="dutchGermanPlants2015_from_emla" sheetId="13" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">dutchGermanPlants2015_from_emla!$A$1:$H$440</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">dutchGermanPlants2015_from_emla!$A$1:$H$440</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">extendedDE!$B$1:$J$272</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">extendedDEmoreoptimal!$B$1:$J$193</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">extendedNL!$A$1:$K$66</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">two_techs_DE!$B$1:$I$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">extendedNL!$A$1:$J$265</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">extendedNL2020!$A$1:$K$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">two_techs_DE!$B$1:$I$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId13"/>
+    <pivotCache cacheId="1" r:id="rId14"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -124,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3678" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="445">
   <si>
     <t>Technology</t>
   </si>
@@ -1444,6 +1446,21 @@
   </si>
   <si>
     <t>Producer2</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>grouped the negavtie capacity for positive age to the last power plant (biomass</t>
+  </si>
+  <si>
+    <t>erased the capacityes under 1 MW (hydro)</t>
+  </si>
+  <si>
+    <t>IC&gt;oCGT</t>
+  </si>
+  <si>
+    <t>waste&gt; biomass</t>
   </si>
 </sst>
 </file>
@@ -1453,7 +1470,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1500,12 +1517,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1588,7 +1599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1629,6 +1640,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -3600,7 +3614,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{52F3B87C-97DD-428A-994C-5076FC20298A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{52F3B87C-97DD-428A-994C-5076FC20298A}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -4203,12 +4217,464 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871B8469-CA4D-495B-9C72-1DE61BB7D586}">
+  <dimension ref="A1:Z17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="30.08984375" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" customWidth="1"/>
+    <col min="9" max="10" width="5.08984375" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" customWidth="1"/>
+    <col min="12" max="12" width="13.6328125" customWidth="1"/>
+    <col min="13" max="14" width="5.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6">
+        <v>7908</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6">
+        <v>22051</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3">
+        <v>2.5</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3747</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4">
+        <v>1.2</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="6">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6">
+        <v>8000</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6">
+        <v>18049</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6">
+        <v>9516</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6">
+        <v>7820.6</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8">
+        <v>1.2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6">
+        <v>16062.2</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9">
+        <v>1.2</v>
+      </c>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6">
+        <f>197+806+1229 +4257 +8015</f>
+        <v>14504</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6">
+        <v>30932</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2328</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6">
+        <f>12666 +14503 +13974 +5670 + 3804</f>
+        <v>50617</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6">
+        <v>8</v>
+      </c>
+      <c r="D14" s="6">
+        <f>2108 + 79 +672</f>
+        <v>2859</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>8</v>
+      </c>
+      <c r="D15" s="6">
+        <v>4644</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="6">
+        <v>8</v>
+      </c>
+      <c r="P15" s="6">
+        <v>471</v>
+      </c>
+      <c r="R15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S15" t="s">
+        <v>33</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="6">
+        <v>8</v>
+      </c>
+      <c r="D16" s="6">
+        <v>5317</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE2FE5B-BFDE-4C21-9291-DDF53677D345}">
   <dimension ref="A1:I381"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N57" sqref="N57"/>
+      <selection pane="bottomLeft" activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -29380,8 +29846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6B6640-7659-40BC-BB1F-545A343E7684}">
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -31598,11 +32064,2629 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57815950-4DD1-4E72-A9E5-635C71BA4E55}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:M86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="4.453125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.26953125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.54296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="12">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1070</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.46</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="L2" s="12">
+        <v>2019</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="12">
+        <v>5</v>
+      </c>
+      <c r="D3" s="12">
+        <v>790</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.46</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12">
+        <v>4</v>
+      </c>
+      <c r="D4" s="12">
+        <v>790</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.46</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="12">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12">
+        <v>780</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.46</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="12">
+        <v>25</v>
+      </c>
+      <c r="D6" s="12">
+        <v>631</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12">
+        <v>24</v>
+      </c>
+      <c r="D7" s="12">
+        <v>630</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.41</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="12">
+        <v>6</v>
+      </c>
+      <c r="D8" s="12">
+        <v>437</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12">
+        <v>3</v>
+      </c>
+      <c r="D9" s="12">
+        <v>437</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12">
+        <v>3</v>
+      </c>
+      <c r="D10" s="12">
+        <v>437</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="12">
+        <v>10</v>
+      </c>
+      <c r="D11" s="12">
+        <v>435</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="16">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="12">
+        <v>435</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="12">
+        <v>9</v>
+      </c>
+      <c r="D13" s="12">
+        <v>435</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="16">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="12">
+        <v>9</v>
+      </c>
+      <c r="D14" s="12">
+        <v>435</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="16">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12">
+        <v>6</v>
+      </c>
+      <c r="D15" s="12">
+        <v>435</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12">
+        <v>-1</v>
+      </c>
+      <c r="D16" s="12">
+        <v>435</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="16">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="12">
+        <v>-2</v>
+      </c>
+      <c r="D17" s="12">
+        <v>435</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="16">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="12">
+        <v>-2</v>
+      </c>
+      <c r="D18" s="12">
+        <v>435</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="16">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="12">
+        <v>8</v>
+      </c>
+      <c r="D19" s="12">
+        <v>426</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="16">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="12">
+        <v>9</v>
+      </c>
+      <c r="D20" s="12">
+        <v>425</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="16">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="12">
+        <v>7</v>
+      </c>
+      <c r="D21" s="12">
+        <v>420</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="16">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="12">
+        <v>4</v>
+      </c>
+      <c r="D22" s="12">
+        <v>420</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="16">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="12">
+        <v>2</v>
+      </c>
+      <c r="D23" s="12">
+        <v>400</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="16">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="12">
+        <v>2</v>
+      </c>
+      <c r="D24" s="12">
+        <v>400</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0</v>
+      </c>
+      <c r="J24" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="16">
+        <v>24</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="12">
+        <v>23</v>
+      </c>
+      <c r="D25" s="12">
+        <v>341</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0.52</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="16">
+        <v>25</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="12">
+        <v>22</v>
+      </c>
+      <c r="D26" s="12">
+        <v>341</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0.52</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
+      <c r="I26" s="12">
+        <v>0</v>
+      </c>
+      <c r="J26" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="16">
+        <v>26</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="12">
+        <v>22</v>
+      </c>
+      <c r="D27" s="12">
+        <v>341</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.52</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="16">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="12">
+        <v>1</v>
+      </c>
+      <c r="D28" s="12">
+        <v>341</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.52</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="12">
+        <v>0</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0</v>
+      </c>
+      <c r="J28" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="16">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="12">
+        <v>-1</v>
+      </c>
+      <c r="D29" s="12">
+        <v>341</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0.52</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="12">
+        <v>0</v>
+      </c>
+      <c r="I29" s="12">
+        <v>0</v>
+      </c>
+      <c r="J29" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="16">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="12">
+        <v>-1</v>
+      </c>
+      <c r="D30" s="12">
+        <v>341</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0.52</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="12">
+        <v>0</v>
+      </c>
+      <c r="I30" s="12">
+        <v>0</v>
+      </c>
+      <c r="J30" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="16">
+        <v>30</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="12">
+        <v>19</v>
+      </c>
+      <c r="D31" s="12">
+        <v>245</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="12">
+        <v>0</v>
+      </c>
+      <c r="I31" s="12">
+        <v>0</v>
+      </c>
+      <c r="J31" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="16">
+        <v>31</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="12">
+        <v>6</v>
+      </c>
+      <c r="D32" s="12">
+        <v>435</v>
+      </c>
+      <c r="E32" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="12">
+        <v>0</v>
+      </c>
+      <c r="I32" s="12">
+        <v>0</v>
+      </c>
+      <c r="J32" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="16">
+        <v>32</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="12">
+        <v>23</v>
+      </c>
+      <c r="D33" s="12">
+        <v>266</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="12">
+        <v>0</v>
+      </c>
+      <c r="I33" s="12">
+        <v>0</v>
+      </c>
+      <c r="J33" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="16">
+        <v>33</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="12">
+        <v>23</v>
+      </c>
+      <c r="D34" s="12">
+        <v>247</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0.53</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0</v>
+      </c>
+      <c r="I34" s="12">
+        <v>0</v>
+      </c>
+      <c r="J34" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="16">
+        <v>34</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="12">
+        <v>22</v>
+      </c>
+      <c r="D35" s="12">
+        <v>220</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="12">
+        <v>0</v>
+      </c>
+      <c r="I35" s="12">
+        <v>0</v>
+      </c>
+      <c r="J35" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="16">
+        <v>35</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="12">
+        <v>29</v>
+      </c>
+      <c r="D36" s="12">
+        <v>217</v>
+      </c>
+      <c r="E36" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" s="12">
+        <v>0</v>
+      </c>
+      <c r="I36" s="12">
+        <v>0</v>
+      </c>
+      <c r="J36" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="16">
+        <v>36</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="12">
+        <v>22</v>
+      </c>
+      <c r="D37" s="12">
+        <v>144</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0.41</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" s="12">
+        <v>0</v>
+      </c>
+      <c r="I37" s="12">
+        <v>0</v>
+      </c>
+      <c r="J37" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="16">
+        <v>37</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="12">
+        <v>34</v>
+      </c>
+      <c r="D38" s="12">
+        <v>103</v>
+      </c>
+      <c r="E38" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" s="12">
+        <v>0</v>
+      </c>
+      <c r="I38" s="12">
+        <v>0</v>
+      </c>
+      <c r="J38" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="16">
+        <v>38</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="12">
+        <v>36</v>
+      </c>
+      <c r="D39" s="12">
+        <v>97</v>
+      </c>
+      <c r="E39" s="12">
+        <v>0.38</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="12">
+        <v>0</v>
+      </c>
+      <c r="I39" s="12">
+        <v>0</v>
+      </c>
+      <c r="J39" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="16">
+        <v>39</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="12">
+        <v>32</v>
+      </c>
+      <c r="D40" s="12">
+        <v>81</v>
+      </c>
+      <c r="E40" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="12">
+        <v>0</v>
+      </c>
+      <c r="I40" s="12">
+        <v>0</v>
+      </c>
+      <c r="J40" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="16">
+        <v>40</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="12">
+        <v>15</v>
+      </c>
+      <c r="D41" s="12">
+        <v>78</v>
+      </c>
+      <c r="E41" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" s="12">
+        <v>0</v>
+      </c>
+      <c r="I41" s="12">
+        <v>0</v>
+      </c>
+      <c r="J41" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="16">
+        <v>41</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="12">
+        <v>30</v>
+      </c>
+      <c r="D42" s="12">
+        <v>28</v>
+      </c>
+      <c r="E42" s="12">
+        <v>0.41</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" s="12">
+        <v>0</v>
+      </c>
+      <c r="I42" s="12">
+        <v>0</v>
+      </c>
+      <c r="J42" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="16">
+        <v>42</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="12">
+        <v>35</v>
+      </c>
+      <c r="D43" s="12">
+        <v>26</v>
+      </c>
+      <c r="E43" s="12">
+        <v>0.41</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" s="12">
+        <v>0</v>
+      </c>
+      <c r="I43" s="12">
+        <v>0</v>
+      </c>
+      <c r="J43" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="16">
+        <v>43</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="12">
+        <v>36</v>
+      </c>
+      <c r="D44" s="12">
+        <v>25</v>
+      </c>
+      <c r="E44" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" s="12">
+        <v>0</v>
+      </c>
+      <c r="I44" s="12">
+        <v>0</v>
+      </c>
+      <c r="J44" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="16">
+        <v>44</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="12">
+        <v>36</v>
+      </c>
+      <c r="D45" s="12">
+        <v>25</v>
+      </c>
+      <c r="E45" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" s="12">
+        <v>0</v>
+      </c>
+      <c r="I45" s="12">
+        <v>0</v>
+      </c>
+      <c r="J45" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="16">
+        <v>45</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="12">
+        <v>14</v>
+      </c>
+      <c r="D46" s="12">
+        <v>38.613</v>
+      </c>
+      <c r="E46" s="12">
+        <v>1</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" s="12">
+        <v>0</v>
+      </c>
+      <c r="I46" s="12">
+        <v>0</v>
+      </c>
+      <c r="J46" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="16">
+        <v>46</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="12">
+        <v>9</v>
+      </c>
+      <c r="D47" s="12">
+        <v>1.1679999999999999</v>
+      </c>
+      <c r="E47" s="12">
+        <v>1</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H47" s="12">
+        <v>0</v>
+      </c>
+      <c r="I47" s="12">
+        <v>0</v>
+      </c>
+      <c r="J47" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="16">
+        <v>47</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="12">
+        <v>4</v>
+      </c>
+      <c r="D48" s="12">
+        <v>0.313</v>
+      </c>
+      <c r="E48" s="12">
+        <v>1</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48" s="12">
+        <v>0</v>
+      </c>
+      <c r="I48" s="12">
+        <v>0</v>
+      </c>
+      <c r="J48" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="16">
+        <v>48</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="12">
+        <v>33</v>
+      </c>
+      <c r="D49" s="12">
+        <v>375</v>
+      </c>
+      <c r="E49" s="12">
+        <v>0.38</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H49" s="12">
+        <v>0</v>
+      </c>
+      <c r="I49" s="12">
+        <v>0</v>
+      </c>
+      <c r="J49" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="16">
+        <v>49</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="12">
+        <v>45</v>
+      </c>
+      <c r="D50" s="12">
+        <v>324</v>
+      </c>
+      <c r="E50" s="12">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50" s="12">
+        <v>0</v>
+      </c>
+      <c r="I50" s="12">
+        <v>0</v>
+      </c>
+      <c r="J50" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="16">
+        <v>50</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="12">
+        <v>13</v>
+      </c>
+      <c r="D51" s="12">
+        <v>484</v>
+      </c>
+      <c r="E51" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H51" s="12">
+        <v>0</v>
+      </c>
+      <c r="I51" s="12">
+        <v>0</v>
+      </c>
+      <c r="J51" s="12">
+        <v>0.94999999975000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="16">
+        <v>51</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="12">
+        <v>45</v>
+      </c>
+      <c r="D52" s="12">
+        <v>136</v>
+      </c>
+      <c r="E52" s="12">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H52" s="12">
+        <v>0</v>
+      </c>
+      <c r="I52" s="12">
+        <v>0</v>
+      </c>
+      <c r="J52" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="16">
+        <v>52</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="12">
+        <v>15</v>
+      </c>
+      <c r="D53" s="12">
+        <v>124</v>
+      </c>
+      <c r="E53" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H53" s="12">
+        <v>0</v>
+      </c>
+      <c r="I53" s="12">
+        <v>0</v>
+      </c>
+      <c r="J53" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="16">
+        <v>53</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="12">
+        <v>7</v>
+      </c>
+      <c r="D54" s="12">
+        <v>72</v>
+      </c>
+      <c r="E54" s="12">
+        <v>0.44</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H54" s="12">
+        <v>0</v>
+      </c>
+      <c r="I54" s="12">
+        <v>0</v>
+      </c>
+      <c r="J54" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="16">
+        <v>54</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="12">
+        <v>7</v>
+      </c>
+      <c r="D55" s="12">
+        <v>72</v>
+      </c>
+      <c r="E55" s="12">
+        <v>0.44</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H55" s="12">
+        <v>0</v>
+      </c>
+      <c r="I55" s="12">
+        <v>0</v>
+      </c>
+      <c r="J55" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="16">
+        <v>55</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="18">
+        <v>0</v>
+      </c>
+      <c r="D56" s="12">
+        <v>5150.3239999999996</v>
+      </c>
+      <c r="E56" s="12">
+        <v>4</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H56" s="12">
+        <v>0</v>
+      </c>
+      <c r="I56" s="12">
+        <v>0</v>
+      </c>
+      <c r="J56" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="16">
+        <v>56</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="12">
+        <v>-4</v>
+      </c>
+      <c r="D57" s="12">
+        <v>3930.1080000000002</v>
+      </c>
+      <c r="E57" s="12">
+        <v>1</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H57" s="12">
+        <v>0</v>
+      </c>
+      <c r="I57" s="12">
+        <v>0</v>
+      </c>
+      <c r="J57" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="16">
+        <v>57</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="12">
+        <v>-1</v>
+      </c>
+      <c r="D58" s="12">
+        <v>3095.902</v>
+      </c>
+      <c r="E58" s="12">
+        <v>1</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H58" s="12">
+        <v>0</v>
+      </c>
+      <c r="I58" s="12">
+        <v>0</v>
+      </c>
+      <c r="J58" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="16">
+        <v>58</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="12">
+        <v>-3</v>
+      </c>
+      <c r="D59" s="12">
+        <v>2576.7629999999999</v>
+      </c>
+      <c r="E59" s="12">
+        <v>1</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H59" s="12">
+        <v>0</v>
+      </c>
+      <c r="I59" s="12">
+        <v>0</v>
+      </c>
+      <c r="J59" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="16">
+        <v>59</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="12">
+        <v>-2</v>
+      </c>
+      <c r="D60" s="12">
+        <v>2189.6350000000002</v>
+      </c>
+      <c r="E60" s="12">
+        <v>1</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H60" s="12">
+        <v>0</v>
+      </c>
+      <c r="I60" s="12">
+        <v>0</v>
+      </c>
+      <c r="J60" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="16">
+        <v>60</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="12">
+        <v>4</v>
+      </c>
+      <c r="D61" s="12">
+        <v>1540.0909999999999</v>
+      </c>
+      <c r="E61" s="12">
+        <v>3</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H61" s="12">
+        <v>0</v>
+      </c>
+      <c r="I61" s="12">
+        <v>0</v>
+      </c>
+      <c r="J61" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="16">
+        <v>61</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="12">
+        <v>14</v>
+      </c>
+      <c r="D62" s="12">
+        <v>75.769000000000005</v>
+      </c>
+      <c r="E62" s="12">
+        <v>1</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H62" s="12">
+        <v>0</v>
+      </c>
+      <c r="I62" s="12">
+        <v>0</v>
+      </c>
+      <c r="J62" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="16">
+        <v>62</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="12">
+        <v>9</v>
+      </c>
+      <c r="D63" s="12">
+        <v>23.736000000000001</v>
+      </c>
+      <c r="E63" s="12">
+        <v>2</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H63" s="12">
+        <v>0</v>
+      </c>
+      <c r="I63" s="12">
+        <v>0</v>
+      </c>
+      <c r="J63" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="16">
+        <v>63</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="12">
+        <v>14</v>
+      </c>
+      <c r="D64" s="12">
+        <v>1.7679999999999989</v>
+      </c>
+      <c r="E64" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H64" s="12">
+        <v>0</v>
+      </c>
+      <c r="I64" s="12">
+        <v>0</v>
+      </c>
+      <c r="J64" s="12">
+        <v>0.74200913242009103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="16">
+        <v>64</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="12">
+        <v>-4</v>
+      </c>
+      <c r="D65" s="12">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="E65" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H65" s="12">
+        <v>0</v>
+      </c>
+      <c r="I65" s="12">
+        <v>0</v>
+      </c>
+      <c r="J65" s="12">
+        <v>0.74200913242009103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="16">
+        <v>65</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="12">
+        <v>-3</v>
+      </c>
+      <c r="D66" s="12">
+        <v>759.91399999999999</v>
+      </c>
+      <c r="E66" s="12">
+        <v>1</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H66" s="12">
+        <v>0</v>
+      </c>
+      <c r="I66" s="12">
+        <v>0</v>
+      </c>
+      <c r="J66" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="16">
+        <v>66</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="12">
+        <v>-4</v>
+      </c>
+      <c r="D67" s="12">
+        <v>759.91399999999999</v>
+      </c>
+      <c r="E67" s="12">
+        <v>1</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H67" s="12">
+        <v>0</v>
+      </c>
+      <c r="I67" s="12">
+        <v>0</v>
+      </c>
+      <c r="J67" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="16">
+        <v>67</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="12">
+        <v>-1</v>
+      </c>
+      <c r="D68" s="12">
+        <v>732.62</v>
+      </c>
+      <c r="E68" s="12">
+        <v>1</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H68" s="12">
+        <v>0</v>
+      </c>
+      <c r="I68" s="12">
+        <v>0</v>
+      </c>
+      <c r="J68" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="16">
+        <v>68</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="12">
+        <v>-2</v>
+      </c>
+      <c r="D69" s="12">
+        <v>730.97299999999996</v>
+      </c>
+      <c r="E69" s="12">
+        <v>1</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H69" s="12">
+        <v>0</v>
+      </c>
+      <c r="I69" s="12">
+        <v>0</v>
+      </c>
+      <c r="J69" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="16">
+        <v>69</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="18">
+        <v>0</v>
+      </c>
+      <c r="D70" s="12">
+        <v>607.57100000000003</v>
+      </c>
+      <c r="E70" s="12">
+        <v>1</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H70" s="12">
+        <v>0</v>
+      </c>
+      <c r="I70" s="12">
+        <v>0</v>
+      </c>
+      <c r="J70" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="16">
+        <v>70</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="12">
+        <v>9</v>
+      </c>
+      <c r="D71" s="12">
+        <v>227.05</v>
+      </c>
+      <c r="E71" s="12">
+        <v>1</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H71" s="12">
+        <v>0</v>
+      </c>
+      <c r="I71" s="12">
+        <v>0</v>
+      </c>
+      <c r="J71" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="16">
+        <v>71</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="12">
+        <v>4</v>
+      </c>
+      <c r="D72" s="12">
+        <v>128.06899999999999</v>
+      </c>
+      <c r="E72" s="12">
+        <v>1</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H72" s="12">
+        <v>0</v>
+      </c>
+      <c r="I72" s="12">
+        <v>0</v>
+      </c>
+      <c r="J72" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="16">
+        <v>72</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="18">
+        <v>0</v>
+      </c>
+      <c r="D73" s="12">
+        <v>1651.2470000000001</v>
+      </c>
+      <c r="E73" s="12">
+        <v>4</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H73" s="12">
+        <v>0</v>
+      </c>
+      <c r="I73" s="12">
+        <v>0</v>
+      </c>
+      <c r="J73" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="16">
+        <v>73</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="12">
+        <v>9</v>
+      </c>
+      <c r="D74" s="12">
+        <v>1203.0530000000001</v>
+      </c>
+      <c r="E74" s="12">
+        <v>2</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H74" s="12">
+        <v>0</v>
+      </c>
+      <c r="I74" s="12">
+        <v>0</v>
+      </c>
+      <c r="J74" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="16">
+        <v>74</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="12">
+        <v>14</v>
+      </c>
+      <c r="D75" s="12">
+        <v>1016.313</v>
+      </c>
+      <c r="E75" s="12">
+        <v>1</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H75" s="12">
+        <v>0</v>
+      </c>
+      <c r="I75" s="12">
+        <v>0</v>
+      </c>
+      <c r="J75" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="16">
+        <v>75</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="12">
+        <v>-4</v>
+      </c>
+      <c r="D76" s="12">
+        <v>544.41600000000005</v>
+      </c>
+      <c r="E76" s="12">
+        <v>1</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H76" s="12">
+        <v>0</v>
+      </c>
+      <c r="I76" s="12">
+        <v>0</v>
+      </c>
+      <c r="J76" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="16">
+        <v>76</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="12">
+        <v>-3</v>
+      </c>
+      <c r="D77" s="12">
+        <v>438.279</v>
+      </c>
+      <c r="E77" s="12">
+        <v>1</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H77" s="12">
+        <v>0</v>
+      </c>
+      <c r="I77" s="12">
+        <v>0</v>
+      </c>
+      <c r="J77" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="16">
+        <v>77</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="12">
+        <v>-1</v>
+      </c>
+      <c r="D78" s="12">
+        <v>397.779</v>
+      </c>
+      <c r="E78" s="12">
+        <v>1</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H78" s="12">
+        <v>0</v>
+      </c>
+      <c r="I78" s="12">
+        <v>0</v>
+      </c>
+      <c r="J78" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="16">
+        <v>78</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="12">
+        <v>-2</v>
+      </c>
+      <c r="D79" s="12">
+        <v>393.40899999999999</v>
+      </c>
+      <c r="E79" s="12">
+        <v>1</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H79" s="12">
+        <v>0</v>
+      </c>
+      <c r="I79" s="12">
+        <v>0</v>
+      </c>
+      <c r="J79" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="16">
+        <v>79</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="12">
+        <v>4</v>
+      </c>
+      <c r="D80" s="12">
+        <v>366.38099999999997</v>
+      </c>
+      <c r="E80" s="12">
+        <v>3</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H80" s="12">
+        <v>0</v>
+      </c>
+      <c r="I80" s="12">
+        <v>0</v>
+      </c>
+      <c r="J80" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="18"/>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" s="18"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J265" xr:uid="{BBD854B3-93D9-4060-988A-F70461731716}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J265">
+      <sortCondition ref="B1:B265"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA576D0-74B9-41EF-8F2C-1A3DC05E8AA3}">
   <dimension ref="A1:L265"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O12"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -36520,7 +39604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DF7B89-3137-4483-A2A9-559F907A912A}">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -37546,7 +40630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1842032F-786B-416F-9171-8FFE55F32C1D}">
   <dimension ref="A1:I18"/>
   <sheetViews>
@@ -38084,7 +41168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A9FF33-AD05-496F-B170-C2A91E3708F6}">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -38917,456 +42001,4 @@
   <autoFilter ref="B1:I34" xr:uid="{37A9FF33-AD05-496F-B170-C2A91E3708F6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871B8469-CA4D-495B-9C72-1DE61BB7D586}">
-  <dimension ref="A1:Z17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="2" max="2" width="30.08984375" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" customWidth="1"/>
-    <col min="9" max="10" width="5.08984375" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" customWidth="1"/>
-    <col min="12" max="12" width="13.6328125" customWidth="1"/>
-    <col min="13" max="14" width="5.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="6">
-        <v>8</v>
-      </c>
-      <c r="D2" s="6">
-        <v>7908</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6">
-        <v>22051</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3">
-        <v>2.5</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="6">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6">
-        <v>3747</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0.35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4">
-        <v>1.2</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="6">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6">
-        <v>8000</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="6">
-        <v>8</v>
-      </c>
-      <c r="D6" s="6">
-        <v>18049</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0.35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="6">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6">
-        <v>9516</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0.33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6">
-        <v>8</v>
-      </c>
-      <c r="D8" s="6">
-        <v>7820.6</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8">
-        <v>1.2</v>
-      </c>
-      <c r="O8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6">
-        <v>16062.2</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9">
-        <v>1.2</v>
-      </c>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="6">
-        <v>8</v>
-      </c>
-      <c r="D10" s="6">
-        <f>197+806+1229 +4257 +8015</f>
-        <v>14504</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="6">
-        <v>8</v>
-      </c>
-      <c r="D11" s="6">
-        <v>30932</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="6">
-        <v>8</v>
-      </c>
-      <c r="D12" s="6">
-        <v>2328</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="6">
-        <v>8</v>
-      </c>
-      <c r="D13" s="6">
-        <f>12666 +14503 +13974 +5670 + 3804</f>
-        <v>50617</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="6">
-        <v>8</v>
-      </c>
-      <c r="D14" s="6">
-        <f>2108 + 79 +672</f>
-        <v>2859</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6">
-        <v>8</v>
-      </c>
-      <c r="D15" s="6">
-        <v>4644</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" s="6">
-        <v>8</v>
-      </c>
-      <c r="P15" s="6">
-        <v>471</v>
-      </c>
-      <c r="R15" t="s">
-        <v>7</v>
-      </c>
-      <c r="S15" t="s">
-        <v>33</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="6">
-        <v>8</v>
-      </c>
-      <c r="D16" s="6">
-        <v>5317</v>
-      </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658DC43A-BB5B-493F-96AB-1FC74B7B63A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCB79DA-F29E-4457-BBCC-3804B154E108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" tabRatio="840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,13 +34,13 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">dutchGermanPlants2015_from_emla!$A$1:$H$440</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">extendedDE!$B$1:$J$272</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">extendedDEmoreoptimal!$B$1:$J$193</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">extendedNL!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">extendedNL!$A$1:$J$93</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">extendedNL2020!$A$1:$K$66</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">two_techs_DE!$B$1:$I$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId15"/>
+    <pivotCache cacheId="1" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3969" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3993" uniqueCount="446">
   <si>
     <t>Technology</t>
   </si>
@@ -3795,7 +3795,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{52F3B87C-97DD-428A-994C-5076FC20298A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{52F3B87C-97DD-428A-994C-5076FC20298A}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -32249,11 +32249,11 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:M93"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E97" sqref="E97"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -32304,7 +32304,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="16">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>10</v>
@@ -32342,7 +32342,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="16">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>10</v>
@@ -32377,7 +32377,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="16">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>46</v>
@@ -32412,7 +32412,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="16">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>46</v>
@@ -32447,7 +32447,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="16">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>46</v>
@@ -32482,7 +32482,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="16">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>46</v>
@@ -32514,7 +32514,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="16">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>46</v>
@@ -32546,7 +32546,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="16">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>10</v>
@@ -32578,7 +32578,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="16">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>46</v>
@@ -32610,7 +32610,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="16">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>46</v>
@@ -32642,7 +32642,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="16">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>46</v>
@@ -32674,7 +32674,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>6</v>
@@ -32706,7 +32706,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>6</v>
@@ -32738,7 +32738,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="16">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>9</v>
@@ -32770,7 +32770,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="16">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>46</v>
@@ -32802,7 +32802,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="16">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>46</v>
@@ -32834,7 +32834,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="16">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>9</v>
@@ -32866,7 +32866,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="16">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>9</v>
@@ -32898,7 +32898,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="16">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>46</v>
@@ -32930,7 +32930,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="16">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>46</v>
@@ -32962,7 +32962,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="16">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>9</v>
@@ -32994,7 +32994,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="16">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>46</v>
@@ -33026,7 +33026,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="16">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>10</v>
@@ -33058,19 +33058,19 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="16">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C25" s="12">
         <v>14</v>
       </c>
       <c r="D25" s="12">
-        <v>38.613</v>
+        <v>2</v>
       </c>
       <c r="E25" s="12">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>40</v>
@@ -33085,21 +33085,21 @@
         <v>0</v>
       </c>
       <c r="J25" s="12">
-        <v>1</v>
+        <v>0.74200913242009103</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="16">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C26" s="12">
         <v>14</v>
       </c>
       <c r="D26" s="12">
-        <v>75.769000000000005</v>
+        <v>38.613</v>
       </c>
       <c r="E26" s="12">
         <v>1</v>
@@ -33122,19 +33122,19 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="16">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C27" s="12">
         <v>14</v>
       </c>
       <c r="D27" s="12">
-        <v>2</v>
+        <v>75.769000000000005</v>
       </c>
       <c r="E27" s="12">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>40</v>
@@ -33149,12 +33149,12 @@
         <v>0</v>
       </c>
       <c r="J27" s="12">
-        <v>0.74200913242009103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="16">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>13</v>
@@ -33186,7 +33186,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="16">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>12</v>
@@ -33218,7 +33218,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="16">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>14</v>
@@ -33250,7 +33250,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="16">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>13</v>
@@ -33282,7 +33282,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="16">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>14</v>
@@ -33314,7 +33314,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="16">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>13</v>
@@ -33346,7 +33346,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="16">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>14</v>
@@ -33378,7 +33378,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="16">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>13</v>
@@ -33410,7 +33410,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>9</v>
@@ -33442,7 +33442,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>9</v>
@@ -33474,7 +33474,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="16">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>15</v>
@@ -33507,7 +33507,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="16">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>14</v>
@@ -33539,7 +33539,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>9</v>
@@ -33571,7 +33571,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>9</v>
@@ -33603,7 +33603,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="16">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>9</v>
@@ -33635,7 +33635,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="16">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>11</v>
@@ -33667,7 +33667,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="16">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>15</v>
@@ -33700,7 +33700,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="16">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>13</v>
@@ -33732,7 +33732,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>9</v>
@@ -33764,7 +33764,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="16">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>15</v>
@@ -33797,7 +33797,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="16">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>13</v>
@@ -33829,7 +33829,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="16">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>9</v>
@@ -33861,7 +33861,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="16">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>10</v>
@@ -33893,7 +33893,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="16">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>10</v>
@@ -33925,7 +33925,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="16">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>15</v>
@@ -33958,7 +33958,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="16">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>13</v>
@@ -33990,7 +33990,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="16">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>9</v>
@@ -34022,7 +34022,7 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="16">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>9</v>
@@ -34054,7 +34054,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="16">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>46</v>
@@ -34086,7 +34086,7 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="16">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>15</v>
@@ -34119,7 +34119,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>6</v>
@@ -34151,7 +34151,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>6</v>
@@ -34183,7 +34183,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>6</v>
@@ -34215,7 +34215,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="16">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>15</v>
@@ -34248,7 +34248,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="16">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B62" s="12" t="s">
         <v>6</v>
@@ -34312,7 +34312,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="16">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>15</v>
@@ -34377,7 +34377,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="16">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B66" s="12" t="s">
         <v>13</v>
@@ -34409,7 +34409,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="16">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>9</v>
@@ -34441,7 +34441,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="16">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B68" s="12" t="s">
         <v>9</v>
@@ -34473,7 +34473,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="16">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B69" s="12" t="s">
         <v>15</v>
@@ -34506,7 +34506,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="16">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B70" s="12" t="s">
         <v>14</v>
@@ -34538,7 +34538,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="16">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B71" s="12" t="s">
         <v>13</v>
@@ -34570,7 +34570,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="16">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>9</v>
@@ -34602,7 +34602,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="16">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>9</v>
@@ -34634,7 +34634,7 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="16">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B74" s="12" t="s">
         <v>15</v>
@@ -34667,7 +34667,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="16">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>14</v>
@@ -34699,7 +34699,7 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="16">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B76" s="12" t="s">
         <v>13</v>
@@ -34731,7 +34731,7 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="16">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B77" s="12" t="s">
         <v>9</v>
@@ -34763,7 +34763,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="16">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B78" s="12" t="s">
         <v>15</v>
@@ -34796,7 +34796,7 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="16">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>13</v>
@@ -34828,7 +34828,7 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="16">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B80" s="12" t="s">
         <v>15</v>
@@ -34861,7 +34861,7 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="16">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B81" s="12" t="s">
         <v>13</v>
@@ -34893,19 +34893,19 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="16">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C82" s="12">
         <v>-1</v>
       </c>
       <c r="D82" s="12">
-        <v>3095.902</v>
+        <v>341</v>
       </c>
       <c r="E82" s="12">
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="F82" s="12" t="s">
         <v>40</v>
@@ -34920,24 +34920,24 @@
         <v>0</v>
       </c>
       <c r="J82" s="12">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="16">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C83" s="12">
         <v>-1</v>
       </c>
       <c r="D83" s="12">
-        <v>732.62</v>
+        <v>341</v>
       </c>
       <c r="E83" s="12">
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="F83" s="12" t="s">
         <v>40</v>
@@ -34952,24 +34952,24 @@
         <v>0</v>
       </c>
       <c r="J83" s="12">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="16">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C84" s="12">
         <v>-1</v>
       </c>
       <c r="D84" s="12">
-        <v>397.779</v>
+        <v>435</v>
       </c>
       <c r="E84" s="12">
-        <v>1</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F84" s="12" t="s">
         <v>40</v>
@@ -34984,21 +34984,21 @@
         <v>0</v>
       </c>
       <c r="J84" s="12">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="16">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C85" s="12">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D85" s="12">
-        <v>2189.6350000000002</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="E85" s="12">
         <v>1</v>
@@ -35021,16 +35021,16 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="16">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C86" s="12">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D86" s="12">
-        <v>730.97299999999996</v>
+        <v>3095.902</v>
       </c>
       <c r="E86" s="12">
         <v>1</v>
@@ -35053,16 +35053,16 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="16">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C87" s="12">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D87" s="12">
-        <v>393.40899999999999</v>
+        <v>732.62</v>
       </c>
       <c r="E87" s="12">
         <v>1</v>
@@ -35085,16 +35085,16 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="16">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C88" s="12">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D88" s="12">
-        <v>2576.7629999999999</v>
+        <v>397.779</v>
       </c>
       <c r="E88" s="12">
         <v>1</v>
@@ -35117,19 +35117,19 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="16">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C89" s="12">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D89" s="12">
-        <v>759.91399999999999</v>
+        <v>435</v>
       </c>
       <c r="E89" s="12">
-        <v>1</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F89" s="12" t="s">
         <v>40</v>
@@ -35144,24 +35144,24 @@
         <v>0</v>
       </c>
       <c r="J89" s="12">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="16">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C90" s="12">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D90" s="12">
-        <v>438.279</v>
+        <v>435</v>
       </c>
       <c r="E90" s="12">
-        <v>1</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F90" s="12" t="s">
         <v>40</v>
@@ -35176,21 +35176,21 @@
         <v>0</v>
       </c>
       <c r="J90" s="12">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="16">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C91" s="12">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D91" s="12">
-        <v>3930.1080000000002</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E91" s="12">
         <v>1</v>
@@ -35213,16 +35213,16 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="16">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C92" s="12">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D92" s="12">
-        <v>759.91399999999999</v>
+        <v>2189.6350000000002</v>
       </c>
       <c r="E92" s="12">
         <v>1</v>
@@ -35245,16 +35245,16 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="16">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C93" s="12">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D93" s="12">
-        <v>544.41600000000005</v>
+        <v>730.97299999999996</v>
       </c>
       <c r="E93" s="12">
         <v>1</v>
@@ -35275,10 +35275,266 @@
         <v>1</v>
       </c>
     </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="16">
+        <v>98</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="12">
+        <v>-2</v>
+      </c>
+      <c r="D94" s="12">
+        <v>393.40899999999999</v>
+      </c>
+      <c r="E94" s="12">
+        <v>1</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H94" s="12">
+        <v>0</v>
+      </c>
+      <c r="I94" s="12">
+        <v>0</v>
+      </c>
+      <c r="J94" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="16">
+        <v>50</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="12">
+        <v>-3</v>
+      </c>
+      <c r="D95" s="12">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E95" s="12">
+        <v>1</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H95" s="12">
+        <v>0</v>
+      </c>
+      <c r="I95" s="12">
+        <v>0</v>
+      </c>
+      <c r="J95" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="16">
+        <v>72</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="12">
+        <v>-3</v>
+      </c>
+      <c r="D96" s="12">
+        <v>2576.7629999999999</v>
+      </c>
+      <c r="E96" s="12">
+        <v>1</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H96" s="12">
+        <v>0</v>
+      </c>
+      <c r="I96" s="12">
+        <v>0</v>
+      </c>
+      <c r="J96" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="16">
+        <v>83</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="12">
+        <v>-3</v>
+      </c>
+      <c r="D97" s="12">
+        <v>759.91399999999999</v>
+      </c>
+      <c r="E97" s="12">
+        <v>1</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H97" s="12">
+        <v>0</v>
+      </c>
+      <c r="I97" s="12">
+        <v>0</v>
+      </c>
+      <c r="J97" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="16">
+        <v>99</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="12">
+        <v>-3</v>
+      </c>
+      <c r="D98" s="12">
+        <v>438.279</v>
+      </c>
+      <c r="E98" s="12">
+        <v>1</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H98" s="12">
+        <v>0</v>
+      </c>
+      <c r="I98" s="12">
+        <v>0</v>
+      </c>
+      <c r="J98" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="16">
+        <v>73</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="12">
+        <v>-4</v>
+      </c>
+      <c r="D99" s="12">
+        <v>3930.1080000000002</v>
+      </c>
+      <c r="E99" s="12">
+        <v>1</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H99" s="12">
+        <v>0</v>
+      </c>
+      <c r="I99" s="12">
+        <v>0</v>
+      </c>
+      <c r="J99" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="16">
+        <v>84</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="12">
+        <v>-4</v>
+      </c>
+      <c r="D100" s="12">
+        <v>759.91399999999999</v>
+      </c>
+      <c r="E100" s="12">
+        <v>1</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H100" s="12">
+        <v>0</v>
+      </c>
+      <c r="I100" s="12">
+        <v>0</v>
+      </c>
+      <c r="J100" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="16">
+        <v>100</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="12">
+        <v>-4</v>
+      </c>
+      <c r="D101" s="12">
+        <v>544.41600000000005</v>
+      </c>
+      <c r="E101" s="12">
+        <v>1</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H101" s="12">
+        <v>0</v>
+      </c>
+      <c r="I101" s="12">
+        <v>0</v>
+      </c>
+      <c r="J101" s="12">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{57815950-4DD1-4E72-A9E5-635C71BA4E55}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J98">
-      <sortCondition descending="1" ref="C1"/>
+  <autoFilter ref="A1:J93" xr:uid="{57815950-4DD1-4E72-A9E5-635C71BA4E55}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J101">
+      <sortCondition descending="1" ref="C1:C93"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCB79DA-F29E-4457-BBCC-3804B154E108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED6D745-EB7E-4B07-88B2-C7DFAD4507B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" tabRatio="840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
@@ -34,13 +34,13 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">dutchGermanPlants2015_from_emla!$A$1:$H$440</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">extendedDE!$B$1:$J$272</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">extendedDEmoreoptimal!$B$1:$J$193</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">extendedNL!$A$1:$J$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">extendedNL!$A$1:$J$101</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">extendedNL2020!$A$1:$K$66</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">two_techs_DE!$B$1:$I$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId15"/>
+    <pivotCache cacheId="0" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3993" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4000" uniqueCount="448">
   <si>
     <t>Technology</t>
   </si>
@@ -1465,6 +1465,12 @@
   </si>
   <si>
     <t>erased power plants with negative age, except for the ones being installed 4 years before and that are in target capacpities (PV, windonshore and windoffshor)</t>
+  </si>
+  <si>
+    <t>Preinstalled capacity</t>
+  </si>
+  <si>
+    <t>MW</t>
   </si>
 </sst>
 </file>
@@ -3795,7 +3801,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{52F3B87C-97DD-428A-994C-5076FC20298A}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{52F3B87C-97DD-428A-994C-5076FC20298A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -32249,11 +32255,11 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -32267,10 +32273,12 @@
     <col min="7" max="7" width="11.26953125" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="12"/>
+    <col min="10" max="12" width="9.1796875" style="12"/>
+    <col min="13" max="13" width="39.36328125" style="12" customWidth="1"/>
+    <col min="14" max="16384" width="9.1796875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
@@ -32302,7 +32310,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="16">
         <v>52</v>
       </c>
@@ -32340,7 +32348,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="16">
         <v>53</v>
       </c>
@@ -32375,7 +32383,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="16">
         <v>32</v>
       </c>
@@ -32410,7 +32418,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="16">
         <v>33</v>
       </c>
@@ -32445,7 +32453,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="16">
         <v>34</v>
       </c>
@@ -32480,7 +32488,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="16">
         <v>35</v>
       </c>
@@ -32512,7 +32520,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="16">
         <v>36</v>
       </c>
@@ -32543,8 +32551,14 @@
       <c r="J8" s="12">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="M8" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="16">
         <v>54</v>
       </c>
@@ -32575,8 +32589,14 @@
       <c r="J9" s="12">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="M9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="12">
+        <v>11792</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="16">
         <v>37</v>
       </c>
@@ -32607,8 +32627,14 @@
       <c r="J10" s="12">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="12">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="16">
         <v>38</v>
       </c>
@@ -32639,8 +32665,14 @@
       <c r="J11" s="12">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="M11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="12">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="16">
         <v>39</v>
       </c>
@@ -32671,8 +32703,14 @@
       <c r="J12" s="12">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="M12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="12">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="16">
         <v>1</v>
       </c>
@@ -32703,8 +32741,14 @@
       <c r="J13" s="12">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="M13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="16">
         <v>2</v>
       </c>
@@ -32736,7 +32780,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" s="16">
         <v>8</v>
       </c>
@@ -32768,7 +32812,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" s="16">
         <v>40</v>
       </c>
@@ -34893,19 +34937,19 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="16">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C82" s="12">
         <v>-1</v>
       </c>
       <c r="D82" s="12">
-        <v>341</v>
+        <v>397.779</v>
       </c>
       <c r="E82" s="12">
-        <v>0.52</v>
+        <v>1</v>
       </c>
       <c r="F82" s="12" t="s">
         <v>40</v>
@@ -34920,24 +34964,24 @@
         <v>0</v>
       </c>
       <c r="J82" s="12">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="16">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C83" s="12">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D83" s="12">
-        <v>341</v>
+        <v>393.40899999999999</v>
       </c>
       <c r="E83" s="12">
-        <v>0.52</v>
+        <v>1</v>
       </c>
       <c r="F83" s="12" t="s">
         <v>40</v>
@@ -34952,24 +34996,24 @@
         <v>0</v>
       </c>
       <c r="J83" s="12">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="16">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C84" s="12">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D84" s="12">
-        <v>435</v>
+        <v>438.279</v>
       </c>
       <c r="E84" s="12">
-        <v>0.56999999999999995</v>
+        <v>1</v>
       </c>
       <c r="F84" s="12" t="s">
         <v>40</v>
@@ -34984,21 +35028,21 @@
         <v>0</v>
       </c>
       <c r="J84" s="12">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="16">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C85" s="12">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="D85" s="12">
-        <v>4.2999999999999997E-2</v>
+        <v>544.41600000000005</v>
       </c>
       <c r="E85" s="12">
         <v>1</v>
@@ -35021,16 +35065,16 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="16">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C86" s="12">
         <v>-1</v>
       </c>
       <c r="D86" s="12">
-        <v>3095.902</v>
+        <v>732.62</v>
       </c>
       <c r="E86" s="12">
         <v>1</v>
@@ -35053,16 +35097,16 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="16">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B87" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C87" s="12">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D87" s="12">
-        <v>732.62</v>
+        <v>730.97299999999996</v>
       </c>
       <c r="E87" s="12">
         <v>1</v>
@@ -35085,16 +35129,16 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="16">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C88" s="12">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D88" s="12">
-        <v>397.779</v>
+        <v>759.91399999999999</v>
       </c>
       <c r="E88" s="12">
         <v>1</v>
@@ -35117,19 +35161,19 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="16">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C89" s="12">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D89" s="12">
-        <v>435</v>
+        <v>759.91399999999999</v>
       </c>
       <c r="E89" s="12">
-        <v>0.56999999999999995</v>
+        <v>1</v>
       </c>
       <c r="F89" s="12" t="s">
         <v>40</v>
@@ -35144,24 +35188,24 @@
         <v>0</v>
       </c>
       <c r="J89" s="12">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="16">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C90" s="12">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D90" s="12">
-        <v>435</v>
+        <v>3095.902</v>
       </c>
       <c r="E90" s="12">
-        <v>0.56999999999999995</v>
+        <v>1</v>
       </c>
       <c r="F90" s="12" t="s">
         <v>40</v>
@@ -35176,21 +35220,21 @@
         <v>0</v>
       </c>
       <c r="J90" s="12">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="16">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C91" s="12">
         <v>-2</v>
       </c>
       <c r="D91" s="12">
-        <v>3.5000000000000003E-2</v>
+        <v>2189.6350000000002</v>
       </c>
       <c r="E91" s="12">
         <v>1</v>
@@ -35213,16 +35257,16 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="16">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B92" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C92" s="12">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D92" s="12">
-        <v>2189.6350000000002</v>
+        <v>2576.7629999999999</v>
       </c>
       <c r="E92" s="12">
         <v>1</v>
@@ -35245,16 +35289,16 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="16">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C93" s="12">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D93" s="12">
-        <v>730.97299999999996</v>
+        <v>3930.1080000000002</v>
       </c>
       <c r="E93" s="12">
         <v>1</v>
@@ -35277,16 +35321,16 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="16">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C94" s="12">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D94" s="12">
-        <v>393.40899999999999</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="E94" s="12">
         <v>1</v>
@@ -35309,16 +35353,16 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="16">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B95" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C95" s="12">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D95" s="12">
-        <v>2.8000000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E95" s="12">
         <v>1</v>
@@ -35341,16 +35385,16 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="16">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C96" s="12">
         <v>-3</v>
       </c>
       <c r="D96" s="12">
-        <v>2576.7629999999999</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E96" s="12">
         <v>1</v>
@@ -35373,19 +35417,19 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="16">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C97" s="12">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D97" s="12">
-        <v>759.91399999999999</v>
+        <v>341</v>
       </c>
       <c r="E97" s="12">
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="F97" s="12" t="s">
         <v>40</v>
@@ -35400,24 +35444,24 @@
         <v>0</v>
       </c>
       <c r="J97" s="12">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="16">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C98" s="12">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D98" s="12">
-        <v>438.279</v>
+        <v>341</v>
       </c>
       <c r="E98" s="12">
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="F98" s="12" t="s">
         <v>40</v>
@@ -35432,24 +35476,24 @@
         <v>0</v>
       </c>
       <c r="J98" s="12">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="16">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C99" s="12">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="D99" s="12">
-        <v>3930.1080000000002</v>
+        <v>435</v>
       </c>
       <c r="E99" s="12">
-        <v>1</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F99" s="12" t="s">
         <v>40</v>
@@ -35464,24 +35508,24 @@
         <v>0</v>
       </c>
       <c r="J99" s="12">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="16">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C100" s="12">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D100" s="12">
-        <v>759.91399999999999</v>
+        <v>435</v>
       </c>
       <c r="E100" s="12">
-        <v>1</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F100" s="12" t="s">
         <v>40</v>
@@ -35496,24 +35540,24 @@
         <v>0</v>
       </c>
       <c r="J100" s="12">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="16">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C101" s="12">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D101" s="12">
-        <v>544.41600000000005</v>
+        <v>435</v>
       </c>
       <c r="E101" s="12">
-        <v>1</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F101" s="12" t="s">
         <v>40</v>
@@ -35528,13 +35572,13 @@
         <v>0</v>
       </c>
       <c r="J101" s="12">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J93" xr:uid="{57815950-4DD1-4E72-A9E5-635C71BA4E55}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J101">
-      <sortCondition descending="1" ref="C1:C93"/>
+  <autoFilter ref="A1:J101" xr:uid="{57815950-4DD1-4E72-A9E5-635C71BA4E55}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A82:J101">
+      <sortCondition descending="1" ref="B1:B101"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -1,46 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED6D745-EB7E-4B07-88B2-C7DFAD4507B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F46BB2-B22E-437C-B384-DF7C6F750C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
     <sheet name="extendedDEmoreoptimal" sheetId="12" r:id="rId2"/>
     <sheet name="extendedDE" sheetId="1" r:id="rId3"/>
     <sheet name="extendedNLold" sheetId="6" r:id="rId4"/>
-    <sheet name="extendedNL" sheetId="14" r:id="rId5"/>
-    <sheet name="extendedNL2020" sheetId="11" r:id="rId6"/>
-    <sheet name="powerplants_grouped" sheetId="3" r:id="rId7"/>
-    <sheet name="groupedDE_RES" sheetId="8" r:id="rId8"/>
-    <sheet name="two_techs_DE" sheetId="10" r:id="rId9"/>
-    <sheet name="germany2019" sheetId="5" r:id="rId10"/>
-    <sheet name="dutchGermanPlants2015_from_emla" sheetId="13" r:id="rId11"/>
+    <sheet name="groupedNLWiP" sheetId="15" r:id="rId5"/>
+    <sheet name="extendedNL" sheetId="14" r:id="rId6"/>
+    <sheet name="extendedNL2020" sheetId="11" r:id="rId7"/>
+    <sheet name="powerplants_grouped_DE" sheetId="3" r:id="rId8"/>
+    <sheet name="groupedDE_RES" sheetId="8" r:id="rId9"/>
+    <sheet name="two_techs_DE" sheetId="10" r:id="rId10"/>
+    <sheet name="germany2019" sheetId="5" r:id="rId11"/>
+    <sheet name="dutchGermanPlants2015_from_emla" sheetId="13" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">dutchGermanPlants2015_from_emla!$A$1:$H$440</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">dutchGermanPlants2015_from_emla!$A$1:$H$440</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">extendedDE!$B$1:$J$272</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">extendedDEmoreoptimal!$B$1:$J$193</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">extendedNL!$A$1:$J$101</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">extendedNL2020!$A$1:$K$66</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">two_techs_DE!$B$1:$I$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">extendedNL!$A$1:$J$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">extendedNL2020!$A$1:$K$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">two_techs_DE!$B$1:$I$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId15"/>
+    <pivotCache cacheId="0" r:id="rId16"/>
+    <pivotCache cacheId="6" r:id="rId17"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -105,7 +107,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -127,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4000" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4012" uniqueCount="448">
   <si>
     <t>Technology</t>
   </si>
@@ -1548,7 +1550,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1604,12 +1606,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1655,6 +1666,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1837,7 +1854,7 @@
       <sheetName val="Coupling Parameters"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="B2">
@@ -1873,7 +1890,8 @@
       <sheetName val="Potentials"/>
       <sheetName val="Dismantled"/>
       <sheetName val="backup"/>
-      <sheetName val="CO2"/>
+      <sheetName val="CO2DE"/>
+      <sheetName val="yearlyCO2"/>
       <sheetName val="Governments"/>
       <sheetName val="GeometricTrends"/>
       <sheetName val="NewTechnologies"/>
@@ -1883,7 +1901,6 @@
       <sheetName val="IntermittentResourceProfiles"/>
       <sheetName val="MarketStabilityReserve"/>
       <sheetName val="NationalGovernments"/>
-      <sheetName val="yearly targets"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1896,7 +1913,6 @@
           </cell>
         </row>
         <row r="3">
-          <cell r="A3"/>
           <cell r="B3" t="str">
             <v>Biomass_CHP_wood_pellets_PH</v>
           </cell>
@@ -1910,49 +1926,41 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="A5"/>
           <cell r="B5" t="str">
             <v>CCGT_CHP_backpressure_DH</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="A6"/>
           <cell r="B6" t="str">
             <v>CCGT_CHP_backpressure_PH</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="A7"/>
           <cell r="B7" t="str">
             <v>CCS</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="A8"/>
           <cell r="B8" t="str">
             <v>CSP_Parabolic</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="A9"/>
           <cell r="B9" t="str">
             <v>CSP_Tower</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="A10"/>
           <cell r="B10" t="str">
             <v>Hydrogen_to_Jet_Fuel</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="A11"/>
           <cell r="B11" t="str">
             <v>Hydropower_ROR</v>
           </cell>
         </row>
         <row r="12">
-          <cell r="A12"/>
           <cell r="B12" t="str">
             <v>Hydropower_reservoir_large</v>
           </cell>
@@ -1966,7 +1974,6 @@
           </cell>
         </row>
         <row r="14">
-          <cell r="A14"/>
           <cell r="B14" t="str">
             <v>Hydropower_reservoir_small</v>
           </cell>
@@ -1980,13 +1987,11 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16"/>
           <cell r="B16" t="str">
             <v>Nuclear_CHP_DH</v>
           </cell>
         </row>
         <row r="17">
-          <cell r="A17"/>
           <cell r="B17" t="str">
             <v>Nuclear_CHP_PH</v>
           </cell>
@@ -2000,19 +2005,16 @@
           </cell>
         </row>
         <row r="19">
-          <cell r="A19"/>
           <cell r="B19" t="str">
             <v>PEM_Electrolyzer</v>
           </cell>
         </row>
         <row r="20">
-          <cell r="A20"/>
           <cell r="B20" t="str">
             <v>PV_commercial_systems</v>
           </cell>
         </row>
         <row r="21">
-          <cell r="A21"/>
           <cell r="B21" t="str">
             <v>PV_residential</v>
           </cell>
@@ -2026,7 +2028,6 @@
           </cell>
         </row>
         <row r="23">
-          <cell r="A23"/>
           <cell r="B23" t="str">
             <v>Power_to_Jet_Fuel</v>
           </cell>
@@ -2048,19 +2049,16 @@
           </cell>
         </row>
         <row r="26">
-          <cell r="A26"/>
           <cell r="B26" t="str">
             <v>Wave_energy</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="A27"/>
           <cell r="B27" t="str">
             <v>Lithium_ion_battery</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="A28"/>
           <cell r="B28" t="str">
             <v>Pumped_hydro</v>
           </cell>
@@ -2090,34 +2088,34 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
       <sheetData sheetId="29" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -2159,6 +2157,96 @@
     </cacheField>
     <cacheField name="Efficiency" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.20080000000000001" maxValue="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ingrid Sanchez Jimenez" refreshedDate="44881.620036805558" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="100" xr:uid="{62F55ECE-3FCC-4B3E-A613-72DA3A98415C}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B1:J101" sheet="extendedNL"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="Technology" numFmtId="0">
+      <sharedItems count="9">
+        <s v="OCGT"/>
+        <s v="CCGT_CHP_backpressure_DH"/>
+        <s v="Biomass_CHP_wood_pellets_DH"/>
+        <s v="CCGT"/>
+        <s v="Hydropower_reservoir_medium"/>
+        <s v="PV_utility_systems"/>
+        <s v="WTG_onshore"/>
+        <s v="Nuclear"/>
+        <s v="WTG_offshore"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Age" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-4" maxValue="45" count="33">
+        <n v="45"/>
+        <n v="36"/>
+        <n v="35"/>
+        <n v="34"/>
+        <n v="33"/>
+        <n v="32"/>
+        <n v="30"/>
+        <n v="29"/>
+        <n v="25"/>
+        <n v="24"/>
+        <n v="23"/>
+        <n v="22"/>
+        <n v="19"/>
+        <n v="15"/>
+        <n v="14"/>
+        <n v="13"/>
+        <n v="12"/>
+        <n v="11"/>
+        <n v="10"/>
+        <n v="9"/>
+        <n v="8"/>
+        <n v="7"/>
+        <n v="6"/>
+        <n v="5"/>
+        <n v="4"/>
+        <n v="3"/>
+        <n v="2"/>
+        <n v="1"/>
+        <n v="0"/>
+        <n v="-1"/>
+        <n v="-2"/>
+        <n v="-3"/>
+        <n v="-4"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Capacity" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.0999999999999999E-2" maxValue="3930.1080000000002"/>
+    </cacheField>
+    <cacheField name="Efficiency" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.3" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Location" numFmtId="0">
+      <sharedItems count="1">
+        <s v="NL"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Owner" numFmtId="0">
+      <sharedItems count="1">
+        <s v="ProducerNL"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="DischarginEfficiency" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="cash" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="Availability" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.74200913242009103" maxValue="1"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -3800,6 +3888,1111 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="100">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="324"/>
+    <n v="0.36299999999999999"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="136"/>
+    <n v="0.36299999999999999"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="97"/>
+    <n v="0.38"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="25"/>
+    <n v="0.42"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="25"/>
+    <n v="0.42"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="26"/>
+    <n v="0.41"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="103"/>
+    <n v="0.42"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="375"/>
+    <n v="0.38"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="81"/>
+    <n v="0.42"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="28"/>
+    <n v="0.41"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="217"/>
+    <n v="0.42"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="631"/>
+    <n v="0.42"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="630"/>
+    <n v="0.41"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="341"/>
+    <n v="0.52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="266"/>
+    <n v="0.48"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="247"/>
+    <n v="0.53"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="341"/>
+    <n v="0.52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="341"/>
+    <n v="0.52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="220"/>
+    <n v="0.42"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="144"/>
+    <n v="0.41"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="12"/>
+    <n v="245"/>
+    <n v="0.51"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="78"/>
+    <n v="0.42"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <n v="124"/>
+    <n v="0.35"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <n v="2"/>
+    <n v="0.3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.74200913242009103"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="14"/>
+    <n v="38.613"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="14"/>
+    <n v="75.769000000000005"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="14"/>
+    <n v="1016.313"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="15"/>
+    <n v="484"/>
+    <n v="0.34"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.94999999975000005"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="15"/>
+    <n v="24.495000000000001"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="15"/>
+    <n v="285.59800000000001"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="16"/>
+    <n v="57.546999999999997"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="16"/>
+    <n v="317.36399999999998"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="17"/>
+    <n v="144.99700000000001"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="17"/>
+    <n v="442.11399999999998"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="18"/>
+    <n v="435"/>
+    <n v="0.59"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="18"/>
+    <n v="435"/>
+    <n v="0.59"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="18"/>
+    <n v="8.3780000000000001"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="18"/>
+    <n v="1.0999999999999999E-2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="19"/>
+    <n v="435"/>
+    <n v="0.58699999999999997"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="19"/>
+    <n v="435"/>
+    <n v="0.58699999999999997"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="19"/>
+    <n v="425"/>
+    <n v="0.59"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="19"/>
+    <n v="1.7"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="19"/>
+    <n v="15.348000000000001"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="19"/>
+    <n v="157.97699999999998"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="20"/>
+    <n v="426"/>
+    <n v="0.57999999999999996"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="20"/>
+    <n v="19.411999999999999"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="20"/>
+    <n v="38.570999999999998"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="21"/>
+    <n v="420"/>
+    <n v="0.59"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="21"/>
+    <n v="72"/>
+    <n v="0.44"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="21"/>
+    <n v="72"/>
+    <n v="0.44"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="21"/>
+    <n v="151.97"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="21"/>
+    <n v="165.00900000000001"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="22"/>
+    <n v="437"/>
+    <n v="0.57999999999999996"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="22"/>
+    <n v="435"/>
+    <n v="0.59"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="22"/>
+    <n v="435"/>
+    <n v="0.59"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="22"/>
+    <n v="377.86699999999996"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="23"/>
+    <n v="1070"/>
+    <n v="0.46"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="23"/>
+    <n v="790"/>
+    <n v="0.46"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="23"/>
+    <n v="780"/>
+    <n v="0.46"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="23"/>
+    <n v="492.642"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="24"/>
+    <n v="790"/>
+    <n v="0.46"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="24"/>
+    <n v="420"/>
+    <n v="0.59"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="24"/>
+    <n v="498.2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="24"/>
+    <n v="128.06899999999999"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="24"/>
+    <n v="162.80100000000002"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="25"/>
+    <n v="437"/>
+    <n v="0.57999999999999996"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="25"/>
+    <n v="437"/>
+    <n v="0.57999999999999996"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="25"/>
+    <n v="633.91399999999999"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="25"/>
+    <n v="403.875"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="25"/>
+    <n v="331.66300000000001"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="26"/>
+    <n v="400"/>
+    <n v="0.56000000000000005"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="26"/>
+    <n v="400"/>
+    <n v="0.56000000000000005"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="26"/>
+    <n v="588.56900000000007"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="26"/>
+    <n v="203.696"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="26"/>
+    <n v="551.90700000000004"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="27"/>
+    <n v="341"/>
+    <n v="0.52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="27"/>
+    <n v="1527.3040000000001"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="27"/>
+    <n v="425.90299999999996"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="28"/>
+    <n v="2400.5370000000003"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="28"/>
+    <n v="341.774"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="29"/>
+    <n v="397.779"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="30"/>
+    <n v="393.40899999999999"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="31"/>
+    <n v="438.279"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="32"/>
+    <n v="544.41600000000005"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="29"/>
+    <n v="732.62"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="30"/>
+    <n v="730.97299999999996"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="31"/>
+    <n v="759.91399999999999"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="32"/>
+    <n v="759.91399999999999"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="29"/>
+    <n v="3095.902"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="30"/>
+    <n v="2189.6350000000002"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="31"/>
+    <n v="2576.7629999999999"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="32"/>
+    <n v="3930.1080000000002"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="29"/>
+    <n v="4.2999999999999997E-2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="30"/>
+    <n v="3.5000000000000003E-2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="31"/>
+    <n v="2.8000000000000001E-2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="29"/>
+    <n v="341"/>
+    <n v="0.52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="29"/>
+    <n v="341"/>
+    <n v="0.52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="29"/>
+    <n v="435"/>
+    <n v="0.56999999999999995"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="30"/>
+    <n v="435"/>
+    <n v="0.56999999999999995"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="30"/>
+    <n v="435"/>
+    <n v="0.56999999999999995"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.9"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{52F3B87C-97DD-428A-994C-5076FC20298A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
@@ -3883,6 +5076,380 @@
     <dataField name="Average of Age" fld="1" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="Sum of Capacity" fld="2" baseField="0" baseItem="0"/>
     <dataField name="Average of Efficiency" fld="3" subtotal="average" baseField="0" baseItem="7"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F884A24B-F05C-421E-9214-C18E5315FFB2}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B95" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="34">
+        <item x="32"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="20"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="92">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x v="29"/>
+    </i>
+    <i r="1">
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Capacity" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -4404,6 +5971,841 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A9FF33-AD05-496F-B170-C2A91E3708F6}">
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="5" width="28.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="13">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4">
+        <v>15.931034482758621</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3232.5011333333327</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>22.6</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5667.1096666666672</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4">
+        <v>31.09375</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7561.9233333333332</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4">
+        <v>36.705882352941174</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1217.6333333333334</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4">
+        <v>56.971428571428568</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2940.2499999999995</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4">
+        <v>38.666666666666664</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6926.3399999999992</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4">
+        <v>35.6</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2704.6666666666665</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4">
+        <v>28.828571428571429</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2481.7674999999999</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>18148.271194668316</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2591.3333333333335</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4">
+        <v>17185.463249999983</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4">
+        <f>C2-5</f>
+        <v>10.931034482758621</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3232.5011333333327</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="13">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" ref="C14:C23" si="0">C3-5</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5667.1096666666672</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="13">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="0"/>
+        <v>26.09375</v>
+      </c>
+      <c r="D15" s="4">
+        <v>7561.9233333333332</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="13">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="0"/>
+        <v>31.705882352941174</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1217.6333333333334</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="13">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="0"/>
+        <v>51.971428571428568</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2940.2499999999995</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="13">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="0"/>
+        <v>33.666666666666664</v>
+      </c>
+      <c r="D18" s="4">
+        <v>6926.3399999999992</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="13">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="0"/>
+        <v>30.6</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2704.6666666666665</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="13">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="0"/>
+        <v>23.828571428571429</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2481.7674999999999</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="13">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="D21" s="4">
+        <v>18148.271194668316</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="13">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2591.3333333333335</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="13">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D23" s="4">
+        <v>17185.463249999983</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="13">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="4">
+        <f>C2+5</f>
+        <v>20.931034482758619</v>
+      </c>
+      <c r="D24" s="4">
+        <v>3232.5011333333327</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="13"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="13"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="13"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="13"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="13"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="13"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="13"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="13"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="13"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="13"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:I34" xr:uid="{37A9FF33-AD05-496F-B170-C2A91E3708F6}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871B8469-CA4D-495B-9C72-1DE61BB7D586}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
@@ -4855,7 +7257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE2FE5B-BFDE-4C21-9291-DDF53677D345}">
   <dimension ref="A1:I381"/>
   <sheetViews>
@@ -15183,8 +17585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF78530-F1D3-4B7A-B937-9D785DB65B2F}">
   <dimension ref="A1:J193"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P164" sqref="P164"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U50" sqref="U50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -32251,15 +34653,782 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BA1035-BB61-4C28-93B8-04D3E7893647}">
+  <dimension ref="A3:F95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>790</v>
+      </c>
+      <c r="F5" s="23"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="22">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="22">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="22">
+        <v>25</v>
+      </c>
+      <c r="B9" s="4">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="22">
+        <v>-2</v>
+      </c>
+      <c r="B11" s="4">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="22">
+        <v>-1</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="22">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="22">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="22">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="22">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="22">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="22">
+        <v>7</v>
+      </c>
+      <c r="B18" s="4">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="22">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="22">
+        <v>9</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="22">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="22">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="22">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="22">
+        <v>6</v>
+      </c>
+      <c r="B26" s="4">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="22">
+        <v>15</v>
+      </c>
+      <c r="B27" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="22">
+        <v>22</v>
+      </c>
+      <c r="B28" s="4">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="22">
+        <v>23</v>
+      </c>
+      <c r="B29" s="4">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="22">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="22">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="22">
+        <v>32</v>
+      </c>
+      <c r="B32" s="4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="22">
+        <v>34</v>
+      </c>
+      <c r="B33" s="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="22">
+        <v>35</v>
+      </c>
+      <c r="B34" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="22">
+        <v>36</v>
+      </c>
+      <c r="B35" s="4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="4">
+        <v>40.418999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="22">
+        <v>-3</v>
+      </c>
+      <c r="B37" s="4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="22">
+        <v>-2</v>
+      </c>
+      <c r="B38" s="4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="22">
+        <v>-1</v>
+      </c>
+      <c r="B39" s="4">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="22">
+        <v>9</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="22">
+        <v>14</v>
+      </c>
+      <c r="B41" s="4">
+        <v>38.613</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="4">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="22">
+        <v>13</v>
+      </c>
+      <c r="B43" s="4">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="22">
+        <v>7</v>
+      </c>
+      <c r="B45" s="4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="22">
+        <v>15</v>
+      </c>
+      <c r="B46" s="4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="22">
+        <v>33</v>
+      </c>
+      <c r="B47" s="4">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="22">
+        <v>45</v>
+      </c>
+      <c r="B48" s="4">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="4">
+        <v>18582.318000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="22">
+        <v>-4</v>
+      </c>
+      <c r="B50" s="4">
+        <v>3930.1080000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="22">
+        <v>-3</v>
+      </c>
+      <c r="B51" s="4">
+        <v>2576.7629999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="22">
+        <v>-2</v>
+      </c>
+      <c r="B52" s="4">
+        <v>2189.6350000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="22">
+        <v>-1</v>
+      </c>
+      <c r="B53" s="4">
+        <v>3095.902</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="22">
+        <v>0</v>
+      </c>
+      <c r="B54" s="4">
+        <v>2400.5370000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="22">
+        <v>1</v>
+      </c>
+      <c r="B55" s="4">
+        <v>1527.3040000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="22">
+        <v>2</v>
+      </c>
+      <c r="B56" s="4">
+        <v>588.56900000000007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="22">
+        <v>3</v>
+      </c>
+      <c r="B57" s="4">
+        <v>633.91399999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="22">
+        <v>4</v>
+      </c>
+      <c r="B58" s="4">
+        <v>498.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="22">
+        <v>5</v>
+      </c>
+      <c r="B59" s="4">
+        <v>492.642</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="22">
+        <v>6</v>
+      </c>
+      <c r="B60" s="4">
+        <v>377.86699999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="22">
+        <v>7</v>
+      </c>
+      <c r="B61" s="4">
+        <v>151.97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="22">
+        <v>8</v>
+      </c>
+      <c r="B62" s="4">
+        <v>19.411999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="22">
+        <v>9</v>
+      </c>
+      <c r="B63" s="4">
+        <v>15.348000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="22">
+        <v>10</v>
+      </c>
+      <c r="B64" s="4">
+        <v>8.3780000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="22">
+        <v>14</v>
+      </c>
+      <c r="B65" s="4">
+        <v>75.769000000000005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="4">
+        <v>3946.1109999999994</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="22">
+        <v>-4</v>
+      </c>
+      <c r="B67" s="4">
+        <v>759.91399999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="22">
+        <v>-3</v>
+      </c>
+      <c r="B68" s="4">
+        <v>759.91399999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="22">
+        <v>-2</v>
+      </c>
+      <c r="B69" s="4">
+        <v>730.97299999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="22">
+        <v>-1</v>
+      </c>
+      <c r="B70" s="4">
+        <v>732.62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="22">
+        <v>2</v>
+      </c>
+      <c r="B71" s="4">
+        <v>203.696</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="22">
+        <v>3</v>
+      </c>
+      <c r="B72" s="4">
+        <v>403.875</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="22">
+        <v>4</v>
+      </c>
+      <c r="B73" s="4">
+        <v>128.06899999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="22">
+        <v>10</v>
+      </c>
+      <c r="B74" s="4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="22">
+        <v>11</v>
+      </c>
+      <c r="B75" s="4">
+        <v>144.99700000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="22">
+        <v>12</v>
+      </c>
+      <c r="B76" s="4">
+        <v>57.546999999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="22">
+        <v>13</v>
+      </c>
+      <c r="B77" s="4">
+        <v>24.495000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="4">
+        <v>6010.8769999999995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="22">
+        <v>-4</v>
+      </c>
+      <c r="B79" s="4">
+        <v>544.41600000000005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="22">
+        <v>-3</v>
+      </c>
+      <c r="B80" s="4">
+        <v>438.279</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="22">
+        <v>-2</v>
+      </c>
+      <c r="B81" s="4">
+        <v>393.40899999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="22">
+        <v>-1</v>
+      </c>
+      <c r="B82" s="4">
+        <v>397.779</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="22">
+        <v>0</v>
+      </c>
+      <c r="B83" s="4">
+        <v>341.774</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="22">
+        <v>1</v>
+      </c>
+      <c r="B84" s="4">
+        <v>425.90299999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="22">
+        <v>2</v>
+      </c>
+      <c r="B85" s="4">
+        <v>551.90700000000004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="22">
+        <v>3</v>
+      </c>
+      <c r="B86" s="4">
+        <v>331.66300000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="22">
+        <v>4</v>
+      </c>
+      <c r="B87" s="4">
+        <v>162.80100000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="22">
+        <v>7</v>
+      </c>
+      <c r="B88" s="4">
+        <v>165.00900000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="22">
+        <v>8</v>
+      </c>
+      <c r="B89" s="4">
+        <v>38.570999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="22">
+        <v>9</v>
+      </c>
+      <c r="B90" s="4">
+        <v>157.97699999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="22">
+        <v>11</v>
+      </c>
+      <c r="B91" s="4">
+        <v>442.11399999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="22">
+        <v>12</v>
+      </c>
+      <c r="B92" s="4">
+        <v>317.36399999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="22">
+        <v>13</v>
+      </c>
+      <c r="B93" s="4">
+        <v>285.59800000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="22">
+        <v>14</v>
+      </c>
+      <c r="B94" s="4">
+        <v>1016.313</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" s="4">
+        <v>46424.724999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57815950-4DD1-4E72-A9E5-635C71BA4E55}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="A1:J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -35586,7 +38755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA576D0-74B9-41EF-8F2C-1A3DC05E8AA3}">
   <dimension ref="A1:L265"/>
   <sheetViews>
@@ -40509,12 +43678,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DF7B89-3137-4483-A2A9-559F907A912A}">
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I34" sqref="A1:I34"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -41535,12 +44704,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1842032F-786B-416F-9171-8FFE55F32C1D}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -42071,839 +45240,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A9FF33-AD05-496F-B170-C2A91E3708F6}">
-  <dimension ref="A1:I34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="5" width="28.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="13">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4">
-        <v>15.931034482758621</v>
-      </c>
-      <c r="D2" s="4">
-        <v>3232.5011333333327</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="12">
-        <v>0</v>
-      </c>
-      <c r="I2" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="13">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>22.6</v>
-      </c>
-      <c r="D3" s="4">
-        <v>5667.1096666666672</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.53574015315305035</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="13">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>31.09375</v>
-      </c>
-      <c r="D4" s="4">
-        <v>7561.9233333333332</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.53574015315305035</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="13">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4">
-        <v>36.705882352941174</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1217.6333333333334</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.53574015315305035</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="13">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4">
-        <v>56.971428571428568</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2940.2499999999995</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.53574015315305035</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="13">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4">
-        <v>38.666666666666664</v>
-      </c>
-      <c r="D7" s="4">
-        <v>6926.3399999999992</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.53574015315305035</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="12">
-        <v>0</v>
-      </c>
-      <c r="I7" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="13">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4">
-        <v>35.6</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2704.6666666666665</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.53574015315305035</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="13">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4">
-        <v>28.828571428571429</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2481.7674999999999</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.53574015315305035</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="13">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="4">
-        <v>10.5</v>
-      </c>
-      <c r="D10" s="4">
-        <v>18148.271194668316</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0</v>
-      </c>
-      <c r="I10" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="13">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D11" s="4">
-        <v>2591.3333333333335</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="13">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="4">
-        <v>14</v>
-      </c>
-      <c r="D12" s="4">
-        <v>17185.463249999983</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="4">
-        <f>C2-5</f>
-        <v>10.931034482758621</v>
-      </c>
-      <c r="D13" s="4">
-        <v>3232.5011333333327</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="12">
-        <v>0</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="13">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4">
-        <f t="shared" ref="C14:C23" si="0">C3-5</f>
-        <v>17.600000000000001</v>
-      </c>
-      <c r="D14" s="4">
-        <v>5667.1096666666672</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.53574015315305035</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="12">
-        <v>0</v>
-      </c>
-      <c r="I14" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="13">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4">
-        <f t="shared" si="0"/>
-        <v>26.09375</v>
-      </c>
-      <c r="D15" s="4">
-        <v>7561.9233333333332</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.53574015315305035</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0</v>
-      </c>
-      <c r="I15" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="13">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4">
-        <f t="shared" si="0"/>
-        <v>31.705882352941174</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1217.6333333333334</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.53574015315305035</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="12">
-        <v>0</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="13">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" si="0"/>
-        <v>51.971428571428568</v>
-      </c>
-      <c r="D17" s="4">
-        <v>2940.2499999999995</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.53574015315305035</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="12">
-        <v>0</v>
-      </c>
-      <c r="I17" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="13">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="4">
-        <f t="shared" si="0"/>
-        <v>33.666666666666664</v>
-      </c>
-      <c r="D18" s="4">
-        <v>6926.3399999999992</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0.53574015315305035</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="12">
-        <v>0</v>
-      </c>
-      <c r="I18" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="13">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="4">
-        <f t="shared" si="0"/>
-        <v>30.6</v>
-      </c>
-      <c r="D19" s="4">
-        <v>2704.6666666666665</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.53574015315305035</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="12">
-        <v>0</v>
-      </c>
-      <c r="I19" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="13">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="4">
-        <f t="shared" si="0"/>
-        <v>23.828571428571429</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2481.7674999999999</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0.53574015315305035</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="12">
-        <v>0</v>
-      </c>
-      <c r="I20" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="13">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="4">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="D21" s="4">
-        <v>18148.271194668316</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="12">
-        <v>0</v>
-      </c>
-      <c r="I21" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="13">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="4">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="4">
-        <v>2591.3333333333335</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="12">
-        <v>0</v>
-      </c>
-      <c r="I22" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="13">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D23" s="4">
-        <v>17185.463249999983</v>
-      </c>
-      <c r="E23" s="4">
-        <v>1</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="12">
-        <v>0</v>
-      </c>
-      <c r="I23" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="13">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="4">
-        <f>C2+5</f>
-        <v>20.931034482758619</v>
-      </c>
-      <c r="D24" s="4">
-        <v>3232.5011333333327</v>
-      </c>
-      <c r="E24" s="4">
-        <v>1</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="12">
-        <v>0</v>
-      </c>
-      <c r="I24" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="13"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="13"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="13"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="13"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="13"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="13"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="13"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="13"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="13"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="13"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="B1:I34" xr:uid="{37A9FF33-AD05-496F-B170-C2A91E3708F6}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D2609C-E11F-47DA-B3AA-2830BB640A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E55204-6C49-4232-BC32-1E46C888A91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" tabRatio="840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16485" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4094" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4101" uniqueCount="451">
   <si>
     <t>Technology</t>
   </si>
@@ -1478,6 +1478,9 @@
   </si>
   <si>
     <t>from prepare power plants script</t>
+  </si>
+  <si>
+    <t>This is to represent imports/exports</t>
   </si>
 </sst>
 </file>
@@ -1536,7 +1539,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1551,6 +1554,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1616,7 +1625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1663,6 +1672,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1878,6 +1888,7 @@
       <sheetName val="TargetInvestorTargets"/>
       <sheetName val="YearlyTargets"/>
       <sheetName val="Potentials"/>
+      <sheetName val="sources"/>
       <sheetName val="Dismantled"/>
       <sheetName val="backup"/>
       <sheetName val="CO2DE"/>
@@ -1903,7 +1914,6 @@
           </cell>
         </row>
         <row r="3">
-          <cell r="A3"/>
           <cell r="B3" t="str">
             <v>Biomass_CHP_wood_pellets_PH</v>
           </cell>
@@ -1917,49 +1927,41 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="A5"/>
           <cell r="B5" t="str">
             <v>CCGT_CHP_backpressure_DH</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="A6"/>
           <cell r="B6" t="str">
             <v>CCGT_CHP_backpressure_PH</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="A7"/>
           <cell r="B7" t="str">
             <v>CCS</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="A8"/>
           <cell r="B8" t="str">
             <v>CSP_Parabolic</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="A9"/>
           <cell r="B9" t="str">
             <v>CSP_Tower</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="A10"/>
           <cell r="B10" t="str">
             <v>Hydrogen_to_Jet_Fuel</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="A11"/>
           <cell r="B11" t="str">
             <v>Hydropower_ROR</v>
           </cell>
         </row>
         <row r="12">
-          <cell r="A12"/>
           <cell r="B12" t="str">
             <v>Hydropower_reservoir_large</v>
           </cell>
@@ -1973,7 +1975,6 @@
           </cell>
         </row>
         <row r="14">
-          <cell r="A14"/>
           <cell r="B14" t="str">
             <v>Hydropower_reservoir_small</v>
           </cell>
@@ -1987,13 +1988,11 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16"/>
           <cell r="B16" t="str">
             <v>Nuclear_CHP_DH</v>
           </cell>
         </row>
         <row r="17">
-          <cell r="A17"/>
           <cell r="B17" t="str">
             <v>Nuclear_CHP_PH</v>
           </cell>
@@ -2007,19 +2006,16 @@
           </cell>
         </row>
         <row r="19">
-          <cell r="A19"/>
           <cell r="B19" t="str">
             <v>PEM_Electrolyzer</v>
           </cell>
         </row>
         <row r="20">
-          <cell r="A20"/>
           <cell r="B20" t="str">
             <v>PV_commercial_systems</v>
           </cell>
         </row>
         <row r="21">
-          <cell r="A21"/>
           <cell r="B21" t="str">
             <v>PV_residential</v>
           </cell>
@@ -2033,7 +2029,6 @@
           </cell>
         </row>
         <row r="23">
-          <cell r="A23"/>
           <cell r="B23" t="str">
             <v>Power_to_Jet_Fuel</v>
           </cell>
@@ -2055,19 +2050,16 @@
           </cell>
         </row>
         <row r="26">
-          <cell r="A26"/>
           <cell r="B26" t="str">
             <v>Wave_energy</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="A27"/>
           <cell r="B27" t="str">
             <v>Lithium_ion_battery</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="A28"/>
           <cell r="B28" t="str">
             <v>Pumped_hydro</v>
           </cell>
@@ -2126,6 +2118,7 @@
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -21580,13 +21573,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B88372-FD70-4A88-9C48-DBF8E6D97E61}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="12"/>
@@ -22101,7 +22097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:12">
       <c r="A17" s="13">
         <v>15</v>
       </c>
@@ -22133,7 +22129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:12">
       <c r="A18" s="13">
         <v>16</v>
       </c>
@@ -22165,7 +22161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:12">
       <c r="A19" s="13">
         <v>17</v>
       </c>
@@ -22197,7 +22193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:12">
       <c r="A20" s="13">
         <v>18</v>
       </c>
@@ -22229,7 +22225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:12">
       <c r="A21" s="13">
         <v>19</v>
       </c>
@@ -22261,7 +22257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:12">
       <c r="A22" s="13">
         <v>20</v>
       </c>
@@ -22293,7 +22289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:12">
       <c r="A23" s="13">
         <v>21</v>
       </c>
@@ -22325,7 +22321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:12">
       <c r="A24" s="13">
         <v>22</v>
       </c>
@@ -22357,7 +22353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:12">
       <c r="A25" s="13">
         <v>23</v>
       </c>
@@ -22389,7 +22385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:12">
       <c r="A26" s="13">
         <v>24</v>
       </c>
@@ -22421,7 +22417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:12">
       <c r="A27" s="13">
         <v>25</v>
       </c>
@@ -22453,7 +22449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:12">
       <c r="A28" s="13">
         <v>26</v>
       </c>
@@ -22485,7 +22481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:12">
       <c r="A29" s="13">
         <v>27</v>
       </c>
@@ -22514,6 +22510,73 @@
         <v>0</v>
       </c>
       <c r="J29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="15">
+        <v>28</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>300</v>
+      </c>
+      <c r="E30">
+        <v>0.1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="12">
+        <v>0</v>
+      </c>
+      <c r="J30" s="12">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="15">
+        <v>29</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="12">
+        <v>0</v>
+      </c>
+      <c r="D31" s="12">
+        <v>300</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="F31" s="12">
+        <v>1</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="12">
+        <v>0</v>
+      </c>
+      <c r="J31" s="12">
         <v>0</v>
       </c>
     </row>

--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -8,40 +8,44 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E55204-6C49-4232-BC32-1E46C888A91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D37E76-45A8-40B5-BC19-954A3284839A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16485" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
     <sheet name="extendedNLold" sheetId="6" r:id="rId2"/>
     <sheet name="extendedNL" sheetId="14" r:id="rId3"/>
-    <sheet name="groupedNL" sheetId="15" r:id="rId4"/>
-    <sheet name="extendedNL2020" sheetId="11" r:id="rId5"/>
-    <sheet name="extendedDEmoreoptimal" sheetId="12" r:id="rId6"/>
-    <sheet name="extendedDE" sheetId="1" r:id="rId7"/>
-    <sheet name="powerplants_grouped_DE" sheetId="3" r:id="rId8"/>
-    <sheet name="groupedDE_RES" sheetId="8" r:id="rId9"/>
-    <sheet name="two_techs_DE" sheetId="10" r:id="rId10"/>
-    <sheet name="germany2019" sheetId="5" r:id="rId11"/>
-    <sheet name="dutchGermanPlants2015_from_emla" sheetId="13" r:id="rId12"/>
+    <sheet name="superGroupedNL" sheetId="15" r:id="rId4"/>
+    <sheet name="groupedNL" sheetId="16" r:id="rId5"/>
+    <sheet name="groupedNLprePP" sheetId="18" r:id="rId6"/>
+    <sheet name="extendedNL2020" sheetId="11" r:id="rId7"/>
+    <sheet name="extendedDEmoreoptimal" sheetId="12" r:id="rId8"/>
+    <sheet name="extendedDE" sheetId="1" r:id="rId9"/>
+    <sheet name="powerplants_grouped_DE" sheetId="3" r:id="rId10"/>
+    <sheet name="groupedDE_RES" sheetId="8" r:id="rId11"/>
+    <sheet name="two_techs_DE" sheetId="10" r:id="rId12"/>
+    <sheet name="germany2019" sheetId="5" r:id="rId13"/>
+    <sheet name="dutchGermanPlants2015_from_emla" sheetId="13" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
-    <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">dutchGermanPlants2015_from_emla!$A$1:$H$440</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">extendedDE!$B$1:$J$272</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">extendedDEmoreoptimal!$B$1:$J$193</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">dutchGermanPlants2015_from_emla!$A$1:$H$440</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">extendedDE!$B$1:$J$272</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">extendedDEmoreoptimal!$B$1:$J$193</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">extendedNL!$A$1:$J$101</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">extendedNL2020!$A$1:$K$66</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">two_techs_DE!$B$1:$I$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">extendedNL2020!$A$1:$K$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">groupedNL!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">superGroupedNL!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">two_techs_DE!$B$1:$I$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId16"/>
+    <pivotCache cacheId="0" r:id="rId18"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -128,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4101" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4207" uniqueCount="451">
   <si>
     <t>Technology</t>
   </si>
@@ -1480,7 +1484,7 @@
     <t>from prepare power plants script</t>
   </si>
   <si>
-    <t>This is to represent imports/exports</t>
+    <t>number</t>
   </si>
 </sst>
 </file>
@@ -1625,7 +1629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1673,6 +1677,14 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1710,7 +1722,7 @@
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4">
+      <sheetData sheetId="4" refreshError="1">
         <row r="129">
           <cell r="E129">
             <v>-0.52200000000000002</v>
@@ -1914,6 +1926,7 @@
           </cell>
         </row>
         <row r="3">
+          <cell r="A3"/>
           <cell r="B3" t="str">
             <v>Biomass_CHP_wood_pellets_PH</v>
           </cell>
@@ -1927,41 +1940,49 @@
           </cell>
         </row>
         <row r="5">
+          <cell r="A5"/>
           <cell r="B5" t="str">
             <v>CCGT_CHP_backpressure_DH</v>
           </cell>
         </row>
         <row r="6">
+          <cell r="A6"/>
           <cell r="B6" t="str">
             <v>CCGT_CHP_backpressure_PH</v>
           </cell>
         </row>
         <row r="7">
+          <cell r="A7"/>
           <cell r="B7" t="str">
             <v>CCS</v>
           </cell>
         </row>
         <row r="8">
+          <cell r="A8"/>
           <cell r="B8" t="str">
             <v>CSP_Parabolic</v>
           </cell>
         </row>
         <row r="9">
+          <cell r="A9"/>
           <cell r="B9" t="str">
             <v>CSP_Tower</v>
           </cell>
         </row>
         <row r="10">
+          <cell r="A10"/>
           <cell r="B10" t="str">
             <v>Hydrogen_to_Jet_Fuel</v>
           </cell>
         </row>
         <row r="11">
+          <cell r="A11"/>
           <cell r="B11" t="str">
             <v>Hydropower_ROR</v>
           </cell>
         </row>
         <row r="12">
+          <cell r="A12"/>
           <cell r="B12" t="str">
             <v>Hydropower_reservoir_large</v>
           </cell>
@@ -1975,6 +1996,7 @@
           </cell>
         </row>
         <row r="14">
+          <cell r="A14"/>
           <cell r="B14" t="str">
             <v>Hydropower_reservoir_small</v>
           </cell>
@@ -1988,11 +2010,13 @@
           </cell>
         </row>
         <row r="16">
+          <cell r="A16"/>
           <cell r="B16" t="str">
             <v>Nuclear_CHP_DH</v>
           </cell>
         </row>
         <row r="17">
+          <cell r="A17"/>
           <cell r="B17" t="str">
             <v>Nuclear_CHP_PH</v>
           </cell>
@@ -2006,16 +2030,19 @@
           </cell>
         </row>
         <row r="19">
+          <cell r="A19"/>
           <cell r="B19" t="str">
             <v>PEM_Electrolyzer</v>
           </cell>
         </row>
         <row r="20">
+          <cell r="A20"/>
           <cell r="B20" t="str">
             <v>PV_commercial_systems</v>
           </cell>
         </row>
         <row r="21">
+          <cell r="A21"/>
           <cell r="B21" t="str">
             <v>PV_residential</v>
           </cell>
@@ -2029,6 +2056,7 @@
           </cell>
         </row>
         <row r="23">
+          <cell r="A23"/>
           <cell r="B23" t="str">
             <v>Power_to_Jet_Fuel</v>
           </cell>
@@ -2050,16 +2078,19 @@
           </cell>
         </row>
         <row r="26">
+          <cell r="A26"/>
           <cell r="B26" t="str">
             <v>Wave_energy</v>
           </cell>
         </row>
         <row r="27">
+          <cell r="A27"/>
           <cell r="B27" t="str">
             <v>Lithium_ion_battery</v>
           </cell>
         </row>
         <row r="28">
+          <cell r="A28"/>
           <cell r="B28" t="str">
             <v>Pumped_hydro</v>
           </cell>
@@ -4404,6 +4435,1570 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DF7B89-3137-4483-A2A9-559F907A912A}">
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="30.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>15.931034482758621</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3232.5011333333327</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.34272443418830756</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>22.6</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5667.1096666666672</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4">
+        <v>31.09375</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7561.9233333333332</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.40441882371711696</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4">
+        <v>36.705882352941174</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1217.6333333333334</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.35399077947121271</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4">
+        <v>56.971428571428568</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2940.2499999999995</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.78107425817078524</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4">
+        <v>38.666666666666664</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6926.3399999999992</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.36004079896582097</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4">
+        <v>35.6</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2704.6666666666665</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4">
+        <v>28.828571428571429</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2481.7674999999999</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.37300777447121924</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>18148.271194668316</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2591.3333333333335</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4">
+        <v>17185.463249999983</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4">
+        <f>C2-5</f>
+        <v>10.931034482758621</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3232.5011333333327</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.34272443418830756</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="13">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" ref="C14:C23" si="0">C3-5</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5667.1096666666672</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="13">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="0"/>
+        <v>26.09375</v>
+      </c>
+      <c r="D15" s="4">
+        <v>7561.9233333333332</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.40441882371711696</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="13">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="0"/>
+        <v>31.705882352941174</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1217.6333333333334</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.35399077947121271</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="13">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="0"/>
+        <v>51.971428571428568</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2940.2499999999995</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.78107425817078524</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="13">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="0"/>
+        <v>33.666666666666664</v>
+      </c>
+      <c r="D18" s="4">
+        <v>6926.3399999999992</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.36004079896582097</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="13">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="0"/>
+        <v>30.6</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2704.6666666666665</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="13">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="0"/>
+        <v>23.828571428571429</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2481.7674999999999</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.37300777447121924</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="13">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="D21" s="4">
+        <v>18148.271194668316</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="13">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2591.3333333333335</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="13">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D23" s="4">
+        <v>17185.463249999983</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="13">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="4">
+        <f>C2+5</f>
+        <v>20.931034482758619</v>
+      </c>
+      <c r="D24" s="4">
+        <v>3232.5011333333327</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.34272443418830756</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="13">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" ref="C25:C34" si="1">C3+5</f>
+        <v>27.6</v>
+      </c>
+      <c r="D25" s="4">
+        <v>5667.1096666666672</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.53574015315305035</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="13">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="1"/>
+        <v>36.09375</v>
+      </c>
+      <c r="D26" s="4">
+        <v>7561.9233333333332</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.40441882371711696</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
+      <c r="I26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="13">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" si="1"/>
+        <v>41.705882352941174</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1217.6333333333334</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.35399077947121271</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="13">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="1"/>
+        <v>61.971428571428568</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2940.2499999999995</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.78107425817078524</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="12">
+        <v>0</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="13">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="1"/>
+        <v>43.666666666666664</v>
+      </c>
+      <c r="D29" s="4">
+        <v>6926.3399999999992</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.36004079896582097</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="12">
+        <v>0</v>
+      </c>
+      <c r="I29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="13">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="1"/>
+        <v>40.6</v>
+      </c>
+      <c r="D30" s="4">
+        <v>2704.6666666666665</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="12">
+        <v>0</v>
+      </c>
+      <c r="I30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="13">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="4">
+        <f t="shared" si="1"/>
+        <v>33.828571428571429</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2481.7674999999999</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.37300777447121924</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="12">
+        <v>0</v>
+      </c>
+      <c r="I31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="13">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
+      </c>
+      <c r="D32" s="4">
+        <v>18148.271194668316</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="12">
+        <v>0</v>
+      </c>
+      <c r="I32" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="13">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2591.3333333333335</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="12">
+        <v>0</v>
+      </c>
+      <c r="I33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="13">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D34" s="4">
+        <v>17185.463249999983</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0</v>
+      </c>
+      <c r="I34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1842032F-786B-416F-9171-8FFE55F32C1D}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="14.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="13">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6">
+        <v>4644.4034000000001</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.35162268780797246</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6">
+        <v>31358.328999999998</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.53826095601515933</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3652.9</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.35399077947121271</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6">
+        <v>8858.7499999999982</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.7811457116585705</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6">
+        <v>20779.019999999997</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.36004079896582097</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6">
+        <v>8599</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6">
+        <v>8194.3024999999998</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.37414216973934089</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6">
+        <v>53555.516075797081</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6">
+        <v>10271.799999999999</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6">
+        <v>20000</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6">
+        <v>20000</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="13">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4">
+        <v>8</v>
+      </c>
+      <c r="D14" s="6">
+        <v>20000</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="13">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4">
+        <v>8</v>
+      </c>
+      <c r="D15" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="13">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4">
+        <v>8</v>
+      </c>
+      <c r="D16" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="13">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4">
+        <v>8</v>
+      </c>
+      <c r="D17" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="13">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A9FF33-AD05-496F-B170-C2A91E3708F6}">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -5238,7 +6833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871B8469-CA4D-495B-9C72-1DE61BB7D586}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
@@ -5690,7 +7285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE2FE5B-BFDE-4C21-9291-DDF53677D345}">
   <dimension ref="A1:I381"/>
   <sheetViews>
@@ -18243,8 +19838,8 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -21573,19 +23168,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B88372-FD70-4A88-9C48-DBF8E6D97E61}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>450</v>
+      </c>
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
@@ -21599,7 +23196,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>448</v>
+        <v>44</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>4</v>
@@ -21613,12 +23210,533 @@
       <c r="J1" s="13" t="s">
         <v>39</v>
       </c>
+      <c r="K1" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="O1" s="7" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="12">
+        <v>20</v>
+      </c>
+      <c r="D2" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.41</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="13">
+        <v>3</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="12">
+        <v>14</v>
+      </c>
+      <c r="D3" s="12">
+        <v>100</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="13">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="12">
+        <v>14</v>
+      </c>
+      <c r="D4" s="12">
+        <v>8000</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="13">
+        <v>5</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="12">
+        <v>13</v>
+      </c>
+      <c r="D5" s="12">
+        <v>484</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.94999999975000005</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="13">
+        <v>6</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="13">
+        <v>7</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <v>30</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="26">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="13">
+        <v>8</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>300</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="26">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="13">
+        <v>9</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12">
+        <v>20000</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="26">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+      <c r="K9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="13">
+        <v>10</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <v>7000</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="26">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J1" xr:uid="{91B88372-FD70-4A88-9C48-DBF8E6D97E61}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J31">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCA0DB4-82B5-4F45-9627-77778B586330}">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="13">
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -21648,8 +23766,11 @@
       <c r="J2" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -21680,8 +23801,11 @@
       <c r="J3" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -21712,8 +23836,11 @@
       <c r="J4" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="K4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -21744,8 +23871,11 @@
       <c r="J5" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="K5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -21776,8 +23906,11 @@
       <c r="J6" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="K6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -21808,15 +23941,849 @@
       <c r="J7" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="13">
+        <v>8</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1141</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.54804557405784404</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="13">
+        <v>9</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12">
+        <v>3</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1294</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.58324574961360121</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="13">
+        <v>10</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12">
+        <v>6</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1292</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.58661764705882347</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="13">
+        <v>11</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="12">
+        <v>9</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1721</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.58600813480534575</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="13">
+        <v>12</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="12">
+        <v>870</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="12">
+        <v>22</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1268</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.5180678233438486</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="13">
+        <v>14</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="12">
+        <v>14</v>
+      </c>
+      <c r="D14" s="12">
+        <v>40.418999999999997</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="13">
+        <v>19</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>2400.5369999999998</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12">
+        <v>1</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="13">
+        <v>20</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="12">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12">
+        <v>2115.873</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="13">
+        <v>21</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="12">
+        <v>3</v>
+      </c>
+      <c r="D17" s="12">
+        <v>2273.5</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12">
+        <v>1</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="13">
+        <v>22</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="12">
+        <v>14</v>
+      </c>
+      <c r="D18" s="12">
+        <v>6010.8769999999986</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12">
+        <v>1</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0</v>
+      </c>
+      <c r="K18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="13">
+        <v>23</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="12">
+        <v>13</v>
+      </c>
+      <c r="D19" s="12">
+        <v>484</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0.94999999975000005</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="24">
+        <v>24</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0</v>
+      </c>
+      <c r="D20" s="12">
+        <v>1</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="26">
+        <v>1</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="24"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="13"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="13"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="13"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="13"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="13"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="13"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="13"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="13"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="17"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="17"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J1" xr:uid="{BCCA0DB4-82B5-4F45-9627-77778B586330}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J21">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E36047A-AB44-4562-9BB1-918983DC7B29}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="13">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="12">
+        <v>33</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1103</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.37737080689029923</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="12">
+        <v>22</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1992</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.47583333333333327</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12">
+        <v>4</v>
+      </c>
+      <c r="D4" s="12">
+        <v>790</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.46</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="12">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2642</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.45987887963663893</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.89988040055444363</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="12">
+        <v>24</v>
+      </c>
+      <c r="D6" s="12">
+        <v>630</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.41</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12">
+        <v>25</v>
+      </c>
+      <c r="D7" s="12">
+        <v>631</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="23">
         <v>-2</v>
       </c>
       <c r="D8" s="12">
@@ -21841,14 +24808,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:10">
       <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="23">
         <v>-1</v>
       </c>
       <c r="D9" s="12">
@@ -21873,7 +24840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:10">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -21905,7 +24872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:10">
       <c r="A11" s="13">
         <v>9</v>
       </c>
@@ -21937,7 +24904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:10">
       <c r="A12" s="13">
         <v>10</v>
       </c>
@@ -21969,7 +24936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:10">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -22001,7 +24968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:10">
       <c r="A14" s="13">
         <v>12</v>
       </c>
@@ -22033,7 +25000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:10">
       <c r="A15" s="13">
         <v>13</v>
       </c>
@@ -22065,7 +25032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:10">
       <c r="A16" s="13">
         <v>14</v>
       </c>
@@ -22097,14 +25064,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:10">
       <c r="A17" s="13">
         <v>15</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="23">
         <v>-4</v>
       </c>
       <c r="D17" s="12">
@@ -22129,14 +25096,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:10">
       <c r="A18" s="13">
         <v>16</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="23">
         <v>-3</v>
       </c>
       <c r="D18" s="12">
@@ -22161,14 +25128,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:10">
       <c r="A19" s="13">
         <v>17</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="23">
         <v>-2</v>
       </c>
       <c r="D19" s="12">
@@ -22193,14 +25160,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:10">
       <c r="A20" s="13">
         <v>18</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="23">
         <v>-1</v>
       </c>
       <c r="D20" s="12">
@@ -22225,7 +25192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:10">
       <c r="A21" s="13">
         <v>19</v>
       </c>
@@ -22257,7 +25224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:10">
       <c r="A22" s="13">
         <v>20</v>
       </c>
@@ -22289,7 +25256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:10">
       <c r="A23" s="13">
         <v>21</v>
       </c>
@@ -22321,7 +25288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:10">
       <c r="A24" s="13">
         <v>22</v>
       </c>
@@ -22353,7 +25320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:10">
       <c r="A25" s="13">
         <v>23</v>
       </c>
@@ -22385,14 +25352,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:10">
       <c r="A26" s="13">
         <v>24</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="23">
         <v>-4</v>
       </c>
       <c r="D26" s="12">
@@ -22417,14 +25384,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:10">
       <c r="A27" s="13">
         <v>25</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="23">
         <v>-3</v>
       </c>
       <c r="D27" s="12">
@@ -22449,14 +25416,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:10">
       <c r="A28" s="13">
         <v>26</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="23">
         <v>-2</v>
       </c>
       <c r="D28" s="12">
@@ -22481,14 +25448,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:10">
       <c r="A29" s="13">
         <v>27</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="23">
         <v>-1</v>
       </c>
       <c r="D29" s="12">
@@ -22513,23 +25480,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:10">
       <c r="A30" s="15">
         <v>28</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
+      <c r="C30" s="12">
+        <v>0</v>
+      </c>
+      <c r="D30" s="12">
         <v>300</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="12">
         <v>0.1</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="12">
         <v>1</v>
       </c>
       <c r="G30" s="12" t="s">
@@ -22544,11 +25511,8 @@
       <c r="J30" s="12">
         <v>0</v>
       </c>
-      <c r="L30" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="15">
         <v>29</v>
       </c>
@@ -22585,7 +25549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA576D0-74B9-41EF-8F2C-1A3DC05E8AA3}">
   <dimension ref="A1:L265"/>
   <sheetViews>
@@ -27508,7 +30472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF78530-F1D3-4B7A-B937-9D785DB65B2F}">
   <dimension ref="A1:J193"/>
   <sheetViews>
@@ -33592,7 +36556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M272"/>
   <sheetViews>
@@ -42356,1568 +45320,4 @@
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DF7B89-3137-4483-A2A9-559F907A912A}">
-  <dimension ref="A1:I34"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="2" max="2" width="30.1796875" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4">
-        <v>15.931034482758621</v>
-      </c>
-      <c r="D2" s="4">
-        <v>3232.5011333333327</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.34272443418830756</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="12">
-        <v>0</v>
-      </c>
-      <c r="I2" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>22.6</v>
-      </c>
-      <c r="D3" s="4">
-        <v>5667.1096666666672</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.53574015315305035</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4">
-        <v>31.09375</v>
-      </c>
-      <c r="D4" s="4">
-        <v>7561.9233333333332</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.40441882371711696</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4">
-        <v>36.705882352941174</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1217.6333333333334</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.35399077947121271</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4">
-        <v>56.971428571428568</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2940.2499999999995</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.78107425817078524</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4">
-        <v>38.666666666666664</v>
-      </c>
-      <c r="D7" s="4">
-        <v>6926.3399999999992</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.36004079896582097</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="12">
-        <v>0</v>
-      </c>
-      <c r="I7" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4">
-        <v>35.6</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2704.6666666666665</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4">
-        <v>28.828571428571429</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2481.7674999999999</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.37300777447121924</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="4">
-        <v>10.5</v>
-      </c>
-      <c r="D10" s="4">
-        <v>18148.271194668316</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0</v>
-      </c>
-      <c r="I10" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="D11" s="4">
-        <v>2591.3333333333335</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4">
-        <v>14</v>
-      </c>
-      <c r="D12" s="4">
-        <v>17185.463249999983</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="4">
-        <f>C2-5</f>
-        <v>10.931034482758621</v>
-      </c>
-      <c r="D13" s="4">
-        <v>3232.5011333333327</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.34272443418830756</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="12">
-        <v>0</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="13">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4">
-        <f t="shared" ref="C14:C23" si="0">C3-5</f>
-        <v>17.600000000000001</v>
-      </c>
-      <c r="D14" s="4">
-        <v>5667.1096666666672</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.53574015315305035</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="12">
-        <v>0</v>
-      </c>
-      <c r="I14" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="13">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="4">
-        <f t="shared" si="0"/>
-        <v>26.09375</v>
-      </c>
-      <c r="D15" s="4">
-        <v>7561.9233333333332</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.40441882371711696</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0</v>
-      </c>
-      <c r="I15" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="13">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="4">
-        <f t="shared" si="0"/>
-        <v>31.705882352941174</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1217.6333333333334</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.35399077947121271</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="12">
-        <v>0</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="13">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" si="0"/>
-        <v>51.971428571428568</v>
-      </c>
-      <c r="D17" s="4">
-        <v>2940.2499999999995</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.78107425817078524</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="12">
-        <v>0</v>
-      </c>
-      <c r="I17" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="13">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4">
-        <f t="shared" si="0"/>
-        <v>33.666666666666664</v>
-      </c>
-      <c r="D18" s="4">
-        <v>6926.3399999999992</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0.36004079896582097</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="12">
-        <v>0</v>
-      </c>
-      <c r="I18" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="13">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="4">
-        <f t="shared" si="0"/>
-        <v>30.6</v>
-      </c>
-      <c r="D19" s="4">
-        <v>2704.6666666666665</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="12">
-        <v>0</v>
-      </c>
-      <c r="I19" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="13">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="4">
-        <f t="shared" si="0"/>
-        <v>23.828571428571429</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2481.7674999999999</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0.37300777447121924</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="12">
-        <v>0</v>
-      </c>
-      <c r="I20" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="13">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="4">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="D21" s="4">
-        <v>18148.271194668316</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="12">
-        <v>0</v>
-      </c>
-      <c r="I21" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="13">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="4">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="4">
-        <v>2591.3333333333335</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="12">
-        <v>0</v>
-      </c>
-      <c r="I22" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="13">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D23" s="4">
-        <v>17185.463249999983</v>
-      </c>
-      <c r="E23" s="4">
-        <v>1</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="12">
-        <v>0</v>
-      </c>
-      <c r="I23" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="13">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="4">
-        <f>C2+5</f>
-        <v>20.931034482758619</v>
-      </c>
-      <c r="D24" s="4">
-        <v>3232.5011333333327</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0.34272443418830756</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="12">
-        <v>0</v>
-      </c>
-      <c r="I24" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="13">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="4">
-        <f t="shared" ref="C25:C34" si="1">C3+5</f>
-        <v>27.6</v>
-      </c>
-      <c r="D25" s="4">
-        <v>5667.1096666666672</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0.53574015315305035</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="12">
-        <v>0</v>
-      </c>
-      <c r="I25" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="13">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="4">
-        <f t="shared" si="1"/>
-        <v>36.09375</v>
-      </c>
-      <c r="D26" s="4">
-        <v>7561.9233333333332</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0.40441882371711696</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" s="12">
-        <v>0</v>
-      </c>
-      <c r="I26" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="13">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="4">
-        <f t="shared" si="1"/>
-        <v>41.705882352941174</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1217.6333333333334</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0.35399077947121271</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="12">
-        <v>0</v>
-      </c>
-      <c r="I27" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="13">
-        <v>26</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="4">
-        <f t="shared" si="1"/>
-        <v>61.971428571428568</v>
-      </c>
-      <c r="D28" s="4">
-        <v>2940.2499999999995</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0.78107425817078524</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="12">
-        <v>0</v>
-      </c>
-      <c r="I28" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="13">
-        <v>27</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="4">
-        <f t="shared" si="1"/>
-        <v>43.666666666666664</v>
-      </c>
-      <c r="D29" s="4">
-        <v>6926.3399999999992</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0.36004079896582097</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H29" s="12">
-        <v>0</v>
-      </c>
-      <c r="I29" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="13">
-        <v>28</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="4">
-        <f t="shared" si="1"/>
-        <v>40.6</v>
-      </c>
-      <c r="D30" s="4">
-        <v>2704.6666666666665</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" s="12">
-        <v>0</v>
-      </c>
-      <c r="I30" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="13">
-        <v>29</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="4">
-        <f t="shared" si="1"/>
-        <v>33.828571428571429</v>
-      </c>
-      <c r="D31" s="4">
-        <v>2481.7674999999999</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0.37300777447121924</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H31" s="12">
-        <v>0</v>
-      </c>
-      <c r="I31" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="13">
-        <v>30</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="4">
-        <f t="shared" si="1"/>
-        <v>15.5</v>
-      </c>
-      <c r="D32" s="4">
-        <v>18148.271194668316</v>
-      </c>
-      <c r="E32" s="4">
-        <v>1</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H32" s="12">
-        <v>0</v>
-      </c>
-      <c r="I32" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="13">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="4">
-        <f t="shared" si="1"/>
-        <v>10.5</v>
-      </c>
-      <c r="D33" s="4">
-        <v>2591.3333333333335</v>
-      </c>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" s="12">
-        <v>0</v>
-      </c>
-      <c r="I33" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="13">
-        <v>32</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="4">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="D34" s="4">
-        <v>17185.463249999983</v>
-      </c>
-      <c r="E34" s="4">
-        <v>1</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H34" s="12">
-        <v>0</v>
-      </c>
-      <c r="I34" s="12">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1842032F-786B-416F-9171-8FFE55F32C1D}">
-  <dimension ref="A1:I18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="2" max="2" width="14.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="13">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4">
-        <v>8</v>
-      </c>
-      <c r="D2" s="6">
-        <v>4644.4034000000001</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.35162268780797246</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="12">
-        <v>0</v>
-      </c>
-      <c r="I2" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="13">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6">
-        <v>31358.328999999998</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.53826095601515933</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="13">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6">
-        <v>5000</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="13">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6">
-        <v>3652.9</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.35399077947121271</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="13">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4">
-        <v>8</v>
-      </c>
-      <c r="D6" s="6">
-        <v>8858.7499999999982</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.7811457116585705</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="13">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6">
-        <v>20779.019999999997</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.36004079896582097</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="12">
-        <v>0</v>
-      </c>
-      <c r="I7" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="13">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4">
-        <v>8</v>
-      </c>
-      <c r="D8" s="6">
-        <v>8599</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.33</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="13">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6">
-        <v>8194.3024999999998</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.37414216973934089</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="13">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="4">
-        <v>8</v>
-      </c>
-      <c r="D10" s="6">
-        <v>53555.516075797081</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0</v>
-      </c>
-      <c r="I10" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="13">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4">
-        <v>8</v>
-      </c>
-      <c r="D11" s="6">
-        <v>10271.799999999999</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="13">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4">
-        <v>8</v>
-      </c>
-      <c r="D12" s="6">
-        <v>20000</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4">
-        <v>8</v>
-      </c>
-      <c r="D13" s="6">
-        <v>20000</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="12">
-        <v>0</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="13">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4">
-        <v>8</v>
-      </c>
-      <c r="D14" s="6">
-        <v>20000</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="12">
-        <v>0</v>
-      </c>
-      <c r="I14" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="13">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="4">
-        <v>8</v>
-      </c>
-      <c r="D15" s="6">
-        <v>5000</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0</v>
-      </c>
-      <c r="I15" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="13">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4">
-        <v>8</v>
-      </c>
-      <c r="D16" s="6">
-        <v>5000</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="12">
-        <v>0</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="13">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4">
-        <v>8</v>
-      </c>
-      <c r="D17" s="6">
-        <v>5000</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="12">
-        <v>0</v>
-      </c>
-      <c r="I17" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="13">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="4">
-        <v>8</v>
-      </c>
-      <c r="D18" s="6">
-        <v>5000</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="12">
-        <v>0</v>
-      </c>
-      <c r="I18" s="12">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D37E76-45A8-40B5-BC19-954A3284839A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DBC084-4D47-4ED4-9B4C-8B937055AE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" tabRatio="840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4207" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4204" uniqueCount="451">
   <si>
     <t>Technology</t>
   </si>
@@ -19838,8 +19838,8 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G80" sqref="G80"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -23170,8 +23170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B88372-FD70-4A88-9C48-DBF8E6D97E61}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -23508,7 +23508,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="12">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="E10" s="12">
         <v>1</v>
@@ -23691,8 +23691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCA0DB4-82B5-4F45-9627-77778B586330}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -24366,39 +24366,16 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="24">
-        <v>24</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="C20" s="12">
-        <v>0</v>
-      </c>
-      <c r="D20" s="12">
-        <v>1</v>
-      </c>
-      <c r="E20" s="12">
-        <v>1</v>
-      </c>
-      <c r="F20" s="26">
-        <v>1</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="12">
-        <v>0</v>
-      </c>
-      <c r="J20" s="12">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="24"/>

--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DBC084-4D47-4ED4-9B4C-8B937055AE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8760742-4394-45A4-B9C6-EDAE747450D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" tabRatio="840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
@@ -23170,8 +23170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B88372-FD70-4A88-9C48-DBF8E6D97E61}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -23691,8 +23691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCA0DB4-82B5-4F45-9627-77778B586330}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8760742-4394-45A4-B9C6-EDAE747450D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC10D107-24EE-4E0F-8708-50A25BE1A1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16485" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4204" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4225" uniqueCount="451">
   <si>
     <t>Technology</t>
   </si>
@@ -1481,10 +1481,10 @@
     <t>availability_weighted_mean</t>
   </si>
   <si>
-    <t>from prepare power plants script</t>
+    <t>number</t>
   </si>
   <si>
-    <t>number</t>
+    <t>highly renewable scenarioi to test if batteries are installed</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1494,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1542,8 +1542,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1565,6 +1572,11 @@
       <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -1625,9 +1637,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1678,16 +1691,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -17613,8 +17625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6B6640-7659-40BC-BB1F-545A343E7684}">
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I37" sqref="A37:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -19838,8 +19850,8 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L45" sqref="L45"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -23170,8 +23182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B88372-FD70-4A88-9C48-DBF8E6D97E61}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -23181,7 +23193,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>0</v>
@@ -23214,7 +23226,7 @@
         <v>37</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -23359,21 +23371,21 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="13">
-        <v>6</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>438</v>
       </c>
       <c r="C6" s="12">
         <v>0</v>
       </c>
       <c r="D6" s="12">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="E6" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="25">
         <v>1</v>
       </c>
       <c r="G6" s="12" t="s">
@@ -23394,21 +23406,21 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="13">
-        <v>7</v>
-      </c>
-      <c r="B7" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>438</v>
       </c>
       <c r="C7" s="12">
         <v>0</v>
       </c>
       <c r="D7" s="12">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="E7" s="12">
         <v>1</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="25">
         <v>1</v>
       </c>
       <c r="G7" s="12" t="s">
@@ -23424,26 +23436,26 @@
         <v>0</v>
       </c>
       <c r="K7" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="13">
-        <v>8</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>438</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="C8" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="12">
-        <v>300</v>
+        <v>20000</v>
       </c>
       <c r="E8" s="12">
         <v>1</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="25">
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
@@ -23459,26 +23471,26 @@
         <v>0</v>
       </c>
       <c r="K8" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="12">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="E9" s="12">
         <v>1</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="25">
         <v>1</v>
       </c>
       <c r="G9" s="12" t="s">
@@ -23494,27 +23506,27 @@
         <v>0</v>
       </c>
       <c r="K9" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="13">
+        <v>57</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="C10" s="12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D10" s="12">
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="12">
-        <v>1</v>
-      </c>
-      <c r="F10" s="26">
-        <v>1</v>
+        <v>0.44</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0.9</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>40</v>
@@ -23529,36 +23541,218 @@
         <v>0</v>
       </c>
       <c r="K10" s="12">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="13">
+        <v>58</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12">
+        <v>7</v>
+      </c>
+      <c r="D11" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.44</v>
+      </c>
+      <c r="F11" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="13">
+        <v>6</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>4000</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="F12" s="12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="A13" s="13">
+        <v>7</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="12">
+        <v>5</v>
+      </c>
+      <c r="D13" s="12">
+        <v>5000</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="A14" s="13">
+        <v>8</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="12">
+        <v>10</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="A15" s="13">
+        <v>9</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="12">
+        <v>15</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="F15" s="12">
+        <v>1</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="A16" s="13">
+        <v>10</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="12">
+        <v>20</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="12"/>
@@ -23691,8 +23885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCA0DB4-82B5-4F45-9627-77778B586330}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -23702,7 +23896,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>0</v>
@@ -23746,7 +23940,7 @@
         <v>33</v>
       </c>
       <c r="D2" s="12">
-        <v>1103</v>
+        <v>2103</v>
       </c>
       <c r="E2" s="12">
         <v>0.37737080689029923</v>
@@ -23781,7 +23975,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="12">
-        <v>1992</v>
+        <v>2992</v>
       </c>
       <c r="E3" s="12">
         <v>0.47583333333333327</v>
@@ -23816,7 +24010,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="12">
-        <v>790</v>
+        <v>450</v>
       </c>
       <c r="E4" s="12">
         <v>0.46</v>
@@ -23848,16 +24042,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="12">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D5" s="12">
-        <v>2642</v>
+        <v>430</v>
       </c>
       <c r="E5" s="12">
-        <v>0.45987887963663893</v>
+        <v>0.41</v>
       </c>
       <c r="F5" s="12">
-        <v>0.89988040055444363</v>
+        <v>0.9</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>40</v>
@@ -23883,16 +24077,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="12">
-        <v>630</v>
+        <v>331</v>
       </c>
       <c r="E6" s="12">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="F6" s="12">
-        <v>0.9</v>
+        <v>0.80000000000000016</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>40</v>
@@ -23915,19 +24109,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" s="12">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D7" s="12">
-        <v>631</v>
+        <v>2141</v>
       </c>
       <c r="E7" s="12">
-        <v>0.42</v>
+        <v>0.54804557405784404</v>
       </c>
       <c r="F7" s="12">
-        <v>0.80000000000000016</v>
+        <v>0.90000000000000013</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>40</v>
@@ -23947,22 +24141,22 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="12">
-        <v>1141</v>
+        <v>1294</v>
       </c>
       <c r="E8" s="12">
-        <v>0.54804557405784404</v>
+        <v>0.58324574961360121</v>
       </c>
       <c r="F8" s="12">
-        <v>0.90000000000000013</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>40</v>
@@ -23982,22 +24176,22 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D9" s="12">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="E9" s="12">
-        <v>0.58324574961360121</v>
+        <v>0.58661764705882347</v>
       </c>
       <c r="F9" s="12">
-        <v>0.89999999999999991</v>
+        <v>0.90000000000000013</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>40</v>
@@ -24017,22 +24211,22 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D10" s="12">
-        <v>1292</v>
+        <v>1721</v>
       </c>
       <c r="E10" s="12">
-        <v>0.58661764705882347</v>
+        <v>0.58600813480534575</v>
       </c>
       <c r="F10" s="12">
-        <v>0.90000000000000013</v>
+        <v>0.9</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>40</v>
@@ -24052,19 +24246,19 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="12">
-        <v>1721</v>
+        <v>1870</v>
       </c>
       <c r="E11" s="12">
-        <v>0.58600813480534575</v>
+        <v>0.59</v>
       </c>
       <c r="F11" s="12">
         <v>0.9</v>
@@ -24087,19 +24281,19 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="12">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D12" s="12">
-        <v>870</v>
+        <v>2268</v>
       </c>
       <c r="E12" s="12">
-        <v>0.59</v>
+        <v>0.5180678233438486</v>
       </c>
       <c r="F12" s="12">
         <v>0.9</v>
@@ -24122,22 +24316,22 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13" s="12">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D13" s="12">
-        <v>1268</v>
+        <v>40.418999999999997</v>
       </c>
       <c r="E13" s="12">
-        <v>0.5180678233438486</v>
+        <v>1</v>
       </c>
       <c r="F13" s="12">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>40</v>
@@ -24157,16 +24351,16 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C14" s="12">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D14" s="12">
-        <v>40.418999999999997</v>
+        <v>2115.873</v>
       </c>
       <c r="E14" s="12">
         <v>1</v>
@@ -24192,16 +24386,16 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="13">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D15" s="12">
-        <v>2400.5369999999998</v>
+        <v>1800</v>
       </c>
       <c r="E15" s="12">
         <v>1</v>
@@ -24227,16 +24421,16 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="13">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" s="12">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D16" s="12">
-        <v>2115.873</v>
+        <v>3600</v>
       </c>
       <c r="E16" s="12">
         <v>1</v>
@@ -24262,22 +24456,22 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="13">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C17" s="12">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D17" s="12">
-        <v>2273.5</v>
+        <v>484</v>
       </c>
       <c r="E17" s="12">
-        <v>1</v>
+        <v>0.34</v>
       </c>
       <c r="F17" s="12">
-        <v>1</v>
+        <v>0.94999999975000005</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>40</v>
@@ -24297,19 +24491,19 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="13">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C18" s="12">
-        <v>14</v>
-      </c>
-      <c r="D18" s="12">
-        <v>6010.8769999999986</v>
+        <v>20</v>
+      </c>
+      <c r="D18" s="26">
+        <v>2300</v>
       </c>
       <c r="E18" s="12">
-        <v>1</v>
+        <v>0.40862500000000002</v>
       </c>
       <c r="F18" s="12">
         <v>1</v>
@@ -24326,28 +24520,28 @@
       <c r="J18" s="12">
         <v>0</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="13">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C19" s="12">
-        <v>13</v>
-      </c>
-      <c r="D19" s="12">
-        <v>484</v>
+        <v>10</v>
+      </c>
+      <c r="D19" s="26">
+        <v>2300</v>
       </c>
       <c r="E19" s="12">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="F19" s="12">
-        <v>0.94999999975000005</v>
+        <v>1</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>40</v>
@@ -24366,40 +24560,39 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="24"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="13"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
+      <c r="A20" s="13">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="12">
+        <v>950</v>
+      </c>
+      <c r="D20" s="12">
+        <v>15000</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="25">
+        <v>1</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0</v>
+      </c>
+      <c r="K20" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="13"/>
@@ -24524,14 +24717,17 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="31.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>0</v>

--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC10D107-24EE-4E0F-8708-50A25BE1A1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF101A8-8CA9-4E6E-89DE-8B8A2ACA9755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16485" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" tabRatio="840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
@@ -45,7 +45,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId18"/>
+    <pivotCache cacheId="1" r:id="rId18"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1734,7 +1734,7 @@
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1">
+      <sheetData sheetId="4">
         <row r="129">
           <cell r="E129">
             <v>-0.52200000000000002</v>
@@ -1911,12 +1911,12 @@
       <sheetName val="StepTrends"/>
       <sheetName val="TargetInvestorTargets"/>
       <sheetName val="YearlyTargets"/>
+      <sheetName val="yearlyCO2"/>
       <sheetName val="Potentials"/>
+      <sheetName val="backup"/>
       <sheetName val="sources"/>
       <sheetName val="Dismantled"/>
-      <sheetName val="backup"/>
       <sheetName val="CO2DE"/>
-      <sheetName val="yearlyCO2"/>
       <sheetName val="Governments"/>
       <sheetName val="GeometricTrends"/>
       <sheetName val="NewTechnologies"/>
@@ -1938,7 +1938,6 @@
           </cell>
         </row>
         <row r="3">
-          <cell r="A3"/>
           <cell r="B3" t="str">
             <v>Biomass_CHP_wood_pellets_PH</v>
           </cell>
@@ -1952,49 +1951,41 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="A5"/>
           <cell r="B5" t="str">
             <v>CCGT_CHP_backpressure_DH</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="A6"/>
           <cell r="B6" t="str">
             <v>CCGT_CHP_backpressure_PH</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="A7"/>
           <cell r="B7" t="str">
             <v>CCS</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="A8"/>
           <cell r="B8" t="str">
             <v>CSP_Parabolic</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="A9"/>
           <cell r="B9" t="str">
             <v>CSP_Tower</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="A10"/>
           <cell r="B10" t="str">
             <v>Hydrogen_to_Jet_Fuel</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="A11"/>
           <cell r="B11" t="str">
             <v>Hydropower_ROR</v>
           </cell>
         </row>
         <row r="12">
-          <cell r="A12"/>
           <cell r="B12" t="str">
             <v>Hydropower_reservoir_large</v>
           </cell>
@@ -2008,7 +1999,6 @@
           </cell>
         </row>
         <row r="14">
-          <cell r="A14"/>
           <cell r="B14" t="str">
             <v>Hydropower_reservoir_small</v>
           </cell>
@@ -2022,13 +2012,11 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16"/>
           <cell r="B16" t="str">
             <v>Nuclear_CHP_DH</v>
           </cell>
         </row>
         <row r="17">
-          <cell r="A17"/>
           <cell r="B17" t="str">
             <v>Nuclear_CHP_PH</v>
           </cell>
@@ -2042,19 +2030,16 @@
           </cell>
         </row>
         <row r="19">
-          <cell r="A19"/>
           <cell r="B19" t="str">
             <v>PEM_Electrolyzer</v>
           </cell>
         </row>
         <row r="20">
-          <cell r="A20"/>
           <cell r="B20" t="str">
             <v>PV_commercial_systems</v>
           </cell>
         </row>
         <row r="21">
-          <cell r="A21"/>
           <cell r="B21" t="str">
             <v>PV_residential</v>
           </cell>
@@ -2068,7 +2053,6 @@
           </cell>
         </row>
         <row r="23">
-          <cell r="A23"/>
           <cell r="B23" t="str">
             <v>Power_to_Jet_Fuel</v>
           </cell>
@@ -2090,19 +2074,16 @@
           </cell>
         </row>
         <row r="26">
-          <cell r="A26"/>
           <cell r="B26" t="str">
             <v>Wave_energy</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="A27"/>
           <cell r="B27" t="str">
             <v>Lithium_ion_battery</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="A28"/>
           <cell r="B28" t="str">
             <v>Pumped_hydro</v>
           </cell>
@@ -2132,36 +2113,36 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3844,7 +3825,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{52F3B87C-97DD-428A-994C-5076FC20298A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{52F3B87C-97DD-428A-994C-5076FC20298A}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -4248,7 +4229,7 @@
   <dimension ref="A3:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -17625,8 +17606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6B6640-7659-40BC-BB1F-545A343E7684}">
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I37" sqref="A37:I37"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -19850,8 +19831,8 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -23886,7 +23867,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -24567,7 +24548,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="12">
-        <v>950</v>
+        <v>30</v>
       </c>
       <c r="D20" s="12">
         <v>15000</v>

--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF101A8-8CA9-4E6E-89DE-8B8A2ACA9755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0768D7-5018-4415-BFEA-A7764B15A357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" tabRatio="840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
@@ -45,7 +45,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId18"/>
+    <pivotCache cacheId="0" r:id="rId18"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4225" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4228" uniqueCount="451">
   <si>
     <t>Technology</t>
   </si>
@@ -1938,6 +1938,7 @@
           </cell>
         </row>
         <row r="3">
+          <cell r="A3"/>
           <cell r="B3" t="str">
             <v>Biomass_CHP_wood_pellets_PH</v>
           </cell>
@@ -1951,41 +1952,49 @@
           </cell>
         </row>
         <row r="5">
+          <cell r="A5"/>
           <cell r="B5" t="str">
             <v>CCGT_CHP_backpressure_DH</v>
           </cell>
         </row>
         <row r="6">
+          <cell r="A6"/>
           <cell r="B6" t="str">
             <v>CCGT_CHP_backpressure_PH</v>
           </cell>
         </row>
         <row r="7">
+          <cell r="A7"/>
           <cell r="B7" t="str">
             <v>CCS</v>
           </cell>
         </row>
         <row r="8">
+          <cell r="A8"/>
           <cell r="B8" t="str">
             <v>CSP_Parabolic</v>
           </cell>
         </row>
         <row r="9">
+          <cell r="A9"/>
           <cell r="B9" t="str">
             <v>CSP_Tower</v>
           </cell>
         </row>
         <row r="10">
+          <cell r="A10"/>
           <cell r="B10" t="str">
             <v>Hydrogen_to_Jet_Fuel</v>
           </cell>
         </row>
         <row r="11">
+          <cell r="A11"/>
           <cell r="B11" t="str">
             <v>Hydropower_ROR</v>
           </cell>
         </row>
         <row r="12">
+          <cell r="A12"/>
           <cell r="B12" t="str">
             <v>Hydropower_reservoir_large</v>
           </cell>
@@ -1999,6 +2008,7 @@
           </cell>
         </row>
         <row r="14">
+          <cell r="A14"/>
           <cell r="B14" t="str">
             <v>Hydropower_reservoir_small</v>
           </cell>
@@ -2012,11 +2022,13 @@
           </cell>
         </row>
         <row r="16">
+          <cell r="A16"/>
           <cell r="B16" t="str">
             <v>Nuclear_CHP_DH</v>
           </cell>
         </row>
         <row r="17">
+          <cell r="A17"/>
           <cell r="B17" t="str">
             <v>Nuclear_CHP_PH</v>
           </cell>
@@ -2030,16 +2042,19 @@
           </cell>
         </row>
         <row r="19">
+          <cell r="A19"/>
           <cell r="B19" t="str">
             <v>PEM_Electrolyzer</v>
           </cell>
         </row>
         <row r="20">
+          <cell r="A20"/>
           <cell r="B20" t="str">
             <v>PV_commercial_systems</v>
           </cell>
         </row>
         <row r="21">
+          <cell r="A21"/>
           <cell r="B21" t="str">
             <v>PV_residential</v>
           </cell>
@@ -2053,6 +2068,7 @@
           </cell>
         </row>
         <row r="23">
+          <cell r="A23"/>
           <cell r="B23" t="str">
             <v>Power_to_Jet_Fuel</v>
           </cell>
@@ -2074,16 +2090,19 @@
           </cell>
         </row>
         <row r="26">
+          <cell r="A26"/>
           <cell r="B26" t="str">
             <v>Wave_energy</v>
           </cell>
         </row>
         <row r="27">
+          <cell r="A27"/>
           <cell r="B27" t="str">
             <v>Lithium_ion_battery</v>
           </cell>
         </row>
         <row r="28">
+          <cell r="A28"/>
           <cell r="B28" t="str">
             <v>Pumped_hydro</v>
           </cell>
@@ -2113,36 +2132,36 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3825,7 +3844,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{52F3B87C-97DD-428A-994C-5076FC20298A}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{52F3B87C-97DD-428A-994C-5076FC20298A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -23866,8 +23885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCA0DB4-82B5-4F45-9627-77778B586330}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -24572,6 +24591,41 @@
         <v>0</v>
       </c>
       <c r="K20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="13">
+        <v>19</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="12">
+        <v>35</v>
+      </c>
+      <c r="D22" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="F22" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0</v>
+      </c>
+      <c r="K22" s="12">
         <v>0</v>
       </c>
     </row>

--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0768D7-5018-4415-BFEA-A7764B15A357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34612F5F-08B3-490D-B79F-1E691B178E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23885,7 +23885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCA0DB4-82B5-4F45-9627-77778B586330}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>

--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0AFDEC-D448-445C-B47B-605256AC84F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEBCF28-F6B4-49CF-A793-ED67508B4A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="27645" windowHeight="16440" tabRatio="971" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId21"/>
-    <pivotCache cacheId="4" r:id="rId22"/>
+    <pivotCache cacheId="1" r:id="rId22"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1961,9 +1961,9 @@
       <sheetName val="CapacityMarkets"/>
       <sheetName val="StrategicReserveOperator"/>
       <sheetName val="EnergyConsumers"/>
+      <sheetName val="Fuels"/>
       <sheetName val="CandidatePowerPlants"/>
       <sheetName val="TechnologiesEmlab"/>
-      <sheetName val="Fuels"/>
       <sheetName val="EnergyProducers"/>
       <sheetName val="FuelPriceTrends"/>
       <sheetName val="ElectricitySpotMarkets"/>
@@ -1985,6 +1985,7 @@
       <sheetName val="IntermittentResourceProfiles"/>
       <sheetName val="MarketStabilityReserve"/>
       <sheetName val="NationalGovernments"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -2221,6 +2222,7 @@
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4200,7 +4202,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31225B4D-55E1-4A3E-AE6B-F08F1930DABD}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31225B4D-55E1-4A3E-AE6B-F08F1930DABD}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -45266,12 +45268,13 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="H2" sqref="H2:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="22.54296875" customWidth="1"/>
+    <col min="8" max="8" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -45330,7 +45333,7 @@
         <v>40</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I2" s="12">
         <v>0</v>
@@ -45365,7 +45368,7 @@
         <v>40</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I3" s="12">
         <v>0</v>
@@ -45400,7 +45403,7 @@
         <v>40</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I4" s="12">
         <v>0</v>
@@ -45435,7 +45438,7 @@
         <v>40</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I5" s="12">
         <v>0</v>
@@ -45470,7 +45473,7 @@
         <v>40</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I6" s="12">
         <v>0</v>
@@ -45505,7 +45508,7 @@
         <v>40</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I7" s="12">
         <v>0</v>
@@ -45540,7 +45543,7 @@
         <v>40</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I8" s="12">
         <v>0</v>
@@ -45575,7 +45578,7 @@
         <v>40</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I9" s="12">
         <v>0</v>
@@ -45610,7 +45613,7 @@
         <v>40</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I10" s="12">
         <v>0</v>
@@ -45645,7 +45648,7 @@
         <v>40</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I11" s="12">
         <v>0</v>
@@ -45680,7 +45683,7 @@
         <v>40</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I12" s="12">
         <v>0</v>
@@ -45715,7 +45718,7 @@
         <v>40</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I13" s="12">
         <v>0</v>
@@ -45750,7 +45753,7 @@
         <v>40</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I14" s="12">
         <v>0</v>
@@ -45785,7 +45788,7 @@
         <v>40</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I15" s="12">
         <v>0</v>
@@ -45820,7 +45823,7 @@
         <v>40</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I16" s="12">
         <v>0</v>
@@ -45855,7 +45858,7 @@
         <v>40</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I17" s="12">
         <v>0</v>
@@ -45890,7 +45893,7 @@
         <v>40</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I18" s="12">
         <v>0</v>
@@ -45925,7 +45928,7 @@
         <v>40</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I19" s="12">
         <v>0</v>
@@ -45960,7 +45963,7 @@
         <v>40</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I20" s="12">
         <v>0</v>
@@ -45995,7 +45998,7 @@
         <v>40</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I21" s="12">
         <v>0</v>
@@ -46030,7 +46033,7 @@
         <v>40</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I22" s="12">
         <v>0</v>
@@ -46065,7 +46068,7 @@
         <v>40</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I23" s="12">
         <v>0</v>
@@ -46100,7 +46103,7 @@
         <v>40</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I24" s="12">
         <v>0</v>
@@ -46135,7 +46138,7 @@
         <v>40</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I25" s="12">
         <v>0</v>
@@ -46170,7 +46173,7 @@
         <v>40</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I26" s="12">
         <v>0</v>
@@ -46205,7 +46208,7 @@
         <v>40</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I27" s="12">
         <v>0</v>
@@ -46240,7 +46243,7 @@
         <v>40</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I28" s="12">
         <v>0</v>
@@ -46275,7 +46278,7 @@
         <v>40</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I29" s="12">
         <v>0</v>
@@ -46310,7 +46313,7 @@
         <v>40</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I30" s="12">
         <v>0</v>
@@ -46345,7 +46348,7 @@
         <v>40</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I31" s="12">
         <v>0</v>
@@ -46380,7 +46383,7 @@
         <v>40</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I32" s="12">
         <v>0</v>
@@ -46415,7 +46418,7 @@
         <v>40</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I33" s="12">
         <v>0</v>
@@ -46450,7 +46453,7 @@
         <v>40</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I34" s="12">
         <v>0</v>
@@ -46485,7 +46488,7 @@
         <v>40</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I35" s="12">
         <v>0</v>
@@ -46520,7 +46523,7 @@
         <v>40</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I36" s="12">
         <v>0</v>
@@ -46555,7 +46558,7 @@
         <v>40</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I37" s="12">
         <v>0</v>
@@ -46590,7 +46593,7 @@
         <v>40</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I38" s="12">
         <v>0</v>
@@ -46625,7 +46628,7 @@
         <v>40</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I39" s="12">
         <v>0</v>
@@ -46660,7 +46663,7 @@
         <v>40</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I40" s="12">
         <v>0</v>
@@ -46695,7 +46698,7 @@
         <v>40</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I41" s="12">
         <v>0</v>
@@ -46730,7 +46733,7 @@
         <v>40</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I42" s="12">
         <v>0</v>
@@ -46765,7 +46768,7 @@
         <v>40</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I43" s="12">
         <v>0</v>
@@ -46800,7 +46803,7 @@
         <v>40</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I44" s="12">
         <v>0</v>
@@ -46835,7 +46838,7 @@
         <v>40</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I45" s="12">
         <v>0</v>
@@ -46870,7 +46873,7 @@
         <v>40</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I46" s="12">
         <v>0</v>
@@ -46905,7 +46908,7 @@
         <v>40</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I47" s="12">
         <v>0</v>
@@ -46940,7 +46943,7 @@
         <v>40</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I48" s="12">
         <v>0</v>
@@ -46975,7 +46978,7 @@
         <v>40</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I49" s="12">
         <v>0</v>
@@ -47010,7 +47013,7 @@
         <v>40</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I50" s="12">
         <v>0</v>
@@ -47045,7 +47048,7 @@
         <v>40</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I51" s="12">
         <v>0</v>

--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEBCF28-F6B4-49CF-A793-ED67508B4A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C68D76E-CB86-46E6-8F42-13D8DBE5B37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="27645" windowHeight="16440" tabRatio="971" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="27645" windowHeight="16440" tabRatio="971" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
@@ -19,38 +19,39 @@
     <sheet name="superGroupedNL" sheetId="15" r:id="rId4"/>
     <sheet name="groupedNLGAS" sheetId="20" r:id="rId5"/>
     <sheet name="AnalysisforNiPlants" sheetId="21" r:id="rId6"/>
-    <sheet name="extendedNL" sheetId="22" r:id="rId7"/>
-    <sheet name="groupedNL" sheetId="16" r:id="rId8"/>
-    <sheet name="groupedNLOld_Ni" sheetId="18" r:id="rId9"/>
-    <sheet name="extendedNL2020" sheetId="11" r:id="rId10"/>
-    <sheet name="extendedDEmoreoptimal" sheetId="12" r:id="rId11"/>
-    <sheet name="extendedDE" sheetId="1" r:id="rId12"/>
-    <sheet name="powerplants_grouped_DE" sheetId="3" r:id="rId13"/>
-    <sheet name="groupedDE_RES" sheetId="8" r:id="rId14"/>
-    <sheet name="two_techs_DE" sheetId="10" r:id="rId15"/>
-    <sheet name="germany2019" sheetId="5" r:id="rId16"/>
-    <sheet name="dutchGermanPlants2015_from_emla" sheetId="13" r:id="rId17"/>
+    <sheet name="extendedNLRES" sheetId="23" r:id="rId7"/>
+    <sheet name="extendedNL" sheetId="22" r:id="rId8"/>
+    <sheet name="groupedNL" sheetId="16" r:id="rId9"/>
+    <sheet name="groupedNLOld_Ni" sheetId="18" r:id="rId10"/>
+    <sheet name="extendedNL2020" sheetId="11" r:id="rId11"/>
+    <sheet name="extendedDEmoreoptimal" sheetId="12" r:id="rId12"/>
+    <sheet name="extendedDE" sheetId="1" r:id="rId13"/>
+    <sheet name="powerplants_grouped_DE" sheetId="3" r:id="rId14"/>
+    <sheet name="groupedDE_RES" sheetId="8" r:id="rId15"/>
+    <sheet name="two_techs_DE" sheetId="10" r:id="rId16"/>
+    <sheet name="germany2019" sheetId="5" r:id="rId17"/>
+    <sheet name="dutchGermanPlants2015_from_emla" sheetId="13" r:id="rId18"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
     <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">dutchGermanPlants2015_from_emla!$A$1:$H$440</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">extendedDE!$B$1:$J$272</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">extendedDEmoreoptimal!$B$1:$J$193</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">extendedNL2020!$A$1:$K$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">dutchGermanPlants2015_from_emla!$A$1:$H$440</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">extendedDE!$B$1:$J$272</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">extendedDEmoreoptimal!$B$1:$J$193</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">extendedNL2020!$A$1:$K$66</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">extendedNLwrong!$A$1:$J$101</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">groupedNL!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">groupedNL!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">groupedNLGAS!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">superGroupedNL!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">two_techs_DE!$B$1:$I$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">two_techs_DE!$B$1:$I$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId21"/>
-    <pivotCache cacheId="1" r:id="rId22"/>
+    <pivotCache cacheId="0" r:id="rId22"/>
+    <pivotCache cacheId="1" r:id="rId23"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -137,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4503" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4658" uniqueCount="458">
   <si>
     <t>Technology</t>
   </si>
@@ -1508,6 +1509,9 @@
   </si>
   <si>
     <t>Cofiring were all assigned to biomass instead of coal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong: Cofiring was assigned to Biomass instead of coal </t>
   </si>
 </sst>
 </file>
@@ -4790,11 +4794,1031 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E36047A-AB44-4562-9BB1-918983DC7B29}">
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="31.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="13">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="12">
+        <v>33</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1103</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.37737080689029923</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="12">
+        <v>22</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1992</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.47583333333333327</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12">
+        <v>4</v>
+      </c>
+      <c r="D4" s="12">
+        <v>790</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.46</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="12">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2642</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.45987887963663893</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.89988040055444363</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="12">
+        <v>24</v>
+      </c>
+      <c r="D6" s="12">
+        <v>630</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.41</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12">
+        <v>25</v>
+      </c>
+      <c r="D7" s="12">
+        <v>631</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="23">
+        <v>-2</v>
+      </c>
+      <c r="D8" s="12">
+        <v>870</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="23">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1117</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.53947179946284685</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12">
+        <v>2</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1141</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.54804557405784404</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="12">
+        <v>3</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1294</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.58324574961360121</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12">
+        <v>6</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1292</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.58661764705882347</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="12">
+        <v>9</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1721</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.58600813480534575</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="13">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="12">
+        <v>10</v>
+      </c>
+      <c r="D14" s="12">
+        <v>870</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="13">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12">
+        <v>22</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1268</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.5180678233438486</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="13">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="12">
+        <v>14</v>
+      </c>
+      <c r="D16" s="12">
+        <v>40.418999999999997</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="13">
+        <v>15</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="23">
+        <v>-4</v>
+      </c>
+      <c r="D17" s="12">
+        <v>3930.1080000000002</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12">
+        <v>1</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="13">
+        <v>16</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="23">
+        <v>-3</v>
+      </c>
+      <c r="D18" s="12">
+        <v>2576.7629999999999</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12">
+        <v>1</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0</v>
+      </c>
+      <c r="M18" s="30"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="13">
+        <v>17</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="23">
+        <v>-2</v>
+      </c>
+      <c r="D19" s="12">
+        <v>2189.6350000000002</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12">
+        <v>1</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+      <c r="M19" s="30"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="13">
+        <v>18</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="23">
+        <v>-1</v>
+      </c>
+      <c r="D20" s="12">
+        <v>3095.902</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12">
+        <v>1</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0</v>
+      </c>
+      <c r="M20" s="30"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="13">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12">
+        <v>2400.5369999999998</v>
+      </c>
+      <c r="E21" s="12">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12">
+        <v>1</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
+      <c r="M21" s="30"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="13">
+        <v>20</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="12">
+        <v>1</v>
+      </c>
+      <c r="D22" s="12">
+        <v>2115.873</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12">
+        <v>1</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="13">
+        <v>21</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="12">
+        <v>3</v>
+      </c>
+      <c r="D23" s="12">
+        <v>2273.5</v>
+      </c>
+      <c r="E23" s="12">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="13">
+        <v>22</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="12">
+        <v>14</v>
+      </c>
+      <c r="D24" s="12">
+        <v>6010.8769999999986</v>
+      </c>
+      <c r="E24" s="12">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12">
+        <v>1</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0</v>
+      </c>
+      <c r="J24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="13">
+        <v>23</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="12">
+        <v>13</v>
+      </c>
+      <c r="D25" s="12">
+        <v>484</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0.94999999975000005</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="13">
+        <v>24</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="23">
+        <v>-4</v>
+      </c>
+      <c r="D26" s="12">
+        <v>759.91399999999999</v>
+      </c>
+      <c r="E26" s="12">
+        <v>1</v>
+      </c>
+      <c r="F26" s="12">
+        <v>1</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="12">
+        <v>0</v>
+      </c>
+      <c r="J26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="13">
+        <v>25</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="23">
+        <v>-3</v>
+      </c>
+      <c r="D27" s="12">
+        <v>759.91399999999999</v>
+      </c>
+      <c r="E27" s="12">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12">
+        <v>1</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="13">
+        <v>26</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="23">
+        <v>-2</v>
+      </c>
+      <c r="D28" s="12">
+        <v>730.97299999999996</v>
+      </c>
+      <c r="E28" s="12">
+        <v>1</v>
+      </c>
+      <c r="F28" s="12">
+        <v>1</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0</v>
+      </c>
+      <c r="J28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="13">
+        <v>27</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="23">
+        <v>-1</v>
+      </c>
+      <c r="D29" s="12">
+        <v>1695.31</v>
+      </c>
+      <c r="E29" s="12">
+        <v>1</v>
+      </c>
+      <c r="F29" s="12">
+        <v>1</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="12">
+        <v>0</v>
+      </c>
+      <c r="J29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="15">
+        <v>28</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="12">
+        <v>0</v>
+      </c>
+      <c r="D30" s="12">
+        <v>300</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="F30" s="12">
+        <v>1</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="12">
+        <v>0</v>
+      </c>
+      <c r="J30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="15">
+        <v>29</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="12">
+        <v>0</v>
+      </c>
+      <c r="D31" s="12">
+        <v>300</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="F31" s="12">
+        <v>1</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="12">
+        <v>0</v>
+      </c>
+      <c r="J31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M17:M21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA576D0-74B9-41EF-8F2C-1A3DC05E8AA3}">
   <dimension ref="A1:L265"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9712,7 +10736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF78530-F1D3-4B7A-B937-9D785DB65B2F}">
   <dimension ref="A1:J193"/>
   <sheetViews>
@@ -15796,7 +16820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M272"/>
   <sheetViews>
@@ -24562,7 +25586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DF7B89-3137-4483-A2A9-559F907A912A}">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -25588,7 +26612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1842032F-786B-416F-9171-8FFE55F32C1D}">
   <dimension ref="A1:I18"/>
   <sheetViews>
@@ -26126,7 +27150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A9FF33-AD05-496F-B170-C2A91E3708F6}">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -26961,7 +27985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871B8469-CA4D-495B-9C72-1DE61BB7D586}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
@@ -27413,7 +28437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE2FE5B-BFDE-4C21-9291-DDF53677D345}">
   <dimension ref="A1:I381"/>
   <sheetViews>
@@ -43311,7 +44335,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -45261,14 +46285,1751 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67609830-ACCB-49F0-B751-AE24D0F6CF61}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:K49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="12"/>
+    <col min="2" max="2" width="22.54296875" style="12" customWidth="1"/>
+    <col min="3" max="7" width="8.7265625" style="12"/>
+    <col min="8" max="8" width="14.90625" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12">
+        <v>341</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.52</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12">
+        <v>800</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12">
+        <v>874</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12">
+        <v>4</v>
+      </c>
+      <c r="D5" s="12">
+        <v>420</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12">
+        <v>6</v>
+      </c>
+      <c r="D6" s="12">
+        <v>872</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.58498853211009172</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12">
+        <v>7</v>
+      </c>
+      <c r="D7" s="12">
+        <v>420</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="12">
+        <v>8</v>
+      </c>
+      <c r="D8" s="12">
+        <v>426</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12">
+        <v>9</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1295</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.58798455598455601</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12">
+        <v>10</v>
+      </c>
+      <c r="D10" s="12">
+        <v>870</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="12">
+        <v>19</v>
+      </c>
+      <c r="D11" s="12">
+        <v>245</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12">
+        <v>22</v>
+      </c>
+      <c r="D12" s="12">
+        <v>682</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.52</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="12">
+        <v>23</v>
+      </c>
+      <c r="D13" s="12">
+        <v>341</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.52</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="12">
+        <v>14</v>
+      </c>
+      <c r="D14" s="12">
+        <v>40.207000000000001</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="12">
+        <v>13</v>
+      </c>
+      <c r="D15" s="12">
+        <v>484</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0.94999999975000005</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <v>2400.5369999999998</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1527.3040000000001</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12">
+        <v>1</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="12">
+        <v>2</v>
+      </c>
+      <c r="D18" s="12">
+        <v>588.56900000000007</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12">
+        <v>1</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0</v>
+      </c>
+      <c r="K18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="12">
+        <v>3</v>
+      </c>
+      <c r="D19" s="12">
+        <v>633.91399999999999</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12">
+        <v>1</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="12">
+        <v>4</v>
+      </c>
+      <c r="D20" s="12">
+        <v>498.2</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12">
+        <v>1</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0</v>
+      </c>
+      <c r="K20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="12">
+        <v>5</v>
+      </c>
+      <c r="D21" s="12">
+        <v>492.642</v>
+      </c>
+      <c r="E21" s="12">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12">
+        <v>1</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="13">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="12">
+        <v>6</v>
+      </c>
+      <c r="D22" s="12">
+        <v>648.74400000000003</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12">
+        <v>1</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0</v>
+      </c>
+      <c r="K22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="12">
+        <v>2</v>
+      </c>
+      <c r="D23" s="12">
+        <v>203.696</v>
+      </c>
+      <c r="E23" s="12">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="12">
+        <v>3</v>
+      </c>
+      <c r="D24" s="12">
+        <v>758.99400000000003</v>
+      </c>
+      <c r="E24" s="12">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12">
+        <v>1</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0</v>
+      </c>
+      <c r="J24" s="12">
+        <v>0</v>
+      </c>
+      <c r="K24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0</v>
+      </c>
+      <c r="D25" s="12">
+        <v>341.774</v>
+      </c>
+      <c r="E25" s="12">
+        <v>1</v>
+      </c>
+      <c r="F25" s="12">
+        <v>1</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="13">
+        <v>25</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="12">
+        <v>1</v>
+      </c>
+      <c r="D26" s="12">
+        <v>425.90300000000002</v>
+      </c>
+      <c r="E26" s="12">
+        <v>1</v>
+      </c>
+      <c r="F26" s="12">
+        <v>1</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="12">
+        <v>0</v>
+      </c>
+      <c r="J26" s="12">
+        <v>0</v>
+      </c>
+      <c r="K26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="13">
+        <v>26</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="12">
+        <v>2</v>
+      </c>
+      <c r="D27" s="12">
+        <v>551.90700000000004</v>
+      </c>
+      <c r="E27" s="12">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12">
+        <v>1</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0</v>
+      </c>
+      <c r="K27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="13">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="12">
+        <v>3</v>
+      </c>
+      <c r="D28" s="12">
+        <v>659.47300000000007</v>
+      </c>
+      <c r="E28" s="12">
+        <v>1</v>
+      </c>
+      <c r="F28" s="12">
+        <v>1</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0</v>
+      </c>
+      <c r="J28" s="12">
+        <v>0</v>
+      </c>
+      <c r="K28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="13">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="12">
+        <v>11</v>
+      </c>
+      <c r="D29" s="12">
+        <v>638.66199999999992</v>
+      </c>
+      <c r="E29" s="12">
+        <v>1</v>
+      </c>
+      <c r="F29" s="12">
+        <v>1</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="12">
+        <v>0</v>
+      </c>
+      <c r="J29" s="12">
+        <v>0</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="13">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="12">
+        <v>12</v>
+      </c>
+      <c r="D30" s="12">
+        <v>317.36399999999998</v>
+      </c>
+      <c r="E30" s="12">
+        <v>1</v>
+      </c>
+      <c r="F30" s="12">
+        <v>1</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="12">
+        <v>0</v>
+      </c>
+      <c r="J30" s="12">
+        <v>0</v>
+      </c>
+      <c r="K30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="13">
+        <v>30</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="12">
+        <v>13</v>
+      </c>
+      <c r="D31" s="12">
+        <v>285.59800000000001</v>
+      </c>
+      <c r="E31" s="12">
+        <v>1</v>
+      </c>
+      <c r="F31" s="12">
+        <v>1</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="12">
+        <v>0</v>
+      </c>
+      <c r="J31" s="12">
+        <v>0</v>
+      </c>
+      <c r="K31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="13">
+        <v>31</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="12">
+        <v>14</v>
+      </c>
+      <c r="D32" s="12">
+        <v>1016.313</v>
+      </c>
+      <c r="E32" s="12">
+        <v>1</v>
+      </c>
+      <c r="F32" s="12">
+        <v>1</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="12">
+        <v>0</v>
+      </c>
+      <c r="J32" s="12">
+        <v>0</v>
+      </c>
+      <c r="K32" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="13">
+        <v>32</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="12">
+        <v>33</v>
+      </c>
+      <c r="D33" s="12">
+        <v>643</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0.38765163297045102</v>
+      </c>
+      <c r="F33" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="12">
+        <v>0</v>
+      </c>
+      <c r="J33" s="12">
+        <v>0</v>
+      </c>
+      <c r="K33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="13">
+        <v>33</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="12">
+        <v>45</v>
+      </c>
+      <c r="D34" s="12">
+        <v>460</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="F34" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" s="12">
+        <v>0</v>
+      </c>
+      <c r="J34" s="12">
+        <v>0</v>
+      </c>
+      <c r="K34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="13">
+        <v>34</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="C35" s="12">
+        <v>14</v>
+      </c>
+      <c r="D35" s="12">
+        <v>1.7679999999999969</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F35" s="12">
+        <v>0.74200913242009103</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" s="12">
+        <v>0</v>
+      </c>
+      <c r="J35" s="12">
+        <v>0</v>
+      </c>
+      <c r="K35" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="13">
+        <v>35</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="12">
+        <v>0</v>
+      </c>
+      <c r="D36" s="12">
+        <v>1200</v>
+      </c>
+      <c r="E36" s="12">
+        <v>1</v>
+      </c>
+      <c r="F36" s="12">
+        <v>1</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="12">
+        <v>0</v>
+      </c>
+      <c r="J36" s="12">
+        <v>0</v>
+      </c>
+      <c r="K36" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="13">
+        <v>36</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="12">
+        <v>0</v>
+      </c>
+      <c r="D37" s="12">
+        <v>1200</v>
+      </c>
+      <c r="E37" s="12">
+        <v>1</v>
+      </c>
+      <c r="F37" s="12">
+        <v>1</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" s="12">
+        <v>0</v>
+      </c>
+      <c r="J37" s="12">
+        <v>0</v>
+      </c>
+      <c r="K37" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="13">
+        <v>37</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="12">
+        <v>0</v>
+      </c>
+      <c r="D38" s="12">
+        <v>1200</v>
+      </c>
+      <c r="E38" s="12">
+        <v>1</v>
+      </c>
+      <c r="F38" s="12">
+        <v>1</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="12">
+        <v>0</v>
+      </c>
+      <c r="J38" s="12">
+        <v>0</v>
+      </c>
+      <c r="K38" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="13">
+        <v>38</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="12">
+        <v>0</v>
+      </c>
+      <c r="D39" s="12">
+        <v>1200</v>
+      </c>
+      <c r="E39" s="12">
+        <v>1</v>
+      </c>
+      <c r="F39" s="12">
+        <v>1</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" s="12">
+        <v>0</v>
+      </c>
+      <c r="J39" s="12">
+        <v>0</v>
+      </c>
+      <c r="K39" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="13">
+        <v>39</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="12">
+        <v>0</v>
+      </c>
+      <c r="D40" s="12">
+        <v>1200</v>
+      </c>
+      <c r="E40" s="12">
+        <v>1</v>
+      </c>
+      <c r="F40" s="12">
+        <v>1</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="12">
+        <v>0</v>
+      </c>
+      <c r="J40" s="12">
+        <v>0</v>
+      </c>
+      <c r="K40" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="13">
+        <v>40</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="12">
+        <v>0</v>
+      </c>
+      <c r="D41" s="12">
+        <v>1200</v>
+      </c>
+      <c r="E41" s="12">
+        <v>1</v>
+      </c>
+      <c r="F41" s="12">
+        <v>1</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="12">
+        <v>0</v>
+      </c>
+      <c r="J41" s="12">
+        <v>0</v>
+      </c>
+      <c r="K41" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="13">
+        <v>41</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="12">
+        <v>0</v>
+      </c>
+      <c r="D42" s="12">
+        <v>1200</v>
+      </c>
+      <c r="E42" s="12">
+        <v>1</v>
+      </c>
+      <c r="F42" s="12">
+        <v>1</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" s="12">
+        <v>0</v>
+      </c>
+      <c r="J42" s="12">
+        <v>0</v>
+      </c>
+      <c r="K42" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="13">
+        <v>42</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="12">
+        <v>0</v>
+      </c>
+      <c r="D43" s="12">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="12">
+        <v>1</v>
+      </c>
+      <c r="F43" s="12">
+        <v>1</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" s="12">
+        <v>0</v>
+      </c>
+      <c r="J43" s="12">
+        <v>0</v>
+      </c>
+      <c r="K43" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="13">
+        <v>43</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="12">
+        <v>0</v>
+      </c>
+      <c r="D44" s="12">
+        <v>1200</v>
+      </c>
+      <c r="E44" s="12">
+        <v>1</v>
+      </c>
+      <c r="F44" s="12">
+        <v>1</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" s="12">
+        <v>0</v>
+      </c>
+      <c r="J44" s="12">
+        <v>0</v>
+      </c>
+      <c r="K44" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="13">
+        <v>44</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="12">
+        <v>0</v>
+      </c>
+      <c r="D45" s="12">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="12">
+        <v>1</v>
+      </c>
+      <c r="F45" s="12">
+        <v>1</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I45" s="12">
+        <v>0</v>
+      </c>
+      <c r="J45" s="12">
+        <v>0</v>
+      </c>
+      <c r="K45" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="13">
+        <v>45</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="12">
+        <v>0</v>
+      </c>
+      <c r="D46" s="12">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="12">
+        <v>1</v>
+      </c>
+      <c r="F46" s="12">
+        <v>1</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" s="12">
+        <v>0</v>
+      </c>
+      <c r="J46" s="12">
+        <v>0</v>
+      </c>
+      <c r="K46" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="13">
+        <v>46</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="12">
+        <v>0</v>
+      </c>
+      <c r="D47" s="12">
+        <v>1200</v>
+      </c>
+      <c r="E47" s="12">
+        <v>1</v>
+      </c>
+      <c r="F47" s="12">
+        <v>1</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I47" s="12">
+        <v>0</v>
+      </c>
+      <c r="J47" s="12">
+        <v>0</v>
+      </c>
+      <c r="K47" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="13">
+        <v>47</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="C48" s="12">
+        <v>0</v>
+      </c>
+      <c r="D48" s="12">
+        <v>100</v>
+      </c>
+      <c r="E48" s="12">
+        <v>1</v>
+      </c>
+      <c r="F48" s="12">
+        <v>1</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" s="12">
+        <v>0</v>
+      </c>
+      <c r="J48" s="12">
+        <v>0</v>
+      </c>
+      <c r="K48" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="13">
+        <v>48</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="C49" s="12">
+        <v>0</v>
+      </c>
+      <c r="D49" s="12">
+        <v>100</v>
+      </c>
+      <c r="E49" s="12">
+        <v>1</v>
+      </c>
+      <c r="F49" s="12">
+        <v>1</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" s="12">
+        <v>0</v>
+      </c>
+      <c r="J49" s="12">
+        <v>0</v>
+      </c>
+      <c r="K49" s="12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAFC4957-C263-4562-A44D-8879B8EAAB8F}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H51"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -47065,12 +49826,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCA0DB4-82B5-4F45-9627-77778B586330}">
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K2"/>
+      <selection activeCell="J1" sqref="J1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -47929,1014 +50690,4 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E36047A-AB44-4562-9BB1-918983DC7B29}">
-  <dimension ref="A1:J31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="2" max="2" width="31.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="13">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="12">
-        <v>33</v>
-      </c>
-      <c r="D2" s="12">
-        <v>1103</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.37737080689029923</v>
-      </c>
-      <c r="F2" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="12">
-        <v>0</v>
-      </c>
-      <c r="J2" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="13">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="12">
-        <v>22</v>
-      </c>
-      <c r="D3" s="12">
-        <v>1992</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0.47583333333333327</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="13">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="12">
-        <v>4</v>
-      </c>
-      <c r="D4" s="12">
-        <v>790</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0.46</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="13">
-        <v>3</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="12">
-        <v>5</v>
-      </c>
-      <c r="D5" s="12">
-        <v>2642</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.45987887963663893</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0.89988040055444363</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="13">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="12">
-        <v>24</v>
-      </c>
-      <c r="D6" s="12">
-        <v>630</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0.41</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="13">
-        <v>5</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="12">
-        <v>25</v>
-      </c>
-      <c r="D7" s="12">
-        <v>631</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0.42</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0.80000000000000016</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="12">
-        <v>0</v>
-      </c>
-      <c r="J7" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="13">
-        <v>6</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="23">
-        <v>-2</v>
-      </c>
-      <c r="D8" s="12">
-        <v>870</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-      <c r="J8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="13">
-        <v>7</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="23">
-        <v>-1</v>
-      </c>
-      <c r="D9" s="12">
-        <v>1117</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0.53947179946284685</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="13">
-        <v>8</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="12">
-        <v>2</v>
-      </c>
-      <c r="D10" s="12">
-        <v>1141</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0.54804557405784404</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0.90000000000000013</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="12">
-        <v>0</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="13">
-        <v>9</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12">
-        <v>3</v>
-      </c>
-      <c r="D11" s="12">
-        <v>1294</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0.58324574961360121</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="13">
-        <v>10</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12">
-        <v>6</v>
-      </c>
-      <c r="D12" s="12">
-        <v>1292</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0.58661764705882347</v>
-      </c>
-      <c r="F12" s="12">
-        <v>0.90000000000000013</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="12">
-        <v>9</v>
-      </c>
-      <c r="D13" s="12">
-        <v>1721</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0.58600813480534575</v>
-      </c>
-      <c r="F13" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0</v>
-      </c>
-      <c r="J13" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="13">
-        <v>12</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="12">
-        <v>10</v>
-      </c>
-      <c r="D14" s="12">
-        <v>870</v>
-      </c>
-      <c r="E14" s="12">
-        <v>0.59</v>
-      </c>
-      <c r="F14" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="12">
-        <v>0</v>
-      </c>
-      <c r="J14" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="13">
-        <v>13</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="12">
-        <v>22</v>
-      </c>
-      <c r="D15" s="12">
-        <v>1268</v>
-      </c>
-      <c r="E15" s="12">
-        <v>0.5180678233438486</v>
-      </c>
-      <c r="F15" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="12">
-        <v>0</v>
-      </c>
-      <c r="J15" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="13">
-        <v>14</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="12">
-        <v>14</v>
-      </c>
-      <c r="D16" s="12">
-        <v>40.418999999999997</v>
-      </c>
-      <c r="E16" s="12">
-        <v>1</v>
-      </c>
-      <c r="F16" s="12">
-        <v>1</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0</v>
-      </c>
-      <c r="J16" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="13">
-        <v>15</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="23">
-        <v>-4</v>
-      </c>
-      <c r="D17" s="12">
-        <v>3930.1080000000002</v>
-      </c>
-      <c r="E17" s="12">
-        <v>1</v>
-      </c>
-      <c r="F17" s="12">
-        <v>1</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="12">
-        <v>0</v>
-      </c>
-      <c r="J17" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="13">
-        <v>16</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="23">
-        <v>-3</v>
-      </c>
-      <c r="D18" s="12">
-        <v>2576.7629999999999</v>
-      </c>
-      <c r="E18" s="12">
-        <v>1</v>
-      </c>
-      <c r="F18" s="12">
-        <v>1</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="12">
-        <v>0</v>
-      </c>
-      <c r="J18" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="13">
-        <v>17</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="23">
-        <v>-2</v>
-      </c>
-      <c r="D19" s="12">
-        <v>2189.6350000000002</v>
-      </c>
-      <c r="E19" s="12">
-        <v>1</v>
-      </c>
-      <c r="F19" s="12">
-        <v>1</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="12">
-        <v>0</v>
-      </c>
-      <c r="J19" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="13">
-        <v>18</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="23">
-        <v>-1</v>
-      </c>
-      <c r="D20" s="12">
-        <v>3095.902</v>
-      </c>
-      <c r="E20" s="12">
-        <v>1</v>
-      </c>
-      <c r="F20" s="12">
-        <v>1</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="12">
-        <v>0</v>
-      </c>
-      <c r="J20" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="13">
-        <v>19</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="12">
-        <v>0</v>
-      </c>
-      <c r="D21" s="12">
-        <v>2400.5369999999998</v>
-      </c>
-      <c r="E21" s="12">
-        <v>1</v>
-      </c>
-      <c r="F21" s="12">
-        <v>1</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" s="12">
-        <v>0</v>
-      </c>
-      <c r="J21" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="13">
-        <v>20</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="12">
-        <v>1</v>
-      </c>
-      <c r="D22" s="12">
-        <v>2115.873</v>
-      </c>
-      <c r="E22" s="12">
-        <v>1</v>
-      </c>
-      <c r="F22" s="12">
-        <v>1</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" s="12">
-        <v>0</v>
-      </c>
-      <c r="J22" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="13">
-        <v>21</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="12">
-        <v>3</v>
-      </c>
-      <c r="D23" s="12">
-        <v>2273.5</v>
-      </c>
-      <c r="E23" s="12">
-        <v>1</v>
-      </c>
-      <c r="F23" s="12">
-        <v>1</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="12">
-        <v>0</v>
-      </c>
-      <c r="J23" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="13">
-        <v>22</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="12">
-        <v>14</v>
-      </c>
-      <c r="D24" s="12">
-        <v>6010.8769999999986</v>
-      </c>
-      <c r="E24" s="12">
-        <v>1</v>
-      </c>
-      <c r="F24" s="12">
-        <v>1</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="12">
-        <v>0</v>
-      </c>
-      <c r="J24" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="13">
-        <v>23</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="12">
-        <v>13</v>
-      </c>
-      <c r="D25" s="12">
-        <v>484</v>
-      </c>
-      <c r="E25" s="12">
-        <v>0.34</v>
-      </c>
-      <c r="F25" s="12">
-        <v>0.94999999975000005</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="12">
-        <v>0</v>
-      </c>
-      <c r="J25" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="13">
-        <v>24</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="23">
-        <v>-4</v>
-      </c>
-      <c r="D26" s="12">
-        <v>759.91399999999999</v>
-      </c>
-      <c r="E26" s="12">
-        <v>1</v>
-      </c>
-      <c r="F26" s="12">
-        <v>1</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" s="12">
-        <v>0</v>
-      </c>
-      <c r="J26" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="13">
-        <v>25</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="23">
-        <v>-3</v>
-      </c>
-      <c r="D27" s="12">
-        <v>759.91399999999999</v>
-      </c>
-      <c r="E27" s="12">
-        <v>1</v>
-      </c>
-      <c r="F27" s="12">
-        <v>1</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" s="12">
-        <v>0</v>
-      </c>
-      <c r="J27" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="13">
-        <v>26</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="23">
-        <v>-2</v>
-      </c>
-      <c r="D28" s="12">
-        <v>730.97299999999996</v>
-      </c>
-      <c r="E28" s="12">
-        <v>1</v>
-      </c>
-      <c r="F28" s="12">
-        <v>1</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I28" s="12">
-        <v>0</v>
-      </c>
-      <c r="J28" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="13">
-        <v>27</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="23">
-        <v>-1</v>
-      </c>
-      <c r="D29" s="12">
-        <v>1695.31</v>
-      </c>
-      <c r="E29" s="12">
-        <v>1</v>
-      </c>
-      <c r="F29" s="12">
-        <v>1</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I29" s="12">
-        <v>0</v>
-      </c>
-      <c r="J29" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="15">
-        <v>28</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="12">
-        <v>0</v>
-      </c>
-      <c r="D30" s="12">
-        <v>300</v>
-      </c>
-      <c r="E30" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="F30" s="12">
-        <v>1</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I30" s="12">
-        <v>0</v>
-      </c>
-      <c r="J30" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="15">
-        <v>29</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="12">
-        <v>0</v>
-      </c>
-      <c r="D31" s="12">
-        <v>300</v>
-      </c>
-      <c r="E31" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="F31" s="12">
-        <v>1</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I31" s="12">
-        <v>0</v>
-      </c>
-      <c r="J31" s="12">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C68D76E-CB86-46E6-8F42-13D8DBE5B37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558422AF-4FE5-4E1D-B5DA-D5EA27075765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="27645" windowHeight="16440" tabRatio="971" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="28110" windowHeight="16440" tabRatio="971" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
     <sheet name="extendedNLold" sheetId="6" r:id="rId2"/>
     <sheet name="extendedNLwrong" sheetId="14" r:id="rId3"/>
-    <sheet name="superGroupedNL" sheetId="15" r:id="rId4"/>
-    <sheet name="groupedNLGAS" sheetId="20" r:id="rId5"/>
+    <sheet name="groupedNLGAS" sheetId="20" r:id="rId4"/>
+    <sheet name="superGroupedNL" sheetId="15" r:id="rId5"/>
     <sheet name="AnalysisforNiPlants" sheetId="21" r:id="rId6"/>
     <sheet name="extendedNLRES" sheetId="23" r:id="rId7"/>
     <sheet name="extendedNL" sheetId="22" r:id="rId8"/>
@@ -38,14 +38,15 @@
     <externalReference r:id="rId21"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">AnalysisforNiPlants!$B$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">dutchGermanPlants2015_from_emla!$A$1:$H$440</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">extendedDE!$B$1:$J$272</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">extendedDEmoreoptimal!$B$1:$J$193</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">extendedNL2020!$A$1:$K$66</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">extendedNLwrong!$A$1:$J$101</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">groupedNL!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">groupedNLGAS!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">superGroupedNL!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">groupedNLGAS!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">superGroupedNL!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">two_techs_DE!$B$1:$I$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -138,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4658" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4650" uniqueCount="460">
   <si>
     <t>Technology</t>
   </si>
@@ -1513,6 +1514,12 @@
   <si>
     <t xml:space="preserve">Wrong: Cofiring was assigned to Biomass instead of coal </t>
   </si>
+  <si>
+    <t>Biomass_CHP_wood_pellets_DH were coforing mostly biomass</t>
+  </si>
+  <si>
+    <t>how is the hydropower?</t>
+  </si>
 </sst>
 </file>
 
@@ -1698,7 +1705,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1754,10 +1761,13 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -1793,11 +1803,11 @@
       <sheetName val="germany2019"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1">
         <row r="129">
           <cell r="E129">
             <v>-0.52200000000000002</v>
@@ -1924,10 +1934,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1941,7 +1951,7 @@
       <sheetName val="Coupling Parameters"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="B2">
@@ -1975,11 +1985,11 @@
       <sheetName val="TargetInvestorTargets"/>
       <sheetName val="YearlyTargets"/>
       <sheetName val="yearlyCO2"/>
+      <sheetName val="CO2DE"/>
       <sheetName val="Potentials"/>
+      <sheetName val="Dismantled"/>
       <sheetName val="backup"/>
       <sheetName val="sources"/>
-      <sheetName val="Dismantled"/>
-      <sheetName val="CO2DE"/>
       <sheetName val="Governments"/>
       <sheetName val="GeometricTrends"/>
       <sheetName val="NewTechnologies"/>
@@ -2002,7 +2012,6 @@
           </cell>
         </row>
         <row r="3">
-          <cell r="A3"/>
           <cell r="B3" t="str">
             <v>Biomass_CHP_wood_pellets_PH</v>
           </cell>
@@ -2016,49 +2025,41 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="A5"/>
           <cell r="B5" t="str">
             <v>CCGT_CHP_backpressure_DH</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="A6"/>
           <cell r="B6" t="str">
             <v>CCGT_CHP_backpressure_PH</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="A7"/>
           <cell r="B7" t="str">
             <v>CCS</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="A8"/>
           <cell r="B8" t="str">
             <v>CSP_Parabolic</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="A9"/>
           <cell r="B9" t="str">
             <v>CSP_Tower</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="A10"/>
           <cell r="B10" t="str">
             <v>Hydrogen_to_Jet_Fuel</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="A11"/>
           <cell r="B11" t="str">
             <v>Hydropower_ROR</v>
           </cell>
         </row>
         <row r="12">
-          <cell r="A12"/>
           <cell r="B12" t="str">
             <v>Hydropower_reservoir_large</v>
           </cell>
@@ -2072,7 +2073,6 @@
           </cell>
         </row>
         <row r="14">
-          <cell r="A14"/>
           <cell r="B14" t="str">
             <v>Hydropower_reservoir_small</v>
           </cell>
@@ -2086,13 +2086,11 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16"/>
           <cell r="B16" t="str">
             <v>Nuclear_CHP_DH</v>
           </cell>
         </row>
         <row r="17">
-          <cell r="A17"/>
           <cell r="B17" t="str">
             <v>Nuclear_CHP_PH</v>
           </cell>
@@ -2106,19 +2104,16 @@
           </cell>
         </row>
         <row r="19">
-          <cell r="A19"/>
           <cell r="B19" t="str">
             <v>PEM_Electrolyzer</v>
           </cell>
         </row>
         <row r="20">
-          <cell r="A20"/>
           <cell r="B20" t="str">
             <v>PV_commercial_systems</v>
           </cell>
         </row>
         <row r="21">
-          <cell r="A21"/>
           <cell r="B21" t="str">
             <v>PV_residential</v>
           </cell>
@@ -2132,7 +2127,6 @@
           </cell>
         </row>
         <row r="23">
-          <cell r="A23"/>
           <cell r="B23" t="str">
             <v>Power_to_Jet_Fuel</v>
           </cell>
@@ -2154,19 +2148,16 @@
           </cell>
         </row>
         <row r="26">
-          <cell r="A26"/>
           <cell r="B26" t="str">
             <v>Wave_energy</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="A27"/>
           <cell r="B27" t="str">
             <v>Lithium_ion_battery</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="A28"/>
           <cell r="B28" t="str">
             <v>Pumped_hydro</v>
           </cell>
@@ -2196,37 +2187,37 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2278,39 +2269,49 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ingrid Sanchez Jimenez" refreshedDate="44905.014862615739" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="19" xr:uid="{907E5D7B-5E5D-4E6A-BD2F-B1E0FF7A5C61}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ingrid Sanchez Jimenez" refreshedDate="44911.48275289352" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="50" xr:uid="{4CA6E6A2-6BF0-4F90-915B-5517DA227AED}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:F20" sheet="groupedNL"/>
+    <worksheetSource ref="B1:J51" sheet="extendedNL"/>
   </cacheSource>
-  <cacheFields count="6">
-    <cacheField name="number" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="18"/>
-    </cacheField>
+  <cacheFields count="9">
     <cacheField name="Technology" numFmtId="0">
-      <sharedItems count="10">
-        <s v="OCGT"/>
-        <s v="CCGT_CHP_backpressure_DH"/>
+      <sharedItems count="11">
         <s v="Biomass_CHP_wood_pellets_DH"/>
+        <s v="Coal PSC"/>
         <s v="CCGT"/>
         <s v="Hydropower_reservoir_medium"/>
+        <s v="Nuclear"/>
         <s v="PV_utility_systems"/>
+        <s v="WTG_offshore"/>
         <s v="WTG_onshore"/>
-        <s v="Nuclear"/>
-        <s v="Coal PSC"/>
-        <s v="WTG_offshore"/>
+        <s v="OCGT"/>
+        <s v="Biomass_CHP_wood_pellets_PH"/>
+        <s v="CCGT_CHP_backpressure_DH"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Age" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="33"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="45"/>
     </cacheField>
     <cacheField name="Capacity" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="40.418999999999997" maxValue="15000"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.7679999999999969" maxValue="2640"/>
     </cacheField>
     <cacheField name="Efficiency" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.34" maxValue="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.29418898900706492" maxValue="1"/>
     </cacheField>
     <cacheField name="availability_weighted_mean" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.80000000000000016" maxValue="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.74200913242009103" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Location" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Owner" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="cash" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="DischarginEfficiency" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -3953,158 +3954,556 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="19">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="50">
   <r>
+    <x v="0"/>
+    <n v="25"/>
+    <n v="631"/>
+    <n v="0.42"/>
+    <n v="0.80000000000000016"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
     <n v="0"/>
-    <x v="0"/>
-    <n v="33"/>
-    <n v="2103"/>
-    <n v="0.37737080689029923"/>
-    <n v="0.9"/>
+    <n v="0"/>
   </r>
   <r>
-    <n v="1"/>
     <x v="1"/>
-    <n v="22"/>
-    <n v="2992"/>
-    <n v="0.47583333333333327"/>
+    <n v="4"/>
+    <n v="790"/>
+    <n v="0.46"/>
     <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="2640"/>
+    <n v="0.46"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="630"/>
+    <n v="0.41"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="341"/>
+    <n v="0.52"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="2"/>
+    <n v="800"/>
+    <n v="0.56000000000000005"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="874"/>
+    <n v="0.57999999999999996"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
     <x v="2"/>
     <n v="4"/>
-    <n v="450"/>
-    <n v="0.46"/>
+    <n v="420"/>
+    <n v="0.59"/>
     <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
-    <n v="3"/>
     <x v="2"/>
-    <n v="24"/>
-    <n v="430"/>
-    <n v="0.41"/>
+    <n v="6"/>
+    <n v="872"/>
+    <n v="0.58498853211009172"/>
     <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
-    <n v="4"/>
     <x v="2"/>
-    <n v="25"/>
-    <n v="331"/>
-    <n v="0.42"/>
-    <n v="0.80000000000000016"/>
+    <n v="7"/>
+    <n v="420"/>
+    <n v="0.59"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
-    <n v="5"/>
-    <x v="3"/>
-    <n v="2"/>
-    <n v="2141"/>
-    <n v="0.54804557405784404"/>
-    <n v="0.90000000000000013"/>
+    <x v="2"/>
+    <n v="8"/>
+    <n v="426"/>
+    <n v="0.57999999999999996"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
-    <n v="6"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="1294"/>
-    <n v="0.58324574961360121"/>
-    <n v="0.89999999999999991"/>
+    <x v="2"/>
+    <n v="9"/>
+    <n v="1295"/>
+    <n v="0.58798455598455601"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
-    <n v="7"/>
-    <x v="3"/>
-    <n v="6"/>
-    <n v="1292"/>
-    <n v="0.58661764705882347"/>
-    <n v="0.90000000000000013"/>
+    <x v="2"/>
+    <n v="10"/>
+    <n v="870"/>
+    <n v="0.59"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
-    <n v="8"/>
-    <x v="3"/>
-    <n v="9"/>
-    <n v="1721"/>
-    <n v="0.58600813480534575"/>
+    <x v="2"/>
+    <n v="19"/>
+    <n v="245"/>
+    <n v="0.51"/>
     <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
-    <n v="9"/>
-    <x v="3"/>
-    <n v="10"/>
-    <n v="1870"/>
-    <n v="0.59"/>
+    <x v="2"/>
+    <n v="22"/>
+    <n v="682"/>
+    <n v="0.52"/>
     <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
-    <n v="10"/>
-    <x v="3"/>
-    <n v="22"/>
-    <n v="2268"/>
-    <n v="0.5180678233438486"/>
+    <x v="2"/>
+    <n v="23"/>
+    <n v="341"/>
+    <n v="0.52"/>
     <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
-    <n v="11"/>
-    <x v="4"/>
+    <x v="3"/>
     <n v="14"/>
-    <n v="40.418999999999997"/>
+    <n v="40.207000000000001"/>
     <n v="1"/>
     <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
-    <n v="12"/>
-    <x v="5"/>
-    <n v="1"/>
-    <n v="2115.873"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <n v="13"/>
-    <x v="5"/>
-    <n v="3"/>
-    <n v="1800"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <n v="14"/>
-    <x v="6"/>
-    <n v="14"/>
-    <n v="3600"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <n v="15"/>
-    <x v="7"/>
+    <x v="4"/>
     <n v="13"/>
     <n v="484"/>
     <n v="0.34"/>
     <n v="0.94999999975000005"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
-    <n v="16"/>
-    <x v="8"/>
-    <n v="20"/>
-    <n v="2300"/>
-    <n v="0.40862500000000002"/>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="2400.5369999999998"/>
     <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
-    <n v="17"/>
-    <x v="8"/>
-    <n v="10"/>
-    <n v="2300"/>
-    <n v="0.4"/>
+    <x v="5"/>
     <n v="1"/>
+    <n v="1527.3040000000001"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
-    <n v="18"/>
-    <x v="9"/>
-    <n v="30"/>
-    <n v="15000"/>
+    <x v="5"/>
+    <n v="2"/>
+    <n v="588.56900000000007"/>
     <n v="1"/>
     <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="3"/>
+    <n v="633.91399999999999"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="4"/>
+    <n v="498.2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="5"/>
+    <n v="492.642"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="6"/>
+    <n v="648.74400000000003"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2"/>
+    <n v="203.696"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="3"/>
+    <n v="758.99400000000003"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0"/>
+    <n v="341.774"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1"/>
+    <n v="425.90300000000002"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2"/>
+    <n v="551.90700000000004"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="3"/>
+    <n v="659.47300000000007"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="11"/>
+    <n v="638.66199999999992"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="12"/>
+    <n v="317.36399999999998"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="13"/>
+    <n v="285.59800000000001"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="14"/>
+    <n v="1016.313"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="33"/>
+    <n v="643"/>
+    <n v="0.38765163297045102"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="45"/>
+    <n v="460"/>
+    <n v="0.36299999999999999"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="14"/>
+    <n v="1.7679999999999969"/>
+    <n v="0.3"/>
+    <n v="0.74200913242009103"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="6"/>
+    <n v="444.2"/>
+    <n v="0.58440792435839717"/>
+    <n v="0.89171544349392173"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="11"/>
+    <n v="862.64"/>
+    <n v="0.40999999999999992"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="12"/>
+    <n v="721"/>
+    <n v="0.40999999999999992"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="13"/>
+    <n v="641"/>
+    <n v="0.41"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="14"/>
+    <n v="739.29300000000001"/>
+    <n v="0.29418898900706492"/>
+    <n v="0.85153338326238082"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="19"/>
+    <n v="541.81700000000001"/>
+    <n v="0.40885261998054689"/>
+    <n v="0.80465495256227204"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="20"/>
+    <n v="557.93399999999997"/>
+    <n v="0.41587463750192682"/>
+    <n v="0.90357265448136415"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="22"/>
+    <n v="1040.24"/>
+    <n v="0.35755348765669459"/>
+    <n v="0.90748031496062997"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="23"/>
+    <n v="1101.962"/>
+    <n v="0.4374676880872479"/>
+    <n v="0.86452184587633829"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="28"/>
+    <n v="655.18101000000001"/>
+    <n v="0.35211968384126402"/>
+    <n v="0.83900354082941675"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="29"/>
+    <n v="385.096"/>
+    <n v="0.37457672891954208"/>
+    <n v="0.84204432141595875"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="32"/>
+    <n v="811.6"/>
+    <n v="0.3692304313085264"/>
+    <n v="0.88620009857072435"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -4206,22 +4605,22 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31225B4D-55E1-4A3E-AE6B-F08F1930DABD}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8EBABEF3-7A12-4A97-8F01-EC0882F5F9E8}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O1:P13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
-      <items count="11">
+      <items count="12">
+        <item x="0"/>
+        <item x="9"/>
         <item x="2"/>
+        <item x="10"/>
+        <item x="1"/>
         <item x="3"/>
-        <item x="1"/>
+        <item x="4"/>
         <item x="8"/>
-        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
         <item x="7"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="9"/>
-        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4229,11 +4628,15 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="1"/>
+    <field x="0"/>
   </rowFields>
-  <rowItems count="11">
+  <rowItems count="12">
     <i>
       <x/>
     </i>
@@ -4264,6 +4667,9 @@
     <i>
       <x v="9"/>
     </i>
+    <i>
+      <x v="10"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -4272,7 +4678,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Capacity" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Capacity" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -5349,7 +5755,7 @@
       <c r="J17" s="12">
         <v>0</v>
       </c>
-      <c r="M17" s="30" t="s">
+      <c r="M17" s="29" t="s">
         <v>457</v>
       </c>
     </row>
@@ -5384,7 +5790,7 @@
       <c r="J18" s="12">
         <v>0</v>
       </c>
-      <c r="M18" s="30"/>
+      <c r="M18" s="29"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="13">
@@ -5417,7 +5823,7 @@
       <c r="J19" s="12">
         <v>0</v>
       </c>
-      <c r="M19" s="30"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="13">
@@ -5450,7 +5856,7 @@
       <c r="J20" s="12">
         <v>0</v>
       </c>
-      <c r="M20" s="30"/>
+      <c r="M20" s="29"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="13">
@@ -5483,7 +5889,7 @@
       <c r="J21" s="12">
         <v>0</v>
       </c>
-      <c r="M21" s="30"/>
+      <c r="M21" s="29"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="13">
@@ -25591,7 +25997,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -41572,7 +41978,7 @@
       <c r="J16" s="12">
         <v>0.9</v>
       </c>
-      <c r="M16" s="30" t="s">
+      <c r="M16" s="29" t="s">
         <v>456</v>
       </c>
     </row>
@@ -41607,7 +42013,7 @@
       <c r="J17" s="12">
         <v>0.9</v>
       </c>
-      <c r="M17" s="30"/>
+      <c r="M17" s="29"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="16">
@@ -41640,7 +42046,7 @@
       <c r="J18" s="12">
         <v>0.9</v>
       </c>
-      <c r="M18" s="30"/>
+      <c r="M18" s="29"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="16">
@@ -41673,7 +42079,7 @@
       <c r="J19" s="12">
         <v>0.9</v>
       </c>
-      <c r="M19" s="30"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="16">
@@ -41706,7 +42112,7 @@
       <c r="J20" s="12">
         <v>0.9</v>
       </c>
-      <c r="M20" s="30"/>
+      <c r="M20" s="29"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="16">
@@ -41739,7 +42145,7 @@
       <c r="J21" s="12">
         <v>0.9</v>
       </c>
-      <c r="M21" s="30"/>
+      <c r="M21" s="29"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="16">
@@ -41772,7 +42178,7 @@
       <c r="J22" s="12">
         <v>0.9</v>
       </c>
-      <c r="M22" s="30"/>
+      <c r="M22" s="29"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="16">
@@ -41805,7 +42211,7 @@
       <c r="J23" s="12">
         <v>0.9</v>
       </c>
-      <c r="M23" s="30"/>
+      <c r="M23" s="29"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="16">
@@ -41838,7 +42244,7 @@
       <c r="J24" s="12">
         <v>0.9</v>
       </c>
-      <c r="M24" s="30"/>
+      <c r="M24" s="29"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="16">
@@ -41871,7 +42277,7 @@
       <c r="J25" s="12">
         <v>0.74200913242009103</v>
       </c>
-      <c r="M25" s="30"/>
+      <c r="M25" s="29"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="16">
@@ -44331,709 +44737,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B88372-FD70-4A88-9C48-DBF8E6D97E61}">
-  <dimension ref="A1:O30"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="2" max="2" width="23.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="12">
-        <v>20</v>
-      </c>
-      <c r="D2" s="12">
-        <v>2000</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.41</v>
-      </c>
-      <c r="F2" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="12">
-        <v>0</v>
-      </c>
-      <c r="J2" s="12">
-        <v>0</v>
-      </c>
-      <c r="K2" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="12">
-        <v>14</v>
-      </c>
-      <c r="D3" s="12">
-        <v>100</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12">
-        <v>1</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
-        <v>0</v>
-      </c>
-      <c r="K3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="12">
-        <v>14</v>
-      </c>
-      <c r="D4" s="12">
-        <v>8000</v>
-      </c>
-      <c r="E4" s="12">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12">
-        <v>1</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0</v>
-      </c>
-      <c r="K4" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="12">
-        <v>13</v>
-      </c>
-      <c r="D5" s="12">
-        <v>484</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.34</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0.94999999975000005</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="C6" s="12">
-        <v>0</v>
-      </c>
-      <c r="D6" s="12">
-        <v>30</v>
-      </c>
-      <c r="E6" s="12">
-        <v>1</v>
-      </c>
-      <c r="F6" s="25">
-        <v>1</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0</v>
-      </c>
-      <c r="K6" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12">
-        <v>300</v>
-      </c>
-      <c r="E7" s="12">
-        <v>1</v>
-      </c>
-      <c r="F7" s="25">
-        <v>1</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="12">
-        <v>0</v>
-      </c>
-      <c r="J7" s="12">
-        <v>0</v>
-      </c>
-      <c r="K7" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12">
-        <v>20000</v>
-      </c>
-      <c r="E8" s="12">
-        <v>1</v>
-      </c>
-      <c r="F8" s="25">
-        <v>1</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-      <c r="J8" s="12">
-        <v>0</v>
-      </c>
-      <c r="K8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="12">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12">
-        <v>15000</v>
-      </c>
-      <c r="E9" s="12">
-        <v>1</v>
-      </c>
-      <c r="F9" s="25">
-        <v>1</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0</v>
-      </c>
-      <c r="K9" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="13">
-        <v>9</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="12">
-        <v>7</v>
-      </c>
-      <c r="D10" s="12">
-        <v>1000</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0.44</v>
-      </c>
-      <c r="F10" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="12">
-        <v>0</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0</v>
-      </c>
-      <c r="K10" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="13">
-        <v>10</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="12">
-        <v>7</v>
-      </c>
-      <c r="D11" s="12">
-        <v>2000</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0.44</v>
-      </c>
-      <c r="F11" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0</v>
-      </c>
-      <c r="K11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="13">
-        <v>11</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="12">
-        <v>4000</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0.33</v>
-      </c>
-      <c r="F12" s="12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="12">
-        <v>0</v>
-      </c>
-      <c r="K12" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="12">
-        <v>5</v>
-      </c>
-      <c r="D13" s="12">
-        <v>5000</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0.34</v>
-      </c>
-      <c r="F13" s="12">
-        <v>1</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0</v>
-      </c>
-      <c r="J13" s="12">
-        <v>0</v>
-      </c>
-      <c r="K13" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="13">
-        <v>13</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="12">
-        <v>10</v>
-      </c>
-      <c r="D14" s="12">
-        <v>1000</v>
-      </c>
-      <c r="E14" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="F14" s="12">
-        <v>1</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="12">
-        <v>0</v>
-      </c>
-      <c r="J14" s="12">
-        <v>0</v>
-      </c>
-      <c r="K14" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="13">
-        <v>14</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="12">
-        <v>15</v>
-      </c>
-      <c r="D15" s="12">
-        <v>1000</v>
-      </c>
-      <c r="E15" s="12">
-        <v>0.36</v>
-      </c>
-      <c r="F15" s="12">
-        <v>1</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="12">
-        <v>0</v>
-      </c>
-      <c r="J15" s="12">
-        <v>0</v>
-      </c>
-      <c r="K15" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="13">
-        <v>15</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="12">
-        <v>20</v>
-      </c>
-      <c r="D16" s="12">
-        <v>1000</v>
-      </c>
-      <c r="E16" s="12">
-        <v>0.37</v>
-      </c>
-      <c r="F16" s="12">
-        <v>1</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0</v>
-      </c>
-      <c r="J16" s="12">
-        <v>0</v>
-      </c>
-      <c r="K16" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{91B88372-FD70-4A88-9C48-DBF8E6D97E61}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J31">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719169AB-033B-41B8-B3FB-5B066D00AEA9}">
   <dimension ref="A1:K31"/>
   <sheetViews>
@@ -45890,15 +45593,718 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B88372-FD70-4A88-9C48-DBF8E6D97E61}">
+  <dimension ref="A1:O30"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="23.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="12">
+        <v>20</v>
+      </c>
+      <c r="D2" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.41</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="12">
+        <v>14</v>
+      </c>
+      <c r="D3" s="12">
+        <v>100</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="12">
+        <v>14</v>
+      </c>
+      <c r="D4" s="12">
+        <v>8000</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="12">
+        <v>13</v>
+      </c>
+      <c r="D5" s="12">
+        <v>484</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.94999999975000005</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>30</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="25">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <v>300</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="25">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12">
+        <v>20000</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="25">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <v>15000</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="25">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="12">
+        <v>7</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.44</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12">
+        <v>7</v>
+      </c>
+      <c r="D11" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.44</v>
+      </c>
+      <c r="F11" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>4000</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="F12" s="12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="12">
+        <v>5</v>
+      </c>
+      <c r="D13" s="12">
+        <v>5000</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="12">
+        <v>10</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="12">
+        <v>15</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="F15" s="12">
+        <v>1</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="12">
+        <v>20</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J1" xr:uid="{91B88372-FD70-4A88-9C48-DBF8E6D97E61}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J31">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4198A0-7CB3-4BB1-94E1-721EECB3BDAC}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A3:D38"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -45908,367 +46314,197 @@
     <col min="3" max="4" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
+    <row r="1" spans="1:6">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="27" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2" s="30">
+        <v>40.207000000000001</v>
+      </c>
+      <c r="C2" s="26">
+        <v>38</v>
+      </c>
+      <c r="D2" s="28">
+        <f>B2-C2</f>
+        <v>2.2070000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="28">
+        <v>484</v>
+      </c>
+      <c r="C3" s="33">
+        <v>486</v>
+      </c>
+      <c r="D3" s="28">
+        <f>B3-C3</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="B4" s="4">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4">
-        <v>10586</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+        <f>1.768 + 631</f>
+        <v>632.76800000000003</v>
+      </c>
+      <c r="C4" s="33">
+        <v>1243</v>
+      </c>
+      <c r="D4" s="28">
+        <f>B4-C4</f>
+        <v>-610.23199999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4">
-        <v>4600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
+      <c r="B5" s="30">
+        <v>962.69</v>
+      </c>
+      <c r="C5" s="26">
+        <v>957</v>
+      </c>
+      <c r="D5" s="28">
+        <f>B5-C5</f>
+        <v>5.6900000000000546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4">
-        <v>40.418999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
+      <c r="B6" s="28">
+        <v>1103</v>
+      </c>
+      <c r="C6" s="32">
+        <v>1103</v>
+      </c>
+      <c r="D6" s="28">
+        <f>B6-C6</f>
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
+      <c r="B7" s="31">
+        <v>4060</v>
+      </c>
+      <c r="C7" s="26">
+        <v>4631</v>
+      </c>
+      <c r="D7" s="28">
+        <f>B7-C7</f>
+        <v>-571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
-        <v>2103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
+      <c r="B8" s="28">
+        <v>4236.9939999999997</v>
+      </c>
+      <c r="C8" s="33">
+        <v>3669</v>
+      </c>
+      <c r="D8" s="28">
+        <f>B8-C8</f>
+        <v>567.99399999999969</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="4">
-        <v>3915.873</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
+      <c r="B9" s="28">
+        <v>6789.9099999999989</v>
+      </c>
+      <c r="C9" s="26">
+        <v>3937</v>
+      </c>
+      <c r="D9" s="28">
+        <f>B9-C9</f>
+        <v>2852.9099999999989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="4">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
+      <c r="B10" s="28">
+        <v>7586</v>
+      </c>
+      <c r="C10" s="32">
+        <f>15570-C11-C15</f>
+        <v>7069</v>
+      </c>
+      <c r="D10" s="28">
+        <f>B10-C10</f>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="4">
-        <v>44532.292000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27" t="s">
-        <v>452</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>453</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="27" t="s">
-        <v>451</v>
-      </c>
-      <c r="B16" s="28">
-        <v>1.7679999999999969</v>
-      </c>
-      <c r="C16" s="26">
-        <v>1243</v>
-      </c>
-      <c r="D16" s="28">
-        <f>B16-C16</f>
-        <v>-1241.232</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="28">
-        <v>7586</v>
-      </c>
-      <c r="C17" s="29">
-        <f>15570-C18-C22</f>
-        <v>5966</v>
-      </c>
-      <c r="D17" s="28">
-        <f t="shared" ref="D17:D27" si="0">B17-C17</f>
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="28">
+      <c r="B11" s="31">
         <v>8501.9630099999995</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C11" s="32">
         <v>8501</v>
       </c>
-      <c r="D18" s="28">
-        <f t="shared" si="0"/>
+      <c r="D11" s="28">
+        <f>B11-C11</f>
         <v>0.96300999999948544</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="28">
-        <v>4691</v>
-      </c>
-      <c r="C19" s="26">
-        <v>4631</v>
-      </c>
-      <c r="D19" s="28">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="28">
-        <v>40.207000000000001</v>
-      </c>
-      <c r="C20" s="26">
-        <v>38</v>
-      </c>
-      <c r="D20" s="28">
-        <f t="shared" si="0"/>
-        <v>2.2070000000000007</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="28">
-        <v>484</v>
-      </c>
-      <c r="C21" s="26">
-        <v>486</v>
-      </c>
-      <c r="D21" s="28">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="28">
-        <v>1103</v>
-      </c>
-      <c r="C22" s="29">
-        <v>1103</v>
-      </c>
-      <c r="D22" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="28">
-        <v>6789.9099999999989</v>
-      </c>
-      <c r="C23" s="26">
-        <v>3937</v>
-      </c>
-      <c r="D23" s="28">
-        <f t="shared" si="0"/>
-        <v>2852.9099999999989</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="28">
-        <v>962.69</v>
-      </c>
-      <c r="C24" s="26">
-        <v>957</v>
-      </c>
-      <c r="D24" s="28">
-        <f t="shared" si="0"/>
-        <v>5.6900000000000546</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="28">
-        <v>4236.9939999999997</v>
-      </c>
-      <c r="C25" s="26">
-        <v>3669</v>
-      </c>
-      <c r="D25" s="28">
-        <f t="shared" si="0"/>
-        <v>567.99399999999969</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="D26" s="28"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="27" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="27" t="s">
         <v>455</v>
       </c>
-      <c r="B27" s="28">
-        <f>SUM(B16:B25)</f>
+      <c r="B12" s="28">
+        <f>SUM(B2:B11)</f>
         <v>34397.532009999995</v>
       </c>
-      <c r="C27" s="28">
-        <f>SUM(C16:C25)</f>
-        <v>30531</v>
-      </c>
-      <c r="D27" s="12">
-        <f t="shared" si="0"/>
-        <v>3866.5320099999954</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>451</v>
-      </c>
-      <c r="B29">
-        <v>1.7679999999999969</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30">
-        <v>7586</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31">
-        <v>8501.9630099999995</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32">
-        <v>4691</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33">
-        <v>40.207000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36">
-        <v>6789.9099999999989</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37">
-        <v>962.69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38">
-        <v>4236.9939999999997</v>
+      <c r="C12" s="28">
+        <f>SUM(C2:C11)</f>
+        <v>31634</v>
+      </c>
+      <c r="D12" s="12">
+        <f>B12-C12</f>
+        <v>2763.5320099999954</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D16:D26">
+  <autoFilter ref="B1:D1" xr:uid="{CD4198A0-7CB3-4BB1-94E1-721EECB3BDAC}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D12">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="D2:D11">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -46289,22 +46525,24 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="12"/>
-    <col min="2" max="2" width="22.54296875" style="12" customWidth="1"/>
-    <col min="3" max="7" width="8.7265625" style="12"/>
-    <col min="8" max="8" width="14.90625" style="12" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="12"/>
+    <col min="2" max="2" width="35.7265625" style="12" customWidth="1"/>
+    <col min="3" max="6" width="8.7265625" style="12"/>
+    <col min="7" max="7" width="14.90625" style="12" customWidth="1"/>
+    <col min="8" max="10" width="8.7265625" style="12"/>
+    <col min="11" max="11" width="18.26953125" style="12" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
@@ -46318,25 +46556,25 @@
         <v>3</v>
       </c>
       <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -46352,26 +46590,26 @@
       <c r="E2" s="12">
         <v>0.52</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+      <c r="L2" s="12">
         <v>0.9</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="12">
-        <v>0</v>
-      </c>
-      <c r="J2" s="12">
-        <v>0</v>
-      </c>
-      <c r="K2" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -46387,26 +46625,26 @@
       <c r="E3" s="12">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12">
         <v>0.9</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
-        <v>0</v>
-      </c>
-      <c r="K3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -46422,26 +46660,26 @@
       <c r="E4" s="12">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+      <c r="L4" s="12">
         <v>0.9</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0</v>
-      </c>
-      <c r="K4" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -46457,26 +46695,26 @@
       <c r="E5" s="12">
         <v>0.59</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+      <c r="L5" s="12">
         <v>0.9</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -46492,26 +46730,26 @@
       <c r="E6" s="12">
         <v>0.58498853211009172</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+      <c r="L6" s="12">
         <v>0.9</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0</v>
-      </c>
-      <c r="K6" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -46527,26 +46765,26 @@
       <c r="E7" s="12">
         <v>0.59</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12">
         <v>0.9</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="12">
-        <v>0</v>
-      </c>
-      <c r="J7" s="12">
-        <v>0</v>
-      </c>
-      <c r="K7" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -46562,26 +46800,26 @@
       <c r="E8" s="12">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+      <c r="L8" s="12">
         <v>0.9</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-      <c r="J8" s="12">
-        <v>0</v>
-      </c>
-      <c r="K8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -46597,26 +46835,26 @@
       <c r="E9" s="12">
         <v>0.58798455598455601</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+      <c r="L9" s="12">
         <v>0.9</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0</v>
-      </c>
-      <c r="K9" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -46632,26 +46870,26 @@
       <c r="E10" s="12">
         <v>0.59</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12">
         <v>0.9</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="12">
-        <v>0</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0</v>
-      </c>
-      <c r="K10" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -46667,26 +46905,26 @@
       <c r="E11" s="12">
         <v>0.51</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="L11" s="12">
         <v>0.9</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0</v>
-      </c>
-      <c r="K11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -46702,26 +46940,26 @@
       <c r="E12" s="12">
         <v>0.52</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
         <v>0.9</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="12">
-        <v>0</v>
-      </c>
-      <c r="K12" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -46737,26 +46975,26 @@
       <c r="E13" s="12">
         <v>0.52</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
         <v>0.9</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0</v>
-      </c>
-      <c r="J13" s="12">
-        <v>0</v>
-      </c>
-      <c r="K13" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -46772,26 +47010,26 @@
       <c r="E14" s="12">
         <v>1</v>
       </c>
-      <c r="F14" s="12">
-        <v>1</v>
+      <c r="F14" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
       <c r="I14" s="12">
         <v>0</v>
       </c>
       <c r="J14" s="12">
         <v>0</v>
       </c>
-      <c r="K14" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -46807,26 +47045,26 @@
       <c r="E15" s="12">
         <v>0.34</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="L15" s="12">
         <v>0.94999999975000005</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="12">
-        <v>0</v>
-      </c>
-      <c r="J15" s="12">
-        <v>0</v>
-      </c>
-      <c r="K15" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -46842,26 +47080,26 @@
       <c r="E16" s="12">
         <v>1</v>
       </c>
-      <c r="F16" s="12">
-        <v>1</v>
+      <c r="F16" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
       <c r="I16" s="12">
         <v>0</v>
       </c>
       <c r="J16" s="12">
         <v>0</v>
       </c>
-      <c r="K16" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -46877,26 +47115,26 @@
       <c r="E17" s="12">
         <v>1</v>
       </c>
-      <c r="F17" s="12">
-        <v>1</v>
+      <c r="F17" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
       <c r="I17" s="12">
         <v>0</v>
       </c>
       <c r="J17" s="12">
         <v>0</v>
       </c>
-      <c r="K17" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -46912,26 +47150,26 @@
       <c r="E18" s="12">
         <v>1</v>
       </c>
-      <c r="F18" s="12">
-        <v>1</v>
+      <c r="F18" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
       <c r="I18" s="12">
         <v>0</v>
       </c>
       <c r="J18" s="12">
         <v>0</v>
       </c>
-      <c r="K18" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -46947,26 +47185,26 @@
       <c r="E19" s="12">
         <v>1</v>
       </c>
-      <c r="F19" s="12">
-        <v>1</v>
+      <c r="F19" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
       <c r="I19" s="12">
         <v>0</v>
       </c>
       <c r="J19" s="12">
         <v>0</v>
       </c>
-      <c r="K19" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -46982,26 +47220,26 @@
       <c r="E20" s="12">
         <v>1</v>
       </c>
-      <c r="F20" s="12">
-        <v>1</v>
+      <c r="F20" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
       <c r="I20" s="12">
         <v>0</v>
       </c>
       <c r="J20" s="12">
         <v>0</v>
       </c>
-      <c r="K20" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -47017,26 +47255,26 @@
       <c r="E21" s="12">
         <v>1</v>
       </c>
-      <c r="F21" s="12">
-        <v>1</v>
+      <c r="F21" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
       <c r="I21" s="12">
         <v>0</v>
       </c>
       <c r="J21" s="12">
         <v>0</v>
       </c>
-      <c r="K21" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -47052,26 +47290,26 @@
       <c r="E22" s="12">
         <v>1</v>
       </c>
-      <c r="F22" s="12">
-        <v>1</v>
+      <c r="F22" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
       <c r="I22" s="12">
         <v>0</v>
       </c>
       <c r="J22" s="12">
         <v>0</v>
       </c>
-      <c r="K22" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -47087,26 +47325,26 @@
       <c r="E23" s="12">
         <v>1</v>
       </c>
-      <c r="F23" s="12">
-        <v>1</v>
+      <c r="F23" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
       <c r="I23" s="12">
         <v>0</v>
       </c>
       <c r="J23" s="12">
         <v>0</v>
       </c>
-      <c r="K23" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -47122,26 +47360,26 @@
       <c r="E24" s="12">
         <v>1</v>
       </c>
-      <c r="F24" s="12">
-        <v>1</v>
+      <c r="F24" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
       <c r="I24" s="12">
         <v>0</v>
       </c>
       <c r="J24" s="12">
         <v>0</v>
       </c>
-      <c r="K24" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -47157,26 +47395,26 @@
       <c r="E25" s="12">
         <v>1</v>
       </c>
-      <c r="F25" s="12">
-        <v>1</v>
+      <c r="F25" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
       <c r="I25" s="12">
         <v>0</v>
       </c>
       <c r="J25" s="12">
         <v>0</v>
       </c>
-      <c r="K25" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -47192,26 +47430,26 @@
       <c r="E26" s="12">
         <v>1</v>
       </c>
-      <c r="F26" s="12">
-        <v>1</v>
+      <c r="F26" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
       <c r="I26" s="12">
         <v>0</v>
       </c>
       <c r="J26" s="12">
         <v>0</v>
       </c>
-      <c r="K26" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -47227,26 +47465,26 @@
       <c r="E27" s="12">
         <v>1</v>
       </c>
-      <c r="F27" s="12">
-        <v>1</v>
+      <c r="F27" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
       <c r="I27" s="12">
         <v>0</v>
       </c>
       <c r="J27" s="12">
         <v>0</v>
       </c>
-      <c r="K27" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -47262,26 +47500,26 @@
       <c r="E28" s="12">
         <v>1</v>
       </c>
-      <c r="F28" s="12">
-        <v>1</v>
+      <c r="F28" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H28" s="12">
+        <v>0</v>
+      </c>
       <c r="I28" s="12">
         <v>0</v>
       </c>
       <c r="J28" s="12">
         <v>0</v>
       </c>
-      <c r="K28" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -47297,26 +47535,26 @@
       <c r="E29" s="12">
         <v>1</v>
       </c>
-      <c r="F29" s="12">
-        <v>1</v>
+      <c r="F29" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H29" s="12">
+        <v>0</v>
+      </c>
       <c r="I29" s="12">
         <v>0</v>
       </c>
       <c r="J29" s="12">
         <v>0</v>
       </c>
-      <c r="K29" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -47332,26 +47570,26 @@
       <c r="E30" s="12">
         <v>1</v>
       </c>
-      <c r="F30" s="12">
-        <v>1</v>
+      <c r="F30" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H30" s="12">
+        <v>0</v>
+      </c>
       <c r="I30" s="12">
         <v>0</v>
       </c>
       <c r="J30" s="12">
         <v>0</v>
       </c>
-      <c r="K30" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -47367,26 +47605,26 @@
       <c r="E31" s="12">
         <v>1</v>
       </c>
-      <c r="F31" s="12">
-        <v>1</v>
+      <c r="F31" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H31" s="12">
+        <v>0</v>
+      </c>
       <c r="I31" s="12">
         <v>0</v>
       </c>
       <c r="J31" s="12">
         <v>0</v>
       </c>
-      <c r="K31" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -47402,26 +47640,26 @@
       <c r="E32" s="12">
         <v>1</v>
       </c>
-      <c r="F32" s="12">
-        <v>1</v>
+      <c r="F32" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H32" s="12">
+        <v>0</v>
+      </c>
       <c r="I32" s="12">
         <v>0</v>
       </c>
       <c r="J32" s="12">
         <v>0</v>
       </c>
-      <c r="K32" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -47437,26 +47675,26 @@
       <c r="E33" s="12">
         <v>0.38765163297045102</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="12">
+        <v>0</v>
+      </c>
+      <c r="I33" s="12">
+        <v>0</v>
+      </c>
+      <c r="J33" s="12">
+        <v>0</v>
+      </c>
+      <c r="L33" s="12">
         <v>0.9</v>
       </c>
-      <c r="G33" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I33" s="12">
-        <v>0</v>
-      </c>
-      <c r="J33" s="12">
-        <v>0</v>
-      </c>
-      <c r="K33" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -47472,26 +47710,26 @@
       <c r="E34" s="12">
         <v>0.36299999999999999</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0</v>
+      </c>
+      <c r="I34" s="12">
+        <v>0</v>
+      </c>
+      <c r="J34" s="12">
+        <v>0</v>
+      </c>
+      <c r="L34" s="12">
         <v>0.9</v>
       </c>
-      <c r="G34" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I34" s="12">
-        <v>0</v>
-      </c>
-      <c r="J34" s="12">
-        <v>0</v>
-      </c>
-      <c r="K34" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -47507,26 +47745,26 @@
       <c r="E35" s="12">
         <v>0.3</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="12">
+        <v>0</v>
+      </c>
+      <c r="I35" s="12">
+        <v>0</v>
+      </c>
+      <c r="J35" s="12">
+        <v>0</v>
+      </c>
+      <c r="L35" s="12">
         <v>0.74200913242009103</v>
       </c>
-      <c r="G35" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I35" s="12">
-        <v>0</v>
-      </c>
-      <c r="J35" s="12">
-        <v>0</v>
-      </c>
-      <c r="K35" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -47542,26 +47780,26 @@
       <c r="E36" s="12">
         <v>1</v>
       </c>
-      <c r="F36" s="12">
-        <v>1</v>
+      <c r="F36" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H36" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H36" s="12">
+        <v>0</v>
+      </c>
       <c r="I36" s="12">
         <v>0</v>
       </c>
       <c r="J36" s="12">
         <v>0</v>
       </c>
-      <c r="K36" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -47577,26 +47815,26 @@
       <c r="E37" s="12">
         <v>1</v>
       </c>
-      <c r="F37" s="12">
-        <v>1</v>
+      <c r="F37" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H37" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H37" s="12">
+        <v>0</v>
+      </c>
       <c r="I37" s="12">
         <v>0</v>
       </c>
       <c r="J37" s="12">
         <v>0</v>
       </c>
-      <c r="K37" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="13">
         <v>37</v>
       </c>
@@ -47612,26 +47850,26 @@
       <c r="E38" s="12">
         <v>1</v>
       </c>
-      <c r="F38" s="12">
-        <v>1</v>
+      <c r="F38" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H38" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H38" s="12">
+        <v>0</v>
+      </c>
       <c r="I38" s="12">
         <v>0</v>
       </c>
       <c r="J38" s="12">
         <v>0</v>
       </c>
-      <c r="K38" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="13">
         <v>38</v>
       </c>
@@ -47647,26 +47885,26 @@
       <c r="E39" s="12">
         <v>1</v>
       </c>
-      <c r="F39" s="12">
-        <v>1</v>
+      <c r="F39" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H39" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H39" s="12">
+        <v>0</v>
+      </c>
       <c r="I39" s="12">
         <v>0</v>
       </c>
       <c r="J39" s="12">
         <v>0</v>
       </c>
-      <c r="K39" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="13">
         <v>39</v>
       </c>
@@ -47682,26 +47920,26 @@
       <c r="E40" s="12">
         <v>1</v>
       </c>
-      <c r="F40" s="12">
-        <v>1</v>
+      <c r="F40" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H40" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H40" s="12">
+        <v>0</v>
+      </c>
       <c r="I40" s="12">
         <v>0</v>
       </c>
       <c r="J40" s="12">
         <v>0</v>
       </c>
-      <c r="K40" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="13">
         <v>40</v>
       </c>
@@ -47717,26 +47955,26 @@
       <c r="E41" s="12">
         <v>1</v>
       </c>
-      <c r="F41" s="12">
-        <v>1</v>
+      <c r="F41" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H41" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H41" s="12">
+        <v>0</v>
+      </c>
       <c r="I41" s="12">
         <v>0</v>
       </c>
       <c r="J41" s="12">
         <v>0</v>
       </c>
-      <c r="K41" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="13">
         <v>41</v>
       </c>
@@ -47752,26 +47990,26 @@
       <c r="E42" s="12">
         <v>1</v>
       </c>
-      <c r="F42" s="12">
-        <v>1</v>
+      <c r="F42" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H42" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H42" s="12">
+        <v>0</v>
+      </c>
       <c r="I42" s="12">
         <v>0</v>
       </c>
       <c r="J42" s="12">
         <v>0</v>
       </c>
-      <c r="K42" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="13">
         <v>42</v>
       </c>
@@ -47787,26 +48025,26 @@
       <c r="E43" s="12">
         <v>1</v>
       </c>
-      <c r="F43" s="12">
-        <v>1</v>
+      <c r="F43" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H43" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H43" s="12">
+        <v>0</v>
+      </c>
       <c r="I43" s="12">
         <v>0</v>
       </c>
       <c r="J43" s="12">
         <v>0</v>
       </c>
-      <c r="K43" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="13">
         <v>43</v>
       </c>
@@ -47822,26 +48060,26 @@
       <c r="E44" s="12">
         <v>1</v>
       </c>
-      <c r="F44" s="12">
-        <v>1</v>
+      <c r="F44" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H44" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H44" s="12">
+        <v>0</v>
+      </c>
       <c r="I44" s="12">
         <v>0</v>
       </c>
       <c r="J44" s="12">
         <v>0</v>
       </c>
-      <c r="K44" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="13">
         <v>44</v>
       </c>
@@ -47857,26 +48095,26 @@
       <c r="E45" s="12">
         <v>1</v>
       </c>
-      <c r="F45" s="12">
-        <v>1</v>
+      <c r="F45" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H45" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H45" s="12">
+        <v>0</v>
+      </c>
       <c r="I45" s="12">
         <v>0</v>
       </c>
       <c r="J45" s="12">
         <v>0</v>
       </c>
-      <c r="K45" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="13">
         <v>45</v>
       </c>
@@ -47892,26 +48130,26 @@
       <c r="E46" s="12">
         <v>1</v>
       </c>
-      <c r="F46" s="12">
-        <v>1</v>
+      <c r="F46" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H46" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H46" s="12">
+        <v>0</v>
+      </c>
       <c r="I46" s="12">
         <v>0</v>
       </c>
       <c r="J46" s="12">
         <v>0</v>
       </c>
-      <c r="K46" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="L46" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="13">
         <v>46</v>
       </c>
@@ -47927,26 +48165,26 @@
       <c r="E47" s="12">
         <v>1</v>
       </c>
-      <c r="F47" s="12">
-        <v>1</v>
+      <c r="F47" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H47" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H47" s="12">
+        <v>0</v>
+      </c>
       <c r="I47" s="12">
         <v>0</v>
       </c>
       <c r="J47" s="12">
         <v>0</v>
       </c>
-      <c r="K47" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="13">
         <v>47</v>
       </c>
@@ -47962,26 +48200,26 @@
       <c r="E48" s="12">
         <v>1</v>
       </c>
-      <c r="F48" s="12">
-        <v>1</v>
+      <c r="F48" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H48" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H48" s="12">
+        <v>0</v>
+      </c>
       <c r="I48" s="12">
         <v>0</v>
       </c>
       <c r="J48" s="12">
         <v>0</v>
       </c>
-      <c r="K48" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="13">
         <v>48</v>
       </c>
@@ -47997,23 +48235,23 @@
       <c r="E49" s="12">
         <v>1</v>
       </c>
-      <c r="F49" s="12">
-        <v>1</v>
+      <c r="F49" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H49" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="H49" s="12">
+        <v>0</v>
+      </c>
       <c r="I49" s="12">
         <v>0</v>
       </c>
       <c r="J49" s="12">
         <v>0</v>
       </c>
-      <c r="K49" s="12">
-        <v>0</v>
+      <c r="L49" s="12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -48026,19 +48264,21 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="22.54296875" customWidth="1"/>
-    <col min="8" max="8" width="14.90625" customWidth="1"/>
+    <col min="2" max="2" width="29.6328125" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" customWidth="1"/>
+    <col min="15" max="15" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:16">
       <c r="A1" s="12"/>
       <c r="B1" s="13" t="s">
         <v>0</v>
@@ -48067,28 +48307,32 @@
       <c r="J1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="K1" s="13"/>
+      <c r="O1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="13">
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="12">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D2" s="12">
-        <v>790</v>
+        <v>631</v>
       </c>
       <c r="E2" s="12">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="F2" s="12">
-        <v>0.9</v>
+        <v>0.80000000000000016</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>40</v>
@@ -48102,11 +48346,15 @@
       <c r="J2" s="12">
         <v>0</v>
       </c>
-      <c r="K2" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2" s="12"/>
+      <c r="O2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="4">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -48114,10 +48362,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="12">
-        <v>2640</v>
+        <v>790</v>
       </c>
       <c r="E3" s="12">
         <v>0.46</v>
@@ -48137,11 +48385,15 @@
       <c r="J3" s="12">
         <v>0</v>
       </c>
-      <c r="K3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3" s="12"/>
+      <c r="O3" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1.7679999999999969</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -48149,13 +48401,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D4" s="12">
-        <v>630</v>
+        <v>2640</v>
       </c>
       <c r="E4" s="12">
-        <v>0.41</v>
+        <v>0.46</v>
       </c>
       <c r="F4" s="12">
         <v>0.9</v>
@@ -48172,11 +48424,15 @@
       <c r="J4" s="12">
         <v>0</v>
       </c>
-      <c r="K4" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4" s="12"/>
+      <c r="O4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="4">
+        <v>7586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -48184,16 +48440,16 @@
         <v>8</v>
       </c>
       <c r="C5" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="12">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E5" s="12">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="F5" s="12">
-        <v>0.80000000000000016</v>
+        <v>0.9</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>40</v>
@@ -48207,11 +48463,15 @@
       <c r="J5" s="12">
         <v>0</v>
       </c>
-      <c r="K5" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="K5" s="12"/>
+      <c r="O5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="4">
+        <v>8501.9630099999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -48242,11 +48502,15 @@
       <c r="J6" s="12">
         <v>0</v>
       </c>
-      <c r="K6" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6" s="12"/>
+      <c r="O6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="4">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -48277,11 +48541,15 @@
       <c r="J7" s="12">
         <v>0</v>
       </c>
-      <c r="K7" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7" s="12"/>
+      <c r="O7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="4">
+        <v>40.207000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -48312,11 +48580,15 @@
       <c r="J8" s="12">
         <v>0</v>
       </c>
-      <c r="K8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="K8" s="12"/>
+      <c r="O8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="4">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -48347,11 +48619,15 @@
       <c r="J9" s="12">
         <v>0</v>
       </c>
-      <c r="K9" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="K9" s="12"/>
+      <c r="O9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -48382,11 +48658,15 @@
       <c r="J10" s="12">
         <v>0</v>
       </c>
-      <c r="K10" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10" s="12"/>
+      <c r="O10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="4">
+        <v>6789.9099999999989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="13">
         <v>9</v>
       </c>
@@ -48417,11 +48697,15 @@
       <c r="J11" s="12">
         <v>0</v>
       </c>
-      <c r="K11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="K11" s="12"/>
+      <c r="O11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="4">
+        <v>962.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="13">
         <v>10</v>
       </c>
@@ -48452,11 +48736,15 @@
       <c r="J12" s="12">
         <v>0</v>
       </c>
-      <c r="K12" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="K12" s="12"/>
+      <c r="O12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" s="4">
+        <v>4236.9939999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -48487,11 +48775,15 @@
       <c r="J13" s="12">
         <v>0</v>
       </c>
-      <c r="K13" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="K13" s="12"/>
+      <c r="O13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="4">
+        <v>34397.532009999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="13">
         <v>12</v>
       </c>
@@ -48522,11 +48814,9 @@
       <c r="J14" s="12">
         <v>0</v>
       </c>
-      <c r="K14" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="13">
         <v>13</v>
       </c>
@@ -48557,11 +48847,12 @@
       <c r="J15" s="12">
         <v>0</v>
       </c>
-      <c r="K15" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="K15" s="12"/>
+      <c r="O15" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="13">
         <v>14</v>
       </c>
@@ -48592,9 +48883,7 @@
       <c r="J16" s="12">
         <v>0</v>
       </c>
-      <c r="K16" s="12">
-        <v>0</v>
-      </c>
+      <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="13">
@@ -48627,9 +48916,7 @@
       <c r="J17" s="12">
         <v>0</v>
       </c>
-      <c r="K17" s="12">
-        <v>0</v>
-      </c>
+      <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="13">
@@ -48662,9 +48949,7 @@
       <c r="J18" s="12">
         <v>0</v>
       </c>
-      <c r="K18" s="12">
-        <v>0</v>
-      </c>
+      <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="13">
@@ -48697,9 +48982,7 @@
       <c r="J19" s="12">
         <v>0</v>
       </c>
-      <c r="K19" s="12">
-        <v>0</v>
-      </c>
+      <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="13">
@@ -48732,9 +49015,7 @@
       <c r="J20" s="12">
         <v>0</v>
       </c>
-      <c r="K20" s="12">
-        <v>0</v>
-      </c>
+      <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="13">
@@ -48767,9 +49048,7 @@
       <c r="J21" s="12">
         <v>0</v>
       </c>
-      <c r="K21" s="12">
-        <v>0</v>
-      </c>
+      <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="13">
@@ -48802,9 +49081,7 @@
       <c r="J22" s="12">
         <v>0</v>
       </c>
-      <c r="K22" s="12">
-        <v>0</v>
-      </c>
+      <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="13">
@@ -48837,9 +49114,7 @@
       <c r="J23" s="12">
         <v>0</v>
       </c>
-      <c r="K23" s="12">
-        <v>0</v>
-      </c>
+      <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="13">
@@ -48872,9 +49147,7 @@
       <c r="J24" s="12">
         <v>0</v>
       </c>
-      <c r="K24" s="12">
-        <v>0</v>
-      </c>
+      <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="13">
@@ -48907,9 +49180,7 @@
       <c r="J25" s="12">
         <v>0</v>
       </c>
-      <c r="K25" s="12">
-        <v>0</v>
-      </c>
+      <c r="K25" s="12"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="13">
@@ -48942,9 +49213,7 @@
       <c r="J26" s="12">
         <v>0</v>
       </c>
-      <c r="K26" s="12">
-        <v>0</v>
-      </c>
+      <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="13">
@@ -48977,9 +49246,7 @@
       <c r="J27" s="12">
         <v>0</v>
       </c>
-      <c r="K27" s="12">
-        <v>0</v>
-      </c>
+      <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="13">
@@ -49012,9 +49279,7 @@
       <c r="J28" s="12">
         <v>0</v>
       </c>
-      <c r="K28" s="12">
-        <v>0</v>
-      </c>
+      <c r="K28" s="12"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="13">
@@ -49047,9 +49312,7 @@
       <c r="J29" s="12">
         <v>0</v>
       </c>
-      <c r="K29" s="12">
-        <v>0</v>
-      </c>
+      <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="13">
@@ -49082,9 +49345,7 @@
       <c r="J30" s="12">
         <v>0</v>
       </c>
-      <c r="K30" s="12">
-        <v>0</v>
-      </c>
+      <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="13">
@@ -49117,9 +49378,7 @@
       <c r="J31" s="12">
         <v>0</v>
       </c>
-      <c r="K31" s="12">
-        <v>0</v>
-      </c>
+      <c r="K31" s="12"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="13">
@@ -49152,9 +49411,7 @@
       <c r="J32" s="12">
         <v>0</v>
       </c>
-      <c r="K32" s="12">
-        <v>0</v>
-      </c>
+      <c r="K32" s="12"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="13">
@@ -49187,9 +49444,7 @@
       <c r="J33" s="12">
         <v>0</v>
       </c>
-      <c r="K33" s="12">
-        <v>0</v>
-      </c>
+      <c r="K33" s="12"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="13">
@@ -49222,9 +49477,7 @@
       <c r="J34" s="12">
         <v>0</v>
       </c>
-      <c r="K34" s="12">
-        <v>0</v>
-      </c>
+      <c r="K34" s="12"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="13">
@@ -49257,9 +49510,7 @@
       <c r="J35" s="12">
         <v>0</v>
       </c>
-      <c r="K35" s="12">
-        <v>0</v>
-      </c>
+      <c r="K35" s="12"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="13">
@@ -49292,9 +49543,7 @@
       <c r="J36" s="12">
         <v>0</v>
       </c>
-      <c r="K36" s="12">
-        <v>0</v>
-      </c>
+      <c r="K36" s="12"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="13">
@@ -49327,9 +49576,7 @@
       <c r="J37" s="12">
         <v>0</v>
       </c>
-      <c r="K37" s="12">
-        <v>0</v>
-      </c>
+      <c r="K37" s="12"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="13">
@@ -49362,9 +49609,7 @@
       <c r="J38" s="12">
         <v>0</v>
       </c>
-      <c r="K38" s="12">
-        <v>0</v>
-      </c>
+      <c r="K38" s="12"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="13">
@@ -49397,9 +49642,7 @@
       <c r="J39" s="12">
         <v>0</v>
       </c>
-      <c r="K39" s="12">
-        <v>0</v>
-      </c>
+      <c r="K39" s="12"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="13">
@@ -49432,9 +49675,7 @@
       <c r="J40" s="12">
         <v>0</v>
       </c>
-      <c r="K40" s="12">
-        <v>0</v>
-      </c>
+      <c r="K40" s="12"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="13">
@@ -49467,9 +49708,7 @@
       <c r="J41" s="12">
         <v>0</v>
       </c>
-      <c r="K41" s="12">
-        <v>0</v>
-      </c>
+      <c r="K41" s="12"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="13">
@@ -49502,9 +49741,7 @@
       <c r="J42" s="12">
         <v>0</v>
       </c>
-      <c r="K42" s="12">
-        <v>0</v>
-      </c>
+      <c r="K42" s="12"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="13">
@@ -49537,9 +49774,7 @@
       <c r="J43" s="12">
         <v>0</v>
       </c>
-      <c r="K43" s="12">
-        <v>0</v>
-      </c>
+      <c r="K43" s="12"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="13">
@@ -49572,9 +49807,7 @@
       <c r="J44" s="12">
         <v>0</v>
       </c>
-      <c r="K44" s="12">
-        <v>0</v>
-      </c>
+      <c r="K44" s="12"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="13">
@@ -49607,9 +49840,7 @@
       <c r="J45" s="12">
         <v>0</v>
       </c>
-      <c r="K45" s="12">
-        <v>0</v>
-      </c>
+      <c r="K45" s="12"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="13">
@@ -49642,9 +49873,7 @@
       <c r="J46" s="12">
         <v>0</v>
       </c>
-      <c r="K46" s="12">
-        <v>0</v>
-      </c>
+      <c r="K46" s="12"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="13">
@@ -49677,9 +49906,7 @@
       <c r="J47" s="12">
         <v>0</v>
       </c>
-      <c r="K47" s="12">
-        <v>0</v>
-      </c>
+      <c r="K47" s="12"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="13">
@@ -49712,9 +49939,7 @@
       <c r="J48" s="12">
         <v>0</v>
       </c>
-      <c r="K48" s="12">
-        <v>0</v>
-      </c>
+      <c r="K48" s="12"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="13">
@@ -49747,9 +49972,7 @@
       <c r="J49" s="12">
         <v>0</v>
       </c>
-      <c r="K49" s="12">
-        <v>0</v>
-      </c>
+      <c r="K49" s="12"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="13">
@@ -49782,9 +50005,7 @@
       <c r="J50" s="12">
         <v>0</v>
       </c>
-      <c r="K50" s="12">
-        <v>0</v>
-      </c>
+      <c r="K50" s="12"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="13">
@@ -49817,9 +50038,7 @@
       <c r="J51" s="12">
         <v>0</v>
       </c>
-      <c r="K51" s="12">
-        <v>0</v>
-      </c>
+      <c r="K51" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558422AF-4FE5-4E1D-B5DA-D5EA27075765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6487BC-EC1C-4208-BB3B-17BBAE736018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="28110" windowHeight="16440" tabRatio="971" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" tabRatio="971" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4650" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4640" uniqueCount="462">
   <si>
     <t>Technology</t>
   </si>
@@ -1520,6 +1520,12 @@
   <si>
     <t>how is the hydropower?</t>
   </si>
+  <si>
+    <t>pps</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
 </sst>
 </file>
 
@@ -1761,13 +1767,13 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -1951,7 +1957,7 @@
       <sheetName val="Coupling Parameters"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="B2">
@@ -2012,6 +2018,7 @@
           </cell>
         </row>
         <row r="3">
+          <cell r="A3"/>
           <cell r="B3" t="str">
             <v>Biomass_CHP_wood_pellets_PH</v>
           </cell>
@@ -2025,41 +2032,49 @@
           </cell>
         </row>
         <row r="5">
+          <cell r="A5"/>
           <cell r="B5" t="str">
             <v>CCGT_CHP_backpressure_DH</v>
           </cell>
         </row>
         <row r="6">
+          <cell r="A6"/>
           <cell r="B6" t="str">
             <v>CCGT_CHP_backpressure_PH</v>
           </cell>
         </row>
         <row r="7">
+          <cell r="A7"/>
           <cell r="B7" t="str">
             <v>CCS</v>
           </cell>
         </row>
         <row r="8">
+          <cell r="A8"/>
           <cell r="B8" t="str">
             <v>CSP_Parabolic</v>
           </cell>
         </row>
         <row r="9">
+          <cell r="A9"/>
           <cell r="B9" t="str">
             <v>CSP_Tower</v>
           </cell>
         </row>
         <row r="10">
+          <cell r="A10"/>
           <cell r="B10" t="str">
             <v>Hydrogen_to_Jet_Fuel</v>
           </cell>
         </row>
         <row r="11">
+          <cell r="A11"/>
           <cell r="B11" t="str">
             <v>Hydropower_ROR</v>
           </cell>
         </row>
         <row r="12">
+          <cell r="A12"/>
           <cell r="B12" t="str">
             <v>Hydropower_reservoir_large</v>
           </cell>
@@ -2073,6 +2088,7 @@
           </cell>
         </row>
         <row r="14">
+          <cell r="A14"/>
           <cell r="B14" t="str">
             <v>Hydropower_reservoir_small</v>
           </cell>
@@ -2086,11 +2102,13 @@
           </cell>
         </row>
         <row r="16">
+          <cell r="A16"/>
           <cell r="B16" t="str">
             <v>Nuclear_CHP_DH</v>
           </cell>
         </row>
         <row r="17">
+          <cell r="A17"/>
           <cell r="B17" t="str">
             <v>Nuclear_CHP_PH</v>
           </cell>
@@ -2104,16 +2122,19 @@
           </cell>
         </row>
         <row r="19">
+          <cell r="A19"/>
           <cell r="B19" t="str">
             <v>PEM_Electrolyzer</v>
           </cell>
         </row>
         <row r="20">
+          <cell r="A20"/>
           <cell r="B20" t="str">
             <v>PV_commercial_systems</v>
           </cell>
         </row>
         <row r="21">
+          <cell r="A21"/>
           <cell r="B21" t="str">
             <v>PV_residential</v>
           </cell>
@@ -2127,6 +2148,7 @@
           </cell>
         </row>
         <row r="23">
+          <cell r="A23"/>
           <cell r="B23" t="str">
             <v>Power_to_Jet_Fuel</v>
           </cell>
@@ -2148,16 +2170,19 @@
           </cell>
         </row>
         <row r="26">
+          <cell r="A26"/>
           <cell r="B26" t="str">
             <v>Wave_energy</v>
           </cell>
         </row>
         <row r="27">
+          <cell r="A27"/>
           <cell r="B27" t="str">
             <v>Lithium_ion_battery</v>
           </cell>
         </row>
         <row r="28">
+          <cell r="A28"/>
           <cell r="B28" t="str">
             <v>Pumped_hydro</v>
           </cell>
@@ -2187,37 +2212,37 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5755,7 +5780,7 @@
       <c r="J17" s="12">
         <v>0</v>
       </c>
-      <c r="M17" s="29" t="s">
+      <c r="M17" s="33" t="s">
         <v>457</v>
       </c>
     </row>
@@ -5790,7 +5815,7 @@
       <c r="J18" s="12">
         <v>0</v>
       </c>
-      <c r="M18" s="29"/>
+      <c r="M18" s="33"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="13">
@@ -5823,7 +5848,7 @@
       <c r="J19" s="12">
         <v>0</v>
       </c>
-      <c r="M19" s="29"/>
+      <c r="M19" s="33"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="13">
@@ -5856,7 +5881,7 @@
       <c r="J20" s="12">
         <v>0</v>
       </c>
-      <c r="M20" s="29"/>
+      <c r="M20" s="33"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="13">
@@ -5889,7 +5914,7 @@
       <c r="J21" s="12">
         <v>0</v>
       </c>
-      <c r="M21" s="29"/>
+      <c r="M21" s="33"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="13">
@@ -41978,7 +42003,7 @@
       <c r="J16" s="12">
         <v>0.9</v>
       </c>
-      <c r="M16" s="29" t="s">
+      <c r="M16" s="33" t="s">
         <v>456</v>
       </c>
     </row>
@@ -42013,7 +42038,7 @@
       <c r="J17" s="12">
         <v>0.9</v>
       </c>
-      <c r="M17" s="29"/>
+      <c r="M17" s="33"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="16">
@@ -42046,7 +42071,7 @@
       <c r="J18" s="12">
         <v>0.9</v>
       </c>
-      <c r="M18" s="29"/>
+      <c r="M18" s="33"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="16">
@@ -42079,7 +42104,7 @@
       <c r="J19" s="12">
         <v>0.9</v>
       </c>
-      <c r="M19" s="29"/>
+      <c r="M19" s="33"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="16">
@@ -42112,7 +42137,7 @@
       <c r="J20" s="12">
         <v>0.9</v>
       </c>
-      <c r="M20" s="29"/>
+      <c r="M20" s="33"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="16">
@@ -42145,7 +42170,7 @@
       <c r="J21" s="12">
         <v>0.9</v>
       </c>
-      <c r="M21" s="29"/>
+      <c r="M21" s="33"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="16">
@@ -42178,7 +42203,7 @@
       <c r="J22" s="12">
         <v>0.9</v>
       </c>
-      <c r="M22" s="29"/>
+      <c r="M22" s="33"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="16">
@@ -42211,7 +42236,7 @@
       <c r="J23" s="12">
         <v>0.9</v>
       </c>
-      <c r="M23" s="29"/>
+      <c r="M23" s="33"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="16">
@@ -42244,7 +42269,7 @@
       <c r="J24" s="12">
         <v>0.9</v>
       </c>
-      <c r="M24" s="29"/>
+      <c r="M24" s="33"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="16">
@@ -42277,7 +42302,7 @@
       <c r="J25" s="12">
         <v>0.74200913242009103</v>
       </c>
-      <c r="M25" s="29"/>
+      <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="16">
@@ -46303,8 +46328,8 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -46330,14 +46355,14 @@
       <c r="A2" s="27" t="s">
         <v>451</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="29">
         <v>40.207000000000001</v>
       </c>
       <c r="C2" s="26">
         <v>38</v>
       </c>
       <c r="D2" s="28">
-        <f>B2-C2</f>
+        <f t="shared" ref="D2:D12" si="0">B2-C2</f>
         <v>2.2070000000000007</v>
       </c>
     </row>
@@ -46348,11 +46373,11 @@
       <c r="B3" s="28">
         <v>484</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="32">
         <v>486</v>
       </c>
       <c r="D3" s="28">
-        <f>B3-C3</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
@@ -46364,11 +46389,11 @@
         <f>1.768 + 631</f>
         <v>632.76800000000003</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="32">
         <v>1243</v>
       </c>
       <c r="D4" s="28">
-        <f>B4-C4</f>
+        <f t="shared" si="0"/>
         <v>-610.23199999999997</v>
       </c>
     </row>
@@ -46376,14 +46401,14 @@
       <c r="A5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="29">
         <v>962.69</v>
       </c>
       <c r="C5" s="26">
         <v>957</v>
       </c>
       <c r="D5" s="28">
-        <f>B5-C5</f>
+        <f t="shared" si="0"/>
         <v>5.6900000000000546</v>
       </c>
     </row>
@@ -46394,11 +46419,11 @@
       <c r="B6" s="28">
         <v>1103</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="31">
         <v>1103</v>
       </c>
       <c r="D6" s="28">
-        <f>B6-C6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6" t="s">
@@ -46409,14 +46434,14 @@
       <c r="A7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="30">
         <v>4060</v>
       </c>
       <c r="C7" s="26">
         <v>4631</v>
       </c>
       <c r="D7" s="28">
-        <f>B7-C7</f>
+        <f t="shared" si="0"/>
         <v>-571</v>
       </c>
     </row>
@@ -46427,11 +46452,11 @@
       <c r="B8" s="28">
         <v>4236.9939999999997</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="32">
         <v>3669</v>
       </c>
       <c r="D8" s="28">
-        <f>B8-C8</f>
+        <f t="shared" si="0"/>
         <v>567.99399999999969</v>
       </c>
     </row>
@@ -46446,7 +46471,7 @@
         <v>3937</v>
       </c>
       <c r="D9" s="28">
-        <f>B9-C9</f>
+        <f t="shared" si="0"/>
         <v>2852.9099999999989</v>
       </c>
     </row>
@@ -46457,12 +46482,12 @@
       <c r="B10" s="28">
         <v>7586</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="31">
         <f>15570-C11-C15</f>
         <v>7069</v>
       </c>
       <c r="D10" s="28">
-        <f>B10-C10</f>
+        <f t="shared" si="0"/>
         <v>517</v>
       </c>
     </row>
@@ -46470,14 +46495,14 @@
       <c r="A11" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="30">
         <v>8501.9630099999995</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="31">
         <v>8501</v>
       </c>
       <c r="D11" s="28">
-        <f>B11-C11</f>
+        <f t="shared" si="0"/>
         <v>0.96300999999948544</v>
       </c>
     </row>
@@ -46494,7 +46519,7 @@
         <v>31634</v>
       </c>
       <c r="D12" s="12">
-        <f>B12-C12</f>
+        <f t="shared" si="0"/>
         <v>2763.5320099999954</v>
       </c>
     </row>
@@ -46525,10 +46550,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -46543,6 +46568,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
+      <c r="A1" s="12" t="s">
+        <v>460</v>
+      </c>
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
@@ -47314,13 +47342,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="12">
-        <v>203.696</v>
+        <v>425.90300000000002</v>
       </c>
       <c r="E23" s="12">
         <v>1</v>
@@ -47349,13 +47377,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="12">
-        <v>758.99400000000003</v>
+        <v>551.90700000000004</v>
       </c>
       <c r="E24" s="12">
         <v>1</v>
@@ -47387,10 +47415,10 @@
         <v>13</v>
       </c>
       <c r="C25" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D25" s="12">
-        <v>341.774</v>
+        <v>659.47300000000007</v>
       </c>
       <c r="E25" s="12">
         <v>1</v>
@@ -47422,10 +47450,10 @@
         <v>13</v>
       </c>
       <c r="C26" s="12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D26" s="12">
-        <v>425.90300000000002</v>
+        <v>638.66199999999992</v>
       </c>
       <c r="E26" s="12">
         <v>1</v>
@@ -47457,10 +47485,10 @@
         <v>13</v>
       </c>
       <c r="C27" s="12">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D27" s="12">
-        <v>551.90700000000004</v>
+        <v>317.36399999999998</v>
       </c>
       <c r="E27" s="12">
         <v>1</v>
@@ -47492,10 +47520,10 @@
         <v>13</v>
       </c>
       <c r="C28" s="12">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D28" s="12">
-        <v>659.47300000000007</v>
+        <v>285.59800000000001</v>
       </c>
       <c r="E28" s="12">
         <v>1</v>
@@ -47527,10 +47555,10 @@
         <v>13</v>
       </c>
       <c r="C29" s="12">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D29" s="12">
-        <v>638.66199999999992</v>
+        <v>1016.313</v>
       </c>
       <c r="E29" s="12">
         <v>1</v>
@@ -47559,16 +47587,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C30" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D30" s="12">
-        <v>317.36399999999998</v>
+        <v>643</v>
       </c>
       <c r="E30" s="12">
-        <v>1</v>
+        <v>0.38765163297045102</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>40</v>
@@ -47586,7 +47614,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="12">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -47594,16 +47622,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C31" s="12">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D31" s="12">
-        <v>285.59800000000001</v>
+        <v>460</v>
       </c>
       <c r="E31" s="12">
-        <v>1</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>40</v>
@@ -47621,7 +47649,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="12">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -47629,16 +47657,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>13</v>
+        <v>451</v>
       </c>
       <c r="C32" s="12">
         <v>14</v>
       </c>
       <c r="D32" s="12">
-        <v>1016.313</v>
+        <v>1.7679999999999969</v>
       </c>
       <c r="E32" s="12">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>40</v>
@@ -47656,7 +47684,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="12">
-        <v>1</v>
+        <v>0.74200913242009103</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -47664,16 +47692,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C33" s="12">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D33" s="12">
-        <v>643</v>
+        <v>1200</v>
       </c>
       <c r="E33" s="12">
-        <v>0.38765163297045102</v>
+        <v>1</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>40</v>
@@ -47691,7 +47719,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="12">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -47699,16 +47727,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C34" s="12">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D34" s="12">
-        <v>460</v>
+        <v>1200</v>
       </c>
       <c r="E34" s="12">
-        <v>0.36299999999999999</v>
+        <v>1</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>40</v>
@@ -47726,7 +47754,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="12">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -47734,16 +47762,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>451</v>
+        <v>14</v>
       </c>
       <c r="C35" s="12">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D35" s="12">
-        <v>1.7679999999999969</v>
+        <v>1200</v>
       </c>
       <c r="E35" s="12">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>40</v>
@@ -47761,7 +47789,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="12">
-        <v>0.74200913242009103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -47908,14 +47936,14 @@
       <c r="A40" s="13">
         <v>39</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>14</v>
+      <c r="B40" s="24" t="s">
+        <v>438</v>
       </c>
       <c r="C40" s="12">
         <v>0</v>
       </c>
       <c r="D40" s="12">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="E40" s="12">
         <v>1</v>
@@ -47943,14 +47971,14 @@
       <c r="A41" s="13">
         <v>40</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>14</v>
+      <c r="B41" s="24" t="s">
+        <v>438</v>
       </c>
       <c r="C41" s="12">
         <v>0</v>
       </c>
       <c r="D41" s="12">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="E41" s="12">
         <v>1</v>
@@ -47978,14 +48006,14 @@
       <c r="A42" s="13">
         <v>41</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>14</v>
+      <c r="B42" s="24" t="s">
+        <v>438</v>
       </c>
       <c r="C42" s="12">
         <v>0</v>
       </c>
       <c r="D42" s="12">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="E42" s="12">
         <v>1</v>
@@ -48013,14 +48041,14 @@
       <c r="A43" s="13">
         <v>42</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>14</v>
+      <c r="B43" s="24" t="s">
+        <v>438</v>
       </c>
       <c r="C43" s="12">
         <v>0</v>
       </c>
       <c r="D43" s="12">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E43" s="12">
         <v>1</v>
@@ -48048,14 +48076,14 @@
       <c r="A44" s="13">
         <v>43</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>14</v>
+      <c r="B44" s="24" t="s">
+        <v>438</v>
       </c>
       <c r="C44" s="12">
         <v>0</v>
       </c>
       <c r="D44" s="12">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="E44" s="12">
         <v>1</v>
@@ -48083,14 +48111,14 @@
       <c r="A45" s="13">
         <v>44</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>14</v>
+      <c r="B45" s="24" t="s">
+        <v>438</v>
       </c>
       <c r="C45" s="12">
         <v>0</v>
       </c>
       <c r="D45" s="12">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="E45" s="12">
         <v>1</v>
@@ -48111,146 +48139,6 @@
         <v>0</v>
       </c>
       <c r="L45" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="13">
-        <v>45</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="12">
-        <v>0</v>
-      </c>
-      <c r="D46" s="12">
-        <v>1200</v>
-      </c>
-      <c r="E46" s="12">
-        <v>1</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H46" s="12">
-        <v>0</v>
-      </c>
-      <c r="I46" s="12">
-        <v>0</v>
-      </c>
-      <c r="J46" s="12">
-        <v>0</v>
-      </c>
-      <c r="L46" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="13">
-        <v>46</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="12">
-        <v>0</v>
-      </c>
-      <c r="D47" s="12">
-        <v>1200</v>
-      </c>
-      <c r="E47" s="12">
-        <v>1</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H47" s="12">
-        <v>0</v>
-      </c>
-      <c r="I47" s="12">
-        <v>0</v>
-      </c>
-      <c r="J47" s="12">
-        <v>0</v>
-      </c>
-      <c r="L47" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="13">
-        <v>47</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="C48" s="12">
-        <v>0</v>
-      </c>
-      <c r="D48" s="12">
-        <v>100</v>
-      </c>
-      <c r="E48" s="12">
-        <v>1</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H48" s="12">
-        <v>0</v>
-      </c>
-      <c r="I48" s="12">
-        <v>0</v>
-      </c>
-      <c r="J48" s="12">
-        <v>0</v>
-      </c>
-      <c r="L48" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="13">
-        <v>48</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="C49" s="12">
-        <v>0</v>
-      </c>
-      <c r="D49" s="12">
-        <v>100</v>
-      </c>
-      <c r="E49" s="12">
-        <v>1</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H49" s="12">
-        <v>0</v>
-      </c>
-      <c r="I49" s="12">
-        <v>0</v>
-      </c>
-      <c r="J49" s="12">
-        <v>0</v>
-      </c>
-      <c r="L49" s="12">
         <v>1</v>
       </c>
     </row>
@@ -48267,7 +48155,7 @@
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -48279,7 +48167,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>461</v>
+      </c>
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
@@ -50049,8 +49939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCA0DB4-82B5-4F45-9627-77778B586330}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -50060,7 +49950,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="12" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>0</v>

--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6487BC-EC1C-4208-BB3B-17BBAE736018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDE5988-904B-4218-8C0F-1DAE2729108D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" tabRatio="971" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
-    <sheet name="extendedNLold" sheetId="6" r:id="rId2"/>
-    <sheet name="extendedNLwrong" sheetId="14" r:id="rId3"/>
-    <sheet name="groupedNLGAS" sheetId="20" r:id="rId4"/>
-    <sheet name="superGroupedNL" sheetId="15" r:id="rId5"/>
-    <sheet name="AnalysisforNiPlants" sheetId="21" r:id="rId6"/>
-    <sheet name="extendedNLRES" sheetId="23" r:id="rId7"/>
+    <sheet name="extendedNLold" sheetId="6" r:id="rId1"/>
+    <sheet name="extendedNLwrong" sheetId="14" r:id="rId2"/>
+    <sheet name="groupedNLGAS" sheetId="20" r:id="rId3"/>
+    <sheet name="superGroupedNL" sheetId="15" r:id="rId4"/>
+    <sheet name="AnalysisforNiPlants" sheetId="21" r:id="rId5"/>
+    <sheet name="extendedNLRES" sheetId="23" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="24" r:id="rId7"/>
     <sheet name="extendedNL" sheetId="22" r:id="rId8"/>
     <sheet name="groupedNL" sheetId="16" r:id="rId9"/>
     <sheet name="groupedNLOld_Ni" sheetId="18" r:id="rId10"/>
@@ -38,21 +38,21 @@
     <externalReference r:id="rId21"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">AnalysisforNiPlants!$B$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">AnalysisforNiPlants!$B$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">dutchGermanPlants2015_from_emla!$A$1:$H$440</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">extendedDE!$B$1:$J$272</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">extendedDEmoreoptimal!$B$1:$J$193</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">extendedNL2020!$A$1:$K$66</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">extendedNLwrong!$A$1:$J$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">extendedNLwrong!$A$1:$J$101</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">groupedNL!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">groupedNLGAS!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">superGroupedNL!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">groupedNLGAS!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">superGroupedNL!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">two_techs_DE!$B$1:$I$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId22"/>
-    <pivotCache cacheId="1" r:id="rId23"/>
+    <pivotCache cacheId="1" r:id="rId22"/>
+    <pivotCache cacheId="4" r:id="rId23"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4640" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4613" uniqueCount="462">
   <si>
     <t>Technology</t>
   </si>
@@ -1991,6 +1991,7 @@
       <sheetName val="TargetInvestorTargets"/>
       <sheetName val="YearlyTargets"/>
       <sheetName val="yearlyCO2"/>
+      <sheetName val="graphs"/>
       <sheetName val="CO2DE"/>
       <sheetName val="Potentials"/>
       <sheetName val="Dismantled"/>
@@ -2018,7 +2019,6 @@
           </cell>
         </row>
         <row r="3">
-          <cell r="A3"/>
           <cell r="B3" t="str">
             <v>Biomass_CHP_wood_pellets_PH</v>
           </cell>
@@ -2032,49 +2032,41 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="A5"/>
           <cell r="B5" t="str">
             <v>CCGT_CHP_backpressure_DH</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="A6"/>
           <cell r="B6" t="str">
             <v>CCGT_CHP_backpressure_PH</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="A7"/>
           <cell r="B7" t="str">
             <v>CCS</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="A8"/>
           <cell r="B8" t="str">
             <v>CSP_Parabolic</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="A9"/>
           <cell r="B9" t="str">
             <v>CSP_Tower</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="A10"/>
           <cell r="B10" t="str">
             <v>Hydrogen_to_Jet_Fuel</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="A11"/>
           <cell r="B11" t="str">
             <v>Hydropower_ROR</v>
           </cell>
         </row>
         <row r="12">
-          <cell r="A12"/>
           <cell r="B12" t="str">
             <v>Hydropower_reservoir_large</v>
           </cell>
@@ -2088,7 +2080,6 @@
           </cell>
         </row>
         <row r="14">
-          <cell r="A14"/>
           <cell r="B14" t="str">
             <v>Hydropower_reservoir_small</v>
           </cell>
@@ -2102,13 +2093,11 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16"/>
           <cell r="B16" t="str">
             <v>Nuclear_CHP_DH</v>
           </cell>
         </row>
         <row r="17">
-          <cell r="A17"/>
           <cell r="B17" t="str">
             <v>Nuclear_CHP_PH</v>
           </cell>
@@ -2122,19 +2111,16 @@
           </cell>
         </row>
         <row r="19">
-          <cell r="A19"/>
           <cell r="B19" t="str">
             <v>PEM_Electrolyzer</v>
           </cell>
         </row>
         <row r="20">
-          <cell r="A20"/>
           <cell r="B20" t="str">
             <v>PV_commercial_systems</v>
           </cell>
         </row>
         <row r="21">
-          <cell r="A21"/>
           <cell r="B21" t="str">
             <v>PV_residential</v>
           </cell>
@@ -2148,7 +2134,6 @@
           </cell>
         </row>
         <row r="23">
-          <cell r="A23"/>
           <cell r="B23" t="str">
             <v>Power_to_Jet_Fuel</v>
           </cell>
@@ -2170,19 +2155,16 @@
           </cell>
         </row>
         <row r="26">
-          <cell r="A26"/>
           <cell r="B26" t="str">
             <v>Wave_energy</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="A27"/>
           <cell r="B27" t="str">
             <v>Lithium_ion_battery</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="A28"/>
           <cell r="B28" t="str">
             <v>Pumped_hydro</v>
           </cell>
@@ -2243,6 +2225,7 @@
       <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2255,45 +2238,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ingrid Sanchez Jimenez" refreshedDate="44824.595359259256" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="271" xr:uid="{422CA394-D91B-4F32-8799-E2C38CB3C075}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="B1:E272" sheet="extendedDE"/>
-  </cacheSource>
-  <cacheFields count="4">
-    <cacheField name="Technology" numFmtId="0">
-      <sharedItems count="11">
-        <s v="Biomass_CHP_wood_pellets_DH"/>
-        <s v="CCGT"/>
-        <s v="Coal PSC"/>
-        <s v="Fuel oil PGT"/>
-        <s v="Hydropower_reservoir_medium"/>
-        <s v="Lignite PSC"/>
-        <s v="Nuclear"/>
-        <s v="OCGT"/>
-        <s v="PV_utility_systems"/>
-        <s v="WTG_offshore"/>
-        <s v="WTG_onshore"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Age" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="105"/>
-    </cacheField>
-    <cacheField name="Capacity" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.0000000000005613" maxValue="7604.0000000000027"/>
-    </cacheField>
-    <cacheField name="Efficiency" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.20080000000000001" maxValue="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ingrid Sanchez Jimenez" refreshedDate="44911.48275289352" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="50" xr:uid="{4CA6E6A2-6BF0-4F90-915B-5517DA227AED}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:J51" sheet="extendedNL"/>
@@ -2347,1638 +2291,64 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="271">
-  <r>
-    <x v="0"/>
-    <n v="18"/>
-    <n v="256"/>
-    <n v="0.37644531250000002"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="19"/>
-    <n v="169.39340000000001"/>
-    <n v="0.38000000000000012"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="20"/>
-    <n v="81.2"/>
-    <n v="0.37150246305418722"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="22"/>
-    <n v="65.8"/>
-    <n v="0.33919452887537987"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="23"/>
-    <n v="95.8"/>
-    <n v="0.33511482254697278"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="24"/>
-    <n v="93.1"/>
-    <n v="0.33000000000000013"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="25"/>
-    <n v="117.9"/>
-    <n v="0.3366157760814249"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="31"/>
-    <n v="147"/>
-    <n v="0.34061224489795922"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="38"/>
-    <n v="123.5"/>
-    <n v="0.33"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="40"/>
-    <n v="129.61000000000001"/>
-    <n v="0.33"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="49"/>
-    <n v="260.2"/>
-    <n v="0.34952344350499609"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="17"/>
-    <n v="556"/>
-    <n v="0.34"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="16"/>
-    <n v="279.99999999999983"/>
-    <n v="0.34"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="15"/>
-    <n v="780.00000000000023"/>
-    <n v="0.34"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="14"/>
-    <n v="706.99999999999989"/>
-    <n v="0.34"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="13"/>
-    <n v="354.00000000000011"/>
-    <n v="0.34"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="12"/>
-    <n v="347.0000000000004"/>
-    <n v="0.34"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="11"/>
-    <n v="1228.9999999999991"/>
-    <n v="0.34"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="10"/>
-    <n v="551.00000000000011"/>
-    <n v="0.34"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="9"/>
-    <n v="7.0000000000005613"/>
-    <n v="0.34"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="8"/>
-    <n v="200.99999999999963"/>
-    <n v="0.34"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="7"/>
-    <n v="682.00000000000034"/>
-    <n v="0.34"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="6"/>
-    <n v="258.99999999999943"/>
-    <n v="0.34"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="5"/>
-    <n v="253.00000000000011"/>
-    <n v="0.34"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="4"/>
-    <n v="174.00000000000037"/>
-    <n v="0.34"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="3"/>
-    <n v="316.99999999999926"/>
-    <n v="0.34"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="438.00000000000063"/>
-    <n v="0.34"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="334.99999999999909"/>
-    <n v="0.34"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="688.00000000000057"/>
-    <n v="0.34"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="2"/>
-    <n v="140.5"/>
-    <n v="0.63"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="6"/>
-    <n v="1117.5"/>
-    <n v="0.61199999999999999"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="7"/>
-    <n v="296.3"/>
-    <n v="0.60690313871076618"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="9"/>
-    <n v="790.5"/>
-    <n v="0.59850000000000014"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="11"/>
-    <n v="639"/>
-    <n v="0.58950000000000002"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="12"/>
-    <n v="2092.5"/>
-    <n v="0.58499999999999996"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="13"/>
-    <n v="196"/>
-    <n v="0.58050000000000002"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="14"/>
-    <n v="1230"/>
-    <n v="0.57600000000000007"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="15"/>
-    <n v="1217"/>
-    <n v="0.57150000000000001"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="17"/>
-    <n v="1207.759"/>
-    <n v="0.5625"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="18"/>
-    <n v="484.4"/>
-    <n v="0.55800000000000005"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="19"/>
-    <n v="165.46"/>
-    <n v="0.55309748579717155"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="21"/>
-    <n v="135.80000000000001"/>
-    <n v="0.54449999999999998"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="22"/>
-    <n v="1239.2"/>
-    <n v="0.54"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="23"/>
-    <n v="188.6"/>
-    <n v="0.53549999999999998"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="24"/>
-    <n v="430.6"/>
-    <n v="0.53100000000000003"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="25"/>
-    <n v="533"/>
-    <n v="0.52649999999999997"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="26"/>
-    <n v="734"/>
-    <n v="0.52200000000000002"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="27"/>
-    <n v="360"/>
-    <n v="0.47999999999999993"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="28"/>
-    <n v="413.51"/>
-    <n v="0.51260921138545623"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="41"/>
-    <n v="125"/>
-    <n v="0.45450000000000002"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="42"/>
-    <n v="316.7"/>
-    <n v="0.45000000000000012"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="46"/>
-    <n v="775"/>
-    <n v="0.43199999999999988"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="48"/>
-    <n v="475"/>
-    <n v="0.42299999999999999"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="49"/>
-    <n v="1698"/>
-    <n v="0.41839399293286222"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="7"/>
-    <n v="3174"/>
-    <n v="0.46250000000000002"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="8"/>
-    <n v="1597.7"/>
-    <n v="0.46"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="9"/>
-    <n v="1909"/>
-    <n v="0.45750000000000002"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="10"/>
-    <n v="433"/>
-    <n v="0.45500000000000002"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="11"/>
-    <n v="716"/>
-    <n v="0.45250000000000001"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="12"/>
-    <n v="250"/>
-    <n v="0.45"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="13"/>
-    <n v="1572"/>
-    <n v="0.44750000000000001"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="15"/>
-    <n v="350"/>
-    <n v="0.4425"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="16"/>
-    <n v="336"/>
-    <n v="0.44"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="17"/>
-    <n v="822"/>
-    <n v="0.4375"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="19"/>
-    <n v="690"/>
-    <n v="0.4325"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="22"/>
-    <n v="123"/>
-    <n v="0.42499999999999999"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="28"/>
-    <n v="527.4"/>
-    <n v="0.41012703830109981"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="29"/>
-    <n v="889"/>
-    <n v="0.40749999999999992"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="30"/>
-    <n v="561.70000000000005"/>
-    <n v="0.41046377069610113"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="31"/>
-    <n v="332.7"/>
-    <n v="0.40250000000000002"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="32"/>
-    <n v="169.9"/>
-    <n v="0.4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="33"/>
-    <n v="762.5"/>
-    <n v="0.40152491803278689"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="34"/>
-    <n v="713.5"/>
-    <n v="0.39500000000000007"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="35"/>
-    <n v="1157"/>
-    <n v="0.39250000000000002"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="37"/>
-    <n v="380"/>
-    <n v="0.39488157894736842"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="38"/>
-    <n v="88.3"/>
-    <n v="0.42570101925254811"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="39"/>
-    <n v="794.4"/>
-    <n v="0.38947432024169182"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="40"/>
-    <n v="666.4"/>
-    <n v="0.37999999999999989"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="41"/>
-    <n v="717"/>
-    <n v="0.3775"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="43"/>
-    <n v="303"/>
-    <n v="0.3725"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="46"/>
-    <n v="1412.6"/>
-    <n v="0.36499999999999999"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="51"/>
-    <n v="190.35"/>
-    <n v="0.36881176779616498"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="53"/>
-    <n v="345"/>
-    <n v="0.34749999999999998"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="54"/>
-    <n v="385"/>
-    <n v="0.34422077922077909"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="60"/>
-    <n v="129"/>
-    <n v="0.32748062015503882"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="82"/>
-    <n v="188.32"/>
-    <n v="0.26621654630416308"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="11"/>
-    <n v="83.8"/>
-    <n v="0.39710000000000001"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="14"/>
-    <n v="60"/>
-    <n v="0.38"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="18"/>
-    <n v="97.1"/>
-    <n v="0.38"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="24"/>
-    <n v="212"/>
-    <n v="0.38279999999999997"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="25"/>
-    <n v="97.3"/>
-    <n v="0.38008386433710178"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="27"/>
-    <n v="87.8"/>
-    <n v="0.37950000000000012"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="28"/>
-    <n v="190.4"/>
-    <n v="0.36544154411764712"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="40"/>
-    <n v="93.6"/>
-    <n v="0.3332"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="41"/>
-    <n v="136"/>
-    <n v="0.3306"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="45"/>
-    <n v="205.9"/>
-    <n v="0.32451830985915492"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="46"/>
-    <n v="50"/>
-    <n v="0.31759999999999999"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="47"/>
-    <n v="434.5"/>
-    <n v="0.3671346375143843"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="48"/>
-    <n v="870.9"/>
-    <n v="0.35639999999999999"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="49"/>
-    <n v="529"/>
-    <n v="0.35048336483931952"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="50"/>
-    <n v="303.2"/>
-    <n v="0.3251815303430079"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="51"/>
-    <n v="111.4"/>
-    <n v="0.30459999999999998"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="60"/>
-    <n v="90"/>
-    <n v="0.34320000000000001"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="2"/>
-    <n v="103.5"/>
-    <n v="0.80000000000000016"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="13"/>
-    <n v="681.6"/>
-    <n v="0.7541519953051643"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="18"/>
-    <n v="1052"/>
-    <n v="0.75"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="19"/>
-    <n v="138"/>
-    <n v="0.75"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="30"/>
-    <n v="117.4"/>
-    <n v="0.79999999999999993"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="33"/>
-    <n v="177.6"/>
-    <n v="0.75354729729729741"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="38"/>
-    <n v="91.800000000000011"/>
-    <n v="0.79999999999999982"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="39"/>
-    <n v="60.3"/>
-    <n v="0.76019900497512449"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="40"/>
-    <n v="70"/>
-    <n v="0.80000000000000016"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="43"/>
-    <n v="1057.4000000000001"/>
-    <n v="0.75057688670323441"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="44"/>
-    <n v="179.4"/>
-    <n v="0.8"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="47"/>
-    <n v="926.7"/>
-    <n v="0.75090104672493796"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="48"/>
-    <n v="164"/>
-    <n v="0.75"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="52"/>
-    <n v="121.1"/>
-    <n v="0.79999999999999993"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="55"/>
-    <n v="108.9"/>
-    <n v="0.76340679522497701"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="56"/>
-    <n v="441.7"/>
-    <n v="0.75924835861444406"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="57"/>
-    <n v="465.7"/>
-    <n v="0.772321236847756"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="58"/>
-    <n v="340"/>
-    <n v="0.75441176470588234"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="60"/>
-    <n v="62.8"/>
-    <n v="0.8"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="62"/>
-    <n v="95.7"/>
-    <n v="0.77701149425287364"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="63"/>
-    <n v="70.3"/>
-    <n v="0.75746799431009948"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="64"/>
-    <n v="376.7"/>
-    <n v="0.75395540217679824"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="67"/>
-    <n v="339.2"/>
-    <n v="0.78540683962264157"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="68"/>
-    <n v="57.4"/>
-    <n v="0.95853658536585373"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="69"/>
-    <n v="111.5"/>
-    <n v="0.8"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="71"/>
-    <n v="244.1"/>
-    <n v="0.76927488734125371"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="74"/>
-    <n v="100"/>
-    <n v="0.75"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="78"/>
-    <n v="84"/>
-    <n v="0.8"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="79"/>
-    <n v="220"/>
-    <n v="0.75"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="80"/>
-    <n v="91.5"/>
-    <n v="0.8"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="84"/>
-    <n v="88.1"/>
-    <n v="0.8"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="90"/>
-    <n v="104.8"/>
-    <n v="0.76192748091603046"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="95"/>
-    <n v="130"/>
-    <n v="0.78346153846153854"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="98"/>
-    <n v="164"/>
-    <n v="0.79999999999999993"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="100"/>
-    <n v="183.55"/>
-    <n v="0.82179242713157175"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="10"/>
-    <n v="2780.3"/>
-    <n v="0.42883504657770738"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="12"/>
-    <n v="94.8"/>
-    <n v="0.42399999999999999"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="13"/>
-    <n v="648"/>
-    <n v="0.42159999999999997"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="14"/>
-    <n v="628"/>
-    <n v="0.41920000000000002"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="20"/>
-    <n v="967.22"/>
-    <n v="0.40491523334918628"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="22"/>
-    <n v="1732"/>
-    <n v="0.4"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="23"/>
-    <n v="949"/>
-    <n v="0.39760000000000001"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="24"/>
-    <n v="750"/>
-    <n v="0.3952"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="25"/>
-    <n v="750"/>
-    <n v="0.39279999999999993"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="26"/>
-    <n v="2780"/>
-    <n v="0.39038273381294969"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="28"/>
-    <n v="496"/>
-    <n v="0.3856"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="29"/>
-    <n v="488.3"/>
-    <n v="0.38319999999999999"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="32"/>
-    <n v="652.79999999999995"/>
-    <n v="0.37600000000000011"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="33"/>
-    <n v="498.5"/>
-    <n v="0.37359999999999999"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="34"/>
-    <n v="232.8"/>
-    <n v="0.37119999999999997"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="35"/>
-    <n v="465"/>
-    <n v="0.36880000000000002"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="37"/>
-    <n v="361.3"/>
-    <n v="0.36387644616662052"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="43"/>
-    <n v="59.5"/>
-    <n v="0.34960000000000002"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="46"/>
-    <n v="604"/>
-    <n v="0.34239999999999998"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="47"/>
-    <n v="1263"/>
-    <n v="0.34000000000000008"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="48"/>
-    <n v="663"/>
-    <n v="0.33760000000000001"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="49"/>
-    <n v="292"/>
-    <n v="0.3352"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="50"/>
-    <n v="588"/>
-    <n v="0.33279999999999998"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="51"/>
-    <n v="299"/>
-    <n v="0.33040000000000003"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="52"/>
-    <n v="295"/>
-    <n v="0.32800000000000001"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="54"/>
-    <n v="297"/>
-    <n v="0.32319999999999999"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="55"/>
-    <n v="321"/>
-    <n v="0.32079999999999997"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="57"/>
-    <n v="643.5"/>
-    <n v="0.31589743589743591"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="86"/>
-    <n v="82"/>
-    <n v="0.24771707317073169"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="105"/>
-    <n v="98"/>
-    <n v="0.20080000000000001"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="33"/>
-    <n v="1310"/>
-    <n v="0.33"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="34"/>
-    <n v="2746"/>
-    <n v="0.33"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="36"/>
-    <n v="1410"/>
-    <n v="0.33"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="37"/>
-    <n v="1360"/>
-    <n v="0.33"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="38"/>
-    <n v="1288"/>
-    <n v="0.33"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="3"/>
-    <n v="535.20000000000005"/>
-    <n v="0.40589999999999993"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="4"/>
-    <n v="167.45099999999999"/>
-    <n v="0.40479999999999988"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="5"/>
-    <n v="220.2"/>
-    <n v="0.4037"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="6"/>
-    <n v="574.30999999999995"/>
-    <n v="0.40260000000000012"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="8"/>
-    <n v="141.6"/>
-    <n v="0.40260338983050842"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="9"/>
-    <n v="454.24"/>
-    <n v="0.40355321415991552"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="10"/>
-    <n v="275.77999999999997"/>
-    <n v="0.40463723257669171"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="15"/>
-    <n v="158"/>
-    <n v="0.39478481012658229"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="16"/>
-    <n v="746.01499999999999"/>
-    <n v="0.39546587401057631"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="17"/>
-    <n v="163.9"/>
-    <n v="0.39117876754118369"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="18"/>
-    <n v="126.7"/>
-    <n v="0.38964230465666932"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="19"/>
-    <n v="110.55"/>
-    <n v="0.38829999999999998"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="20"/>
-    <n v="124.5"/>
-    <n v="0.38719999999999988"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="21"/>
-    <n v="115.8"/>
-    <n v="0.38573238341968907"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="23"/>
-    <n v="72.599999999999994"/>
-    <n v="0.39393856749311301"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="24"/>
-    <n v="53.099999999999987"/>
-    <n v="0.38279999999999997"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="25"/>
-    <n v="159.72"/>
-    <n v="0.37783385925369389"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="26"/>
-    <n v="352.5"/>
-    <n v="0.37810042553191492"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="27"/>
-    <n v="65.599999999999994"/>
-    <n v="0.37852820121951231"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="28"/>
-    <n v="261.10000000000002"/>
-    <n v="0.37812654155495989"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="29"/>
-    <n v="163"/>
-    <n v="0.37650122699386512"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="30"/>
-    <n v="97.079000000000008"/>
-    <n v="0.36577992974793722"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="33"/>
-    <n v="120.4"/>
-    <n v="0.36632416943521601"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="34"/>
-    <n v="60.491"/>
-    <n v="0.37180000000000007"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="35"/>
-    <n v="146"/>
-    <n v="0.34620000000000001"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="38"/>
-    <n v="156.5"/>
-    <n v="0.34654057507987218"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="43"/>
-    <n v="100.78"/>
-    <n v="0.36255598333002581"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="45"/>
-    <n v="619.4"/>
-    <n v="0.35966377139166938"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="47"/>
-    <n v="289.7"/>
-    <n v="0.33612530203658958"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="48"/>
-    <n v="77.7"/>
-    <n v="0.31862908622908631"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="49"/>
-    <n v="183"/>
-    <n v="0.32711420765027333"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="51"/>
-    <n v="173.28649999999999"/>
-    <n v="0.33726830520554107"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="61"/>
-    <n v="149"/>
-    <n v="0.33307986577181209"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="68"/>
-    <n v="94.6"/>
-    <n v="0.33404418604651159"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="74"/>
-    <n v="135.5"/>
-    <n v="0.32421992619926199"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="18"/>
-    <n v="632.34350900002573"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="19"/>
-    <n v="122.12090299971361"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="20"/>
-    <n v="93.425178999952891"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="21"/>
-    <n v="171.92399300525551"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="17"/>
-    <n v="139"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="16"/>
-    <n v="669.99999999999989"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="15"/>
-    <n v="951.00000000000011"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="14"/>
-    <n v="843"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="13"/>
-    <n v="1271"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="12"/>
-    <n v="1950.0000000000002"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="11"/>
-    <n v="4446.0000000000009"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="10"/>
-    <n v="7439.9999999999991"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="9"/>
-    <n v="7422.9999999999982"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="8"/>
-    <n v="7604.0000000000027"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="7"/>
-    <n v="3676.9999999999995"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="6"/>
-    <n v="1189.9999999999977"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="5"/>
-    <n v="1323.9999999999982"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="4"/>
-    <n v="1455.0000000000055"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="3"/>
-    <n v="1612.9999999999995"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="2"/>
-    <n v="2914.9999999999991"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="1"/>
-    <n v="3888.9999999999959"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="0"/>
-    <n v="4625"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="11"/>
-    <n v="35"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="10"/>
-    <n v="45"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="9"/>
-    <n v="108"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="8"/>
-    <n v="80.000000000000014"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="7"/>
-    <n v="240"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="6"/>
-    <n v="486"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="5"/>
-    <n v="2288.9999999999995"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="4"/>
-    <n v="869.00000000000023"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="3"/>
-    <n v="1253.9999999999995"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="2"/>
-    <n v="987.00000000000011"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="1"/>
-    <n v="1134.9999999999998"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="0"/>
-    <n v="246.00000000000045"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="18"/>
-    <n v="1434.670999999991"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="19"/>
-    <n v="1773.431999999988"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="20"/>
-    <n v="1975.2310899999791"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="21"/>
-    <n v="1648.599299999983"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="22"/>
-    <n v="853.38700000000108"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="23"/>
-    <n v="564.2280000000012"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="24"/>
-    <n v="233.93539999999979"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="25"/>
-    <n v="170.86999999999969"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="26"/>
-    <n v="157.89503999999971"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="27"/>
-    <n v="172.67299999999949"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="28"/>
-    <n v="133.46791999999999"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="17"/>
-    <n v="2404.9999999999995"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="16"/>
-    <n v="2038.0000000000002"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="15"/>
-    <n v="1829.0000000000007"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="14"/>
-    <n v="2225.9999999999991"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="13"/>
-    <n v="1641.9999999999995"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="12"/>
-    <n v="678.0000000000008"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="11"/>
-    <n v="2902.9999999999986"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="10"/>
-    <n v="1126.0000000000011"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="9"/>
-    <n v="1756.0000000000002"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="8"/>
-    <n v="1977.0000000000002"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="7"/>
-    <n v="2413.0000000000005"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="6"/>
-    <n v="4652.0000000000009"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="5"/>
-    <n v="3675.999999999995"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="4"/>
-    <n v="3986.0000000000041"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="3"/>
-    <n v="4890.9999999999982"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="2"/>
-    <n v="2154.0000000000036"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="1"/>
-    <n v="864.99999999999488"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="0"/>
-    <n v="1221.0000000000036"/>
-    <n v="1"/>
-  </r>
-</pivotCacheRecords>
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ingrid Sanchez Jimenez" refreshedDate="44941.583327893517" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="50" xr:uid="{030B6EBD-99E7-4509-B41A-5A8DA0C389CF}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:J51" sheet="extendedNL"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="pp" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="49"/>
+    </cacheField>
+    <cacheField name="Technology" numFmtId="0">
+      <sharedItems count="11">
+        <s v="Biomass_CHP_wood_pellets_DH"/>
+        <s v="Coal PSC"/>
+        <s v="CCGT"/>
+        <s v="Hydropower_reservoir_medium"/>
+        <s v="Nuclear"/>
+        <s v="PV_utility_systems"/>
+        <s v="WTG_offshore"/>
+        <s v="WTG_onshore"/>
+        <s v="OCGT"/>
+        <s v="Biomass_CHP_wood_pellets_PH"/>
+        <s v="CCGT_CHP_backpressure_DH"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Age" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="45"/>
+    </cacheField>
+    <cacheField name="Capacity" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.7679999999999969" maxValue="2640"/>
+    </cacheField>
+    <cacheField name="Efficiency" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.29418898900706492" maxValue="1"/>
+    </cacheField>
+    <cacheField name="availability_weighted_mean" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.74200913242009103" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Location" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Owner" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="cash" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="DischarginEfficiency" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="50">
   <r>
     <x v="0"/>
@@ -4533,32 +2903,643 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="50">
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="25"/>
+    <n v="631"/>
+    <n v="0.42"/>
+    <n v="0.80000000000000016"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="790"/>
+    <n v="0.46"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="2640"/>
+    <n v="0.46"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="630"/>
+    <n v="0.41"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="341"/>
+    <n v="0.52"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="800"/>
+    <n v="0.56000000000000005"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="874"/>
+    <n v="0.57999999999999996"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="420"/>
+    <n v="0.59"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="2"/>
+    <n v="6"/>
+    <n v="872"/>
+    <n v="0.58498853211009172"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="2"/>
+    <n v="7"/>
+    <n v="420"/>
+    <n v="0.59"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="2"/>
+    <n v="8"/>
+    <n v="426"/>
+    <n v="0.57999999999999996"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="2"/>
+    <n v="9"/>
+    <n v="1295"/>
+    <n v="0.58798455598455601"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="2"/>
+    <n v="10"/>
+    <n v="870"/>
+    <n v="0.59"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="2"/>
+    <n v="19"/>
+    <n v="245"/>
+    <n v="0.51"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="2"/>
+    <n v="22"/>
+    <n v="682"/>
+    <n v="0.52"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="2"/>
+    <n v="23"/>
+    <n v="341"/>
+    <n v="0.52"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="3"/>
+    <n v="14"/>
+    <n v="40.207000000000001"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="4"/>
+    <n v="13"/>
+    <n v="484"/>
+    <n v="0.34"/>
+    <n v="0.94999999975000005"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="2400.5369999999998"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="5"/>
+    <n v="1"/>
+    <n v="1527.3040000000001"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="5"/>
+    <n v="2"/>
+    <n v="588.56900000000007"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="5"/>
+    <n v="3"/>
+    <n v="633.91399999999999"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="5"/>
+    <n v="4"/>
+    <n v="498.2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="5"/>
+    <n v="5"/>
+    <n v="492.642"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="5"/>
+    <n v="6"/>
+    <n v="648.74400000000003"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="6"/>
+    <n v="2"/>
+    <n v="203.696"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="6"/>
+    <n v="3"/>
+    <n v="758.99400000000003"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="7"/>
+    <n v="0"/>
+    <n v="341.774"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="7"/>
+    <n v="1"/>
+    <n v="425.90300000000002"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="7"/>
+    <n v="2"/>
+    <n v="551.90700000000004"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="7"/>
+    <n v="3"/>
+    <n v="659.47300000000007"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <x v="7"/>
+    <n v="11"/>
+    <n v="638.66199999999992"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <x v="7"/>
+    <n v="12"/>
+    <n v="317.36399999999998"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <x v="7"/>
+    <n v="13"/>
+    <n v="285.59800000000001"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <x v="7"/>
+    <n v="14"/>
+    <n v="1016.313"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <x v="8"/>
+    <n v="33"/>
+    <n v="643"/>
+    <n v="0.38765163297045102"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <x v="8"/>
+    <n v="45"/>
+    <n v="460"/>
+    <n v="0.36299999999999999"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <x v="9"/>
+    <n v="14"/>
+    <n v="1.7679999999999969"/>
+    <n v="0.3"/>
+    <n v="0.74200913242009103"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <x v="10"/>
+    <n v="6"/>
+    <n v="444.2"/>
+    <n v="0.58440792435839717"/>
+    <n v="0.89171544349392173"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <x v="10"/>
+    <n v="11"/>
+    <n v="862.64"/>
+    <n v="0.40999999999999992"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <x v="10"/>
+    <n v="12"/>
+    <n v="721"/>
+    <n v="0.40999999999999992"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <x v="10"/>
+    <n v="13"/>
+    <n v="641"/>
+    <n v="0.41"/>
+    <n v="0.9"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <x v="10"/>
+    <n v="14"/>
+    <n v="739.29300000000001"/>
+    <n v="0.29418898900706492"/>
+    <n v="0.85153338326238082"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <x v="10"/>
+    <n v="19"/>
+    <n v="541.81700000000001"/>
+    <n v="0.40885261998054689"/>
+    <n v="0.80465495256227204"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <x v="10"/>
+    <n v="20"/>
+    <n v="557.93399999999997"/>
+    <n v="0.41587463750192682"/>
+    <n v="0.90357265448136415"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <x v="10"/>
+    <n v="22"/>
+    <n v="1040.24"/>
+    <n v="0.35755348765669459"/>
+    <n v="0.90748031496062997"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <x v="10"/>
+    <n v="23"/>
+    <n v="1101.962"/>
+    <n v="0.4374676880872479"/>
+    <n v="0.86452184587633829"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <x v="10"/>
+    <n v="28"/>
+    <n v="655.18101000000001"/>
+    <n v="0.35211968384126402"/>
+    <n v="0.83900354082941675"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <x v="10"/>
+    <n v="29"/>
+    <n v="385.096"/>
+    <n v="0.37457672891954208"/>
+    <n v="0.84204432141595875"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <x v="10"/>
+    <n v="32"/>
+    <n v="811.6"/>
+    <n v="0.3692304313085264"/>
+    <n v="0.88620009857072435"/>
+    <s v="NL"/>
+    <s v="ProducerNL"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{52F3B87C-97DD-428A-994C-5076FC20298A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64D07E23-3F5A-46AD-9B7E-0CFFB11D5FA8}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="12">
         <item x="0"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="10"/>
         <item x="1"/>
-        <item x="2"/>
         <item x="3"/>
         <item x="4"/>
+        <item x="8"/>
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="0"/>
+    <field x="1"/>
   </rowFields>
   <rowItems count="12">
     <i>
@@ -4613,9 +3594,9 @@
     </i>
   </colItems>
   <dataFields count="3">
-    <dataField name="Average of Age" fld="1" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Capacity" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Average of Efficiency" fld="3" subtotal="average" baseField="0" baseItem="7"/>
+    <dataField name="Average of Age" fld="2" subtotal="average" baseField="1" baseItem="0"/>
+    <dataField name="Average of Efficiency" fld="4" subtotal="average" baseField="1" baseItem="0"/>
+    <dataField name="Sum of Capacity" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -5022,201 +4003,2219 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB55C996-D3CF-4EE5-95A8-EE30955CDCEF}">
-  <dimension ref="A3:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6B6640-7659-40BC-BB1F-545A343E7684}">
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="13">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="12">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.3706875</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="12">
+        <v>6</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1071.5999999999999</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.3706875</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12">
+        <v>731</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.3706875</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="12">
+        <v>8</v>
+      </c>
+      <c r="D5" s="12">
+        <v>50</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.3706875</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="12">
+        <v>11</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2.4</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.3706875</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12">
+        <v>13</v>
+      </c>
+      <c r="D7" s="12">
+        <v>25</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.3706875</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12">
+        <v>14</v>
+      </c>
+      <c r="D8" s="12">
+        <v>55</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.3706875</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12">
+        <v>16</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1.75</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.3706875</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="12">
+        <v>17</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.3706875</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="12">
+        <v>22</v>
+      </c>
+      <c r="D11" s="12">
+        <v>25</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.3706875</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="12">
+        <v>29</v>
+      </c>
+      <c r="D12" s="12">
+        <v>24</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.3706875</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="12">
+        <v>40</v>
+      </c>
+      <c r="D13" s="12">
+        <v>123</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.3706875</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="13">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="12">
+        <v>49</v>
+      </c>
+      <c r="D14" s="12">
         <v>20</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="E14" s="12">
+        <v>0.3706875</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="13">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12">
+        <v>9</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1320</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="13">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12">
+        <v>10</v>
+      </c>
+      <c r="D16" s="12">
+        <v>3470</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="13">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="12">
+        <v>12</v>
+      </c>
+      <c r="D17" s="12">
+        <v>2177</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="13">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="12">
+        <v>14</v>
+      </c>
+      <c r="D18" s="12">
+        <v>339</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="13">
+        <v>17</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="12">
+        <v>15</v>
+      </c>
+      <c r="D19" s="12">
+        <v>300</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="13">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="12">
+        <v>18</v>
+      </c>
+      <c r="D20" s="12">
+        <v>891</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="13">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="12">
+        <v>19</v>
+      </c>
+      <c r="D21" s="12">
+        <v>80</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="13">
+        <v>20</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="12">
+        <v>23</v>
+      </c>
+      <c r="D22" s="12">
+        <v>590</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="13">
+        <v>21</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="12">
         <v>24</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D23" s="12">
+        <v>369</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="13">
         <v>22</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="B24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="12">
+        <v>25</v>
+      </c>
+      <c r="D24" s="12">
+        <v>1064</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="13">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="B25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="12">
+        <v>26</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1050</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="13">
+        <v>24</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="12">
+        <v>27</v>
+      </c>
+      <c r="D26" s="12">
+        <v>514</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
+      <c r="I26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="13">
+        <v>25</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="12">
+        <v>28</v>
+      </c>
+      <c r="D27" s="12">
+        <v>130</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="13">
+        <v>26</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="12">
+        <v>29</v>
+      </c>
+      <c r="D28" s="12">
+        <v>60</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="12">
+        <v>0</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="13">
+        <v>27</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="12">
+        <v>32</v>
+      </c>
+      <c r="D29" s="12">
+        <v>225</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="12">
+        <v>0</v>
+      </c>
+      <c r="I29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="13">
+        <v>28</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="12">
+        <v>35</v>
+      </c>
+      <c r="D30" s="12">
+        <v>169</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="12">
+        <v>0</v>
+      </c>
+      <c r="I30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="13">
+        <v>29</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="12">
+        <v>37</v>
+      </c>
+      <c r="D31" s="12">
+        <v>103</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="12">
+        <v>0</v>
+      </c>
+      <c r="I31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="13">
+        <v>30</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="12">
+        <v>39</v>
+      </c>
+      <c r="D32" s="12">
+        <v>50</v>
+      </c>
+      <c r="E32" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="12">
+        <v>0</v>
+      </c>
+      <c r="I32" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="13">
+        <v>31</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="12">
+        <v>44</v>
+      </c>
+      <c r="D33" s="12">
+        <v>695</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="12">
+        <v>0</v>
+      </c>
+      <c r="I33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="13">
+        <v>32</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="12">
+        <v>46</v>
+      </c>
+      <c r="D34" s="12">
+        <v>332</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0</v>
+      </c>
+      <c r="I34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="13">
+        <v>33</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="12">
+        <v>47</v>
+      </c>
+      <c r="D35" s="12">
+        <v>332</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="12">
+        <v>0</v>
+      </c>
+      <c r="I35" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="13">
+        <v>34</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="12">
+        <v>121</v>
+      </c>
+      <c r="D36" s="12">
+        <v>97</v>
+      </c>
+      <c r="E36" s="12">
+        <v>0.54916417900000003</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" s="12">
+        <v>0</v>
+      </c>
+      <c r="I36" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="13">
+        <v>35</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="12">
+        <v>7</v>
+      </c>
+      <c r="D37" s="12">
+        <v>1560</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0.40862500000000002</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" s="12">
+        <v>0</v>
+      </c>
+      <c r="I37" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="13">
+        <v>36</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="12">
+        <v>28</v>
+      </c>
+      <c r="D38" s="12">
+        <v>600</v>
+      </c>
+      <c r="E38" s="12">
+        <v>0.40862500000000002</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" s="12">
+        <v>0</v>
+      </c>
+      <c r="I38" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="13">
+        <v>37</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="12">
+        <v>4</v>
+      </c>
+      <c r="D39" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="E39" s="12">
+        <v>0.77875000000000005</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="12">
+        <v>0</v>
+      </c>
+      <c r="I39" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="13">
+        <v>38</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="12">
+        <v>14</v>
+      </c>
+      <c r="D40" s="12">
+        <v>10</v>
+      </c>
+      <c r="E40" s="12">
+        <v>0.77875000000000005</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="12">
+        <v>0</v>
+      </c>
+      <c r="I40" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="13">
+        <v>39</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="12">
+        <v>32</v>
+      </c>
+      <c r="D41" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="E41" s="12">
+        <v>0.77875000000000005</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" s="12">
+        <v>0</v>
+      </c>
+      <c r="I41" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="13">
+        <v>40</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="12">
+        <v>34</v>
+      </c>
+      <c r="D42" s="12">
+        <v>11</v>
+      </c>
+      <c r="E42" s="12">
+        <v>0.77875000000000005</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" s="12">
+        <v>0</v>
+      </c>
+      <c r="I42" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="13">
+        <v>41</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="12">
+        <v>64</v>
+      </c>
+      <c r="D43" s="12">
+        <v>14</v>
+      </c>
+      <c r="E43" s="12">
+        <v>0.77875000000000005</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" s="12">
+        <v>0</v>
+      </c>
+      <c r="I43" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="13">
+        <v>42</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="12">
+        <v>33</v>
+      </c>
+      <c r="D44" s="12">
+        <v>485</v>
+      </c>
+      <c r="E44" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" s="12">
+        <v>0</v>
+      </c>
+      <c r="I44" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="13">
+        <v>43</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="12">
+        <v>25</v>
+      </c>
+      <c r="D45" s="12">
+        <v>24</v>
+      </c>
+      <c r="E45" s="12">
+        <v>0.373622642</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" s="12">
+        <v>0</v>
+      </c>
+      <c r="I45" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="13">
+        <v>44</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="12">
+        <v>35</v>
+      </c>
+      <c r="D46" s="12">
+        <v>375</v>
+      </c>
+      <c r="E46" s="12">
+        <v>0.373622642</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" s="12">
+        <v>0</v>
+      </c>
+      <c r="I46" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="13">
+        <v>45</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="12">
+        <v>47</v>
+      </c>
+      <c r="D47" s="12">
+        <v>350</v>
+      </c>
+      <c r="E47" s="12">
+        <v>0.373622642</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H47" s="12">
+        <v>0</v>
+      </c>
+      <c r="I47" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="13">
+        <v>46</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="12">
+        <v>0</v>
+      </c>
+      <c r="D48" s="12">
+        <v>251.8</v>
+      </c>
+      <c r="E48" s="12">
+        <v>1</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48" s="12">
+        <v>0</v>
+      </c>
+      <c r="I48" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="13">
+        <v>47</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="12">
+        <v>1</v>
+      </c>
+      <c r="D49" s="12">
+        <v>195.4</v>
+      </c>
+      <c r="E49" s="12">
+        <v>1</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H49" s="12">
+        <v>0</v>
+      </c>
+      <c r="I49" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="13">
+        <v>48</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="12">
+        <v>2</v>
+      </c>
+      <c r="D50" s="12">
+        <v>414.72300000000001</v>
+      </c>
+      <c r="E50" s="12">
+        <v>1</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50" s="12">
+        <v>0</v>
+      </c>
+      <c r="I50" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="13">
+        <v>49</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="12">
+        <v>3</v>
+      </c>
+      <c r="D51" s="12">
+        <v>266.00300000000004</v>
+      </c>
+      <c r="E51" s="12">
+        <v>1</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H51" s="12">
+        <v>0</v>
+      </c>
+      <c r="I51" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="13">
+        <v>50</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="12">
+        <v>4</v>
+      </c>
+      <c r="D52" s="12">
+        <v>476.73099999999994</v>
+      </c>
+      <c r="E52" s="12">
+        <v>1</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H52" s="12">
+        <v>0</v>
+      </c>
+      <c r="I52" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="13">
+        <v>51</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="12">
+        <v>5</v>
+      </c>
+      <c r="D53" s="12">
+        <v>56.78</v>
+      </c>
+      <c r="E53" s="12">
+        <v>1</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H53" s="12">
+        <v>0</v>
+      </c>
+      <c r="I53" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="13">
+        <v>52</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="12">
         <v>6</v>
       </c>
-      <c r="B4" s="4">
-        <v>15.931034482758621</v>
-      </c>
-      <c r="C4" s="4">
-        <v>9697.5033999999978</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.34272443418830756</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="D54" s="12">
+        <v>12.59</v>
+      </c>
+      <c r="E54" s="12">
+        <v>1</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H54" s="12">
+        <v>0</v>
+      </c>
+      <c r="I54" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="13">
+        <v>53</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="12">
+        <v>7</v>
+      </c>
+      <c r="D55" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="E55" s="12">
+        <v>1</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H55" s="12">
+        <v>0</v>
+      </c>
+      <c r="I55" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="13">
+        <v>54</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="12">
+        <v>10</v>
+      </c>
+      <c r="D56" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="E56" s="12">
+        <v>1</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H56" s="12">
+        <v>0</v>
+      </c>
+      <c r="I56" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="13">
+        <v>55</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="12">
+        <v>11</v>
+      </c>
+      <c r="D57" s="12">
+        <v>1.6</v>
+      </c>
+      <c r="E57" s="12">
+        <v>1</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H57" s="12">
+        <v>0</v>
+      </c>
+      <c r="I57" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="13">
+        <v>56</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="12">
+        <v>18</v>
+      </c>
+      <c r="D58" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="E58" s="12">
+        <v>1</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H58" s="12">
+        <v>0</v>
+      </c>
+      <c r="I58" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="13">
+        <v>57</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="12">
+        <v>1</v>
+      </c>
+      <c r="D59" s="12">
+        <v>1130.5</v>
+      </c>
+      <c r="E59" s="12">
+        <v>1</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H59" s="12">
+        <v>0</v>
+      </c>
+      <c r="I59" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="13">
+        <v>58</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="12">
+        <v>2</v>
+      </c>
+      <c r="D60" s="12">
+        <v>752</v>
+      </c>
+      <c r="E60" s="12">
+        <v>1</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H60" s="12">
+        <v>0</v>
+      </c>
+      <c r="I60" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="13">
+        <v>59</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="12">
+        <v>5</v>
+      </c>
+      <c r="D61" s="12">
+        <v>600</v>
+      </c>
+      <c r="E61" s="12">
+        <v>1</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H61" s="12">
+        <v>0</v>
+      </c>
+      <c r="I61" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="13">
+        <v>60</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="12">
+        <v>6</v>
+      </c>
+      <c r="D62" s="12">
+        <v>144</v>
+      </c>
+      <c r="E62" s="12">
+        <v>1</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H62" s="12">
+        <v>0</v>
+      </c>
+      <c r="I62" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="13">
+        <v>61</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="12">
+        <v>7</v>
+      </c>
+      <c r="D63" s="12">
+        <v>129</v>
+      </c>
+      <c r="E63" s="12">
+        <v>1</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H63" s="12">
+        <v>0</v>
+      </c>
+      <c r="I63" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="13">
+        <v>62</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="12">
+        <v>14</v>
+      </c>
+      <c r="D64" s="12">
+        <v>228</v>
+      </c>
+      <c r="E64" s="12">
+        <v>1</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H64" s="12">
+        <v>0</v>
+      </c>
+      <c r="I64" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="13">
+        <v>63</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="12">
+        <v>0</v>
+      </c>
+      <c r="D65" s="12">
+        <v>400</v>
+      </c>
+      <c r="E65" s="12">
+        <v>1</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H65" s="12">
+        <v>0</v>
+      </c>
+      <c r="I65" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="13">
+        <v>64</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="12">
+        <v>1</v>
+      </c>
+      <c r="D66" s="12">
+        <v>554.6</v>
+      </c>
+      <c r="E66" s="12">
+        <v>1</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H66" s="12">
+        <v>0</v>
+      </c>
+      <c r="I66" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="13">
+        <v>65</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="12">
+        <v>2</v>
+      </c>
+      <c r="D67" s="12">
+        <v>577</v>
+      </c>
+      <c r="E67" s="12">
+        <v>1</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H67" s="12">
+        <v>0</v>
+      </c>
+      <c r="I67" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="13">
+        <v>66</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="12">
+        <v>3</v>
+      </c>
+      <c r="D68" s="12">
+        <v>102</v>
+      </c>
+      <c r="E68" s="12">
+        <v>1</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H68" s="12">
+        <v>0</v>
+      </c>
+      <c r="I68" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="13">
+        <v>67</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="12">
+        <v>4</v>
+      </c>
+      <c r="D69" s="12">
+        <v>50.4</v>
+      </c>
+      <c r="E69" s="12">
+        <v>1</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H69" s="12">
+        <v>0</v>
+      </c>
+      <c r="I69" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="13">
+        <v>68</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="12">
+        <v>5</v>
+      </c>
+      <c r="D70" s="12">
+        <v>429</v>
+      </c>
+      <c r="E70" s="12">
+        <v>1</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H70" s="12">
+        <v>0</v>
+      </c>
+      <c r="I70" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="13">
+        <v>69</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="12">
+        <v>7</v>
+      </c>
+      <c r="D71" s="12">
+        <v>63</v>
+      </c>
+      <c r="E71" s="12">
+        <v>1</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H71" s="12">
+        <v>0</v>
+      </c>
+      <c r="I71" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="13">
+        <v>70</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="12">
         <v>9</v>
       </c>
-      <c r="B5" s="4">
-        <v>22.6</v>
-      </c>
-      <c r="C5" s="4">
-        <v>17001.329000000002</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.53574015315305035</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4">
-        <v>31.09375</v>
-      </c>
-      <c r="C6" s="4">
-        <v>22685.77</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.40441882371711696</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4">
-        <v>36.705882352941174</v>
-      </c>
-      <c r="C7" s="4">
-        <v>3652.9</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.35399077947121271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4">
-        <v>56.971428571428568</v>
-      </c>
-      <c r="C8" s="4">
-        <v>8820.7499999999982</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.78107425817078524</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
+      <c r="D72" s="12">
+        <v>122</v>
+      </c>
+      <c r="E72" s="12">
+        <v>1</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H72" s="12">
+        <v>0</v>
+      </c>
+      <c r="I72" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="13">
+        <v>71</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="12">
+        <v>14</v>
+      </c>
+      <c r="D73" s="12">
+        <v>138</v>
+      </c>
+      <c r="E73" s="12">
+        <v>1</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H73" s="12">
+        <v>0</v>
+      </c>
+      <c r="I73" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="13">
+        <v>72</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="12">
+        <v>15</v>
+      </c>
+      <c r="D74" s="12">
+        <v>42</v>
+      </c>
+      <c r="E74" s="12">
+        <v>1</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H74" s="12">
+        <v>0</v>
+      </c>
+      <c r="I74" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="14">
+        <v>73</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="12">
         <v>16</v>
       </c>
-      <c r="B9" s="4">
-        <v>38.666666666666664</v>
-      </c>
-      <c r="C9" s="4">
-        <v>20779.019999999997</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.36004079896582097</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4">
-        <v>35.6</v>
-      </c>
-      <c r="C10" s="4">
-        <v>8114</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <v>28.828571428571429</v>
-      </c>
-      <c r="C11" s="4">
-        <v>7445.3024999999998</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.37300777447121924</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="4">
-        <v>10.5</v>
-      </c>
-      <c r="C12" s="4">
-        <v>54444.813584004944</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="C13" s="4">
-        <v>7774</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
+      <c r="D75" s="12">
+        <v>75</v>
+      </c>
+      <c r="E75" s="12">
+        <v>1</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H75" s="12">
+        <v>0</v>
+      </c>
+      <c r="I75" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="13">
+        <v>74</v>
+      </c>
+      <c r="B76" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
-        <v>14</v>
-      </c>
-      <c r="C14" s="4">
-        <v>51556.389749999944</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="4">
-        <v>28.376383763837637</v>
-      </c>
-      <c r="C15" s="4">
-        <v>211971.77823400492</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.58352713336417072</v>
+      <c r="C76" s="12">
+        <v>24</v>
+      </c>
+      <c r="D76" s="12">
+        <v>18</v>
+      </c>
+      <c r="E76" s="12">
+        <v>1</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H76" s="12">
+        <v>0</v>
+      </c>
+      <c r="I76" s="12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -39193,2227 +40192,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6B6640-7659-40BC-BB1F-545A343E7684}">
-  <dimension ref="A1:I76"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="2" max="2" width="13.36328125" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="13">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="12">
-        <v>5</v>
-      </c>
-      <c r="D2" s="12">
-        <v>1</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.3706875</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="12">
-        <v>0</v>
-      </c>
-      <c r="I2" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="13">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="12">
-        <v>6</v>
-      </c>
-      <c r="D3" s="12">
-        <v>1071.5999999999999</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0.3706875</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="13">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="12">
-        <v>7</v>
-      </c>
-      <c r="D4" s="12">
-        <v>731</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0.3706875</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="13">
-        <v>3</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="12">
-        <v>8</v>
-      </c>
-      <c r="D5" s="12">
-        <v>50</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.3706875</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="13">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="12">
-        <v>11</v>
-      </c>
-      <c r="D6" s="12">
-        <v>2.4</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0.3706875</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="13">
-        <v>5</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="12">
-        <v>13</v>
-      </c>
-      <c r="D7" s="12">
-        <v>25</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0.3706875</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="12">
-        <v>0</v>
-      </c>
-      <c r="I7" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="13">
-        <v>6</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12">
-        <v>14</v>
-      </c>
-      <c r="D8" s="12">
-        <v>55</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0.3706875</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="13">
-        <v>7</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12">
-        <v>16</v>
-      </c>
-      <c r="D9" s="12">
-        <v>1.75</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0.3706875</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="13">
-        <v>8</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="12">
-        <v>17</v>
-      </c>
-      <c r="D10" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0.3706875</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0</v>
-      </c>
-      <c r="I10" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="13">
-        <v>9</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="12">
-        <v>22</v>
-      </c>
-      <c r="D11" s="12">
-        <v>25</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0.3706875</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="13">
-        <v>10</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="12">
-        <v>29</v>
-      </c>
-      <c r="D12" s="12">
-        <v>24</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0.3706875</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="12">
-        <v>40</v>
-      </c>
-      <c r="D13" s="12">
-        <v>123</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0.3706875</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="12">
-        <v>0</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="13">
-        <v>12</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="12">
-        <v>49</v>
-      </c>
-      <c r="D14" s="12">
-        <v>20</v>
-      </c>
-      <c r="E14" s="12">
-        <v>0.3706875</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="12">
-        <v>0</v>
-      </c>
-      <c r="I14" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="13">
-        <v>13</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="12">
-        <v>9</v>
-      </c>
-      <c r="D15" s="12">
-        <v>1320</v>
-      </c>
-      <c r="E15" s="12">
-        <v>0.54916417900000003</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0</v>
-      </c>
-      <c r="I15" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="13">
-        <v>14</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="12">
-        <v>10</v>
-      </c>
-      <c r="D16" s="12">
-        <v>3470</v>
-      </c>
-      <c r="E16" s="12">
-        <v>0.54916417900000003</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="12">
-        <v>0</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="13">
-        <v>15</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="12">
-        <v>12</v>
-      </c>
-      <c r="D17" s="12">
-        <v>2177</v>
-      </c>
-      <c r="E17" s="12">
-        <v>0.54916417900000003</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="12">
-        <v>0</v>
-      </c>
-      <c r="I17" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="13">
-        <v>16</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="12">
-        <v>14</v>
-      </c>
-      <c r="D18" s="12">
-        <v>339</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0.54916417900000003</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="12">
-        <v>0</v>
-      </c>
-      <c r="I18" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="13">
-        <v>17</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="12">
-        <v>15</v>
-      </c>
-      <c r="D19" s="12">
-        <v>300</v>
-      </c>
-      <c r="E19" s="12">
-        <v>0.54916417900000003</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="12">
-        <v>0</v>
-      </c>
-      <c r="I19" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="13">
-        <v>18</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="12">
-        <v>18</v>
-      </c>
-      <c r="D20" s="12">
-        <v>891</v>
-      </c>
-      <c r="E20" s="12">
-        <v>0.54916417900000003</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="12">
-        <v>0</v>
-      </c>
-      <c r="I20" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="13">
-        <v>19</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="12">
-        <v>19</v>
-      </c>
-      <c r="D21" s="12">
-        <v>80</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0.54916417900000003</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="12">
-        <v>0</v>
-      </c>
-      <c r="I21" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="13">
-        <v>20</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="12">
-        <v>23</v>
-      </c>
-      <c r="D22" s="12">
-        <v>590</v>
-      </c>
-      <c r="E22" s="12">
-        <v>0.54916417900000003</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="12">
-        <v>0</v>
-      </c>
-      <c r="I22" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="13">
-        <v>21</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="12">
-        <v>24</v>
-      </c>
-      <c r="D23" s="12">
-        <v>369</v>
-      </c>
-      <c r="E23" s="12">
-        <v>0.54916417900000003</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="12">
-        <v>0</v>
-      </c>
-      <c r="I23" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="13">
-        <v>22</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="12">
-        <v>25</v>
-      </c>
-      <c r="D24" s="12">
-        <v>1064</v>
-      </c>
-      <c r="E24" s="12">
-        <v>0.54916417900000003</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="12">
-        <v>0</v>
-      </c>
-      <c r="I24" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="13">
-        <v>23</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="12">
-        <v>26</v>
-      </c>
-      <c r="D25" s="12">
-        <v>1050</v>
-      </c>
-      <c r="E25" s="12">
-        <v>0.54916417900000003</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="12">
-        <v>0</v>
-      </c>
-      <c r="I25" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="13">
-        <v>24</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="12">
-        <v>27</v>
-      </c>
-      <c r="D26" s="12">
-        <v>514</v>
-      </c>
-      <c r="E26" s="12">
-        <v>0.54916417900000003</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="12">
-        <v>0</v>
-      </c>
-      <c r="I26" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="13">
-        <v>25</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="12">
-        <v>28</v>
-      </c>
-      <c r="D27" s="12">
-        <v>130</v>
-      </c>
-      <c r="E27" s="12">
-        <v>0.54916417900000003</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="12">
-        <v>0</v>
-      </c>
-      <c r="I27" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="13">
-        <v>26</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="12">
-        <v>29</v>
-      </c>
-      <c r="D28" s="12">
-        <v>60</v>
-      </c>
-      <c r="E28" s="12">
-        <v>0.54916417900000003</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="12">
-        <v>0</v>
-      </c>
-      <c r="I28" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="13">
-        <v>27</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="12">
-        <v>32</v>
-      </c>
-      <c r="D29" s="12">
-        <v>225</v>
-      </c>
-      <c r="E29" s="12">
-        <v>0.54916417900000003</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H29" s="12">
-        <v>0</v>
-      </c>
-      <c r="I29" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="13">
-        <v>28</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="12">
-        <v>35</v>
-      </c>
-      <c r="D30" s="12">
-        <v>169</v>
-      </c>
-      <c r="E30" s="12">
-        <v>0.54916417900000003</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" s="12">
-        <v>0</v>
-      </c>
-      <c r="I30" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="13">
-        <v>29</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="12">
-        <v>37</v>
-      </c>
-      <c r="D31" s="12">
-        <v>103</v>
-      </c>
-      <c r="E31" s="12">
-        <v>0.54916417900000003</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" s="12">
-        <v>0</v>
-      </c>
-      <c r="I31" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="13">
-        <v>30</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="12">
-        <v>39</v>
-      </c>
-      <c r="D32" s="12">
-        <v>50</v>
-      </c>
-      <c r="E32" s="12">
-        <v>0.54916417900000003</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H32" s="12">
-        <v>0</v>
-      </c>
-      <c r="I32" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="13">
-        <v>31</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="12">
-        <v>44</v>
-      </c>
-      <c r="D33" s="12">
-        <v>695</v>
-      </c>
-      <c r="E33" s="12">
-        <v>0.54916417900000003</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H33" s="12">
-        <v>0</v>
-      </c>
-      <c r="I33" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="13">
-        <v>32</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="12">
-        <v>46</v>
-      </c>
-      <c r="D34" s="12">
-        <v>332</v>
-      </c>
-      <c r="E34" s="12">
-        <v>0.54916417900000003</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34" s="12">
-        <v>0</v>
-      </c>
-      <c r="I34" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="13">
-        <v>33</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="12">
-        <v>47</v>
-      </c>
-      <c r="D35" s="12">
-        <v>332</v>
-      </c>
-      <c r="E35" s="12">
-        <v>0.54916417900000003</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H35" s="12">
-        <v>0</v>
-      </c>
-      <c r="I35" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="13">
-        <v>34</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="12">
-        <v>121</v>
-      </c>
-      <c r="D36" s="12">
-        <v>97</v>
-      </c>
-      <c r="E36" s="12">
-        <v>0.54916417900000003</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H36" s="12">
-        <v>0</v>
-      </c>
-      <c r="I36" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="13">
-        <v>35</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="12">
-        <v>7</v>
-      </c>
-      <c r="D37" s="12">
-        <v>1560</v>
-      </c>
-      <c r="E37" s="12">
-        <v>0.40862500000000002</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H37" s="12">
-        <v>0</v>
-      </c>
-      <c r="I37" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="13">
-        <v>36</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="12">
-        <v>28</v>
-      </c>
-      <c r="D38" s="12">
-        <v>600</v>
-      </c>
-      <c r="E38" s="12">
-        <v>0.40862500000000002</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H38" s="12">
-        <v>0</v>
-      </c>
-      <c r="I38" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="13">
-        <v>37</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="12">
-        <v>4</v>
-      </c>
-      <c r="D39" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="E39" s="12">
-        <v>0.77875000000000005</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H39" s="12">
-        <v>0</v>
-      </c>
-      <c r="I39" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="13">
-        <v>38</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="12">
-        <v>14</v>
-      </c>
-      <c r="D40" s="12">
-        <v>10</v>
-      </c>
-      <c r="E40" s="12">
-        <v>0.77875000000000005</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H40" s="12">
-        <v>0</v>
-      </c>
-      <c r="I40" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="13">
-        <v>39</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="12">
-        <v>32</v>
-      </c>
-      <c r="D41" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="E41" s="12">
-        <v>0.77875000000000005</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H41" s="12">
-        <v>0</v>
-      </c>
-      <c r="I41" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="13">
-        <v>40</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="12">
-        <v>34</v>
-      </c>
-      <c r="D42" s="12">
-        <v>11</v>
-      </c>
-      <c r="E42" s="12">
-        <v>0.77875000000000005</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H42" s="12">
-        <v>0</v>
-      </c>
-      <c r="I42" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="13">
-        <v>41</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="12">
-        <v>64</v>
-      </c>
-      <c r="D43" s="12">
-        <v>14</v>
-      </c>
-      <c r="E43" s="12">
-        <v>0.77875000000000005</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H43" s="12">
-        <v>0</v>
-      </c>
-      <c r="I43" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="13">
-        <v>42</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="12">
-        <v>33</v>
-      </c>
-      <c r="D44" s="12">
-        <v>485</v>
-      </c>
-      <c r="E44" s="12">
-        <v>0.33</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H44" s="12">
-        <v>0</v>
-      </c>
-      <c r="I44" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="13">
-        <v>43</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="12">
-        <v>25</v>
-      </c>
-      <c r="D45" s="12">
-        <v>24</v>
-      </c>
-      <c r="E45" s="12">
-        <v>0.373622642</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H45" s="12">
-        <v>0</v>
-      </c>
-      <c r="I45" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="13">
-        <v>44</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="12">
-        <v>35</v>
-      </c>
-      <c r="D46" s="12">
-        <v>375</v>
-      </c>
-      <c r="E46" s="12">
-        <v>0.373622642</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H46" s="12">
-        <v>0</v>
-      </c>
-      <c r="I46" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="13">
-        <v>45</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="12">
-        <v>47</v>
-      </c>
-      <c r="D47" s="12">
-        <v>350</v>
-      </c>
-      <c r="E47" s="12">
-        <v>0.373622642</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H47" s="12">
-        <v>0</v>
-      </c>
-      <c r="I47" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="13">
-        <v>46</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="12">
-        <v>0</v>
-      </c>
-      <c r="D48" s="12">
-        <v>251.8</v>
-      </c>
-      <c r="E48" s="12">
-        <v>1</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H48" s="12">
-        <v>0</v>
-      </c>
-      <c r="I48" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="13">
-        <v>47</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="12">
-        <v>1</v>
-      </c>
-      <c r="D49" s="12">
-        <v>195.4</v>
-      </c>
-      <c r="E49" s="12">
-        <v>1</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H49" s="12">
-        <v>0</v>
-      </c>
-      <c r="I49" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="13">
-        <v>48</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="12">
-        <v>2</v>
-      </c>
-      <c r="D50" s="12">
-        <v>414.72300000000001</v>
-      </c>
-      <c r="E50" s="12">
-        <v>1</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H50" s="12">
-        <v>0</v>
-      </c>
-      <c r="I50" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="13">
-        <v>49</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="12">
-        <v>3</v>
-      </c>
-      <c r="D51" s="12">
-        <v>266.00300000000004</v>
-      </c>
-      <c r="E51" s="12">
-        <v>1</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H51" s="12">
-        <v>0</v>
-      </c>
-      <c r="I51" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="13">
-        <v>50</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="12">
-        <v>4</v>
-      </c>
-      <c r="D52" s="12">
-        <v>476.73099999999994</v>
-      </c>
-      <c r="E52" s="12">
-        <v>1</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H52" s="12">
-        <v>0</v>
-      </c>
-      <c r="I52" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="13">
-        <v>51</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="12">
-        <v>5</v>
-      </c>
-      <c r="D53" s="12">
-        <v>56.78</v>
-      </c>
-      <c r="E53" s="12">
-        <v>1</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H53" s="12">
-        <v>0</v>
-      </c>
-      <c r="I53" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="13">
-        <v>52</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="12">
-        <v>6</v>
-      </c>
-      <c r="D54" s="12">
-        <v>12.59</v>
-      </c>
-      <c r="E54" s="12">
-        <v>1</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H54" s="12">
-        <v>0</v>
-      </c>
-      <c r="I54" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="13">
-        <v>53</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="12">
-        <v>7</v>
-      </c>
-      <c r="D55" s="12">
-        <v>3.8</v>
-      </c>
-      <c r="E55" s="12">
-        <v>1</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H55" s="12">
-        <v>0</v>
-      </c>
-      <c r="I55" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="13">
-        <v>54</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="12">
-        <v>10</v>
-      </c>
-      <c r="D56" s="12">
-        <v>0.84</v>
-      </c>
-      <c r="E56" s="12">
-        <v>1</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H56" s="12">
-        <v>0</v>
-      </c>
-      <c r="I56" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="13">
-        <v>55</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="12">
-        <v>11</v>
-      </c>
-      <c r="D57" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="E57" s="12">
-        <v>1</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H57" s="12">
-        <v>0</v>
-      </c>
-      <c r="I57" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="13">
-        <v>56</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="12">
-        <v>18</v>
-      </c>
-      <c r="D58" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="E58" s="12">
-        <v>1</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H58" s="12">
-        <v>0</v>
-      </c>
-      <c r="I58" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="13">
-        <v>57</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59" s="12">
-        <v>1</v>
-      </c>
-      <c r="D59" s="12">
-        <v>1130.5</v>
-      </c>
-      <c r="E59" s="12">
-        <v>1</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H59" s="12">
-        <v>0</v>
-      </c>
-      <c r="I59" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="13">
-        <v>58</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" s="12">
-        <v>2</v>
-      </c>
-      <c r="D60" s="12">
-        <v>752</v>
-      </c>
-      <c r="E60" s="12">
-        <v>1</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H60" s="12">
-        <v>0</v>
-      </c>
-      <c r="I60" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="13">
-        <v>59</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="12">
-        <v>5</v>
-      </c>
-      <c r="D61" s="12">
-        <v>600</v>
-      </c>
-      <c r="E61" s="12">
-        <v>1</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H61" s="12">
-        <v>0</v>
-      </c>
-      <c r="I61" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="13">
-        <v>60</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" s="12">
-        <v>6</v>
-      </c>
-      <c r="D62" s="12">
-        <v>144</v>
-      </c>
-      <c r="E62" s="12">
-        <v>1</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H62" s="12">
-        <v>0</v>
-      </c>
-      <c r="I62" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="13">
-        <v>61</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C63" s="12">
-        <v>7</v>
-      </c>
-      <c r="D63" s="12">
-        <v>129</v>
-      </c>
-      <c r="E63" s="12">
-        <v>1</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H63" s="12">
-        <v>0</v>
-      </c>
-      <c r="I63" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="13">
-        <v>62</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" s="12">
-        <v>14</v>
-      </c>
-      <c r="D64" s="12">
-        <v>228</v>
-      </c>
-      <c r="E64" s="12">
-        <v>1</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G64" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H64" s="12">
-        <v>0</v>
-      </c>
-      <c r="I64" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="13">
-        <v>63</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65" s="12">
-        <v>0</v>
-      </c>
-      <c r="D65" s="12">
-        <v>400</v>
-      </c>
-      <c r="E65" s="12">
-        <v>1</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G65" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H65" s="12">
-        <v>0</v>
-      </c>
-      <c r="I65" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="13">
-        <v>64</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C66" s="12">
-        <v>1</v>
-      </c>
-      <c r="D66" s="12">
-        <v>554.6</v>
-      </c>
-      <c r="E66" s="12">
-        <v>1</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H66" s="12">
-        <v>0</v>
-      </c>
-      <c r="I66" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="13">
-        <v>65</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67" s="12">
-        <v>2</v>
-      </c>
-      <c r="D67" s="12">
-        <v>577</v>
-      </c>
-      <c r="E67" s="12">
-        <v>1</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H67" s="12">
-        <v>0</v>
-      </c>
-      <c r="I67" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="13">
-        <v>66</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C68" s="12">
-        <v>3</v>
-      </c>
-      <c r="D68" s="12">
-        <v>102</v>
-      </c>
-      <c r="E68" s="12">
-        <v>1</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H68" s="12">
-        <v>0</v>
-      </c>
-      <c r="I68" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="13">
-        <v>67</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C69" s="12">
-        <v>4</v>
-      </c>
-      <c r="D69" s="12">
-        <v>50.4</v>
-      </c>
-      <c r="E69" s="12">
-        <v>1</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H69" s="12">
-        <v>0</v>
-      </c>
-      <c r="I69" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="13">
-        <v>68</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" s="12">
-        <v>5</v>
-      </c>
-      <c r="D70" s="12">
-        <v>429</v>
-      </c>
-      <c r="E70" s="12">
-        <v>1</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H70" s="12">
-        <v>0</v>
-      </c>
-      <c r="I70" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="13">
-        <v>69</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" s="12">
-        <v>7</v>
-      </c>
-      <c r="D71" s="12">
-        <v>63</v>
-      </c>
-      <c r="E71" s="12">
-        <v>1</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H71" s="12">
-        <v>0</v>
-      </c>
-      <c r="I71" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="13">
-        <v>70</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C72" s="12">
-        <v>9</v>
-      </c>
-      <c r="D72" s="12">
-        <v>122</v>
-      </c>
-      <c r="E72" s="12">
-        <v>1</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G72" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H72" s="12">
-        <v>0</v>
-      </c>
-      <c r="I72" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="13">
-        <v>71</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C73" s="12">
-        <v>14</v>
-      </c>
-      <c r="D73" s="12">
-        <v>138</v>
-      </c>
-      <c r="E73" s="12">
-        <v>1</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G73" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H73" s="12">
-        <v>0</v>
-      </c>
-      <c r="I73" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="13">
-        <v>72</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C74" s="12">
-        <v>15</v>
-      </c>
-      <c r="D74" s="12">
-        <v>42</v>
-      </c>
-      <c r="E74" s="12">
-        <v>1</v>
-      </c>
-      <c r="F74" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G74" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H74" s="12">
-        <v>0</v>
-      </c>
-      <c r="I74" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="14">
-        <v>73</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C75" s="12">
-        <v>16</v>
-      </c>
-      <c r="D75" s="12">
-        <v>75</v>
-      </c>
-      <c r="E75" s="12">
-        <v>1</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G75" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H75" s="12">
-        <v>0</v>
-      </c>
-      <c r="I75" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="13">
-        <v>74</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C76" s="12">
-        <v>24</v>
-      </c>
-      <c r="D76" s="12">
-        <v>18</v>
-      </c>
-      <c r="E76" s="12">
-        <v>1</v>
-      </c>
-      <c r="F76" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G76" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H76" s="12">
-        <v>0</v>
-      </c>
-      <c r="I76" s="12">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57815950-4DD1-4E72-A9E5-635C71BA4E55}">
   <dimension ref="A1:N101"/>
   <sheetViews>
@@ -44761,7 +43539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719169AB-033B-41B8-B3FB-5B066D00AEA9}">
   <dimension ref="A1:K31"/>
   <sheetViews>
@@ -45618,7 +44396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B88372-FD70-4A88-9C48-DBF8E6D97E61}">
   <dimension ref="A1:O30"/>
   <sheetViews>
@@ -46321,7 +45099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4198A0-7CB3-4BB1-94E1-721EECB3BDAC}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -46545,7 +45323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67609830-ACCB-49F0-B751-AE24D0F6CF61}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -48147,6 +46925,212 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C236E1-D8E8-4425-8C40-D6DF9FE09EF1}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A3:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="D4" s="4">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5" s="4">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.7679999999999969</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.56108109067455381</v>
+      </c>
+      <c r="D6" s="4">
+        <v>7586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="4">
+        <v>19.083333333333332</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.40202268255510093</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8501.9630099999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.44333333333333336</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>40.207000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="D10" s="4">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.37532581648522551</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>6789.9099999999989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>962.69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4236.9939999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4">
+        <v>12.04</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.65395793823452619</v>
+      </c>
+      <c r="D15" s="4">
+        <v>34397.532009999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAFC4957-C263-4562-A44D-8879B8EAAB8F}">
   <sheetPr>
@@ -48155,13 +47139,14 @@
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J1" sqref="A1:J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="29.6328125" customWidth="1"/>
     <col min="7" max="7" width="14.90625" customWidth="1"/>
+    <col min="10" max="10" width="17.08984375" customWidth="1"/>
     <col min="15" max="15" width="28.90625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
@@ -49937,15 +48922,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCA0DB4-82B5-4F45-9627-77778B586330}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="30.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -49987,17 +48972,17 @@
       <c r="A2" s="13">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="12">
-        <v>33</v>
-      </c>
-      <c r="D2" s="12">
-        <v>2103</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.37737080689029923</v>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4">
+        <v>631</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.42</v>
       </c>
       <c r="F2" s="12">
         <v>0.9</v>
@@ -50022,17 +49007,17 @@
       <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="12">
-        <v>22</v>
-      </c>
-      <c r="D3" s="12">
-        <v>2992</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0.47583333333333327</v>
+      <c r="B3" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C3" s="4">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.7679999999999969</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.3</v>
       </c>
       <c r="F3" s="12">
         <v>0.9</v>
@@ -50057,17 +49042,17 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="12">
-        <v>4</v>
-      </c>
-      <c r="D4" s="12">
-        <v>450</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0.46</v>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7586</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.56108109067455381</v>
       </c>
       <c r="F4" s="12">
         <v>0.9</v>
@@ -50092,17 +49077,17 @@
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="12">
-        <v>24</v>
-      </c>
-      <c r="D5" s="12">
-        <v>430</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.41</v>
+      <c r="B5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="4">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4">
+        <v>8501.9630099999995</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.40202268255510093</v>
       </c>
       <c r="F5" s="12">
         <v>0.9</v>
@@ -50127,20 +49112,20 @@
       <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="12">
-        <v>25</v>
-      </c>
-      <c r="D6" s="12">
-        <v>331</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0.42</v>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4060</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.44333333333333336</v>
       </c>
       <c r="F6" s="12">
-        <v>0.80000000000000016</v>
+        <v>0.9</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>40</v>
@@ -50162,20 +49147,20 @@
       <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="12">
-        <v>2</v>
-      </c>
-      <c r="D7" s="12">
-        <v>2141</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0.54804557405784404</v>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4">
+        <v>40.207000000000001</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
       </c>
       <c r="F7" s="12">
-        <v>0.90000000000000013</v>
+        <v>0.9</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>40</v>
@@ -50197,20 +49182,20 @@
       <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="12">
-        <v>3</v>
-      </c>
-      <c r="D8" s="12">
-        <v>1294</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0.58324574961360121</v>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4">
+        <v>484</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.34</v>
       </c>
       <c r="F8" s="12">
-        <v>0.89999999999999991</v>
+        <v>0.9</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>40</v>
@@ -50232,20 +49217,20 @@
       <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="12">
-        <v>6</v>
-      </c>
-      <c r="D9" s="12">
-        <v>1292</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0.58661764705882347</v>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4">
+        <v>39</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1103</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.37532581648522551</v>
       </c>
       <c r="F9" s="12">
-        <v>0.90000000000000013</v>
+        <v>0.9</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>40</v>
@@ -50267,17 +49252,17 @@
       <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="12">
-        <v>9</v>
-      </c>
-      <c r="D10" s="12">
-        <v>1721</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0.58600813480534575</v>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>6789.9099999999989</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
       </c>
       <c r="F10" s="12">
         <v>0.9</v>
@@ -50302,17 +49287,17 @@
       <c r="A11" s="13">
         <v>9</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12">
-        <v>10</v>
-      </c>
-      <c r="D11" s="12">
-        <v>1870</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0.59</v>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>962.69</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
       </c>
       <c r="F11" s="12">
         <v>0.9</v>
@@ -50337,17 +49322,17 @@
       <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12">
-        <v>22</v>
-      </c>
-      <c r="D12" s="12">
-        <v>2268</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0.5180678233438486</v>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4236.9939999999997</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
       </c>
       <c r="F12" s="12">
         <v>0.9</v>
@@ -50369,322 +49354,131 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="12">
-        <v>14</v>
-      </c>
-      <c r="D13" s="12">
-        <v>40.418999999999997</v>
-      </c>
-      <c r="E13" s="12">
-        <v>1</v>
-      </c>
-      <c r="F13" s="12">
-        <v>1</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0</v>
-      </c>
-      <c r="J13" s="12">
-        <v>0</v>
-      </c>
-      <c r="K13" s="12">
-        <v>0</v>
-      </c>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="13">
-        <v>12</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="12">
-        <v>1</v>
-      </c>
-      <c r="D14" s="12">
-        <v>2115.873</v>
-      </c>
-      <c r="E14" s="12">
-        <v>1</v>
-      </c>
-      <c r="F14" s="12">
-        <v>1</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="12">
-        <v>0</v>
-      </c>
-      <c r="J14" s="12">
-        <v>0</v>
-      </c>
-      <c r="K14" s="12">
-        <v>0</v>
-      </c>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="13">
-        <v>13</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="12">
-        <v>3</v>
-      </c>
-      <c r="D15" s="12">
-        <v>1800</v>
-      </c>
-      <c r="E15" s="12">
-        <v>1</v>
-      </c>
-      <c r="F15" s="12">
-        <v>1</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="12">
-        <v>0</v>
-      </c>
-      <c r="J15" s="12">
-        <v>0</v>
-      </c>
-      <c r="K15" s="12">
-        <v>0</v>
-      </c>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="13">
-        <v>14</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="12">
-        <v>14</v>
-      </c>
-      <c r="D16" s="12">
-        <v>3600</v>
-      </c>
-      <c r="E16" s="12">
-        <v>1</v>
-      </c>
-      <c r="F16" s="12">
-        <v>1</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0</v>
-      </c>
-      <c r="J16" s="12">
-        <v>0</v>
-      </c>
-      <c r="K16" s="12">
-        <v>0</v>
-      </c>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="13">
-        <v>15</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="12">
-        <v>13</v>
-      </c>
-      <c r="D17" s="12">
-        <v>484</v>
-      </c>
-      <c r="E17" s="12">
-        <v>0.34</v>
-      </c>
-      <c r="F17" s="12">
-        <v>0.94999999975000005</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="12">
-        <v>0</v>
-      </c>
-      <c r="J17" s="12">
-        <v>0</v>
-      </c>
-      <c r="K17" s="12">
-        <v>0</v>
-      </c>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="13">
-        <v>16</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="12">
-        <v>20</v>
-      </c>
-      <c r="D18" s="26">
-        <v>2300</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0.40862500000000002</v>
-      </c>
-      <c r="F18" s="12">
-        <v>1</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="12">
-        <v>0</v>
-      </c>
-      <c r="J18" s="12">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="13">
-        <v>17</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="12">
-        <v>10</v>
-      </c>
-      <c r="D19" s="26">
-        <v>2300</v>
-      </c>
-      <c r="E19" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="F19" s="12">
-        <v>1</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="12">
-        <v>0</v>
-      </c>
-      <c r="J19" s="12">
-        <v>0</v>
-      </c>
-      <c r="K19" s="12">
-        <v>0</v>
-      </c>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="13">
-        <v>18</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="12">
-        <v>30</v>
-      </c>
-      <c r="D20" s="12">
-        <v>15000</v>
-      </c>
-      <c r="E20" s="12">
-        <v>1</v>
-      </c>
-      <c r="F20" s="25">
-        <v>1</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="12">
-        <v>0</v>
-      </c>
-      <c r="J20" s="12">
-        <v>0</v>
-      </c>
-      <c r="K20" s="12">
-        <v>0</v>
-      </c>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="13">
-        <v>19</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="12">
-        <v>35</v>
-      </c>
-      <c r="D22" s="12">
-        <v>1000</v>
-      </c>
-      <c r="E22" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="F22" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" s="12">
-        <v>0</v>
-      </c>
-      <c r="J22" s="12">
-        <v>0</v>
-      </c>
-      <c r="K22" s="12">
-        <v>0</v>
-      </c>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="13"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -50696,7 +49490,7 @@
       <c r="J23" s="12"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="13"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -50708,7 +49502,7 @@
       <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="13"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -50720,7 +49514,7 @@
       <c r="J25" s="12"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="13"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -50732,7 +49526,7 @@
       <c r="J26" s="12"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="13"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -50744,7 +49538,7 @@
       <c r="J27" s="12"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="13"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -50756,7 +49550,7 @@
       <c r="J28" s="12"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="13"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -50768,7 +49562,7 @@
       <c r="J29" s="12"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="17"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -50780,7 +49574,7 @@
       <c r="J30" s="12"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="17"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -50791,6 +49585,38 @@
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
     </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{BCCA0DB4-82B5-4F45-9627-77778B586330}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J21">

--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402D0BB5-79D7-41AD-94D8-E1DDBF9D088D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045496BD-3344-4FA5-AD22-D99D372088C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12315" yWindow="-16350" windowWidth="29040" windowHeight="15840" tabRatio="971" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">dutchGermanPlants2015_from_emla!$A$1:$H$440</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">extendedDE!$B$1:$J$272</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">extendedDEmoreoptimal!$B$1:$J$193</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">groupedDecarbonizedNL!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">groupedDecarbonizedNL!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">groupedNL!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">groupedNLGAS!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">superGroupedNL!$A$1:$J$1</definedName>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3650" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="450">
   <si>
     <t>Technology</t>
   </si>
@@ -19913,7 +19913,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -19946,22 +19946,16 @@
         <v>3</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>436</v>
+        <v>4</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -19980,22 +19974,16 @@
       <c r="E2" s="4">
         <v>0.42</v>
       </c>
-      <c r="F2" s="11">
-        <v>0.9</v>
+      <c r="F2" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
       <c r="I2" s="11">
-        <v>0</v>
-      </c>
-      <c r="J2" s="11">
-        <v>0</v>
-      </c>
-      <c r="K2" s="11">
         <v>0</v>
       </c>
       <c r="M2" s="11" t="s">
@@ -20018,22 +20006,16 @@
       <c r="E3" s="4">
         <v>0.3</v>
       </c>
-      <c r="F3" s="11">
-        <v>0.9</v>
+      <c r="F3" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
       <c r="I3" s="11">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11">
-        <v>0</v>
-      </c>
-      <c r="K3" s="11">
         <v>0</v>
       </c>
     </row>
@@ -20053,22 +20035,16 @@
       <c r="E4" s="4">
         <v>0.56108109067455381</v>
       </c>
-      <c r="F4" s="11">
-        <v>0.9</v>
+      <c r="F4" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
       <c r="I4" s="11">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11">
-        <v>0</v>
-      </c>
-      <c r="K4" s="11">
         <v>0</v>
       </c>
     </row>
@@ -20088,22 +20064,16 @@
       <c r="E5" s="4">
         <v>0.40202268255510093</v>
       </c>
-      <c r="F5" s="11">
-        <v>0.9</v>
+      <c r="F5" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
       <c r="I5" s="11">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0</v>
-      </c>
-      <c r="K5" s="11">
         <v>0</v>
       </c>
     </row>
@@ -20123,22 +20093,16 @@
       <c r="E6" s="4">
         <v>0.37532581648522551</v>
       </c>
-      <c r="F6" s="11">
-        <v>0.9</v>
+      <c r="F6" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
       <c r="I6" s="11">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11">
-        <v>0</v>
-      </c>
-      <c r="K6" s="11">
         <v>0</v>
       </c>
     </row>
@@ -20158,22 +20122,16 @@
       <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="11">
-        <v>0.9</v>
+      <c r="F7" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
       <c r="I7" s="11">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11">
         <v>0</v>
       </c>
     </row>
@@ -20193,22 +20151,16 @@
       <c r="E8" s="4">
         <v>1</v>
       </c>
-      <c r="F8" s="11">
-        <v>0.9</v>
+      <c r="F8" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
       <c r="I8" s="11">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
-        <v>0</v>
-      </c>
-      <c r="K8" s="11">
         <v>0</v>
       </c>
     </row>
@@ -20228,22 +20180,16 @@
       <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="11">
-        <v>0.9</v>
+      <c r="F9" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
       <c r="I9" s="11">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
-        <v>0</v>
-      </c>
-      <c r="K9" s="11">
         <v>0</v>
       </c>
     </row>
@@ -20263,22 +20209,16 @@
       <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="F10" s="11">
-        <v>0.9</v>
+      <c r="F10" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
       <c r="I10" s="11">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11">
-        <v>0</v>
-      </c>
-      <c r="K10" s="11">
         <v>0</v>
       </c>
     </row>
@@ -20298,23 +20238,17 @@
       <c r="E11" s="11">
         <v>0.9</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
         <v>0.9</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="K11" s="11">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045496BD-3344-4FA5-AD22-D99D372088C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC634E0C-700D-405F-A0F3-18E12CF4A7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12315" yWindow="-16350" windowWidth="29040" windowHeight="15840" tabRatio="971" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16485" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="971" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="groupedNLGAS" sheetId="20" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3667" uniqueCount="451">
   <si>
     <t>Technology</t>
   </si>
@@ -1449,6 +1449,9 @@
   </si>
   <si>
     <t>data from TNO FLEXNET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">added results from first simulation </t>
   </si>
 </sst>
 </file>
@@ -1717,6 +1720,7 @@
           </cell>
         </row>
         <row r="3">
+          <cell r="A3"/>
           <cell r="B3" t="str">
             <v>Biomass_CHP_wood_pellets_PH</v>
           </cell>
@@ -1730,41 +1734,49 @@
           </cell>
         </row>
         <row r="5">
+          <cell r="A5"/>
           <cell r="B5" t="str">
             <v>CCGT_CHP_backpressure_DH</v>
           </cell>
         </row>
         <row r="6">
+          <cell r="A6"/>
           <cell r="B6" t="str">
             <v>CCGT_CHP_backpressure_PH</v>
           </cell>
         </row>
         <row r="7">
+          <cell r="A7"/>
           <cell r="B7" t="str">
             <v>CCS</v>
           </cell>
         </row>
         <row r="8">
+          <cell r="A8"/>
           <cell r="B8" t="str">
             <v>CSP_Parabolic</v>
           </cell>
         </row>
         <row r="9">
+          <cell r="A9"/>
           <cell r="B9" t="str">
             <v>CSP_Tower</v>
           </cell>
         </row>
         <row r="10">
+          <cell r="A10"/>
           <cell r="B10" t="str">
             <v>Hydrogen_to_Jet_Fuel</v>
           </cell>
         </row>
         <row r="11">
+          <cell r="A11"/>
           <cell r="B11" t="str">
             <v>Hydropower_ROR</v>
           </cell>
         </row>
         <row r="12">
+          <cell r="A12"/>
           <cell r="B12" t="str">
             <v>Hydropower_reservoir_large</v>
           </cell>
@@ -1778,6 +1790,7 @@
           </cell>
         </row>
         <row r="14">
+          <cell r="A14"/>
           <cell r="B14" t="str">
             <v>Hydropower_reservoir_small</v>
           </cell>
@@ -1791,11 +1804,13 @@
           </cell>
         </row>
         <row r="16">
+          <cell r="A16"/>
           <cell r="B16" t="str">
             <v>Nuclear_CHP_DH</v>
           </cell>
         </row>
         <row r="17">
+          <cell r="A17"/>
           <cell r="B17" t="str">
             <v>Nuclear_CHP_PH</v>
           </cell>
@@ -1809,16 +1824,19 @@
           </cell>
         </row>
         <row r="19">
+          <cell r="A19"/>
           <cell r="B19" t="str">
             <v>PEM_Electrolyzer</v>
           </cell>
         </row>
         <row r="20">
+          <cell r="A20"/>
           <cell r="B20" t="str">
             <v>PV_commercial_systems</v>
           </cell>
         </row>
         <row r="21">
+          <cell r="A21"/>
           <cell r="B21" t="str">
             <v>PV_residential</v>
           </cell>
@@ -1832,6 +1850,7 @@
           </cell>
         </row>
         <row r="23">
+          <cell r="A23"/>
           <cell r="B23" t="str">
             <v>Power_to_Jet_Fuel</v>
           </cell>
@@ -1853,16 +1872,19 @@
           </cell>
         </row>
         <row r="26">
+          <cell r="A26"/>
           <cell r="B26" t="str">
             <v>Wave_energy</v>
           </cell>
         </row>
         <row r="27">
+          <cell r="A27"/>
           <cell r="B27" t="str">
             <v>Lithium_ion_battery</v>
           </cell>
         </row>
         <row r="28">
+          <cell r="A28"/>
           <cell r="B28" t="str">
             <v>Pumped_hydro</v>
           </cell>
@@ -1892,38 +1914,38 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -19910,10 +19932,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -19968,22 +19990,22 @@
       <c r="C2" s="4">
         <v>25</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="5">
         <v>631</v>
       </c>
       <c r="E2" s="4">
         <v>0.42</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="11">
-        <v>0</v>
-      </c>
-      <c r="I2" s="11">
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
         <v>0</v>
       </c>
       <c r="M2" s="11" t="s">
@@ -20000,22 +20022,22 @@
       <c r="C3" s="4">
         <v>14</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="5">
         <v>1.7679999999999969</v>
       </c>
       <c r="E3" s="4">
         <v>0.3</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11">
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
         <v>0</v>
       </c>
     </row>
@@ -20029,22 +20051,22 @@
       <c r="C4" s="4">
         <v>9.5</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="5">
         <v>17000</v>
       </c>
       <c r="E4" s="4">
         <v>0.56108109067455381</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11">
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
         <v>0</v>
       </c>
     </row>
@@ -20058,22 +20080,22 @@
       <c r="C5" s="4">
         <v>19</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="5">
         <v>8501.9630099999995</v>
       </c>
       <c r="E5" s="4">
         <v>0.40202268255510093</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="11">
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
         <v>0</v>
       </c>
     </row>
@@ -20087,22 +20109,22 @@
       <c r="C6" s="4">
         <v>39</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="5">
         <v>4000</v>
       </c>
       <c r="E6" s="4">
         <v>0.37532581648522551</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="11">
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
         <v>0</v>
       </c>
     </row>
@@ -20116,22 +20138,22 @@
       <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="5">
         <v>50000</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
         <v>0</v>
       </c>
     </row>
@@ -20145,24 +20167,25 @@
       <c r="C8" s="4">
         <v>5</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="5">
         <v>30000</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11">
-        <v>0</v>
-      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="12">
@@ -20174,24 +20197,25 @@
       <c r="C9" s="4">
         <v>7</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="5">
         <v>5000</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11">
-        <v>0</v>
-      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="12">
@@ -20203,24 +20227,25 @@
       <c r="C10" s="4">
         <v>14</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="5">
         <v>40.207000000000001</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11">
-        <v>0</v>
-      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="12">
@@ -20229,27 +20254,222 @@
       <c r="B11" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="C11" s="11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
         <v>300</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="4">
         <v>0.9</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
         <v>0.9</v>
       </c>
+      <c r="J11" s="25"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="12">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4">
+        <f>C4+2</f>
+        <v>11.5</v>
+      </c>
+      <c r="D12" s="5">
+        <v>15000</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.56108109067455381</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="12">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4">
+        <f>C6+2</f>
+        <v>41</v>
+      </c>
+      <c r="D13" s="5">
+        <v>5700</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.37532581648522551</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="12">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4">
+        <f>C7+2</f>
+        <v>5</v>
+      </c>
+      <c r="D14" s="5">
+        <v>15050</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="12">
+        <v>36</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4">
+        <f>C8+2</f>
+        <v>7</v>
+      </c>
+      <c r="D15" s="5">
+        <v>15000</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="12">
+        <v>37</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4">
+        <f>C9+2</f>
+        <v>9</v>
+      </c>
+      <c r="D16" s="5">
+        <v>15000</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="12">
+        <v>39</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="C17" s="4">
+        <f>C11+2</f>
+        <v>2</v>
+      </c>
+      <c r="D17" s="5">
+        <v>7100</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="12"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{BCCA0DB4-82B5-4F45-9627-77778B586330}">

--- a/data/Power_plants.xlsx
+++ b/data/Power_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C735D828-C3AC-452B-9AA5-0FB91AA8EF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E237B609-38B7-4967-910B-17D04E1AE494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="971" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16485" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="971" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="groupedNLGAS" sheetId="20" r:id="rId1"/>
@@ -44,7 +44,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId16"/>
+    <pivotCache cacheId="1" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1679,10 +1679,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -1723,9 +1723,9 @@
       <sheetName val="TargetInvestorTargets"/>
       <sheetName val="YearlyTargets"/>
       <sheetName val="yearlyCO2"/>
+      <sheetName val="Potentials"/>
       <sheetName val="graphs"/>
       <sheetName val="CO2DE"/>
-      <sheetName val="Potentials"/>
       <sheetName val="Dismantled"/>
       <sheetName val="backup"/>
       <sheetName val="sources"/>
@@ -1926,38 +1926,38 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2579,7 +2579,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8EBABEF3-7A12-4A97-8F01-EC0882F5F9E8}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8EBABEF3-7A12-4A97-8F01-EC0882F5F9E8}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="O1:P13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -31176,8 +31176,8 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -34961,7 +34961,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="11"/>
-      <c r="O17" s="26" t="s">
+      <c r="O17" s="27" t="s">
         <v>448</v>
       </c>
     </row>
@@ -34997,7 +34997,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="11"/>
-      <c r="O18" s="26"/>
+      <c r="O18" s="27"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="11">
@@ -35031,7 +35031,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="11"/>
-      <c r="O19" s="26"/>
+      <c r="O19" s="27"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="11">
@@ -35065,7 +35065,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="11"/>
-      <c r="O20" s="26"/>
+      <c r="O20" s="27"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="11">
@@ -35099,7 +35099,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="11"/>
-      <c r="O21" s="26"/>
+      <c r="O21" s="27"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="11">
@@ -35133,7 +35133,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="11"/>
-      <c r="O22" s="26"/>
+      <c r="O22" s="27"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="11">
@@ -36105,18 +36105,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB94089A-EE04-4A8F-A9CF-12445972E5C2}">
   <dimension ref="A1:O190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="27"/>
+    <col min="1" max="1" width="8.7265625" style="26"/>
     <col min="10" max="10" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>458</v>
       </c>
       <c r="B1" t="s">
@@ -36154,7 +36154,7 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="27">
+      <c r="A2" s="26">
         <v>20</v>
       </c>
       <c r="B2" t="s">
@@ -36192,7 +36192,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="27">
+      <c r="A3" s="26">
         <v>21</v>
       </c>
       <c r="B3" t="s">
@@ -36227,7 +36227,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="27">
+      <c r="A4" s="26">
         <v>22</v>
       </c>
       <c r="B4" t="s">
@@ -36262,7 +36262,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <v>23</v>
       </c>
       <c r="B5" t="s">
@@ -36297,7 +36297,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="27">
+      <c r="A6" s="26">
         <v>24</v>
       </c>
       <c r="B6" t="s">
@@ -36332,7 +36332,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="27">
+      <c r="A7" s="26">
         <v>25</v>
       </c>
       <c r="B7" t="s">
@@ -36367,7 +36367,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="27">
+      <c r="A8" s="26">
         <v>26</v>
       </c>
       <c r="B8" t="s">
@@ -36402,7 +36402,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="27">
+      <c r="A9" s="26">
         <v>27</v>
       </c>
       <c r="B9" t="s">
@@ -36437,7 +36437,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="27">
+      <c r="A10" s="26">
         <v>28</v>
       </c>
       <c r="B10" t="s">
@@ -36472,7 +36472,7 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="27">
+      <c r="A11" s="26">
         <v>29</v>
       </c>
       <c r="B11" t="s">
@@ -36507,7 +36507,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="27">
+      <c r="A12" s="26">
         <v>30</v>
       </c>
       <c r="B12" t="s">
@@ -36542,7 +36542,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="27">
+      <c r="A13" s="26">
         <v>31</v>
       </c>
       <c r="B13" t="s">
@@ -36577,7 +36577,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="27">
+      <c r="A14" s="26">
         <v>32</v>
       </c>
       <c r="B14" t="s">
@@ -36612,7 +36612,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="27">
+      <c r="A15" s="26">
         <v>33</v>
       </c>
       <c r="B15" t="s">
@@ -36647,7 +36647,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="27">
+      <c r="A16" s="26">
         <v>34</v>
       </c>
       <c r="B16" t="s">
@@ -36682,7 +36682,7 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="27">
+      <c r="A17" s="26">
         <v>35</v>
       </c>
       <c r="B17" t="s">
@@ -36717,7 +36717,7 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="27">
+      <c r="A18" s="26">
         <v>36</v>
       </c>
       <c r="B18" t="s">
@@ -36752,7 +36752,7 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="27">
+      <c r="A19" s="26">
         <v>37</v>
       </c>
       <c r="B19" t="s">
@@ -36787,7 +36787,7 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="27">
+      <c r="A20" s="26">
         <v>38</v>
       </c>
       <c r="B20" t="s">
@@ -36822,7 +36822,7 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="27">
+      <c r="A21" s="26">
         <v>39</v>
       </c>
       <c r="B21" t="s">
@@ -36857,7 +36857,7 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="27">
+      <c r="A22" s="26">
         <v>40</v>
       </c>
       <c r="B22" t="s">
@@ -36892,7 +36892,7 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="27">
+      <c r="A23" s="26">
         <v>41</v>
       </c>
       <c r="B23" t="s">
@@ -36927,7 +36927,7 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="27">
+      <c r="A24" s="26">
         <v>42</v>
       </c>
       <c r="B24" t="s">
@@ -36962,7 +36962,7 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="27">
+      <c r="A25" s="26">
         <v>43</v>
       </c>
       <c r="B25" t="s">
@@ -36997,7 +36997,7 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="27">
+      <c r="A26" s="26">
         <v>44</v>
       </c>
       <c r="B26" t="s">
@@ -37032,7 +37032,7 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="27">
+      <c r="A27" s="26">
         <v>45</v>
       </c>
       <c r="B27" t="s">
@@ -37067,7 +37067,7 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="27">
+      <c r="A28" s="26">
         <v>46</v>
       </c>
       <c r="B28" t="s">
@@ -37099,7 +37099,7 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="27">
+      <c r="A29" s="26">
         <v>47</v>
       </c>
       <c r="B29" t="s">
@@ -37134,7 +37134,7 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="27">
+      <c r="A30" s="26">
         <v>48</v>
       </c>
       <c r="B30" t="s">
@@ -37169,7 +37169,7 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="27">
+      <c r="A31" s="26">
         <v>49</v>
       </c>
       <c r="B31" t="s">
@@ -37204,7 +37204,7 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="27">
+      <c r="A32" s="26">
         <v>50</v>
       </c>
       <c r="B32" t="s">
@@ -37239,7 +37239,7 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="27">
+      <c r="A33" s="26">
         <v>51</v>
       </c>
       <c r="B33" t="s">
@@ -37274,7 +37274,7 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="27">
+      <c r="A34" s="26">
         <v>52</v>
       </c>
       <c r="B34" t="s">
@@ -37309,7 +37309,7 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="27">
+      <c r="A35" s="26">
         <v>53</v>
       </c>
       <c r="B35" t="s">
@@ -37344,7 +37344,7 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="27">
+      <c r="A36" s="26">
         <v>54</v>
       </c>
       <c r="B36" t="s">
@@ -37379,7 +37379,7 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="27">
+      <c r="A37" s="26">
         <v>55</v>
       </c>
       <c r="B37" t="s">
@@ -37414,7 +37414,7 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="27">
+      <c r="A38" s="26">
         <v>56</v>
       </c>
       <c r="B38" t="s">
@@ -37449,7 +37449,7 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="27">
+      <c r="A39" s="26">
         <v>57</v>
       </c>
       <c r="B39" t="s">
@@ -37484,7 +37484,7 @@
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="27">
+      <c r="A40" s="26">
         <v>58</v>
       </c>
       <c r="B40" t="s">
@@ -37519,7 +37519,7 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="27">
+      <c r="A41" s="26">
         <v>59</v>
       </c>
       <c r="B41" t="s">
@@ -37554,7 +37554,7 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="27">
+      <c r="A42" s="26">
         <v>60</v>
       </c>
       <c r="B42" t="s">
@@ -37589,7 +37589,7 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="27">
+      <c r="A43" s="26">
         <v>61</v>
       </c>
       <c r="B43" t="s">
@@ -37624,7 +37624,7 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="27">
+      <c r="A44" s="26">
         <v>62</v>
       </c>
       <c r="B44" t="s">
@@ -37659,7 +37659,7 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="27">
+      <c r="A45" s="26">
         <v>63</v>
       </c>
       <c r="B45" t="s">
@@ -37694,7 +37694,7 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="27">
+      <c r="A46" s="26">
         <v>64</v>
       </c>
       <c r="B46" t="s">
@@ -37729,7 +37729,7 @@
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="27">
+      <c r="A47" s="26">
         <v>65</v>
       </c>
       <c r="B47" t="s">
@@ -37764,7 +37764,7 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="27">
+      <c r="A48" s="26">
         <v>66</v>
       </c>
       <c r="B48" t="s">
@@ -37799,7 +37799,7 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="27">
+      <c r="A49" s="26">
         <v>67</v>
       </c>
       <c r="B49" t="s">
@@ -37834,7 +37834,7 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="27">
+      <c r="A50" s="26">
         <v>68</v>
       </c>
       <c r="B50" t="s">
@@ -37869,7 +37869,7 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="27">
+      <c r="A51" s="26">
         <v>69</v>
       </c>
       <c r="B51" t="s">
@@ -37904,7 +37904,7 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="27">
+      <c r="A52" s="26">
         <v>70</v>
       </c>
       <c r="B52" t="s">
@@ -37939,7 +37939,7 @@
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="27">
+      <c r="A53" s="26">
         <v>71</v>
       </c>
       <c r="B53" t="s">
@@ -37974,7 +37974,7 @@
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="27">
+      <c r="A54" s="26">
         <v>72</v>
       </c>
       <c r="B54" t="s">
@@ -38009,7 +38009,7 @@
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="27">
+      <c r="A55" s="26">
         <v>73</v>
       </c>
       <c r="B55" t="s">
@@ -38044,7 +38044,7 @@
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="27">
+      <c r="A56" s="26">
         <v>74</v>
       </c>
       <c r="B56" t="s">
@@ -38079,7 +38079,7 @@
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="27">
+      <c r="A57" s="26">
         <v>75</v>
       </c>
       <c r="B57" t="s">
@@ -38114,7 +38114,7 @@
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="27">
+      <c r="A58" s="26">
         <v>76</v>
       </c>
       <c r="B58" t="s">
@@ -38149,7 +38149,7 @@
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="27">
+      <c r="A59" s="26">
         <v>77</v>
       </c>
       <c r="B59" t="s">
@@ -38184,7 +38184,7 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="27">
+      <c r="A60" s="26">
         <v>78</v>
       </c>
       <c r="B60" t="s">
@@ -38219,7 +38219,7 @@
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="27">
+      <c r="A61" s="26">
         <v>79</v>
       </c>
       <c r="B61" t="s">
@@ -38254,7 +38254,7 @@
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="27">
+      <c r="A62" s="26">
         <v>80</v>
       </c>
       <c r="B62" t="s">
@@ -38289,7 +38289,7 @@
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="27">
+      <c r="A63" s="26">
         <v>81</v>
       </c>
       <c r="B63" t="s">
@@ -38324,7 +38324,7 @@
       </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="27">
+      <c r="A64" s="26">
         <v>82</v>
       </c>
       <c r="B64" t="s">
@@ -38359,7 +38359,7 @@
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="27">
+      <c r="A65" s="26">
         <v>83</v>
       </c>
       <c r="B65" t="s">
@@ -38394,7 +38394,7 @@
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="27">
+      <c r="A66" s="26">
         <v>84</v>
       </c>
       <c r="B66" t="s">
@@ -38429,7 +38429,7 @@
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="27">
+      <c r="A67" s="26">
         <v>85</v>
       </c>
       <c r="B67" t="s">
@@ -38464,7 +38464,7 @@
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="27">
+      <c r="A68" s="26">
         <v>86</v>
       </c>
       <c r="B68" t="s">
@@ -38499,7 +38499,7 @@
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="27">
+      <c r="A69" s="26">
         <v>87</v>
       </c>
       <c r="B69" t="s">
@@ -38534,7 +38534,7 @@
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="27">
+      <c r="A70" s="26">
         <v>88</v>
       </c>
       <c r="B70" t="s">
@@ -38569,7 +38569,7 @@
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="27">
+      <c r="A71" s="26">
         <v>89</v>
       </c>
       <c r="B71" t="s">
@@ -38604,7 +38604,7 @@
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="27">
+      <c r="A72" s="26">
         <v>90</v>
       </c>
       <c r="B72" t="s">
@@ -38639,7 +38639,7 @@
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="27">
+      <c r="A73" s="26">
         <v>91</v>
       </c>
       <c r="B73" t="s">
@@ -38674,7 +38674,7 @@
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="27">
+      <c r="A74" s="26">
         <v>92</v>
       </c>
       <c r="B74" t="s">
@@ -38709,7 +38709,7 @@
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="27">
+      <c r="A75" s="26">
         <v>93</v>
       </c>
       <c r="B75" t="s">
@@ -38744,7 +38744,7 @@
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="27">
+      <c r="A76" s="26">
         <v>94</v>
       </c>
       <c r="B76" t="s">
@@ -38779,7 +38779,7 @@
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="27">
+      <c r="A77" s="26">
         <v>95</v>
       </c>
       <c r="B77" t="s">
@@ -38814,7 +38814,7 @@
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="27">
+      <c r="A78" s="26">
         <v>96</v>
       </c>
       <c r="B78" t="s">
@@ -38849,7 +38849,7 @@
       </c>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="27">
+      <c r="A79" s="26">
         <v>97</v>
       </c>
       <c r="B79" t="s">
@@ -38884,7 +38884,7 @@
       </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="27">
+      <c r="A80" s="26">
         <v>98</v>
       </c>
       <c r="B80" t="s">
@@ -38919,7 +38919,7 @@
       </c>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="27">
+      <c r="A81" s="26">
         <v>99</v>
       </c>
       <c r="B81" t="s">
@@ -38954,7 +38954,7 @@
       </c>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="27">
+      <c r="A82" s="26">
         <v>100</v>
       </c>
       <c r="B82" t="s">
@@ -38989,7 +38989,7 @@
       </c>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="27">
+      <c r="A83" s="26">
         <v>101</v>
       </c>
       <c r="B83" t="s">
@@ -39024,7 +39024,7 @@
       </c>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="27">
+      <c r="A84" s="26">
         <v>102</v>
       </c>
       <c r="B84" t="s">
@@ -39059,7 +39059,7 @@
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="27">
+      <c r="A85" s="26">
         <v>103</v>
       </c>
       <c r="B85" t="s">
@@ -39094,7 +39094,7 @@
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="27">
+      <c r="A86" s="26">
         <v>104</v>
       </c>
       <c r="B86" t="s">
@@ -39129,7 +39129,7 @@
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="27">
+      <c r="A87" s="26">
         <v>105</v>
       </c>
       <c r="B87" t="s">
@@ -39164,7 +39164,7 @@
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="27">
+      <c r="A88" s="26">
         <v>106</v>
       </c>
       <c r="B88" t="s">
@@ -39199,7 +39199,7 @@
       </c>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="27">
+      <c r="A89" s="26">
         <v>107</v>
       </c>
       <c r="B89" t="s">
@@ -39234,7 +39234,7 @@
       </c>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="27">
+      <c r="A90" s="26">
         <v>108</v>
       </c>
       <c r="B90" t="s">
@@ -39269,7 +39269,7 @@
       </c>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="27">
+      <c r="A91" s="26">
         <v>109</v>
       </c>
       <c r="B91" t="s">
@@ -39304,7 +39304,7 @@
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="27">
+      <c r="A92" s="26">
         <v>110</v>
       </c>
       <c r="B92" t="s">
@@ -39339,7 +39339,7 @@
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="27">
+      <c r="A93" s="26">
         <v>111</v>
       </c>
       <c r="B93" t="s">
@@ -39374,7 +39374,7 @@
       </c>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="27">
+      <c r="A94" s="26">
         <v>112</v>
       </c>
       <c r="B94" t="s">
@@ -39409,7 +39409,7 @@
       </c>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="27">
+      <c r="A95" s="26">
         <v>113</v>
       </c>
       <c r="B95" t="s">
@@ -39444,7 +39444,7 @@
       </c>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="27">
+      <c r="A96" s="26">
         <v>114</v>
       </c>
       <c r="B96" t="s">
@@ -39479,7 +39479,7 @@
       </c>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="27">
+      <c r="A97" s="26">
         <v>115</v>
       </c>
       <c r="B97" t="s">
@@ -39514,7 +39514,7 @@
       </c>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="27">
+      <c r="A98" s="26">
         <v>116</v>
       </c>
       <c r="B98" t="s">
@@ -39549,7 +39549,7 @@
       </c>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="27">
+      <c r="A99" s="26">
         <v>117</v>
       </c>
       <c r="B99" t="s">
@@ -39584,7 +39584,7 @@
       </c>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="27">
+      <c r="A100" s="26">
         <v>118</v>
       </c>
       <c r="B100" t="s">
@@ -39619,7 +39619,7 @@
       </c>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="27">
+      <c r="A101" s="26">
         <v>119</v>
       </c>
       <c r="B101" t="s">
@@ -39654,7 +39654,7 @@
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="27">
+      <c r="A102" s="26">
         <v>120</v>
       </c>
       <c r="B102" t="s">
@@ -39689,7 +39689,7 @@
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="27">
+      <c r="A103" s="26">
         <v>121</v>
       </c>
       <c r="B103" t="s">
@@ -39724,7 +39724,7 @@
       </c>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="27">
+      <c r="A104" s="26">
         <v>122</v>
       </c>
       <c r="B104" t="s">
@@ -39759,7 +39759,7 @@
       </c>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="27">
+      <c r="A105" s="26">
         <v>123</v>
       </c>
       <c r="B105" t="s">
@@ -39794,7 +39794,7 @@
       </c>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="27">
+      <c r="A106" s="26">
         <v>124</v>
       </c>
       <c r="B106" t="s">
@@ -39829,7 +39829,7 @@
       </c>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="27">
+      <c r="A107" s="26">
         <v>125</v>
       </c>
       <c r="B107" t="s">
@@ -39864,7 +39864,7 @@
       </c>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="27">
+      <c r="A108" s="26">
         <v>126</v>
       </c>
       <c r="B108" t="s">
@@ -39899,7 +39899,7 @@
       </c>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="27">
+      <c r="A109" s="26">
         <v>127</v>
       </c>
       <c r="B109" t="s">
@@ -39934,7 +39934,7 @@
       </c>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="27">
+      <c r="A110" s="26">
         <v>128</v>
       </c>
       <c r="B110" t="s">
@@ -39969,7 +39969,7 @@
       </c>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="27">
+      <c r="A111" s="26">
         <v>129</v>
       </c>
       <c r="B111" t="s">
@@ -40004,7 +40004,7 @@
       </c>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="27">
+      <c r="A112" s="26">
         <v>130</v>
       </c>
       <c r="B112" t="s">
@@ -40039,7 +40039,7 @@
       </c>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="27">
+      <c r="A113" s="26">
         <v>131</v>
       </c>
       <c r="B113" t="s">
@@ -40074,7 +40074,7 @@
       </c>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="27">
+      <c r="A114" s="26">
         <v>132</v>
       </c>
       <c r="B114" t="s">
@@ -40109,7 +40109,7 @@
       </c>
     </row>
     <row r="115" spans="1:11">
-      <c r="A115" s="27">
+      <c r="A115" s="26">
         <v>133</v>
       </c>
       <c r="B115" t="s">
@@ -40141,7 +40141,7 @@
       </c>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="27">
+      <c r="A116" s="26">
         <v>134</v>
       </c>
       <c r="B116" t="s">
@@ -40176,7 +40176,7 @@
       </c>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="27">
+      <c r="A117" s="26">
         <v>135</v>
       </c>
       <c r="B117" t="s">
@@ -40211,7 +40211,7 @@
       </c>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="27">
+      <c r="A118" s="26">
         <v>136</v>
       </c>
       <c r="B118" t="s">
@@ -40246,7 +40246,7 @@
       </c>
     </row>
     <row r="119" spans="1:11">
-      <c r="A119" s="27">
+      <c r="A119" s="26">
         <v>137</v>
       </c>
       <c r="B119" t="s">
@@ -40281,7 +40281,7 @@
       </c>
     </row>
     <row r="120" spans="1:11">
-      <c r="A120" s="27">
+      <c r="A120" s="26">
         <v>138</v>
       </c>
       <c r="B120" t="s">
@@ -40316,7 +40316,7 @@
       </c>
     </row>
     <row r="121" spans="1:11">
-      <c r="A121" s="27">
+      <c r="A121" s="26">
         <v>139</v>
       </c>
       <c r="B121" t="s">
@@ -40351,7 +40351,7 @@
       </c>
     </row>
     <row r="122" spans="1:11">
-      <c r="A122" s="27">
+      <c r="A122" s="26">
         <v>140</v>
       </c>
       <c r="B122" t="s">
@@ -40386,7 +40386,7 @@
       </c>
     </row>
     <row r="123" spans="1:11">
-      <c r="A123" s="27">
+      <c r="A123" s="26">
         <v>141</v>
       </c>
       <c r="B123" t="s">
@@ -40418,7 +40418,7 @@
       </c>
     </row>
     <row r="124" spans="1:11">
-      <c r="A124" s="27">
+      <c r="A124" s="26">
         <v>142</v>
       </c>
       <c r="B124" t="s">
@@ -40450,7 +40450,7 @@
       </c>
     </row>
     <row r="125" spans="1:11">
-      <c r="A125" s="27">
+      <c r="A125" s="26">
         <v>143</v>
       </c>
       <c r="B125" t="s">
@@ -40482,7 +40482,7 @@
       </c>
     </row>
     <row r="126" spans="1:11">
-      <c r="A126" s="27">
+      <c r="A126" s="26">
         <v>144</v>
       </c>
       <c r="B126" t="s">
@@ -40514,7 +40514,7 @@
       </c>
     </row>
     <row r="127" spans="1:11">
-      <c r="A127" s="27">
+      <c r="A127" s="26">
         <v>145</v>
       </c>
       <c r="B127" t="s">
@@ -40546,7 +40546,7 @@
       </c>
     </row>
     <row r="128" spans="1:11">
-      <c r="A128" s="27">
+      <c r="A128" s="26">
         <v>146</v>
       </c>
       <c r="B128" t="s">
@@ -40578,7 +40578,7 @@
       </c>
     </row>
     <row r="129" spans="1:10">
-      <c r="A129" s="27">
+      <c r="A129" s="26">
         <v>147</v>
       </c>
       <c r="B129" t="s">
@@ -40610,7 +40610,7 @@
       </c>
     </row>
     <row r="130" spans="1:10">
-      <c r="A130" s="27">
+      <c r="A130" s="26">
         <v>148</v>
       </c>
       <c r="B130" t="s">
@@ -40642,7 +40642,7 @@
       </c>
     </row>
     <row r="131" spans="1:10">
-      <c r="A131" s="27">
+      <c r="A131" s="26">
         <v>149</v>
       </c>
       <c r="B131" t="s">
@@ -40674,7 +40674,7 @@
       </c>
     </row>
     <row r="132" spans="1:10">
-      <c r="A132" s="27">
+      <c r="A132" s="26">
         <v>150</v>
       </c>
       <c r="B132" t="s">
@@ -40706,7 +40706,7 @@
       </c>
     </row>
     <row r="133" spans="1:10">
-      <c r="A133" s="27">
+      <c r="A133" s="26">
         <v>151</v>
       </c>
       <c r="B133" t="s">
@@ -40738,7 +40738,7 @@
       </c>
     </row>
     <row r="134" spans="1:10">
-      <c r="A134" s="27">
+      <c r="A134" s="26">
         <v>152</v>
       </c>
       <c r="B134" t="s">
@@ -40770,7 +40770,7 @@
       </c>
     </row>
     <row r="135" spans="1:10">
-      <c r="A135" s="27">
+      <c r="A135" s="26">
         <v>153</v>
       </c>
       <c r="B135" t="s">
@@ -40802,7 +40802,7 @@
       </c>
     </row>
     <row r="136" spans="1:10">
-      <c r="A136" s="27">
+      <c r="A136" s="26">
         <v>154</v>
       </c>
       <c r="B136" t="s">
@@ -40834,7 +40834,7 @@
       </c>
     </row>
     <row r="137" spans="1:10">
-      <c r="A137" s="27">
+      <c r="A137" s="26">
         <v>155</v>
       </c>
       <c r="B137" t="s">
@@ -40866,7 +40866,7 @@
       </c>
     </row>
     <row r="138" spans="1:10">
-      <c r="A138" s="27">
+      <c r="A138" s="26">
         <v>156</v>
       </c>
       <c r="B138" t="s">
@@ -40898,7 +40898,7 @@
       </c>
     </row>
     <row r="139" spans="1:10">
-      <c r="A139" s="27">
+      <c r="A139" s="26">
         <v>157</v>
       </c>
       <c r="B139" t="s">
@@ -40930,7 +40930,7 @@
       </c>
     </row>
     <row r="140" spans="1:10">
-      <c r="A140" s="27">
+      <c r="A140" s="26">
         <v>158</v>
       </c>
       <c r="B140" t="s">
@@ -40962,7 +40962,7 @@
       </c>
     </row>
     <row r="141" spans="1:10">
-      <c r="A141" s="27">
+      <c r="A141" s="26">
         <v>159</v>
       </c>
       <c r="B141" t="s">
@@ -40994,7 +40994,7 @@
       </c>
     </row>
     <row r="142" spans="1:10">
-      <c r="A142" s="27">
+      <c r="A142" s="26">
         <v>160</v>
       </c>
       <c r="B142" t="s">
@@ -41026,7 +41026,7 @@
       </c>
     </row>
     <row r="143" spans="1:10">
-      <c r="A143" s="27">
+      <c r="A143" s="26">
         <v>161</v>
       </c>
       <c r="B143" t="s">
@@ -41058,7 +41058,7 @@
       </c>
     </row>
     <row r="144" spans="1:10">
-      <c r="A144" s="27">
+      <c r="A144" s="26">
         <v>162</v>
       </c>
       <c r="B144" t="s">
@@ -41090,7 +41090,7 @@
       </c>
     </row>
     <row r="145" spans="1:11">
-      <c r="A145" s="27">
+      <c r="A145" s="26">
         <v>163</v>
       </c>
       <c r="B145" t="s">
@@ -41122,7 +41122,7 @@
       </c>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="27">
+      <c r="A146" s="26">
         <v>164</v>
       </c>
       <c r="B146" t="s">
@@ -41154,7 +41154,7 @@
       </c>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="27">
+      <c r="A147" s="26">
         <v>165</v>
       </c>
       <c r="B147" t="s">
@@ -41186,7 +41186,7 @@
       </c>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="27">
+      <c r="A148" s="26">
         <v>166</v>
       </c>
       <c r="B148" t="s">
@@ -41218,7 +41218,7 @@
       </c>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="27">
+      <c r="A149" s="26">
         <v>167</v>
       </c>
       <c r="B149" t="s">
@@ -41250,7 +41250,7 @@
       </c>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="27">
+      <c r="A150" s="26">
         <v>168</v>
       </c>
       <c r="B150" t="s">
@@ -41282,7 +41282,7 @@
       </c>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="27">
+      <c r="A151" s="26">
         <v>169</v>
       </c>
       <c r="B151" t="s">
@@ -41314,7 +41314,7 @@
       </c>
     </row>
     <row r="152" spans="1:11">
-      <c r="A152" s="27">
+      <c r="A152" s="26">
         <v>170</v>
       </c>
       <c r="B152" t="s">
@@ -41346,7 +41346,7 @@
       </c>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="27">
+      <c r="A153" s="26">
         <v>171</v>
       </c>
       <c r="B153" t="s">
@@ -41381,7 +41381,7 @@
       </c>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="27">
+      <c r="A154" s="26">
         <v>172</v>
       </c>
       <c r="B154" t="s">
@@ -41416,7 +41416,7 @@
       </c>
     </row>
     <row r="155" spans="1:11">
-      <c r="A155" s="27">
+      <c r="A155" s="26">
         <v>173</v>
       </c>
       <c r="B155" t="s">
@@ -41451,7 +41451,7 @@
       </c>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="27">
+      <c r="A156" s="26">
         <v>174</v>
       </c>
       <c r="B156" t="s">
@@ -41486,7 +41486,7 @@
       </c>
     </row>
     <row r="157" spans="1:11">
-      <c r="A157" s="27">
+      <c r="A157" s="26">
         <v>175</v>
       </c>
       <c r="B157" t="s">
@@ -41521,7 +41521,7 @@
       </c>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="27">
+      <c r="A158" s="26">
         <v>176</v>
       </c>
       <c r="B158" t="s">
@@ -41556,7 +41556,7 @@
       </c>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" s="27">
+      <c r="A159" s="26">
         <v>177</v>
       </c>
       <c r="B159" t="s">
@@ -41588,7 +41588,7 @@
       </c>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="27">
+      <c r="A160" s="26">
         <v>178</v>
       </c>
       <c r="B160" t="s">
@@ -41620,7 +41620,7 @@
       </c>
     </row>
     <row r="161" spans="1:10">
-      <c r="A161" s="27">
+      <c r="A161" s="26">
         <v>179</v>
       </c>
       <c r="B161" t="s">
@@ -41652,7 +41652,7 @@
       </c>
     </row>
     <row r="162" spans="1:10">
-      <c r="A162" s="27">
+      <c r="A162" s="26">
         <v>180</v>
       </c>
       <c r="B162" t="s">
@@ -41684,7 +41684,7 @@
       </c>
     </row>
     <row r="163" spans="1:10">
-      <c r="A163" s="27">
+      <c r="A163" s="26">
         <v>181</v>
       </c>
       <c r="B163" t="s">
@@ -41716,7 +41716,7 @@
       </c>
     </row>
     <row r="164" spans="1:10">
-      <c r="A164" s="27">
+      <c r="A164" s="26">
         <v>182</v>
       </c>
       <c r="B164" t="s">
@@ -41748,7 +41748,7 @@
       </c>
     </row>
     <row r="165" spans="1:10">
-      <c r="A165" s="27">
+      <c r="A165" s="26">
         <v>183</v>
       </c>
       <c r="B165" t="s">
@@ -41780,7 +41780,7 @@
       </c>
     </row>
     <row r="166" spans="1:10">
-      <c r="A166" s="27">
+      <c r="A166" s="26">
         <v>184</v>
       </c>
       <c r="B166" t="s">
@@ -41812,7 +41812,7 @@
       </c>
     </row>
     <row r="167" spans="1:10">
-      <c r="A167" s="27">
+      <c r="A167" s="26">
         <v>185</v>
       </c>
       <c r="B167" t="s">
@@ -41844,7 +41844,7 @@
       </c>
     </row>
     <row r="168" spans="1:10">
-      <c r="A168" s="27">
+      <c r="A168" s="26">
         <v>186</v>
       </c>
       <c r="B168" t="s">
@@ -41876,7 +41876,7 @@
       </c>
     </row>
     <row r="169" spans="1:10">
-      <c r="A169" s="27">
+      <c r="A169" s="26">
         <v>187</v>
       </c>
       <c r="B169" t="s">
@@ -41908,7 +41908,7 @@
       </c>
     </row>
     <row r="170" spans="1:10">
-      <c r="A170" s="27">
+      <c r="A170" s="26">
         <v>188</v>
       </c>
       <c r="B170" t="s">
@@ -41940,7 +41940,7 @@
       </c>
     </row>
     <row r="171" spans="1:10">
-      <c r="A171" s="27">
+      <c r="A171" s="26">
         <v>189</v>
       </c>
       <c r="B171" t="s">
@@ -41972,7 +41972,7 @@
       </c>
     </row>
     <row r="172" spans="1:10">
-      <c r="A172" s="27">
+      <c r="A172" s="26">
         <v>190</v>
       </c>
       <c r="B172" t="s">
@@ -42004,7 +42004,7 @@
       </c>
     </row>
     <row r="173" spans="1:10">
-      <c r="A173" s="27">
+      <c r="A173" s="26">
         <v>191</v>
       </c>
       <c r="B173" t="s">
@@ -42036,7 +42036,7 @@
       </c>
     </row>
     <row r="174" spans="1:10">
-      <c r="A174" s="27">
+      <c r="A174" s="26">
         <v>192</v>
       </c>
       <c r="B174" t="s">
@@ -42068,7 +42068,7 @@
       </c>
     </row>
     <row r="175" spans="1:10">
-      <c r="A175" s="27">
+      <c r="A175" s="26">
         <v>193</v>
       </c>
       <c r="B175" t="s">
@@ -42100,7 +42100,7 @@
       </c>
     </row>
     <row r="176" spans="1:10">
-      <c r="A176" s="27">
+      <c r="A176" s="26">
         <v>194</v>
       </c>
       <c r="B176" t="s">
@@ -42132,7 +42132,7 @@
       </c>
     </row>
     <row r="177" spans="1:10">
-      <c r="A177" s="27">
+      <c r="A177" s="26">
         <v>195</v>
       </c>
       <c r="B177" t="s">
@@ -42164,7 +42164,7 @@
       </c>
     </row>
     <row r="178" spans="1:10">
-      <c r="A178" s="27">
+      <c r="A178" s="26">
         <v>196</v>
       </c>
       <c r="B178" t="s">
@@ -42196,7 +42196,7 @@
       </c>
     </row>
     <row r="179" spans="1:10">
-      <c r="A179" s="27">
+      <c r="A179" s="26">
         <v>197</v>
       </c>
       <c r="B179" t="s">
@@ -42228,7 +42228,7 @@
       </c>
   